--- a/data2019/australian2019.xlsx
+++ b/data2019/australian2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Year 5\COMP 4801 FYP\codes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Year 5\COMP 4801 FYP\codes\data2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B483B083-9660-4941-ABA2-9A4CDAAE44EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B3087E-8164-494E-B48E-AF0100254E43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{2F9854E9-23D0-43BA-9DF8-05DA56D9128F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{2F9854E9-23D0-43BA-9DF8-05DA56D9128F}"/>
   </bookViews>
   <sheets>
     <sheet name="fastestlap" sheetId="3" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="totallaptimes" sheetId="9" r:id="rId5"/>
     <sheet name="lapdelta" sheetId="7" r:id="rId6"/>
     <sheet name="lapsundercut" sheetId="10" r:id="rId7"/>
+    <sheet name="weather" sheetId="11" r:id="rId8"/>
+    <sheet name="altitude" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="117">
   <si>
     <t>Pos.</t>
   </si>
@@ -378,6 +380,42 @@
   <si>
     <t>delta_position</t>
   </si>
+  <si>
+    <t>tyre_before</t>
+  </si>
+  <si>
+    <t>tyre_after</t>
+  </si>
+  <si>
+    <t>Skycondition</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Humidity</t>
+  </si>
+  <si>
+    <t>Wind speed</t>
+  </si>
+  <si>
+    <t>Wind bearing</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>78.61°F</t>
+  </si>
+  <si>
+    <t>12.16 mph</t>
+  </si>
+  <si>
+    <t>182°</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
 </sst>
 </file>
 
@@ -387,13 +425,19 @@
     <numFmt numFmtId="164" formatCode="mm:ss.000"/>
     <numFmt numFmtId="165" formatCode="hh:mm:ss.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.9"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -416,11 +460,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8402,9 +8453,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18896F0-13FF-4F21-9D1E-CDC6EE342C8B}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8415,9 +8468,11 @@
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -8439,8 +8494,14 @@
       <c r="G1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -8462,8 +8523,14 @@
       <c r="G2">
         <v>33.027000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
@@ -8485,8 +8552,14 @@
       <c r="G3">
         <v>21.626999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -8508,8 +8581,14 @@
       <c r="G4">
         <v>21.995000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7</v>
       </c>
@@ -8531,8 +8610,14 @@
       <c r="G5">
         <v>23.298999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8</v>
       </c>
@@ -8554,8 +8639,14 @@
       <c r="G6">
         <v>29.981000000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
@@ -8577,8 +8668,14 @@
       <c r="G7">
         <v>21.268999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>11</v>
       </c>
@@ -8600,8 +8697,14 @@
       <c r="G8">
         <v>23.234000000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>16</v>
       </c>
@@ -8623,8 +8726,14 @@
       <c r="G9">
         <v>22.306000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>18</v>
       </c>
@@ -8646,8 +8755,14 @@
       <c r="G10">
         <v>22.471</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>20</v>
       </c>
@@ -8669,8 +8784,14 @@
       <c r="G11">
         <v>22.388000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>23</v>
       </c>
@@ -8692,8 +8813,14 @@
       <c r="G12">
         <v>21.78</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>26</v>
       </c>
@@ -8715,8 +8842,14 @@
       <c r="G13">
         <v>22.085999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>27</v>
       </c>
@@ -8738,8 +8871,14 @@
       <c r="G14">
         <v>21.588000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>33</v>
       </c>
@@ -8761,8 +8900,14 @@
       <c r="G15">
         <v>21.157</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>44</v>
       </c>
@@ -8784,8 +8929,14 @@
       <c r="G16">
         <v>21.515000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>63</v>
       </c>
@@ -8807,8 +8958,14 @@
       <c r="G17">
         <v>21.689</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>63</v>
       </c>
@@ -8830,8 +8987,14 @@
       <c r="G18">
         <v>21.542999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>77</v>
       </c>
@@ -8853,8 +9016,14 @@
       <c r="G19">
         <v>22.013999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>88</v>
       </c>
@@ -8876,8 +9045,14 @@
       <c r="G20">
         <v>32.997</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>88</v>
       </c>
@@ -8899,8 +9074,14 @@
       <c r="G21">
         <v>22.343</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>88</v>
       </c>
@@ -8922,8 +9103,14 @@
       <c r="G22">
         <v>21.888999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>99</v>
       </c>
@@ -8944,6 +9131,12 @@
       </c>
       <c r="G23">
         <v>27.172000000000001</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -19568,4 +19761,91 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5848EC9-0E93-4D87-86BD-24E15CE667FD}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37782F63-6576-468A-B725-F9AB214A766B}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1">
+        <v>2.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data2019/australian2019.xlsx
+++ b/data2019/australian2019.xlsx
@@ -1,27 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Year 5\COMP 4801 FYP\codes\data2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B3087E-8164-494E-B48E-AF0100254E43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADFE6A4-9551-4A53-ADCE-FDCF863429FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{2F9854E9-23D0-43BA-9DF8-05DA56D9128F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="4" activeTab="11" xr2:uid="{2F9854E9-23D0-43BA-9DF8-05DA56D9128F}"/>
   </bookViews>
   <sheets>
     <sheet name="fastestlap" sheetId="3" r:id="rId1"/>
     <sheet name="lapchart" sheetId="1" r:id="rId2"/>
     <sheet name="laptimes" sheetId="5" r:id="rId3"/>
-    <sheet name="pitstop" sheetId="2" r:id="rId4"/>
-    <sheet name="totallaptimes" sheetId="9" r:id="rId5"/>
-    <sheet name="lapdelta" sheetId="7" r:id="rId6"/>
-    <sheet name="lapsundercut" sheetId="10" r:id="rId7"/>
-    <sheet name="weather" sheetId="11" r:id="rId8"/>
-    <sheet name="altitude" sheetId="12" r:id="rId9"/>
+    <sheet name="laptimedifference" sheetId="17" r:id="rId4"/>
+    <sheet name="pitstop" sheetId="2" r:id="rId5"/>
+    <sheet name="totallaptimes" sheetId="9" r:id="rId6"/>
+    <sheet name="lapdelta" sheetId="7" r:id="rId7"/>
+    <sheet name="lapsundercut" sheetId="10" r:id="rId8"/>
+    <sheet name="weather" sheetId="11" r:id="rId9"/>
+    <sheet name="altitude" sheetId="12" r:id="rId10"/>
+    <sheet name="finalstanding" sheetId="14" r:id="rId11"/>
+    <sheet name="compoundchange" sheetId="15" r:id="rId12"/>
+    <sheet name="raceclassification" sheetId="19" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="157">
   <si>
     <t>Pos.</t>
   </si>
@@ -416,16 +420,138 @@
   <si>
     <t>delta</t>
   </si>
+  <si>
+    <t>position_after_pit</t>
+  </si>
+  <si>
+    <t>initial_pos</t>
+  </si>
+  <si>
+    <t>final_pos</t>
+  </si>
+  <si>
+    <t>final_pos_gained</t>
+  </si>
+  <si>
+    <t>final_points</t>
+  </si>
+  <si>
+    <t>no_of_pits</t>
+  </si>
+  <si>
+    <t>tyre_grid</t>
+  </si>
+  <si>
+    <t>tyre_1</t>
+  </si>
+  <si>
+    <t>tyre_2</t>
+  </si>
+  <si>
+    <t>tyre_grid_distance</t>
+  </si>
+  <si>
+    <t>tyre_1_distance</t>
+  </si>
+  <si>
+    <t>tyre_2_distance</t>
+  </si>
+  <si>
+    <t>Pos</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>DNF</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>Nat</t>
+  </si>
+  <si>
+    <t>Laps</t>
+  </si>
+  <si>
+    <t>Interval</t>
+  </si>
+  <si>
+    <t>Kph</t>
+  </si>
+  <si>
+    <t>Best</t>
+  </si>
+  <si>
+    <t>Great Britain</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>1 Lap</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>2 Laps</t>
+  </si>
+  <si>
+    <t>3 Laps</t>
+  </si>
+  <si>
+    <t>total_time</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="mm:ss.000"/>
     <numFmt numFmtId="165" formatCode="hh:mm:ss.000"/>
+    <numFmt numFmtId="166" formatCode="h:mm:ss.000"/>
+    <numFmt numFmtId="167" formatCode="h\.mm\.ss.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,16 +565,40 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -456,11 +606,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -472,8 +639,15 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1287,12 +1461,2223 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37782F63-6576-468A-B725-F9AB214A766B}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1">
+        <v>2.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC55A26-1516-4593-AF43-B317A3538C01}">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="10.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>77</v>
+      </c>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>44</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>33</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>16</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>27</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>18</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>26</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>23</v>
+      </c>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>99</v>
+      </c>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>63</v>
+      </c>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>88</v>
+      </c>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21">
+        <v>55</v>
+      </c>
+      <c r="K21" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16BA3356-DD4D-4A4F-9892-81676E4F3A8C}">
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <f>MATCH(A2,lapchart!$B$2:$U$2,0)</f>
+        <v>12</v>
+      </c>
+      <c r="C2" t="str">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A2,finalstanding!B:B,0))</f>
+        <v>DNF</v>
+      </c>
+      <c r="D2">
+        <f>COUNTIF(pitstop!A:A, A2)</f>
+        <v>1</v>
+      </c>
+      <c r="E2" cm="1">
+        <f t="array" ref="E2">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A2,ROW(pitstop!A:A),""),COLUMNS($E$1:E1))),"")</f>
+        <v>4</v>
+      </c>
+      <c r="F2" cm="1">
+        <f t="array" ref="F2">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A2,ROW(pitstop!A:A),""),COLUMNS($E$1:F1))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A2,ROW(pitstop!A:A),""),COLUMNS($E$1:E1)))),"")</f>
+        <v>2</v>
+      </c>
+      <c r="G2" cm="1">
+        <f t="array" ref="G2">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A2,ROW(pitstop!A:A),""),COLUMNS($E$1:F1))),F2)</f>
+        <v>2</v>
+      </c>
+      <c r="H2" cm="1">
+        <f t="array" ref="H2">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A2,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>1</v>
+      </c>
+      <c r="I2" cm="1">
+        <f t="array" ref="I2">IFERROR(IF(D2=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H2,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A2=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H2),"")</f>
+        <v>57</v>
+      </c>
+      <c r="J2" cm="1">
+        <f t="array" ref="J2">IFERROR(IF(D2=1,0,IF(D2=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H2-I2,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A2=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H2-I2)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="str">
+        <f>IFERROR((C2-B2)*-1,"")</f>
+        <v/>
+      </c>
+      <c r="M2">
+        <f>IF(C2=1,25,IF(C2=2,18,IF(C2=3,15,IF(C2=4,12,IF(C2=5,10,IF(C2=6,8,IF(C2=7,6,IF(C2=8,4,IF(C2=9,2,IF(C2=10,1,0))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="11">
+        <f>VLOOKUP(A2,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A2,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A2,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A2,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>3.0084745370370369E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <f>MATCH(A3,lapchart!$B$2:$U$2,0)</f>
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A3,finalstanding!B:B,0))</f>
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <f>COUNTIF(pitstop!A:A, A3)</f>
+        <v>1</v>
+      </c>
+      <c r="E3" cm="1">
+        <f t="array" ref="E3">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A3,ROW(pitstop!A:A),""),COLUMNS($E$1:E2))),"")</f>
+        <v>4</v>
+      </c>
+      <c r="F3" cm="1">
+        <f t="array" ref="F3">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A3,ROW(pitstop!A:A),""),COLUMNS($E$1:F2))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A3,ROW(pitstop!A:A),""),COLUMNS($E$1:E2)))),"")</f>
+        <v>2</v>
+      </c>
+      <c r="G3" cm="1">
+        <f t="array" ref="G3">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A3,ROW(pitstop!A:A),""),COLUMNS($E$1:F2))),F3)</f>
+        <v>2</v>
+      </c>
+      <c r="H3" cm="1">
+        <f t="array" ref="H3">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A3,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>15</v>
+      </c>
+      <c r="I3" cm="1">
+        <f t="array" ref="I3">IFERROR(IF(D3=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H3,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A3=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H3),"")</f>
+        <v>43</v>
+      </c>
+      <c r="J3" cm="1">
+        <f t="array" ref="J3">IFERROR(IF(D3=1,0,IF(D3=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H3-I3,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A3=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H3-I3)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>IFERROR((C3-B3)*-1,"")</f>
+        <v>-4</v>
+      </c>
+      <c r="M3">
+        <f>IF(C3=1,25,IF(C3=2,18,IF(C3=3,15,IF(C3=4,12,IF(C3=5,10,IF(C3=6,8,IF(C3=7,6,IF(C3=8,4,IF(C3=9,2,IF(C3=10,1,0))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="11">
+        <f>VLOOKUP(A3,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A3,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A3,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A3,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>6.1287719907407417E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <f>MATCH(A4,lapchart!$B$2:$U$2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A4,finalstanding!B:B,0))</f>
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <f>COUNTIF(pitstop!A:A, A4)</f>
+        <v>1</v>
+      </c>
+      <c r="E4" cm="1">
+        <f t="array" ref="E4">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A4,ROW(pitstop!A:A),""),COLUMNS($E$1:E3))),"")</f>
+        <v>4</v>
+      </c>
+      <c r="F4" cm="1">
+        <f t="array" ref="F4">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A4,ROW(pitstop!A:A),""),COLUMNS($E$1:F3))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A4,ROW(pitstop!A:A),""),COLUMNS($E$1:E3)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G4" cm="1">
+        <f t="array" ref="G4">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A4,ROW(pitstop!A:A),""),COLUMNS($E$1:F3))),F4)</f>
+        <v>3</v>
+      </c>
+      <c r="H4" cm="1">
+        <f t="array" ref="H4">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A4,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>14</v>
+      </c>
+      <c r="I4" cm="1">
+        <f t="array" ref="I4">IFERROR(IF(D4=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H4,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A4=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H4),"")</f>
+        <v>44</v>
+      </c>
+      <c r="J4" cm="1">
+        <f t="array" ref="J4">IFERROR(IF(D4=1,0,IF(D4=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H4-I4,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A4=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H4-I4)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f>IFERROR((C4-B4)*-1,"")</f>
+        <v>-1</v>
+      </c>
+      <c r="M4">
+        <f>IF(C4=1,25,IF(C4=2,18,IF(C4=3,15,IF(C4=4,12,IF(C4=5,10,IF(C4=6,8,IF(C4=7,6,IF(C4=8,4,IF(C4=9,2,IF(C4=10,1,0))))))))))</f>
+        <v>12</v>
+      </c>
+      <c r="N4" s="11">
+        <f>VLOOKUP(A4,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A4,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A4,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A4,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>6.0005023148148151E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <f>MATCH(A5,lapchart!$B$2:$U$2,0)</f>
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A5,finalstanding!B:B,0))</f>
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <f>COUNTIF(pitstop!A:A, A5)</f>
+        <v>1</v>
+      </c>
+      <c r="E5" cm="1">
+        <f t="array" ref="E5">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A5,ROW(pitstop!A:A),""),COLUMNS($E$1:E4))),"")</f>
+        <v>4</v>
+      </c>
+      <c r="F5" cm="1">
+        <f t="array" ref="F5">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A5,ROW(pitstop!A:A),""),COLUMNS($E$1:F4))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A5,ROW(pitstop!A:A),""),COLUMNS($E$1:E4)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G5" cm="1">
+        <f t="array" ref="G5">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A5,ROW(pitstop!A:A),""),COLUMNS($E$1:F4))),F5)</f>
+        <v>3</v>
+      </c>
+      <c r="H5" cm="1">
+        <f t="array" ref="H5">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A5,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>12</v>
+      </c>
+      <c r="I5" cm="1">
+        <f t="array" ref="I5">IFERROR(IF(D5=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H5,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A5=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H5),"")</f>
+        <v>46</v>
+      </c>
+      <c r="J5" cm="1">
+        <f t="array" ref="J5">IFERROR(IF(D5=1,0,IF(D5=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H5-I5,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A5=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H5-I5)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f>IFERROR((C5-B5)*-1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <f>IF(C5=1,25,IF(C5=2,18,IF(C5=3,15,IF(C5=4,12,IF(C5=5,10,IF(C5=6,8,IF(C5=7,6,IF(C5=8,4,IF(C5=9,2,IF(C5=10,1,0))))))))))</f>
+        <v>4</v>
+      </c>
+      <c r="N5" s="11">
+        <f>VLOOKUP(A5,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A5,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A5,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A5,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>6.0806817129629633E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <f>MATCH(A6,lapchart!$B$2:$U$2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="C6" t="str">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A6,finalstanding!B:B,0))</f>
+        <v>DNF</v>
+      </c>
+      <c r="D6">
+        <f>COUNTIF(pitstop!A:A, A6)</f>
+        <v>1</v>
+      </c>
+      <c r="E6" cm="1">
+        <f t="array" ref="E6">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A6,ROW(pitstop!A:A),""),COLUMNS($E$1:E5))),"")</f>
+        <v>4</v>
+      </c>
+      <c r="F6" cm="1">
+        <f t="array" ref="F6">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A6,ROW(pitstop!A:A),""),COLUMNS($E$1:F5))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A6,ROW(pitstop!A:A),""),COLUMNS($E$1:E5)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G6" cm="1">
+        <f t="array" ref="G6">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A6,ROW(pitstop!A:A),""),COLUMNS($E$1:F5))),F6)</f>
+        <v>3</v>
+      </c>
+      <c r="H6" cm="1">
+        <f t="array" ref="H6">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A6,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>15</v>
+      </c>
+      <c r="I6" cm="1">
+        <f t="array" ref="I6">IFERROR(IF(D6=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H6,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A6=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H6),"")</f>
+        <v>43</v>
+      </c>
+      <c r="J6" cm="1">
+        <f t="array" ref="J6">IFERROR(IF(D6=1,0,IF(D6=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H6-I6,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A6=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H6-I6)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="str">
+        <f>IFERROR((C6-B6)*-1,"")</f>
+        <v/>
+      </c>
+      <c r="M6">
+        <f>IF(C6=1,25,IF(C6=2,18,IF(C6=3,15,IF(C6=4,12,IF(C6=5,10,IF(C6=6,8,IF(C6=7,6,IF(C6=8,4,IF(C6=9,2,IF(C6=10,1,0))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="11">
+        <f>VLOOKUP(A6,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A6,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A6,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A6,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>3.0785902777777777E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <f>MATCH(A7,lapchart!$B$2:$U$2,0)</f>
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A7,finalstanding!B:B,0))</f>
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <f>COUNTIF(pitstop!A:A, A7)</f>
+        <v>1</v>
+      </c>
+      <c r="E7" cm="1">
+        <f t="array" ref="E7">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A7,ROW(pitstop!A:A),""),COLUMNS($E$1:E6))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="F7" cm="1">
+        <f t="array" ref="F7">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A7,ROW(pitstop!A:A),""),COLUMNS($E$1:F6))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A7,ROW(pitstop!A:A),""),COLUMNS($E$1:E6)))),"")</f>
+        <v>4</v>
+      </c>
+      <c r="G7" cm="1">
+        <f t="array" ref="G7">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A7,ROW(pitstop!A:A),""),COLUMNS($E$1:F6))),F7)</f>
+        <v>4</v>
+      </c>
+      <c r="H7" cm="1">
+        <f t="array" ref="H7">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A7,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>37</v>
+      </c>
+      <c r="I7" cm="1">
+        <f t="array" ref="I7">IFERROR(IF(D7=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H7,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A7=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H7),"")</f>
+        <v>21</v>
+      </c>
+      <c r="J7" cm="1">
+        <f t="array" ref="J7">IFERROR(IF(D7=1,0,IF(D7=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H7-I7,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A7=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H7-I7)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f>IFERROR((C7-B7)*-1,"")</f>
+        <v>6</v>
+      </c>
+      <c r="M7">
+        <f>IF(C7=1,25,IF(C7=2,18,IF(C7=3,15,IF(C7=4,12,IF(C7=5,10,IF(C7=6,8,IF(C7=7,6,IF(C7=8,4,IF(C7=9,2,IF(C7=10,1,0))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="11">
+        <f>VLOOKUP(A7,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A7,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A7,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A7,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>6.0827488425925925E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <f>MATCH(A8,lapchart!$B$2:$U$2,0)</f>
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A8,finalstanding!B:B,0))</f>
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <f>COUNTIF(pitstop!A:A, A8)</f>
+        <v>1</v>
+      </c>
+      <c r="E8" cm="1">
+        <f t="array" ref="E8">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A8,ROW(pitstop!A:A),""),COLUMNS($E$1:E7))),"")</f>
+        <v>4</v>
+      </c>
+      <c r="F8" cm="1">
+        <f t="array" ref="F8">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A8,ROW(pitstop!A:A),""),COLUMNS($E$1:F7))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A8,ROW(pitstop!A:A),""),COLUMNS($E$1:E7)))),"")</f>
+        <v>2</v>
+      </c>
+      <c r="G8" cm="1">
+        <f t="array" ref="G8">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A8,ROW(pitstop!A:A),""),COLUMNS($E$1:F7))),F8)</f>
+        <v>2</v>
+      </c>
+      <c r="H8" cm="1">
+        <f t="array" ref="H8">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A8,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>13</v>
+      </c>
+      <c r="I8" cm="1">
+        <f t="array" ref="I8">IFERROR(IF(D8=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H8,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A8=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H8),"")</f>
+        <v>45</v>
+      </c>
+      <c r="J8" cm="1">
+        <f t="array" ref="J8">IFERROR(IF(D8=1,0,IF(D8=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H8-I8,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A8=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H8-I8)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f>IFERROR((C8-B8)*-1,"")</f>
+        <v>-3</v>
+      </c>
+      <c r="M8">
+        <f>IF(C8=1,25,IF(C8=2,18,IF(C8=3,15,IF(C8=4,12,IF(C8=5,10,IF(C8=6,8,IF(C8=7,6,IF(C8=8,4,IF(C8=9,2,IF(C8=10,1,0))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="11">
+        <f>VLOOKUP(A8,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A8,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A8,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A8,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>6.1293854166666668E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <f>MATCH(A9,lapchart!$B$2:$U$2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A9,finalstanding!B:B,0))</f>
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <f>COUNTIF(pitstop!A:A, A9)</f>
+        <v>1</v>
+      </c>
+      <c r="E9" cm="1">
+        <f t="array" ref="E9">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A9,ROW(pitstop!A:A),""),COLUMNS($E$1:E8))),"")</f>
+        <v>4</v>
+      </c>
+      <c r="F9" cm="1">
+        <f t="array" ref="F9">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A9,ROW(pitstop!A:A),""),COLUMNS($E$1:F8))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A9,ROW(pitstop!A:A),""),COLUMNS($E$1:E8)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G9" cm="1">
+        <f t="array" ref="G9">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A9,ROW(pitstop!A:A),""),COLUMNS($E$1:F8))),F9)</f>
+        <v>3</v>
+      </c>
+      <c r="H9" cm="1">
+        <f t="array" ref="H9">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A9,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>28</v>
+      </c>
+      <c r="I9" cm="1">
+        <f t="array" ref="I9">IFERROR(IF(D9=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H9,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A9=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H9),"")</f>
+        <v>30</v>
+      </c>
+      <c r="J9" cm="1">
+        <f t="array" ref="J9">IFERROR(IF(D9=1,0,IF(D9=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H9-I9,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A9=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H9-I9)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f>IFERROR((C9-B9)*-1,"")</f>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f>IF(C9=1,25,IF(C9=2,18,IF(C9=3,15,IF(C9=4,12,IF(C9=5,10,IF(C9=6,8,IF(C9=7,6,IF(C9=8,4,IF(C9=9,2,IF(C9=10,1,0))))))))))</f>
+        <v>10</v>
+      </c>
+      <c r="N9" s="11">
+        <f>VLOOKUP(A9,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A9,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A9,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A9,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>6.0017997685185183E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <f>MATCH(A10,lapchart!$B$2:$U$2,0)</f>
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A10,finalstanding!B:B,0))</f>
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <f>COUNTIF(pitstop!A:A, A10)</f>
+        <v>1</v>
+      </c>
+      <c r="E10" cm="1">
+        <f t="array" ref="E10">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A10,ROW(pitstop!A:A),""),COLUMNS($E$1:E9))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="F10" cm="1">
+        <f t="array" ref="F10">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A10,ROW(pitstop!A:A),""),COLUMNS($E$1:F9))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A10,ROW(pitstop!A:A),""),COLUMNS($E$1:E9)))),"")</f>
+        <v>2</v>
+      </c>
+      <c r="G10" cm="1">
+        <f t="array" ref="G10">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A10,ROW(pitstop!A:A),""),COLUMNS($E$1:F9))),F10)</f>
+        <v>2</v>
+      </c>
+      <c r="H10" cm="1">
+        <f t="array" ref="H10">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A10,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>27</v>
+      </c>
+      <c r="I10" cm="1">
+        <f t="array" ref="I10">IFERROR(IF(D10=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H10,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A10=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H10),"")</f>
+        <v>31</v>
+      </c>
+      <c r="J10" cm="1">
+        <f t="array" ref="J10">IFERROR(IF(D10=1,0,IF(D10=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H10-I10,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A10=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H10-I10)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f>IFERROR((C10-B10)*-1,"")</f>
+        <v>7</v>
+      </c>
+      <c r="M10">
+        <f>IF(C10=1,25,IF(C10=2,18,IF(C10=3,15,IF(C10=4,12,IF(C10=5,10,IF(C10=6,8,IF(C10=7,6,IF(C10=8,4,IF(C10=9,2,IF(C10=10,1,0))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="N10" s="11">
+        <f>VLOOKUP(A10,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A10,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A10,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A10,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>6.0815520833333338E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <f>MATCH(A11,lapchart!$B$2:$U$2,0)</f>
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A11,finalstanding!B:B,0))</f>
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <f>COUNTIF(pitstop!A:A, A11)</f>
+        <v>1</v>
+      </c>
+      <c r="E11" cm="1">
+        <f t="array" ref="E11">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A11,ROW(pitstop!A:A),""),COLUMNS($E$1:E10))),"")</f>
+        <v>4</v>
+      </c>
+      <c r="F11" cm="1">
+        <f t="array" ref="F11">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A11,ROW(pitstop!A:A),""),COLUMNS($E$1:F10))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A11,ROW(pitstop!A:A),""),COLUMNS($E$1:E10)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G11" cm="1">
+        <f t="array" ref="G11">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A11,ROW(pitstop!A:A),""),COLUMNS($E$1:F10))),F11)</f>
+        <v>3</v>
+      </c>
+      <c r="H11" cm="1">
+        <f t="array" ref="H11">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A11,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>14</v>
+      </c>
+      <c r="I11" cm="1">
+        <f t="array" ref="I11">IFERROR(IF(D11=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H11,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A11=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H11),"")</f>
+        <v>44</v>
+      </c>
+      <c r="J11" cm="1">
+        <f t="array" ref="J11">IFERROR(IF(D11=1,0,IF(D11=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H11-I11,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A11=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H11-I11)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f>IFERROR((C11-B11)*-1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <f>IF(C11=1,25,IF(C11=2,18,IF(C11=3,15,IF(C11=4,12,IF(C11=5,10,IF(C11=6,8,IF(C11=7,6,IF(C11=8,4,IF(C11=9,2,IF(C11=10,1,0))))))))))</f>
+        <v>8</v>
+      </c>
+      <c r="N11" s="11">
+        <f>VLOOKUP(A11,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A11,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A11,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A11,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>6.035278935185185E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <f>MATCH(A12,lapchart!$B$2:$U$2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A12,finalstanding!B:B,0))</f>
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <f>COUNTIF(pitstop!A:A, A12)</f>
+        <v>1</v>
+      </c>
+      <c r="E12" cm="1">
+        <f t="array" ref="E12">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A12,ROW(pitstop!A:A),""),COLUMNS($E$1:E11))),"")</f>
+        <v>4</v>
+      </c>
+      <c r="F12" cm="1">
+        <f t="array" ref="F12">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A12,ROW(pitstop!A:A),""),COLUMNS($E$1:F11))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A12,ROW(pitstop!A:A),""),COLUMNS($E$1:E11)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G12" cm="1">
+        <f t="array" ref="G12">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A12,ROW(pitstop!A:A),""),COLUMNS($E$1:F11))),F12)</f>
+        <v>3</v>
+      </c>
+      <c r="H12" cm="1">
+        <f t="array" ref="H12">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A12,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>14</v>
+      </c>
+      <c r="I12" cm="1">
+        <f t="array" ref="I12">IFERROR(IF(D12=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H12,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A12=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H12),"")</f>
+        <v>44</v>
+      </c>
+      <c r="J12" cm="1">
+        <f t="array" ref="J12">IFERROR(IF(D12=1,0,IF(D12=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H12-I12,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A12=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H12-I12)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f>IFERROR((C12-B12)*-1,"")</f>
+        <v>-1</v>
+      </c>
+      <c r="M12">
+        <f>IF(C12=1,25,IF(C12=2,18,IF(C12=3,15,IF(C12=4,12,IF(C12=5,10,IF(C12=6,8,IF(C12=7,6,IF(C12=8,4,IF(C12=9,2,IF(C12=10,1,0))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="11">
+        <f>VLOOKUP(A12,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A12,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A12,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A12,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>6.1302048611111111E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <f>MATCH(A13,lapchart!$B$2:$U$2,0)</f>
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A13,finalstanding!B:B,0))</f>
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <f>COUNTIF(pitstop!A:A, A13)</f>
+        <v>1</v>
+      </c>
+      <c r="E13" cm="1">
+        <f t="array" ref="E13">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A13,ROW(pitstop!A:A),""),COLUMNS($E$1:E12))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="F13" cm="1">
+        <f t="array" ref="F13">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A13,ROW(pitstop!A:A),""),COLUMNS($E$1:F12))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A13,ROW(pitstop!A:A),""),COLUMNS($E$1:E12)))),"")</f>
+        <v>2</v>
+      </c>
+      <c r="G13" cm="1">
+        <f t="array" ref="G13">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A13,ROW(pitstop!A:A),""),COLUMNS($E$1:F12))),F13)</f>
+        <v>2</v>
+      </c>
+      <c r="H13" cm="1">
+        <f t="array" ref="H13">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A13,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>26</v>
+      </c>
+      <c r="I13" cm="1">
+        <f t="array" ref="I13">IFERROR(IF(D13=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H13,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A13=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H13),"")</f>
+        <v>32</v>
+      </c>
+      <c r="J13" cm="1">
+        <f t="array" ref="J13">IFERROR(IF(D13=1,0,IF(D13=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H13-I13,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A13=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H13-I13)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f>IFERROR((C13-B13)*-1,"")</f>
+        <v>5</v>
+      </c>
+      <c r="M13">
+        <f>IF(C13=1,25,IF(C13=2,18,IF(C13=3,15,IF(C13=4,12,IF(C13=5,10,IF(C13=6,8,IF(C13=7,6,IF(C13=8,4,IF(C13=9,2,IF(C13=10,1,0))))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="N13" s="11">
+        <f>VLOOKUP(A13,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A13,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A13,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A13,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>6.0823611111111106E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <f>MATCH(A14,lapchart!$B$2:$U$2,0)</f>
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A14,finalstanding!B:B,0))</f>
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <f>COUNTIF(pitstop!A:A, A14)</f>
+        <v>1</v>
+      </c>
+      <c r="E14" cm="1">
+        <f t="array" ref="E14">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A14,ROW(pitstop!A:A),""),COLUMNS($E$1:E13))),"")</f>
+        <v>4</v>
+      </c>
+      <c r="F14" cm="1">
+        <f t="array" ref="F14">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A14,ROW(pitstop!A:A),""),COLUMNS($E$1:F13))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A14,ROW(pitstop!A:A),""),COLUMNS($E$1:E13)))),"")</f>
+        <v>2</v>
+      </c>
+      <c r="G14" cm="1">
+        <f t="array" ref="G14">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A14,ROW(pitstop!A:A),""),COLUMNS($E$1:F13))),F14)</f>
+        <v>2</v>
+      </c>
+      <c r="H14" cm="1">
+        <f t="array" ref="H14">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A14,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>13</v>
+      </c>
+      <c r="I14" cm="1">
+        <f t="array" ref="I14">IFERROR(IF(D14=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H14,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A14=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H14),"")</f>
+        <v>45</v>
+      </c>
+      <c r="J14" cm="1">
+        <f t="array" ref="J14">IFERROR(IF(D14=1,0,IF(D14=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H14-I14,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A14=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H14-I14)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f>IFERROR((C14-B14)*-1,"")</f>
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <f>IF(C14=1,25,IF(C14=2,18,IF(C14=3,15,IF(C14=4,12,IF(C14=5,10,IF(C14=6,8,IF(C14=7,6,IF(C14=8,4,IF(C14=9,2,IF(C14=10,1,0))))))))))</f>
+        <v>6</v>
+      </c>
+      <c r="N14" s="11">
+        <f>VLOOKUP(A14,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A14,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A14,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A14,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>6.0793101851851855E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <f>MATCH(A15,lapchart!$B$2:$U$2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A15,finalstanding!B:B,0))</f>
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <f>COUNTIF(pitstop!A:A, A15)</f>
+        <v>1</v>
+      </c>
+      <c r="E15" cm="1">
+        <f t="array" ref="E15">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A15,ROW(pitstop!A:A),""),COLUMNS($E$1:E14))),"")</f>
+        <v>4</v>
+      </c>
+      <c r="F15" cm="1">
+        <f t="array" ref="F15">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A15,ROW(pitstop!A:A),""),COLUMNS($E$1:F14))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A15,ROW(pitstop!A:A),""),COLUMNS($E$1:E14)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G15" cm="1">
+        <f t="array" ref="G15">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A15,ROW(pitstop!A:A),""),COLUMNS($E$1:F14))),F15)</f>
+        <v>3</v>
+      </c>
+      <c r="H15" cm="1">
+        <f t="array" ref="H15">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A15,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>25</v>
+      </c>
+      <c r="I15" cm="1">
+        <f t="array" ref="I15">IFERROR(IF(D15=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H15,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A15=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H15),"")</f>
+        <v>33</v>
+      </c>
+      <c r="J15" cm="1">
+        <f t="array" ref="J15">IFERROR(IF(D15=1,0,IF(D15=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H15-I15,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A15=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H15-I15)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f>IFERROR((C15-B15)*-1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <f>IF(C15=1,25,IF(C15=2,18,IF(C15=3,15,IF(C15=4,12,IF(C15=5,10,IF(C15=6,8,IF(C15=7,6,IF(C15=8,4,IF(C15=9,2,IF(C15=10,1,0))))))))))</f>
+        <v>15</v>
+      </c>
+      <c r="N15" s="11">
+        <f>VLOOKUP(A15,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A15,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A15,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A15,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>5.9604687499999996E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <f>MATCH(A16,lapchart!$B$2:$U$2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A16,finalstanding!B:B,0))</f>
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <f>COUNTIF(pitstop!A:A, A16)</f>
+        <v>1</v>
+      </c>
+      <c r="E16" cm="1">
+        <f t="array" ref="E16">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A16,ROW(pitstop!A:A),""),COLUMNS($E$1:E15))),"")</f>
+        <v>4</v>
+      </c>
+      <c r="F16" cm="1">
+        <f t="array" ref="F16">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A16,ROW(pitstop!A:A),""),COLUMNS($E$1:F15))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A16,ROW(pitstop!A:A),""),COLUMNS($E$1:E15)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G16" cm="1">
+        <f t="array" ref="G16">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A16,ROW(pitstop!A:A),""),COLUMNS($E$1:F15))),F16)</f>
+        <v>3</v>
+      </c>
+      <c r="H16" cm="1">
+        <f t="array" ref="H16">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A16,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>15</v>
+      </c>
+      <c r="I16" cm="1">
+        <f t="array" ref="I16">IFERROR(IF(D16=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H16,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A16=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H16),"")</f>
+        <v>43</v>
+      </c>
+      <c r="J16" cm="1">
+        <f t="array" ref="J16">IFERROR(IF(D16=1,0,IF(D16=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H16-I16,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A16=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H16-I16)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f>IFERROR((C16-B16)*-1,"")</f>
+        <v>-1</v>
+      </c>
+      <c r="M16">
+        <f>IF(C16=1,25,IF(C16=2,18,IF(C16=3,15,IF(C16=4,12,IF(C16=5,10,IF(C16=6,8,IF(C16=7,6,IF(C16=8,4,IF(C16=9,2,IF(C16=10,1,0))))))))))</f>
+        <v>18</v>
+      </c>
+      <c r="N16" s="11">
+        <f>VLOOKUP(A16,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A16,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A16,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A16,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>5.958577546296296E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>55</v>
+      </c>
+      <c r="B17">
+        <f>MATCH(A17,lapchart!$B$2:$U$2,0)</f>
+        <v>18</v>
+      </c>
+      <c r="C17" t="str">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A17,finalstanding!B:B,0))</f>
+        <v>DNF</v>
+      </c>
+      <c r="D17">
+        <f>COUNTIF(pitstop!A:A, A17)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" t="str" cm="1">
+        <f t="array" ref="E17">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A17,ROW(pitstop!A:A),""),COLUMNS($E$1:E16))),"")</f>
+        <v/>
+      </c>
+      <c r="F17" t="str" cm="1">
+        <f t="array" ref="F17">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A17,ROW(pitstop!A:A),""),COLUMNS($E$1:F16))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A17,ROW(pitstop!A:A),""),COLUMNS($E$1:E16)))),"")</f>
+        <v/>
+      </c>
+      <c r="G17" t="str" cm="1">
+        <f t="array" ref="G17">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A17,ROW(pitstop!A:A),""),COLUMNS($E$1:F16))),F17)</f>
+        <v/>
+      </c>
+      <c r="H17" t="str" cm="1">
+        <f t="array" ref="H17">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A17,ROW(pitstop!A:A),""),1)),"")</f>
+        <v/>
+      </c>
+      <c r="I17" t="str" cm="1">
+        <f t="array" ref="I17">IFERROR(IF(D17=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H17,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A17=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H17),"")</f>
+        <v/>
+      </c>
+      <c r="J17" t="str" cm="1">
+        <f t="array" ref="J17">IFERROR(IF(D17=1,0,IF(D17=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H17-I17,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A17=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H17-I17)),"")</f>
+        <v/>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="str">
+        <f>IFERROR((C17-B17)*-1,"")</f>
+        <v/>
+      </c>
+      <c r="M17">
+        <f>IF(C17=1,25,IF(C17=2,18,IF(C17=3,15,IF(C17=4,12,IF(C17=5,10,IF(C17=6,8,IF(C17=7,6,IF(C17=8,4,IF(C17=9,2,IF(C17=10,1,0))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <f>VLOOKUP(A17,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A17,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A17,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A17,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>9.6635763888888882E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>63</v>
+      </c>
+      <c r="B18">
+        <f>MATCH(A18,lapchart!$B$2:$U$2,0)</f>
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A18,finalstanding!B:B,0))</f>
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <f>COUNTIF(pitstop!A:A, A18)</f>
+        <v>2</v>
+      </c>
+      <c r="E18" cm="1">
+        <f t="array" ref="E18">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A18,ROW(pitstop!A:A),""),COLUMNS($E$1:E17))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="F18" cm="1">
+        <f t="array" ref="F18">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A18,ROW(pitstop!A:A),""),COLUMNS($E$1:F17))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A18,ROW(pitstop!A:A),""),COLUMNS($E$1:E17)))),"")</f>
+        <v>4</v>
+      </c>
+      <c r="G18" cm="1">
+        <f t="array" ref="G18">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A18,ROW(pitstop!A:A),""),COLUMNS($E$1:F17))),F18)</f>
+        <v>2</v>
+      </c>
+      <c r="H18" cm="1">
+        <f t="array" ref="H18">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A18,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>26</v>
+      </c>
+      <c r="I18" cm="1">
+        <f t="array" ref="I18">IFERROR(IF(D18=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H18,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A18=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H18),"")</f>
+        <v>16</v>
+      </c>
+      <c r="J18" cm="1">
+        <f t="array" ref="J18">IFERROR(IF(D18=1,0,IF(D18=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H18-I18,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A18=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H18-I18)),"")</f>
+        <v>16</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f>IFERROR((C18-B18)*-1,"")</f>
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <f>IF(C18=1,25,IF(C18=2,18,IF(C18=3,15,IF(C18=4,12,IF(C18=5,10,IF(C18=6,8,IF(C18=7,6,IF(C18=8,4,IF(C18=9,2,IF(C18=10,1,0))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="11">
+        <f>VLOOKUP(A18,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A18,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A18,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A18,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>6.4085706018518526E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>77</v>
+      </c>
+      <c r="B19">
+        <f>MATCH(A19,lapchart!$B$2:$U$2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A19,finalstanding!B:B,0))</f>
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <f>COUNTIF(pitstop!A:A, A19)</f>
+        <v>1</v>
+      </c>
+      <c r="E19" cm="1">
+        <f t="array" ref="E19">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A19,ROW(pitstop!A:A),""),COLUMNS($E$1:E18))),"")</f>
+        <v>4</v>
+      </c>
+      <c r="F19" cm="1">
+        <f t="array" ref="F19">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A19,ROW(pitstop!A:A),""),COLUMNS($E$1:F18))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A19,ROW(pitstop!A:A),""),COLUMNS($E$1:E18)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G19" cm="1">
+        <f t="array" ref="G19">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A19,ROW(pitstop!A:A),""),COLUMNS($E$1:F18))),F19)</f>
+        <v>3</v>
+      </c>
+      <c r="H19" cm="1">
+        <f t="array" ref="H19">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A19,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>23</v>
+      </c>
+      <c r="I19" cm="1">
+        <f t="array" ref="I19">IFERROR(IF(D19=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H19,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A19=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H19),"")</f>
+        <v>35</v>
+      </c>
+      <c r="J19" cm="1">
+        <f t="array" ref="J19">IFERROR(IF(D19=1,0,IF(D19=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H19-I19,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A19=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H19-I19)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f>IFERROR((C19-B19)*-1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <f>IF(C19=1,25,IF(C19=2,18,IF(C19=3,15,IF(C19=4,12,IF(C19=5,10,IF(C19=6,8,IF(C19=7,6,IF(C19=8,4,IF(C19=9,2,IF(C19=10,1,0))))))))))</f>
+        <v>25</v>
+      </c>
+      <c r="N19" s="11">
+        <f>VLOOKUP(A19,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A19,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A19,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A19,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>5.9344039351851847E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>88</v>
+      </c>
+      <c r="B20">
+        <f>MATCH(A20,lapchart!$B$2:$U$2,0)</f>
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A20,finalstanding!B:B,0))</f>
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <f>COUNTIF(pitstop!A:A, A20)</f>
+        <v>3</v>
+      </c>
+      <c r="E20" cm="1">
+        <f t="array" ref="E20">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A20,ROW(pitstop!A:A),""),COLUMNS($E$1:E19))),"")</f>
+        <v>2</v>
+      </c>
+      <c r="F20" cm="1">
+        <f t="array" ref="F20">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A20,ROW(pitstop!A:A),""),COLUMNS($E$1:F19))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A20,ROW(pitstop!A:A),""),COLUMNS($E$1:E19)))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="G20" cm="1">
+        <f t="array" ref="G20">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A20,ROW(pitstop!A:A),""),COLUMNS($E$1:F19))),F20)</f>
+        <v>4</v>
+      </c>
+      <c r="H20" cm="1">
+        <f t="array" ref="H20">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A20,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>1</v>
+      </c>
+      <c r="I20" cm="1">
+        <f t="array" ref="I20">IFERROR(IF(D20=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H20,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A20=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H20),"")</f>
+        <v>27</v>
+      </c>
+      <c r="J20" cm="1">
+        <f t="array" ref="J20">IFERROR(IF(D20=1,0,IF(D20=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H20-I20,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A20=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H20-I20)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f>IFERROR((C20-B20)*-1,"")</f>
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <f>IF(C20=1,25,IF(C20=2,18,IF(C20=3,15,IF(C20=4,12,IF(C20=5,10,IF(C20=6,8,IF(C20=7,6,IF(C20=8,4,IF(C20=9,2,IF(C20=10,1,0))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="11">
+        <f>VLOOKUP(A20,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A20,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A20,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A20,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>6.4111238425925934E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>99</v>
+      </c>
+      <c r="B21">
+        <f>MATCH(A21,lapchart!$B$2:$U$2,0)</f>
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <f>INDEX(finalstanding!A:A,MATCH(compoundchange!A21,finalstanding!B:B,0))</f>
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <f>COUNTIF(pitstop!A:A, A21)</f>
+        <v>1</v>
+      </c>
+      <c r="E21" cm="1">
+        <f t="array" ref="E21">IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A21,ROW(pitstop!A:A),""),COLUMNS($E$1:E20))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="F21" cm="1">
+        <f t="array" ref="F21">IFERROR(IFERROR(INDEX(pitstop!H:H,SMALL(IF(pitstop!A:A=A21,ROW(pitstop!A:A),""),COLUMNS($E$1:F20))),INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A21,ROW(pitstop!A:A),""),COLUMNS($E$1:E20)))),"")</f>
+        <v>4</v>
+      </c>
+      <c r="G21" cm="1">
+        <f t="array" ref="G21">IFERROR(INDEX(pitstop!I:I,SMALL(IF(pitstop!A:A=A21,ROW(pitstop!A:A),""),COLUMNS($E$1:F20))),F21)</f>
+        <v>4</v>
+      </c>
+      <c r="H21" cm="1">
+        <f t="array" ref="H21">IFERROR(INDEX(pitstop!D:D,SMALL(IF(pitstop!A:A=A21,ROW(pitstop!A:A),""),1)),"")</f>
+        <v>27</v>
+      </c>
+      <c r="I21" cm="1">
+        <f t="array" ref="I21">IFERROR(IF(D21=1,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H21,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A21=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H21),"")</f>
+        <v>31</v>
+      </c>
+      <c r="J21" cm="1">
+        <f t="array" ref="J21">IFERROR(IF(D21=1,0,IF(D21=2,LOOKUP(2,1/(laptimes!A:A&lt;&gt;""),laptimes!A:A)-H21-I21,INDEX(pitstop!$D$2:$D$100,SMALL(IF(compoundchange!$A21=pitstop!$A$2:$A$100,ROW(pitstop!$A$2:$A$100)-ROW(pitstop!$A$2)+2),1))-H21-I21)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f>IFERROR((C21-B21)*-1,"")</f>
+        <v>-1</v>
+      </c>
+      <c r="M21">
+        <f>IF(C21=1,25,IF(C21=2,18,IF(C21=3,15,IF(C21=4,12,IF(C21=5,10,IF(C21=6,8,IF(C21=7,6,IF(C21=8,4,IF(C21=9,2,IF(C21=10,1,0))))))))))</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="11">
+        <f>VLOOKUP(A21,raceclassification!B:G,6,FALSE)+IF(ISNUMBER(SEARCH("Lap",VLOOKUP(A21,raceclassification!B:H,7,FALSE))),IF(VLOOKUP(A21,raceclassification!B:H,7,FALSE)="1 Lap","0:02",IF(VLOOKUP(A21,raceclassification!B:H,7,FALSE)="2 Lap","0:04","0:06")),0)</f>
+        <v>6.1549328703703707E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4836C0-9EC7-4C32-A224-98998B30405A}">
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2">
+        <v>58</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5.9344039351851847E-2</v>
+      </c>
+      <c r="J2">
+        <v>215.95400000000001</v>
+      </c>
+      <c r="K2" s="1">
+        <v>9.9050925925925912E-4</v>
+      </c>
+      <c r="L2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3">
+        <v>58</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5.958577546296296E-2</v>
+      </c>
+      <c r="H3">
+        <v>20.885999999999999</v>
+      </c>
+      <c r="I3">
+        <v>20.885999999999999</v>
+      </c>
+      <c r="J3">
+        <v>215.077</v>
+      </c>
+      <c r="K3" s="1">
+        <v>9.9603009259259263E-4</v>
+      </c>
+      <c r="L3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4">
+        <v>58</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5.9604687499999996E-2</v>
+      </c>
+      <c r="H4">
+        <v>22.52</v>
+      </c>
+      <c r="I4">
+        <v>1.6339999999999999</v>
+      </c>
+      <c r="J4">
+        <v>215.00899999999999</v>
+      </c>
+      <c r="K4" s="1">
+        <v>9.9833333333333328E-4</v>
+      </c>
+      <c r="L4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5">
+        <v>58</v>
+      </c>
+      <c r="G5" s="1">
+        <v>6.0005023148148151E-2</v>
+      </c>
+      <c r="H5">
+        <v>57.109000000000002</v>
+      </c>
+      <c r="I5">
+        <v>34.588999999999999</v>
+      </c>
+      <c r="J5">
+        <v>213.57499999999999</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1.0179861111111112E-3</v>
+      </c>
+      <c r="L5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6">
+        <v>58</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6.0017997685185183E-2</v>
+      </c>
+      <c r="H6">
+        <v>58.23</v>
+      </c>
+      <c r="I6">
+        <v>1.121</v>
+      </c>
+      <c r="J6">
+        <v>213.529</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1.006087962962963E-3</v>
+      </c>
+      <c r="L6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7">
+        <v>58</v>
+      </c>
+      <c r="G7" s="1">
+        <v>6.035278935185185E-2</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>28.925999999999998</v>
+      </c>
+      <c r="J7">
+        <v>212.34399999999999</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1.020625E-3</v>
+      </c>
+      <c r="L7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8">
+        <v>57</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5.9404212962962964E-2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>145</v>
+      </c>
+      <c r="I8" t="s">
+        <v>145</v>
+      </c>
+      <c r="J8">
+        <v>212.01499999999999</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1.0236574074074074E-3</v>
+      </c>
+      <c r="L8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9">
+        <v>57</v>
+      </c>
+      <c r="G9" s="1">
+        <v>5.9417928240740742E-2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I9">
+        <v>1.1850000000000001</v>
+      </c>
+      <c r="J9">
+        <v>211.96600000000001</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1.0216435185185185E-3</v>
+      </c>
+      <c r="L9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10">
+        <v>57</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5.9426631944444447E-2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>145</v>
+      </c>
+      <c r="I10">
+        <v>0.752</v>
+      </c>
+      <c r="J10">
+        <v>211.935</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1.0135185185185184E-3</v>
+      </c>
+      <c r="L10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11">
+        <v>57</v>
+      </c>
+      <c r="G11" s="1">
+        <v>5.9434722222222215E-2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>145</v>
+      </c>
+      <c r="I11">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="J11">
+        <v>211.90600000000001</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1.0121296296296295E-3</v>
+      </c>
+      <c r="L11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12">
+        <v>57</v>
+      </c>
+      <c r="G12" s="1">
+        <v>5.9438599537037035E-2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>145</v>
+      </c>
+      <c r="I12">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="J12">
+        <v>211.893</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1.0095949074074072E-3</v>
+      </c>
+      <c r="L12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13">
+        <v>57</v>
+      </c>
+      <c r="G13" s="1">
+        <v>5.9898831018518527E-2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>145</v>
+      </c>
+      <c r="I13">
+        <v>39.764000000000003</v>
+      </c>
+      <c r="J13">
+        <v>210.26400000000001</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1.0249421296296296E-3</v>
+      </c>
+      <c r="L13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14">
+        <v>57</v>
+      </c>
+      <c r="G14" s="1">
+        <v>5.9904965277777777E-2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>145</v>
+      </c>
+      <c r="I14">
+        <v>0.53</v>
+      </c>
+      <c r="J14">
+        <v>210.24299999999999</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1.0241319444444445E-3</v>
+      </c>
+      <c r="L14">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15">
+        <v>57</v>
+      </c>
+      <c r="G15" s="1">
+        <v>5.991315972222222E-2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>145</v>
+      </c>
+      <c r="I15">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="J15">
+        <v>210.214</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1.0206944444444445E-3</v>
+      </c>
+      <c r="L15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16">
+        <v>57</v>
+      </c>
+      <c r="G16" s="1">
+        <v>6.0160439814814816E-2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>145</v>
+      </c>
+      <c r="I16">
+        <v>21.364999999999998</v>
+      </c>
+      <c r="J16">
+        <v>209.35</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1.0240625E-3</v>
+      </c>
+      <c r="L16">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17">
+        <v>56</v>
+      </c>
+      <c r="G17" s="1">
+        <v>5.9919039351851854E-2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>154</v>
+      </c>
+      <c r="I17" t="s">
+        <v>145</v>
+      </c>
+      <c r="J17">
+        <v>206.506</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1.0267708333333333E-3</v>
+      </c>
+      <c r="L17">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>88</v>
+      </c>
+      <c r="C18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18">
+        <v>55</v>
+      </c>
+      <c r="G18" s="1">
+        <v>5.9944571759259262E-2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>155</v>
+      </c>
+      <c r="I18" t="s">
+        <v>145</v>
+      </c>
+      <c r="J18">
+        <v>202.732</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1.0333796296296295E-3</v>
+      </c>
+      <c r="L18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19">
+        <v>29</v>
+      </c>
+      <c r="G19" s="1">
+        <v>3.0785902777777777E-2</v>
+      </c>
+      <c r="J19">
+        <v>208.14</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1.0238657407407408E-3</v>
+      </c>
+      <c r="L19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20">
+        <v>28</v>
+      </c>
+      <c r="G20" s="1">
+        <v>3.0084745370370369E-2</v>
+      </c>
+      <c r="J20">
+        <v>205.64599999999999</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1.0399074074074076E-3</v>
+      </c>
+      <c r="L20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" t="s">
+        <v>147</v>
+      </c>
+      <c r="E21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21">
+        <v>9</v>
+      </c>
+      <c r="G21" s="1">
+        <v>9.6635763888888882E-3</v>
+      </c>
+      <c r="J21">
+        <v>205.785</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1.0520717592592593E-3</v>
+      </c>
+      <c r="L21">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F0C22B-C035-46D0-BF18-D4B9460A3AFE}">
   <dimension ref="A1:U60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4843,15 +7228,18 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A803B490-A460-48CF-A188-D5790C181A5B}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U59"/>
+  <dimension ref="A1:U62"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="21" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" customWidth="1"/>
+    <col min="20" max="21" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -8444,6 +10832,31 @@
       </c>
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S62" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8452,6 +10865,4981 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8481CB6A-7436-448C-B26D-D062832CA7BC}">
+  <dimension ref="A1:Z59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1">
+        <v>3</v>
+      </c>
+      <c r="C1">
+        <v>4</v>
+      </c>
+      <c r="D1">
+        <v>5</v>
+      </c>
+      <c r="E1">
+        <v>7</v>
+      </c>
+      <c r="F1">
+        <v>8</v>
+      </c>
+      <c r="G1">
+        <v>10</v>
+      </c>
+      <c r="H1">
+        <v>11</v>
+      </c>
+      <c r="I1">
+        <v>16</v>
+      </c>
+      <c r="J1">
+        <v>18</v>
+      </c>
+      <c r="K1">
+        <v>20</v>
+      </c>
+      <c r="L1">
+        <v>23</v>
+      </c>
+      <c r="M1">
+        <v>26</v>
+      </c>
+      <c r="N1">
+        <v>27</v>
+      </c>
+      <c r="O1">
+        <v>33</v>
+      </c>
+      <c r="P1">
+        <v>44</v>
+      </c>
+      <c r="Q1">
+        <v>55</v>
+      </c>
+      <c r="R1">
+        <v>63</v>
+      </c>
+      <c r="S1">
+        <v>77</v>
+      </c>
+      <c r="T1">
+        <v>88</v>
+      </c>
+      <c r="U1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0.79166666666666696</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="V3" s="2"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>IF(laptimes!B4-laptimes!B3&lt;0, "-" &amp; TEXT(ABS(laptimes!B4-laptimes!B3),"sss.000"), laptimes!B4-laptimes!B3)</f>
+        <v>-06.094</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f>IF(laptimes!C4-laptimes!C3&lt;0, "-" &amp; TEXT(ABS(laptimes!C4-laptimes!C3),"sss.000"), laptimes!C4-laptimes!C3)</f>
+        <v>-00.371</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f>IF(laptimes!D4-laptimes!D3&lt;0, "-" &amp; TEXT(ABS(laptimes!D4-laptimes!D3),"sss.000"), laptimes!D4-laptimes!D3)</f>
+        <v>-00.724</v>
+      </c>
+      <c r="E4" s="2" t="str">
+        <f>IF(laptimes!E4-laptimes!E3&lt;0, "-" &amp; TEXT(ABS(laptimes!E4-laptimes!E3),"sss.000"), laptimes!E4-laptimes!E3)</f>
+        <v>-00.256</v>
+      </c>
+      <c r="F4" s="2" t="str">
+        <f>IF(laptimes!F4-laptimes!F3&lt;0, "-" &amp; TEXT(ABS(laptimes!F4-laptimes!F3),"sss.000"), laptimes!F4-laptimes!F3)</f>
+        <v>-00.320</v>
+      </c>
+      <c r="G4" s="2" t="str">
+        <f>IF(laptimes!G4-laptimes!G3&lt;0, "-" &amp; TEXT(ABS(laptimes!G4-laptimes!G3),"sss.000"), laptimes!G4-laptimes!G3)</f>
+        <v>-00.179</v>
+      </c>
+      <c r="H4" s="2" t="str">
+        <f>IF(laptimes!H4-laptimes!H3&lt;0, "-" &amp; TEXT(ABS(laptimes!H4-laptimes!H3),"sss.000"), laptimes!H4-laptimes!H3)</f>
+        <v>-00.614</v>
+      </c>
+      <c r="I4" s="2" t="str">
+        <f>IF(laptimes!I4-laptimes!I3&lt;0, "-" &amp; TEXT(ABS(laptimes!I4-laptimes!I3),"sss.000"), laptimes!I4-laptimes!I3)</f>
+        <v>-00.603</v>
+      </c>
+      <c r="J4" s="2" t="str">
+        <f>IF(laptimes!J4-laptimes!J3&lt;0, "-" &amp; TEXT(ABS(laptimes!J4-laptimes!J3),"sss.000"), laptimes!J4-laptimes!J3)</f>
+        <v>-00.456</v>
+      </c>
+      <c r="K4" s="2" t="str">
+        <f>IF(laptimes!K4-laptimes!K3&lt;0, "-" &amp; TEXT(ABS(laptimes!K4-laptimes!K3),"sss.000"), laptimes!K4-laptimes!K3)</f>
+        <v>-00.199</v>
+      </c>
+      <c r="L4" s="2" t="str">
+        <f>IF(laptimes!L4-laptimes!L3&lt;0, "-" &amp; TEXT(ABS(laptimes!L4-laptimes!L3),"sss.000"), laptimes!L4-laptimes!L3)</f>
+        <v>-00.359</v>
+      </c>
+      <c r="M4" s="2" t="str">
+        <f>IF(laptimes!M4-laptimes!M3&lt;0, "-" &amp; TEXT(ABS(laptimes!M4-laptimes!M3),"sss.000"), laptimes!M4-laptimes!M3)</f>
+        <v>-00.842</v>
+      </c>
+      <c r="N4" s="2" t="str">
+        <f>IF(laptimes!N4-laptimes!N3&lt;0, "-" &amp; TEXT(ABS(laptimes!N4-laptimes!N3),"sss.000"), laptimes!N4-laptimes!N3)</f>
+        <v>-00.506</v>
+      </c>
+      <c r="O4" s="2" t="str">
+        <f>IF(laptimes!O4-laptimes!O3&lt;0, "-" &amp; TEXT(ABS(laptimes!O4-laptimes!O3),"sss.000"), laptimes!O4-laptimes!O3)</f>
+        <v>-00.683</v>
+      </c>
+      <c r="P4" s="2" t="str">
+        <f>IF(laptimes!P4-laptimes!P3&lt;0, "-" &amp; TEXT(ABS(laptimes!P4-laptimes!P3),"sss.000"), laptimes!P4-laptimes!P3)</f>
+        <v>-00.427</v>
+      </c>
+      <c r="Q4" s="2" t="str">
+        <f>IF(laptimes!Q4-laptimes!Q3&lt;0, "-" &amp; TEXT(ABS(laptimes!Q4-laptimes!Q3),"sss.000"), laptimes!Q4-laptimes!Q3)</f>
+        <v>-00.873</v>
+      </c>
+      <c r="R4" s="2" t="str">
+        <f>IF(laptimes!R4-laptimes!R3&lt;0, "-" &amp; TEXT(ABS(laptimes!R4-laptimes!R3),"sss.000"), laptimes!R4-laptimes!R3)</f>
+        <v>-00.574</v>
+      </c>
+      <c r="S4" s="2" t="str">
+        <f>IF(laptimes!S4-laptimes!S3&lt;0, "-" &amp; TEXT(ABS(laptimes!S4-laptimes!S3),"sss.000"), laptimes!S4-laptimes!S3)</f>
+        <v>-00.416</v>
+      </c>
+      <c r="T4" s="2" t="str">
+        <f>IF(laptimes!T4-laptimes!T3&lt;0, "-" &amp; TEXT(ABS(laptimes!T4-laptimes!T3),"sss.000"), laptimes!T4-laptimes!T3)</f>
+        <v>-07.423</v>
+      </c>
+      <c r="U4" s="2" t="str">
+        <f>IF(laptimes!U4-laptimes!U3&lt;0, "-" &amp; TEXT(ABS(laptimes!U4-laptimes!U3),"sss.000"), laptimes!U4-laptimes!U3)</f>
+        <v>-00.919</v>
+      </c>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>IF(laptimes!B5-laptimes!B4&lt;0, "-" &amp; TEXT(ABS(laptimes!B5-laptimes!B4),"sss.000"), laptimes!B5-laptimes!B4)</f>
+        <v>-01.611</v>
+      </c>
+      <c r="C5" s="2">
+        <f>IF(laptimes!C5-laptimes!C4&lt;0, "-" &amp; TEXT(ABS(laptimes!C5-laptimes!C4),"sss.000"), laptimes!C5-laptimes!C4)</f>
+        <v>1.7013888888889762E-6</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f>IF(laptimes!D5-laptimes!D4&lt;0, "-" &amp; TEXT(ABS(laptimes!D5-laptimes!D4),"sss.000"), laptimes!D5-laptimes!D4)</f>
+        <v>-00.247</v>
+      </c>
+      <c r="E5" s="2" t="str">
+        <f>IF(laptimes!E5-laptimes!E4&lt;0, "-" &amp; TEXT(ABS(laptimes!E5-laptimes!E4),"sss.000"), laptimes!E5-laptimes!E4)</f>
+        <v>-00.332</v>
+      </c>
+      <c r="F5" s="2" t="str">
+        <f>IF(laptimes!F5-laptimes!F4&lt;0, "-" &amp; TEXT(ABS(laptimes!F5-laptimes!F4),"sss.000"), laptimes!F5-laptimes!F4)</f>
+        <v>-00.023</v>
+      </c>
+      <c r="G5" s="2">
+        <f>IF(laptimes!G5-laptimes!G4&lt;0, "-" &amp; TEXT(ABS(laptimes!G5-laptimes!G4),"sss.000"), laptimes!G5-laptimes!G4)</f>
+        <v>1.1053240740740728E-5</v>
+      </c>
+      <c r="H5" s="2">
+        <f>IF(laptimes!H5-laptimes!H4&lt;0, "-" &amp; TEXT(ABS(laptimes!H5-laptimes!H4),"sss.000"), laptimes!H5-laptimes!H4)</f>
+        <v>4.4791666666665203E-6</v>
+      </c>
+      <c r="I5" s="2" t="str">
+        <f>IF(laptimes!I5-laptimes!I4&lt;0, "-" &amp; TEXT(ABS(laptimes!I5-laptimes!I4),"sss.000"), laptimes!I5-laptimes!I4)</f>
+        <v>-00.646</v>
+      </c>
+      <c r="J5" s="2">
+        <f>IF(laptimes!J5-laptimes!J4&lt;0, "-" &amp; TEXT(ABS(laptimes!J5-laptimes!J4),"sss.000"), laptimes!J5-laptimes!J4)</f>
+        <v>6.2499999999975769E-7</v>
+      </c>
+      <c r="K5" s="2" t="str">
+        <f>IF(laptimes!K5-laptimes!K4&lt;0, "-" &amp; TEXT(ABS(laptimes!K5-laptimes!K4),"sss.000"), laptimes!K5-laptimes!K4)</f>
+        <v>-00.334</v>
+      </c>
+      <c r="L5" s="2">
+        <f>IF(laptimes!L5-laptimes!L4&lt;0, "-" &amp; TEXT(ABS(laptimes!L5-laptimes!L4),"sss.000"), laptimes!L5-laptimes!L4)</f>
+        <v>7.4074074074082299E-7</v>
+      </c>
+      <c r="M5" s="2">
+        <f>IF(laptimes!M5-laptimes!M4&lt;0, "-" &amp; TEXT(ABS(laptimes!M5-laptimes!M4),"sss.000"), laptimes!M5-laptimes!M4)</f>
+        <v>1.8634259259257737E-6</v>
+      </c>
+      <c r="N5" s="2" t="str">
+        <f>IF(laptimes!N5-laptimes!N4&lt;0, "-" &amp; TEXT(ABS(laptimes!N5-laptimes!N4),"sss.000"), laptimes!N5-laptimes!N4)</f>
+        <v>-00.012</v>
+      </c>
+      <c r="O5" s="2" t="str">
+        <f>IF(laptimes!O5-laptimes!O4&lt;0, "-" &amp; TEXT(ABS(laptimes!O5-laptimes!O4),"sss.000"), laptimes!O5-laptimes!O4)</f>
+        <v>-00.069</v>
+      </c>
+      <c r="P5" s="2" t="str">
+        <f>IF(laptimes!P5-laptimes!P4&lt;0, "-" &amp; TEXT(ABS(laptimes!P5-laptimes!P4),"sss.000"), laptimes!P5-laptimes!P4)</f>
+        <v>-00.528</v>
+      </c>
+      <c r="Q5" s="2">
+        <f>IF(laptimes!Q5-laptimes!Q4&lt;0, "-" &amp; TEXT(ABS(laptimes!Q5-laptimes!Q4),"sss.000"), laptimes!Q5-laptimes!Q4)</f>
+        <v>2.6504629629631963E-6</v>
+      </c>
+      <c r="R5" s="2" t="str">
+        <f>IF(laptimes!R5-laptimes!R4&lt;0, "-" &amp; TEXT(ABS(laptimes!R5-laptimes!R4),"sss.000"), laptimes!R5-laptimes!R4)</f>
+        <v>-00.038</v>
+      </c>
+      <c r="S5" s="2" t="str">
+        <f>IF(laptimes!S5-laptimes!S4&lt;0, "-" &amp; TEXT(ABS(laptimes!S5-laptimes!S4),"sss.000"), laptimes!S5-laptimes!S4)</f>
+        <v>-00.605</v>
+      </c>
+      <c r="T5" s="2">
+        <f>IF(laptimes!T5-laptimes!T4&lt;0, "-" &amp; TEXT(ABS(laptimes!T5-laptimes!T4),"sss.000"), laptimes!T5-laptimes!T4)</f>
+        <v>1.5810185185185111E-5</v>
+      </c>
+      <c r="U5" s="2" t="str">
+        <f>IF(laptimes!U5-laptimes!U4&lt;0, "-" &amp; TEXT(ABS(laptimes!U5-laptimes!U4),"sss.000"), laptimes!U5-laptimes!U4)</f>
+        <v>-00.651</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <f>IF(laptimes!B6-laptimes!B5&lt;0, "-" &amp; TEXT(ABS(laptimes!B6-laptimes!B5),"sss.000"), laptimes!B6-laptimes!B5)</f>
+        <v>1.7476851851853589E-6</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f>IF(laptimes!C6-laptimes!C5&lt;0, "-" &amp; TEXT(ABS(laptimes!C6-laptimes!C5),"sss.000"), laptimes!C6-laptimes!C5)</f>
+        <v>-00.130</v>
+      </c>
+      <c r="D6" s="2">
+        <f>IF(laptimes!D6-laptimes!D5&lt;0, "-" &amp; TEXT(ABS(laptimes!D6-laptimes!D5),"sss.000"), laptimes!D6-laptimes!D5)</f>
+        <v>2.1527777777777864E-6</v>
+      </c>
+      <c r="E6" s="2">
+        <f>IF(laptimes!E6-laptimes!E5&lt;0, "-" &amp; TEXT(ABS(laptimes!E6-laptimes!E5),"sss.000"), laptimes!E6-laptimes!E5)</f>
+        <v>1.9560185185185392E-6</v>
+      </c>
+      <c r="F6" s="2" t="str">
+        <f>IF(laptimes!F6-laptimes!F5&lt;0, "-" &amp; TEXT(ABS(laptimes!F6-laptimes!F5),"sss.000"), laptimes!F6-laptimes!F5)</f>
+        <v>-00.316</v>
+      </c>
+      <c r="G6" s="2" t="str">
+        <f>IF(laptimes!G6-laptimes!G5&lt;0, "-" &amp; TEXT(ABS(laptimes!G6-laptimes!G5),"sss.000"), laptimes!G6-laptimes!G5)</f>
+        <v>-01.190</v>
+      </c>
+      <c r="H6" s="2" t="str">
+        <f>IF(laptimes!H6-laptimes!H5&lt;0, "-" &amp; TEXT(ABS(laptimes!H6-laptimes!H5),"sss.000"), laptimes!H6-laptimes!H5)</f>
+        <v>-00.343</v>
+      </c>
+      <c r="I6" s="2">
+        <f>IF(laptimes!I6-laptimes!I5&lt;0, "-" &amp; TEXT(ABS(laptimes!I6-laptimes!I5),"sss.000"), laptimes!I6-laptimes!I5)</f>
+        <v>2.2222222222220353E-6</v>
+      </c>
+      <c r="J6" s="2" t="str">
+        <f>IF(laptimes!J6-laptimes!J5&lt;0, "-" &amp; TEXT(ABS(laptimes!J6-laptimes!J5),"sss.000"), laptimes!J6-laptimes!J5)</f>
+        <v>-00.067</v>
+      </c>
+      <c r="K6" s="2" t="str">
+        <f>IF(laptimes!K6-laptimes!K5&lt;0, "-" &amp; TEXT(ABS(laptimes!K6-laptimes!K5),"sss.000"), laptimes!K6-laptimes!K5)</f>
+        <v>-00.213</v>
+      </c>
+      <c r="L6" s="2" t="str">
+        <f>IF(laptimes!L6-laptimes!L5&lt;0, "-" &amp; TEXT(ABS(laptimes!L6-laptimes!L5),"sss.000"), laptimes!L6-laptimes!L5)</f>
+        <v>-00.537</v>
+      </c>
+      <c r="M6" s="2">
+        <f>IF(laptimes!M6-laptimes!M5&lt;0, "-" &amp; TEXT(ABS(laptimes!M6-laptimes!M5),"sss.000"), laptimes!M6-laptimes!M5)</f>
+        <v>8.3333333333337166E-7</v>
+      </c>
+      <c r="N6" s="2" t="str">
+        <f>IF(laptimes!N6-laptimes!N5&lt;0, "-" &amp; TEXT(ABS(laptimes!N6-laptimes!N5),"sss.000"), laptimes!N6-laptimes!N5)</f>
+        <v>-00.032</v>
+      </c>
+      <c r="O6" s="2">
+        <f>IF(laptimes!O6-laptimes!O5&lt;0, "-" &amp; TEXT(ABS(laptimes!O6-laptimes!O5),"sss.000"), laptimes!O6-laptimes!O5)</f>
+        <v>4.8842592592591647E-6</v>
+      </c>
+      <c r="P6" s="2">
+        <f>IF(laptimes!P6-laptimes!P5&lt;0, "-" &amp; TEXT(ABS(laptimes!P6-laptimes!P5),"sss.000"), laptimes!P6-laptimes!P5)</f>
+        <v>1.2731481481482489E-6</v>
+      </c>
+      <c r="Q6" s="2">
+        <f>IF(laptimes!Q6-laptimes!Q5&lt;0, "-" &amp; TEXT(ABS(laptimes!Q6-laptimes!Q5),"sss.000"), laptimes!Q6-laptimes!Q5)</f>
+        <v>2.3148148148082956E-8</v>
+      </c>
+      <c r="R6" s="2">
+        <f>IF(laptimes!R6-laptimes!R5&lt;0, "-" &amp; TEXT(ABS(laptimes!R6-laptimes!R5),"sss.000"), laptimes!R6-laptimes!R5)</f>
+        <v>2.326388888888517E-6</v>
+      </c>
+      <c r="S6" s="2">
+        <f>IF(laptimes!S6-laptimes!S5&lt;0, "-" &amp; TEXT(ABS(laptimes!S6-laptimes!S5),"sss.000"), laptimes!S6-laptimes!S5)</f>
+        <v>1.3657407407407975E-6</v>
+      </c>
+      <c r="T6" s="2" t="str">
+        <f>IF(laptimes!T6-laptimes!T5&lt;0, "-" &amp; TEXT(ABS(laptimes!T6-laptimes!T5),"sss.000"), laptimes!T6-laptimes!T5)</f>
+        <v>-00.465</v>
+      </c>
+      <c r="U6" s="2" t="str">
+        <f>IF(laptimes!U6-laptimes!U5&lt;0, "-" &amp; TEXT(ABS(laptimes!U6-laptimes!U5),"sss.000"), laptimes!U6-laptimes!U5)</f>
+        <v>-00.103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>IF(laptimes!B7-laptimes!B6&lt;0, "-" &amp; TEXT(ABS(laptimes!B7-laptimes!B6),"sss.000"), laptimes!B7-laptimes!B6)</f>
+        <v>-00.251</v>
+      </c>
+      <c r="C7" s="2">
+        <f>IF(laptimes!C7-laptimes!C6&lt;0, "-" &amp; TEXT(ABS(laptimes!C7-laptimes!C6),"sss.000"), laptimes!C7-laptimes!C6)</f>
+        <v>3.8194444444445298E-6</v>
+      </c>
+      <c r="D7" s="2">
+        <f>IF(laptimes!D7-laptimes!D6&lt;0, "-" &amp; TEXT(ABS(laptimes!D7-laptimes!D6),"sss.000"), laptimes!D7-laptimes!D6)</f>
+        <v>4.1203703703704755E-6</v>
+      </c>
+      <c r="E7" s="2">
+        <f>IF(laptimes!E7-laptimes!E6&lt;0, "-" &amp; TEXT(ABS(laptimes!E7-laptimes!E6),"sss.000"), laptimes!E7-laptimes!E6)</f>
+        <v>1.3541666666666476E-6</v>
+      </c>
+      <c r="F7" s="2">
+        <f>IF(laptimes!F7-laptimes!F6&lt;0, "-" &amp; TEXT(ABS(laptimes!F7-laptimes!F6),"sss.000"), laptimes!F7-laptimes!F6)</f>
+        <v>2.5462962962956304E-7</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f>IF(laptimes!G7-laptimes!G6&lt;0, "-" &amp; TEXT(ABS(laptimes!G7-laptimes!G6),"sss.000"), laptimes!G7-laptimes!G6)</f>
+        <v>-00.151</v>
+      </c>
+      <c r="H7" s="2" t="str">
+        <f>IF(laptimes!H7-laptimes!H6&lt;0, "-" &amp; TEXT(ABS(laptimes!H7-laptimes!H6),"sss.000"), laptimes!H7-laptimes!H6)</f>
+        <v>-00.225</v>
+      </c>
+      <c r="I7" s="2">
+        <f>IF(laptimes!I7-laptimes!I6&lt;0, "-" &amp; TEXT(ABS(laptimes!I7-laptimes!I6),"sss.000"), laptimes!I7-laptimes!I6)</f>
+        <v>6.3078703703704948E-6</v>
+      </c>
+      <c r="J7" s="2" t="str">
+        <f>IF(laptimes!J7-laptimes!J6&lt;0, "-" &amp; TEXT(ABS(laptimes!J7-laptimes!J6),"sss.000"), laptimes!J7-laptimes!J6)</f>
+        <v>-00.441</v>
+      </c>
+      <c r="K7" s="2">
+        <f>IF(laptimes!K7-laptimes!K6&lt;0, "-" &amp; TEXT(ABS(laptimes!K7-laptimes!K6),"sss.000"), laptimes!K7-laptimes!K6)</f>
+        <v>5.2430555555556431E-6</v>
+      </c>
+      <c r="L7" s="2">
+        <f>IF(laptimes!L7-laptimes!L6&lt;0, "-" &amp; TEXT(ABS(laptimes!L7-laptimes!L6),"sss.000"), laptimes!L7-laptimes!L6)</f>
+        <v>6.8287037037033371E-6</v>
+      </c>
+      <c r="M7" s="2" t="str">
+        <f>IF(laptimes!M7-laptimes!M6&lt;0, "-" &amp; TEXT(ABS(laptimes!M7-laptimes!M6),"sss.000"), laptimes!M7-laptimes!M6)</f>
+        <v>-00.534</v>
+      </c>
+      <c r="N7" s="2" t="str">
+        <f>IF(laptimes!N7-laptimes!N6&lt;0, "-" &amp; TEXT(ABS(laptimes!N7-laptimes!N6),"sss.000"), laptimes!N7-laptimes!N6)</f>
+        <v>-00.214</v>
+      </c>
+      <c r="O7" s="2">
+        <f>IF(laptimes!O7-laptimes!O6&lt;0, "-" &amp; TEXT(ABS(laptimes!O7-laptimes!O6),"sss.000"), laptimes!O7-laptimes!O6)</f>
+        <v>2.4305555555562998E-7</v>
+      </c>
+      <c r="P7" s="2">
+        <f>IF(laptimes!P7-laptimes!P6&lt;0, "-" &amp; TEXT(ABS(laptimes!P7-laptimes!P6),"sss.000"), laptimes!P7-laptimes!P6)</f>
+        <v>6.4930555555555922E-6</v>
+      </c>
+      <c r="Q7" s="2" t="str">
+        <f>IF(laptimes!Q7-laptimes!Q6&lt;0, "-" &amp; TEXT(ABS(laptimes!Q7-laptimes!Q6),"sss.000"), laptimes!Q7-laptimes!Q6)</f>
+        <v>-00.644</v>
+      </c>
+      <c r="R7" s="2" t="str">
+        <f>IF(laptimes!R7-laptimes!R6&lt;0, "-" &amp; TEXT(ABS(laptimes!R7-laptimes!R6),"sss.000"), laptimes!R7-laptimes!R6)</f>
+        <v>-00.407</v>
+      </c>
+      <c r="S7" s="2">
+        <f>IF(laptimes!S7-laptimes!S6&lt;0, "-" &amp; TEXT(ABS(laptimes!S7-laptimes!S6),"sss.000"), laptimes!S7-laptimes!S6)</f>
+        <v>3.1828703703704053E-6</v>
+      </c>
+      <c r="T7" s="2" t="str">
+        <f>IF(laptimes!T7-laptimes!T6&lt;0, "-" &amp; TEXT(ABS(laptimes!T7-laptimes!T6),"sss.000"), laptimes!T7-laptimes!T6)</f>
+        <v>-00.593</v>
+      </c>
+      <c r="U7" s="2" t="str">
+        <f>IF(laptimes!U7-laptimes!U6&lt;0, "-" &amp; TEXT(ABS(laptimes!U7-laptimes!U6),"sss.000"), laptimes!U7-laptimes!U6)</f>
+        <v>-00.349</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>IF(laptimes!B8-laptimes!B7&lt;0, "-" &amp; TEXT(ABS(laptimes!B8-laptimes!B7),"sss.000"), laptimes!B8-laptimes!B7)</f>
+        <v>-00.288</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f>IF(laptimes!C8-laptimes!C7&lt;0, "-" &amp; TEXT(ABS(laptimes!C8-laptimes!C7),"sss.000"), laptimes!C8-laptimes!C7)</f>
+        <v>-00.511</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f>IF(laptimes!D8-laptimes!D7&lt;0, "-" &amp; TEXT(ABS(laptimes!D8-laptimes!D7),"sss.000"), laptimes!D8-laptimes!D7)</f>
+        <v>-00.248</v>
+      </c>
+      <c r="E8" s="2" t="str">
+        <f>IF(laptimes!E8-laptimes!E7&lt;0, "-" &amp; TEXT(ABS(laptimes!E8-laptimes!E7),"sss.000"), laptimes!E8-laptimes!E7)</f>
+        <v>-00.039</v>
+      </c>
+      <c r="F8" s="2">
+        <f>IF(laptimes!F8-laptimes!F7&lt;0, "-" &amp; TEXT(ABS(laptimes!F8-laptimes!F7),"sss.000"), laptimes!F8-laptimes!F7)</f>
+        <v>6.7129629629614045E-7</v>
+      </c>
+      <c r="G8" s="2">
+        <f>IF(laptimes!G8-laptimes!G7&lt;0, "-" &amp; TEXT(ABS(laptimes!G8-laptimes!G7),"sss.000"), laptimes!G8-laptimes!G7)</f>
+        <v>1.6782407407406764E-6</v>
+      </c>
+      <c r="H8" s="2" t="str">
+        <f>IF(laptimes!H8-laptimes!H7&lt;0, "-" &amp; TEXT(ABS(laptimes!H8-laptimes!H7),"sss.000"), laptimes!H8-laptimes!H7)</f>
+        <v>-00.032</v>
+      </c>
+      <c r="I8" s="2" t="str">
+        <f>IF(laptimes!I8-laptimes!I7&lt;0, "-" &amp; TEXT(ABS(laptimes!I8-laptimes!I7),"sss.000"), laptimes!I8-laptimes!I7)</f>
+        <v>-00.118</v>
+      </c>
+      <c r="J8" s="2">
+        <f>IF(laptimes!J8-laptimes!J7&lt;0, "-" &amp; TEXT(ABS(laptimes!J8-laptimes!J7),"sss.000"), laptimes!J8-laptimes!J7)</f>
+        <v>2.280092592592568E-6</v>
+      </c>
+      <c r="K8" s="2" t="str">
+        <f>IF(laptimes!K8-laptimes!K7&lt;0, "-" &amp; TEXT(ABS(laptimes!K8-laptimes!K7),"sss.000"), laptimes!K8-laptimes!K7)</f>
+        <v>-00.235</v>
+      </c>
+      <c r="L8" s="2" t="str">
+        <f>IF(laptimes!L8-laptimes!L7&lt;0, "-" &amp; TEXT(ABS(laptimes!L8-laptimes!L7),"sss.000"), laptimes!L8-laptimes!L7)</f>
+        <v>-00.399</v>
+      </c>
+      <c r="M8" s="2" t="str">
+        <f>IF(laptimes!M8-laptimes!M7&lt;0, "-" &amp; TEXT(ABS(laptimes!M8-laptimes!M7),"sss.000"), laptimes!M8-laptimes!M7)</f>
+        <v>-00.024</v>
+      </c>
+      <c r="N8" s="2">
+        <f>IF(laptimes!N8-laptimes!N7&lt;0, "-" &amp; TEXT(ABS(laptimes!N8-laptimes!N7),"sss.000"), laptimes!N8-laptimes!N7)</f>
+        <v>5.5787037037036049E-6</v>
+      </c>
+      <c r="O8" s="2" t="str">
+        <f>IF(laptimes!O8-laptimes!O7&lt;0, "-" &amp; TEXT(ABS(laptimes!O8-laptimes!O7),"sss.000"), laptimes!O8-laptimes!O7)</f>
+        <v>-00.228</v>
+      </c>
+      <c r="P8" s="2" t="str">
+        <f>IF(laptimes!P8-laptimes!P7&lt;0, "-" &amp; TEXT(ABS(laptimes!P8-laptimes!P7),"sss.000"), laptimes!P8-laptimes!P7)</f>
+        <v>-00.325</v>
+      </c>
+      <c r="Q8" s="2">
+        <f>IF(laptimes!Q8-laptimes!Q7&lt;0, "-" &amp; TEXT(ABS(laptimes!Q8-laptimes!Q7),"sss.000"), laptimes!Q8-laptimes!Q7)</f>
+        <v>3.0439814814812571E-6</v>
+      </c>
+      <c r="R8" s="2" t="str">
+        <f>IF(laptimes!R8-laptimes!R7&lt;0, "-" &amp; TEXT(ABS(laptimes!R8-laptimes!R7),"sss.000"), laptimes!R8-laptimes!R7)</f>
+        <v>-00.286</v>
+      </c>
+      <c r="S8" s="2" t="str">
+        <f>IF(laptimes!S8-laptimes!S7&lt;0, "-" &amp; TEXT(ABS(laptimes!S8-laptimes!S7),"sss.000"), laptimes!S8-laptimes!S7)</f>
+        <v>-00.251</v>
+      </c>
+      <c r="T8" s="2" t="str">
+        <f>IF(laptimes!T8-laptimes!T7&lt;0, "-" &amp; TEXT(ABS(laptimes!T8-laptimes!T7),"sss.000"), laptimes!T8-laptimes!T7)</f>
+        <v>-00.003</v>
+      </c>
+      <c r="U8" s="2" t="str">
+        <f>IF(laptimes!U8-laptimes!U7&lt;0, "-" &amp; TEXT(ABS(laptimes!U8-laptimes!U7),"sss.000"), laptimes!U8-laptimes!U7)</f>
+        <v>-00.295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <f>IF(laptimes!B9-laptimes!B8&lt;0, "-" &amp; TEXT(ABS(laptimes!B9-laptimes!B8),"sss.000"), laptimes!B9-laptimes!B8)</f>
+        <v>3.0092592592592411E-6</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f>IF(laptimes!C9-laptimes!C8&lt;0, "-" &amp; TEXT(ABS(laptimes!C9-laptimes!C8),"sss.000"), laptimes!C9-laptimes!C8)</f>
+        <v>-00.229</v>
+      </c>
+      <c r="D9" s="2">
+        <f>IF(laptimes!D9-laptimes!D8&lt;0, "-" &amp; TEXT(ABS(laptimes!D9-laptimes!D8),"sss.000"), laptimes!D9-laptimes!D8)</f>
+        <v>1.6087962962962107E-6</v>
+      </c>
+      <c r="E9" s="2">
+        <f>IF(laptimes!E9-laptimes!E8&lt;0, "-" &amp; TEXT(ABS(laptimes!E9-laptimes!E8),"sss.000"), laptimes!E9-laptimes!E8)</f>
+        <v>1.273148148148032E-6</v>
+      </c>
+      <c r="F9" s="2" t="str">
+        <f>IF(laptimes!F9-laptimes!F8&lt;0, "-" &amp; TEXT(ABS(laptimes!F9-laptimes!F8),"sss.000"), laptimes!F9-laptimes!F8)</f>
+        <v>-00.131</v>
+      </c>
+      <c r="G9" s="2">
+        <f>IF(laptimes!G9-laptimes!G8&lt;0, "-" &amp; TEXT(ABS(laptimes!G9-laptimes!G8),"sss.000"), laptimes!G9-laptimes!G8)</f>
+        <v>3.1134259259261565E-6</v>
+      </c>
+      <c r="H9" s="2" t="str">
+        <f>IF(laptimes!H9-laptimes!H8&lt;0, "-" &amp; TEXT(ABS(laptimes!H9-laptimes!H8),"sss.000"), laptimes!H9-laptimes!H8)</f>
+        <v>-00.068</v>
+      </c>
+      <c r="I9" s="2" t="str">
+        <f>IF(laptimes!I9-laptimes!I8&lt;0, "-" &amp; TEXT(ABS(laptimes!I9-laptimes!I8),"sss.000"), laptimes!I9-laptimes!I8)</f>
+        <v>-00.298</v>
+      </c>
+      <c r="J9" s="2">
+        <f>IF(laptimes!J9-laptimes!J8&lt;0, "-" &amp; TEXT(ABS(laptimes!J9-laptimes!J8),"sss.000"), laptimes!J9-laptimes!J8)</f>
+        <v>1.9675925925924723E-7</v>
+      </c>
+      <c r="K9" s="2" t="str">
+        <f>IF(laptimes!K9-laptimes!K8&lt;0, "-" &amp; TEXT(ABS(laptimes!K9-laptimes!K8),"sss.000"), laptimes!K9-laptimes!K8)</f>
+        <v>-00.118</v>
+      </c>
+      <c r="L9" s="2" t="str">
+        <f>IF(laptimes!L9-laptimes!L8&lt;0, "-" &amp; TEXT(ABS(laptimes!L9-laptimes!L8),"sss.000"), laptimes!L9-laptimes!L8)</f>
+        <v>-00.200</v>
+      </c>
+      <c r="M9" s="2">
+        <f>IF(laptimes!M9-laptimes!M8&lt;0, "-" &amp; TEXT(ABS(laptimes!M9-laptimes!M8),"sss.000"), laptimes!M9-laptimes!M8)</f>
+        <v>1.261574074074099E-6</v>
+      </c>
+      <c r="N9" s="2" t="str">
+        <f>IF(laptimes!N9-laptimes!N8&lt;0, "-" &amp; TEXT(ABS(laptimes!N9-laptimes!N8),"sss.000"), laptimes!N9-laptimes!N8)</f>
+        <v>-00.448</v>
+      </c>
+      <c r="O9" s="2" t="str">
+        <f>IF(laptimes!O9-laptimes!O8&lt;0, "-" &amp; TEXT(ABS(laptimes!O9-laptimes!O8),"sss.000"), laptimes!O9-laptimes!O8)</f>
+        <v>-00.063</v>
+      </c>
+      <c r="P9" s="2">
+        <f>IF(laptimes!P9-laptimes!P8&lt;0, "-" &amp; TEXT(ABS(laptimes!P9-laptimes!P8),"sss.000"), laptimes!P9-laptimes!P8)</f>
+        <v>6.7129629629635729E-7</v>
+      </c>
+      <c r="Q9" s="2" t="str">
+        <f>IF(laptimes!Q9-laptimes!Q8&lt;0, "-" &amp; TEXT(ABS(laptimes!Q9-laptimes!Q8),"sss.000"), laptimes!Q9-laptimes!Q8)</f>
+        <v>-00.058</v>
+      </c>
+      <c r="R9" s="2">
+        <f>IF(laptimes!R9-laptimes!R8&lt;0, "-" &amp; TEXT(ABS(laptimes!R9-laptimes!R8),"sss.000"), laptimes!R9-laptimes!R8)</f>
+        <v>3.79629629629623E-6</v>
+      </c>
+      <c r="S9" s="2" t="str">
+        <f>IF(laptimes!S9-laptimes!S8&lt;0, "-" &amp; TEXT(ABS(laptimes!S9-laptimes!S8),"sss.000"), laptimes!S9-laptimes!S8)</f>
+        <v>-00.132</v>
+      </c>
+      <c r="T9" s="2" t="str">
+        <f>IF(laptimes!T9-laptimes!T8&lt;0, "-" &amp; TEXT(ABS(laptimes!T9-laptimes!T8),"sss.000"), laptimes!T9-laptimes!T8)</f>
+        <v>-00.276</v>
+      </c>
+      <c r="U9" s="2" t="str">
+        <f>IF(laptimes!U9-laptimes!U8&lt;0, "-" &amp; TEXT(ABS(laptimes!U9-laptimes!U8),"sss.000"), laptimes!U9-laptimes!U8)</f>
+        <v>-00.185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>IF(laptimes!B10-laptimes!B9&lt;0, "-" &amp; TEXT(ABS(laptimes!B10-laptimes!B9),"sss.000"), laptimes!B10-laptimes!B9)</f>
+        <v>-00.167</v>
+      </c>
+      <c r="C10" s="2">
+        <f>IF(laptimes!C10-laptimes!C9&lt;0, "-" &amp; TEXT(ABS(laptimes!C10-laptimes!C9),"sss.000"), laptimes!C10-laptimes!C9)</f>
+        <v>1.6203703703723121E-7</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f>IF(laptimes!D10-laptimes!D9&lt;0, "-" &amp; TEXT(ABS(laptimes!D10-laptimes!D9),"sss.000"), laptimes!D10-laptimes!D9)</f>
+        <v>-00.275</v>
+      </c>
+      <c r="E10" s="2" t="str">
+        <f>IF(laptimes!E10-laptimes!E9&lt;0, "-" &amp; TEXT(ABS(laptimes!E10-laptimes!E9),"sss.000"), laptimes!E10-laptimes!E9)</f>
+        <v>-00.231</v>
+      </c>
+      <c r="F10" s="2">
+        <f>IF(laptimes!F10-laptimes!F9&lt;0, "-" &amp; TEXT(ABS(laptimes!F10-laptimes!F9),"sss.000"), laptimes!F10-laptimes!F9)</f>
+        <v>7.9166666666667055E-6</v>
+      </c>
+      <c r="G10" s="2" t="str">
+        <f>IF(laptimes!G10-laptimes!G9&lt;0, "-" &amp; TEXT(ABS(laptimes!G10-laptimes!G9),"sss.000"), laptimes!G10-laptimes!G9)</f>
+        <v>-00.273</v>
+      </c>
+      <c r="H10" s="2" t="str">
+        <f>IF(laptimes!H10-laptimes!H9&lt;0, "-" &amp; TEXT(ABS(laptimes!H10-laptimes!H9),"sss.000"), laptimes!H10-laptimes!H9)</f>
+        <v>-00.017</v>
+      </c>
+      <c r="I10" s="2">
+        <f>IF(laptimes!I10-laptimes!I9&lt;0, "-" &amp; TEXT(ABS(laptimes!I10-laptimes!I9),"sss.000"), laptimes!I10-laptimes!I9)</f>
+        <v>3.3819444444444392E-5</v>
+      </c>
+      <c r="J10" s="2" t="str">
+        <f>IF(laptimes!J10-laptimes!J9&lt;0, "-" &amp; TEXT(ABS(laptimes!J10-laptimes!J9),"sss.000"), laptimes!J10-laptimes!J9)</f>
+        <v>-00.205</v>
+      </c>
+      <c r="K10" s="2">
+        <f>IF(laptimes!K10-laptimes!K9&lt;0, "-" &amp; TEXT(ABS(laptimes!K10-laptimes!K9),"sss.000"), laptimes!K10-laptimes!K9)</f>
+        <v>9.3634259259259018E-6</v>
+      </c>
+      <c r="L10" s="2">
+        <f>IF(laptimes!L10-laptimes!L9&lt;0, "-" &amp; TEXT(ABS(laptimes!L10-laptimes!L9),"sss.000"), laptimes!L10-laptimes!L9)</f>
+        <v>4.6296296296296016E-7</v>
+      </c>
+      <c r="M10" s="2" t="str">
+        <f>IF(laptimes!M10-laptimes!M9&lt;0, "-" &amp; TEXT(ABS(laptimes!M10-laptimes!M9),"sss.000"), laptimes!M10-laptimes!M9)</f>
+        <v>-00.158</v>
+      </c>
+      <c r="N10" s="2">
+        <f>IF(laptimes!N10-laptimes!N9&lt;0, "-" &amp; TEXT(ABS(laptimes!N10-laptimes!N9),"sss.000"), laptimes!N10-laptimes!N9)</f>
+        <v>3.6342592592592156E-6</v>
+      </c>
+      <c r="O10" s="2" t="str">
+        <f>IF(laptimes!O10-laptimes!O9&lt;0, "-" &amp; TEXT(ABS(laptimes!O10-laptimes!O9),"sss.000"), laptimes!O10-laptimes!O9)</f>
+        <v>-00.090</v>
+      </c>
+      <c r="P10" s="2" t="str">
+        <f>IF(laptimes!P10-laptimes!P9&lt;0, "-" &amp; TEXT(ABS(laptimes!P10-laptimes!P9),"sss.000"), laptimes!P10-laptimes!P9)</f>
+        <v>-00.038</v>
+      </c>
+      <c r="Q10" s="2" t="str">
+        <f>IF(laptimes!Q10-laptimes!Q9&lt;0, "-" &amp; TEXT(ABS(laptimes!Q10-laptimes!Q9),"sss.000"), laptimes!Q10-laptimes!Q9)</f>
+        <v>-00.360</v>
+      </c>
+      <c r="R10" s="2">
+        <f>IF(laptimes!R10-laptimes!R9&lt;0, "-" &amp; TEXT(ABS(laptimes!R10-laptimes!R9),"sss.000"), laptimes!R10-laptimes!R9)</f>
+        <v>1.6203703703723121E-7</v>
+      </c>
+      <c r="S10" s="2">
+        <f>IF(laptimes!S10-laptimes!S9&lt;0, "-" &amp; TEXT(ABS(laptimes!S10-laptimes!S9),"sss.000"), laptimes!S10-laptimes!S9)</f>
+        <v>1.5046296296286447E-7</v>
+      </c>
+      <c r="T10" s="2">
+        <f>IF(laptimes!T10-laptimes!T9&lt;0, "-" &amp; TEXT(ABS(laptimes!T10-laptimes!T9),"sss.000"), laptimes!T10-laptimes!T9)</f>
+        <v>2.9062500000000008E-5</v>
+      </c>
+      <c r="U10" s="2" t="str">
+        <f>IF(laptimes!U10-laptimes!U9&lt;0, "-" &amp; TEXT(ABS(laptimes!U10-laptimes!U9),"sss.000"), laptimes!U10-laptimes!U9)</f>
+        <v>-00.110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <f>IF(laptimes!B11-laptimes!B10&lt;0, "-" &amp; TEXT(ABS(laptimes!B11-laptimes!B10),"sss.000"), laptimes!B11-laptimes!B10)</f>
+        <v>5.0925925925912607E-7</v>
+      </c>
+      <c r="C11" s="2">
+        <f>IF(laptimes!C11-laptimes!C10&lt;0, "-" &amp; TEXT(ABS(laptimes!C11-laptimes!C10),"sss.000"), laptimes!C11-laptimes!C10)</f>
+        <v>1.4236111111111133E-6</v>
+      </c>
+      <c r="D11" s="2">
+        <f>IF(laptimes!D11-laptimes!D10&lt;0, "-" &amp; TEXT(ABS(laptimes!D11-laptimes!D10),"sss.000"), laptimes!D11-laptimes!D10)</f>
+        <v>1.2962962962963318E-6</v>
+      </c>
+      <c r="E11" s="2">
+        <f>IF(laptimes!E11-laptimes!E10&lt;0, "-" &amp; TEXT(ABS(laptimes!E11-laptimes!E10),"sss.000"), laptimes!E11-laptimes!E10)</f>
+        <v>3.7731481481479302E-6</v>
+      </c>
+      <c r="F11" s="2" t="str">
+        <f>IF(laptimes!F11-laptimes!F10&lt;0, "-" &amp; TEXT(ABS(laptimes!F11-laptimes!F10),"sss.000"), laptimes!F11-laptimes!F10)</f>
+        <v>-00.388</v>
+      </c>
+      <c r="G11" s="2">
+        <f>IF(laptimes!G11-laptimes!G10&lt;0, "-" &amp; TEXT(ABS(laptimes!G11-laptimes!G10),"sss.000"), laptimes!G11-laptimes!G10)</f>
+        <v>3.3333333333334866E-6</v>
+      </c>
+      <c r="H11" s="2" t="str">
+        <f>IF(laptimes!H11-laptimes!H10&lt;0, "-" &amp; TEXT(ABS(laptimes!H11-laptimes!H10),"sss.000"), laptimes!H11-laptimes!H10)</f>
+        <v>-00.113</v>
+      </c>
+      <c r="I11" s="2" t="str">
+        <f>IF(laptimes!I11-laptimes!I10&lt;0, "-" &amp; TEXT(ABS(laptimes!I11-laptimes!I10),"sss.000"), laptimes!I11-laptimes!I10)</f>
+        <v>-02.725</v>
+      </c>
+      <c r="J11" s="2" t="str">
+        <f>IF(laptimes!J11-laptimes!J10&lt;0, "-" &amp; TEXT(ABS(laptimes!J11-laptimes!J10),"sss.000"), laptimes!J11-laptimes!J10)</f>
+        <v>-00.137</v>
+      </c>
+      <c r="K11" s="2" t="str">
+        <f>IF(laptimes!K11-laptimes!K10&lt;0, "-" &amp; TEXT(ABS(laptimes!K11-laptimes!K10),"sss.000"), laptimes!K11-laptimes!K10)</f>
+        <v>-00.229</v>
+      </c>
+      <c r="L11" s="2">
+        <f>IF(laptimes!L11-laptimes!L10&lt;0, "-" &amp; TEXT(ABS(laptimes!L11-laptimes!L10),"sss.000"), laptimes!L11-laptimes!L10)</f>
+        <v>8.5648148148145462E-7</v>
+      </c>
+      <c r="M11" s="2">
+        <f>IF(laptimes!M11-laptimes!M10&lt;0, "-" &amp; TEXT(ABS(laptimes!M11-laptimes!M10),"sss.000"), laptimes!M11-laptimes!M10)</f>
+        <v>1.2384259259257992E-6</v>
+      </c>
+      <c r="N11" s="2" t="str">
+        <f>IF(laptimes!N11-laptimes!N10&lt;0, "-" &amp; TEXT(ABS(laptimes!N11-laptimes!N10),"sss.000"), laptimes!N11-laptimes!N10)</f>
+        <v>-00.335</v>
+      </c>
+      <c r="O11" s="2">
+        <f>IF(laptimes!O11-laptimes!O10&lt;0, "-" &amp; TEXT(ABS(laptimes!O11-laptimes!O10),"sss.000"), laptimes!O11-laptimes!O10)</f>
+        <v>1.0300925925928357E-6</v>
+      </c>
+      <c r="P11" s="2">
+        <f>IF(laptimes!P11-laptimes!P10&lt;0, "-" &amp; TEXT(ABS(laptimes!P11-laptimes!P10),"sss.000"), laptimes!P11-laptimes!P10)</f>
+        <v>1.9791666666666222E-6</v>
+      </c>
+      <c r="Q11" s="2" t="str">
+        <f>IF(laptimes!Q11-laptimes!Q10&lt;0, "-" &amp; TEXT(ABS(laptimes!Q11-laptimes!Q10),"sss.000"), laptimes!Q11-laptimes!Q10)</f>
+        <v>-30.899</v>
+      </c>
+      <c r="R11" s="2" t="str">
+        <f>IF(laptimes!R11-laptimes!R10&lt;0, "-" &amp; TEXT(ABS(laptimes!R11-laptimes!R10),"sss.000"), laptimes!R11-laptimes!R10)</f>
+        <v>-00.181</v>
+      </c>
+      <c r="S11" s="2">
+        <f>IF(laptimes!S11-laptimes!S10&lt;0, "-" &amp; TEXT(ABS(laptimes!S11-laptimes!S10),"sss.000"), laptimes!S11-laptimes!S10)</f>
+        <v>4.2129629629630242E-6</v>
+      </c>
+      <c r="T11" s="2">
+        <f>IF(laptimes!T11-laptimes!T10&lt;0, "-" &amp; TEXT(ABS(laptimes!T11-laptimes!T10),"sss.000"), laptimes!T11-laptimes!T10)</f>
+        <v>1.9733796296296123E-5</v>
+      </c>
+      <c r="U11" s="2">
+        <f>IF(laptimes!U11-laptimes!U10&lt;0, "-" &amp; TEXT(ABS(laptimes!U11-laptimes!U10),"sss.000"), laptimes!U11-laptimes!U10)</f>
+        <v>1.7245370370370591E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>IF(laptimes!B12-laptimes!B11&lt;0, "-" &amp; TEXT(ABS(laptimes!B12-laptimes!B11),"sss.000"), laptimes!B12-laptimes!B11)</f>
+        <v>-00.006</v>
+      </c>
+      <c r="C12" s="2">
+        <f>IF(laptimes!C12-laptimes!C11&lt;0, "-" &amp; TEXT(ABS(laptimes!C12-laptimes!C11),"sss.000"), laptimes!C12-laptimes!C11)</f>
+        <v>3.0092592592594579E-7</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f>IF(laptimes!D12-laptimes!D11&lt;0, "-" &amp; TEXT(ABS(laptimes!D12-laptimes!D11),"sss.000"), laptimes!D12-laptimes!D11)</f>
+        <v>-00.148</v>
+      </c>
+      <c r="E12" s="2" t="str">
+        <f>IF(laptimes!E12-laptimes!E11&lt;0, "-" &amp; TEXT(ABS(laptimes!E12-laptimes!E11),"sss.000"), laptimes!E12-laptimes!E11)</f>
+        <v>-00.462</v>
+      </c>
+      <c r="F12" s="2">
+        <f>IF(laptimes!F12-laptimes!F11&lt;0, "-" &amp; TEXT(ABS(laptimes!F12-laptimes!F11),"sss.000"), laptimes!F12-laptimes!F11)</f>
+        <v>2.7083333333332953E-6</v>
+      </c>
+      <c r="G12" s="2" t="str">
+        <f>IF(laptimes!G12-laptimes!G11&lt;0, "-" &amp; TEXT(ABS(laptimes!G12-laptimes!G11),"sss.000"), laptimes!G12-laptimes!G11)</f>
+        <v>-01.320</v>
+      </c>
+      <c r="H12" s="2" t="str">
+        <f>IF(laptimes!H12-laptimes!H11&lt;0, "-" &amp; TEXT(ABS(laptimes!H12-laptimes!H11),"sss.000"), laptimes!H12-laptimes!H11)</f>
+        <v>-00.095</v>
+      </c>
+      <c r="I12" s="2">
+        <f>IF(laptimes!I12-laptimes!I11&lt;0, "-" &amp; TEXT(ABS(laptimes!I12-laptimes!I11),"sss.000"), laptimes!I12-laptimes!I11)</f>
+        <v>8.1018518518181926E-8</v>
+      </c>
+      <c r="J12" s="2" t="str">
+        <f>IF(laptimes!J12-laptimes!J11&lt;0, "-" &amp; TEXT(ABS(laptimes!J12-laptimes!J11),"sss.000"), laptimes!J12-laptimes!J11)</f>
+        <v>-00.209</v>
+      </c>
+      <c r="K12" s="2" t="str">
+        <f>IF(laptimes!K12-laptimes!K11&lt;0, "-" &amp; TEXT(ABS(laptimes!K12-laptimes!K11),"sss.000"), laptimes!K12-laptimes!K11)</f>
+        <v>-00.098</v>
+      </c>
+      <c r="L12" s="2">
+        <f>IF(laptimes!L12-laptimes!L11&lt;0, "-" &amp; TEXT(ABS(laptimes!L12-laptimes!L11),"sss.000"), laptimes!L12-laptimes!L11)</f>
+        <v>2.3726851851851166E-6</v>
+      </c>
+      <c r="M12" s="2" t="str">
+        <f>IF(laptimes!M12-laptimes!M11&lt;0, "-" &amp; TEXT(ABS(laptimes!M12-laptimes!M11),"sss.000"), laptimes!M12-laptimes!M11)</f>
+        <v>-01.035</v>
+      </c>
+      <c r="N12" s="2">
+        <f>IF(laptimes!N12-laptimes!N11&lt;0, "-" &amp; TEXT(ABS(laptimes!N12-laptimes!N11),"sss.000"), laptimes!N12-laptimes!N11)</f>
+        <v>2.3032407407406509E-6</v>
+      </c>
+      <c r="O12" s="2" t="str">
+        <f>IF(laptimes!O12-laptimes!O11&lt;0, "-" &amp; TEXT(ABS(laptimes!O12-laptimes!O11),"sss.000"), laptimes!O12-laptimes!O11)</f>
+        <v>-00.012</v>
+      </c>
+      <c r="P12" s="2" t="str">
+        <f>IF(laptimes!P12-laptimes!P11&lt;0, "-" &amp; TEXT(ABS(laptimes!P12-laptimes!P11),"sss.000"), laptimes!P12-laptimes!P11)</f>
+        <v>-00.557</v>
+      </c>
+      <c r="Q12" s="2">
+        <f>IF(laptimes!Q12-laptimes!Q11&lt;0, "-" &amp; TEXT(ABS(laptimes!Q12-laptimes!Q11),"sss.000"), laptimes!Q12-laptimes!Q11)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="2" t="str">
+        <f>IF(laptimes!R12-laptimes!R11&lt;0, "-" &amp; TEXT(ABS(laptimes!R12-laptimes!R11),"sss.000"), laptimes!R12-laptimes!R11)</f>
+        <v>-00.415</v>
+      </c>
+      <c r="S12" s="2" t="str">
+        <f>IF(laptimes!S12-laptimes!S11&lt;0, "-" &amp; TEXT(ABS(laptimes!S12-laptimes!S11),"sss.000"), laptimes!S12-laptimes!S11)</f>
+        <v>-00.043</v>
+      </c>
+      <c r="T12" s="2" t="str">
+        <f>IF(laptimes!T12-laptimes!T11&lt;0, "-" &amp; TEXT(ABS(laptimes!T12-laptimes!T11),"sss.000"), laptimes!T12-laptimes!T11)</f>
+        <v>-03.036</v>
+      </c>
+      <c r="U12" s="2" t="str">
+        <f>IF(laptimes!U12-laptimes!U11&lt;0, "-" &amp; TEXT(ABS(laptimes!U12-laptimes!U11),"sss.000"), laptimes!U12-laptimes!U11)</f>
+        <v>-00.012</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>IF(laptimes!B13-laptimes!B12&lt;0, "-" &amp; TEXT(ABS(laptimes!B13-laptimes!B12),"sss.000"), laptimes!B13-laptimes!B12)</f>
+        <v>-00.057</v>
+      </c>
+      <c r="C13" s="2">
+        <f>IF(laptimes!C13-laptimes!C12&lt;0, "-" &amp; TEXT(ABS(laptimes!C13-laptimes!C12),"sss.000"), laptimes!C13-laptimes!C12)</f>
+        <v>6.9675925925924854E-6</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f>IF(laptimes!D13-laptimes!D12&lt;0, "-" &amp; TEXT(ABS(laptimes!D13-laptimes!D12),"sss.000"), laptimes!D13-laptimes!D12)</f>
+        <v>-00.144</v>
+      </c>
+      <c r="E13" s="2">
+        <f>IF(laptimes!E13-laptimes!E12&lt;0, "-" &amp; TEXT(ABS(laptimes!E13-laptimes!E12),"sss.000"), laptimes!E13-laptimes!E12)</f>
+        <v>2.1777777777777789E-4</v>
+      </c>
+      <c r="F13" s="2" t="str">
+        <f>IF(laptimes!F13-laptimes!F12&lt;0, "-" &amp; TEXT(ABS(laptimes!F13-laptimes!F12),"sss.000"), laptimes!F13-laptimes!F12)</f>
+        <v>-00.017</v>
+      </c>
+      <c r="G13" s="2">
+        <f>IF(laptimes!G13-laptimes!G12&lt;0, "-" &amp; TEXT(ABS(laptimes!G13-laptimes!G12),"sss.000"), laptimes!G13-laptimes!G12)</f>
+        <v>4.259259259259407E-6</v>
+      </c>
+      <c r="H13" s="2">
+        <f>IF(laptimes!H13-laptimes!H12&lt;0, "-" &amp; TEXT(ABS(laptimes!H13-laptimes!H12),"sss.000"), laptimes!H13-laptimes!H12)</f>
+        <v>2.9282407407406254E-6</v>
+      </c>
+      <c r="I13" s="2" t="str">
+        <f>IF(laptimes!I13-laptimes!I12&lt;0, "-" &amp; TEXT(ABS(laptimes!I13-laptimes!I12),"sss.000"), laptimes!I13-laptimes!I12)</f>
+        <v>-00.084</v>
+      </c>
+      <c r="J13" s="2">
+        <f>IF(laptimes!J13-laptimes!J12&lt;0, "-" &amp; TEXT(ABS(laptimes!J13-laptimes!J12),"sss.000"), laptimes!J13-laptimes!J12)</f>
+        <v>3.6342592592592156E-6</v>
+      </c>
+      <c r="K13" s="2" t="str">
+        <f>IF(laptimes!K13-laptimes!K12&lt;0, "-" &amp; TEXT(ABS(laptimes!K13-laptimes!K12),"sss.000"), laptimes!K13-laptimes!K12)</f>
+        <v>-00.167</v>
+      </c>
+      <c r="L13" s="2" t="str">
+        <f>IF(laptimes!L13-laptimes!L12&lt;0, "-" &amp; TEXT(ABS(laptimes!L13-laptimes!L12),"sss.000"), laptimes!L13-laptimes!L12)</f>
+        <v>-00.029</v>
+      </c>
+      <c r="M13" s="2">
+        <f>IF(laptimes!M13-laptimes!M12&lt;0, "-" &amp; TEXT(ABS(laptimes!M13-laptimes!M12),"sss.000"), laptimes!M13-laptimes!M12)</f>
+        <v>5.3356481481481918E-6</v>
+      </c>
+      <c r="N13" s="2">
+        <f>IF(laptimes!N13-laptimes!N12&lt;0, "-" &amp; TEXT(ABS(laptimes!N13-laptimes!N12),"sss.000"), laptimes!N13-laptimes!N12)</f>
+        <v>3.1597222222221055E-6</v>
+      </c>
+      <c r="O13" s="2" t="str">
+        <f>IF(laptimes!O13-laptimes!O12&lt;0, "-" &amp; TEXT(ABS(laptimes!O13-laptimes!O12),"sss.000"), laptimes!O13-laptimes!O12)</f>
+        <v>-00.336</v>
+      </c>
+      <c r="P13" s="2" t="str">
+        <f>IF(laptimes!P13-laptimes!P12&lt;0, "-" &amp; TEXT(ABS(laptimes!P13-laptimes!P12),"sss.000"), laptimes!P13-laptimes!P12)</f>
+        <v>-00.051</v>
+      </c>
+      <c r="Q13" s="2">
+        <f>IF(laptimes!Q13-laptimes!Q12&lt;0, "-" &amp; TEXT(ABS(laptimes!Q13-laptimes!Q12),"sss.000"), laptimes!Q13-laptimes!Q12)</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="2">
+        <f>IF(laptimes!R13-laptimes!R12&lt;0, "-" &amp; TEXT(ABS(laptimes!R13-laptimes!R12),"sss.000"), laptimes!R13-laptimes!R12)</f>
+        <v>4.4791666666665203E-6</v>
+      </c>
+      <c r="S13" s="2" t="str">
+        <f>IF(laptimes!S13-laptimes!S12&lt;0, "-" &amp; TEXT(ABS(laptimes!S13-laptimes!S12),"sss.000"), laptimes!S13-laptimes!S12)</f>
+        <v>-00.352</v>
+      </c>
+      <c r="T13" s="2">
+        <f>IF(laptimes!T13-laptimes!T12&lt;0, "-" &amp; TEXT(ABS(laptimes!T13-laptimes!T12),"sss.000"), laptimes!T13-laptimes!T12)</f>
+        <v>8.2175925925926513E-6</v>
+      </c>
+      <c r="U13" s="2" t="str">
+        <f>IF(laptimes!U13-laptimes!U12&lt;0, "-" &amp; TEXT(ABS(laptimes!U13-laptimes!U12),"sss.000"), laptimes!U13-laptimes!U12)</f>
+        <v>-00.218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>IF(laptimes!B14-laptimes!B13&lt;0, "-" &amp; TEXT(ABS(laptimes!B14-laptimes!B13),"sss.000"), laptimes!B14-laptimes!B13)</f>
+        <v>-00.088</v>
+      </c>
+      <c r="C14" s="2" t="str">
+        <f>IF(laptimes!C14-laptimes!C13&lt;0, "-" &amp; TEXT(ABS(laptimes!C14-laptimes!C13),"sss.000"), laptimes!C14-laptimes!C13)</f>
+        <v>-01.056</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f>IF(laptimes!D14-laptimes!D13&lt;0, "-" &amp; TEXT(ABS(laptimes!D14-laptimes!D13),"sss.000"), laptimes!D14-laptimes!D13)</f>
+        <v>-00.313</v>
+      </c>
+      <c r="E14" s="2" t="str">
+        <f>IF(laptimes!E14-laptimes!E13&lt;0, "-" &amp; TEXT(ABS(laptimes!E14-laptimes!E13),"sss.000"), laptimes!E14-laptimes!E13)</f>
+        <v>-13.497</v>
+      </c>
+      <c r="F14" s="2" t="str">
+        <f>IF(laptimes!F14-laptimes!F13&lt;0, "-" &amp; TEXT(ABS(laptimes!F14-laptimes!F13),"sss.000"), laptimes!F14-laptimes!F13)</f>
+        <v>-00.783</v>
+      </c>
+      <c r="G14" s="2">
+        <f>IF(laptimes!G14-laptimes!G13&lt;0, "-" &amp; TEXT(ABS(laptimes!G14-laptimes!G13),"sss.000"), laptimes!G14-laptimes!G13)</f>
+        <v>7.4768518518518283E-6</v>
+      </c>
+      <c r="H14" s="2">
+        <f>IF(laptimes!H14-laptimes!H13&lt;0, "-" &amp; TEXT(ABS(laptimes!H14-laptimes!H13),"sss.000"), laptimes!H14-laptimes!H13)</f>
+        <v>2.1944444444444442E-4</v>
+      </c>
+      <c r="I14" s="2" t="str">
+        <f>IF(laptimes!I14-laptimes!I13&lt;0, "-" &amp; TEXT(ABS(laptimes!I14-laptimes!I13),"sss.000"), laptimes!I14-laptimes!I13)</f>
+        <v>-00.546</v>
+      </c>
+      <c r="J14" s="2" t="str">
+        <f>IF(laptimes!J14-laptimes!J13&lt;0, "-" &amp; TEXT(ABS(laptimes!J14-laptimes!J13),"sss.000"), laptimes!J14-laptimes!J13)</f>
+        <v>-00.273</v>
+      </c>
+      <c r="K14" s="2" t="str">
+        <f>IF(laptimes!K14-laptimes!K13&lt;0, "-" &amp; TEXT(ABS(laptimes!K14-laptimes!K13),"sss.000"), laptimes!K14-laptimes!K13)</f>
+        <v>-00.193</v>
+      </c>
+      <c r="L14" s="2" t="str">
+        <f>IF(laptimes!L14-laptimes!L13&lt;0, "-" &amp; TEXT(ABS(laptimes!L14-laptimes!L13),"sss.000"), laptimes!L14-laptimes!L13)</f>
+        <v>-00.383</v>
+      </c>
+      <c r="M14" s="2">
+        <f>IF(laptimes!M14-laptimes!M13&lt;0, "-" &amp; TEXT(ABS(laptimes!M14-laptimes!M13),"sss.000"), laptimes!M14-laptimes!M13)</f>
+        <v>1.7476851851851421E-6</v>
+      </c>
+      <c r="N14" s="2">
+        <f>IF(laptimes!N14-laptimes!N13&lt;0, "-" &amp; TEXT(ABS(laptimes!N14-laptimes!N13),"sss.000"), laptimes!N14-laptimes!N13)</f>
+        <v>1.9303240740740761E-4</v>
+      </c>
+      <c r="O14" s="2" t="str">
+        <f>IF(laptimes!O14-laptimes!O13&lt;0, "-" &amp; TEXT(ABS(laptimes!O14-laptimes!O13),"sss.000"), laptimes!O14-laptimes!O13)</f>
+        <v>-00.164</v>
+      </c>
+      <c r="P14" s="2" t="str">
+        <f>IF(laptimes!P14-laptimes!P13&lt;0, "-" &amp; TEXT(ABS(laptimes!P14-laptimes!P13),"sss.000"), laptimes!P14-laptimes!P13)</f>
+        <v>-00.117</v>
+      </c>
+      <c r="Q14" s="2">
+        <f>IF(laptimes!Q14-laptimes!Q13&lt;0, "-" &amp; TEXT(ABS(laptimes!Q14-laptimes!Q13),"sss.000"), laptimes!Q14-laptimes!Q13)</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="2">
+        <f>IF(laptimes!R14-laptimes!R13&lt;0, "-" &amp; TEXT(ABS(laptimes!R14-laptimes!R13),"sss.000"), laptimes!R14-laptimes!R13)</f>
+        <v>7.1759259259258825E-6</v>
+      </c>
+      <c r="S14" s="2" t="str">
+        <f>IF(laptimes!S14-laptimes!S13&lt;0, "-" &amp; TEXT(ABS(laptimes!S14-laptimes!S13),"sss.000"), laptimes!S14-laptimes!S13)</f>
+        <v>-00.007</v>
+      </c>
+      <c r="T14" s="2" t="str">
+        <f>IF(laptimes!T14-laptimes!T13&lt;0, "-" &amp; TEXT(ABS(laptimes!T14-laptimes!T13),"sss.000"), laptimes!T14-laptimes!T13)</f>
+        <v>-00.851</v>
+      </c>
+      <c r="U14" s="2" t="str">
+        <f>IF(laptimes!U14-laptimes!U13&lt;0, "-" &amp; TEXT(ABS(laptimes!U14-laptimes!U13),"sss.000"), laptimes!U14-laptimes!U13)</f>
+        <v>-00.089</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <f>IF(laptimes!B15-laptimes!B14&lt;0, "-" &amp; TEXT(ABS(laptimes!B15-laptimes!B14),"sss.000"), laptimes!B15-laptimes!B14)</f>
+        <v>5.787037037031581E-8</v>
+      </c>
+      <c r="C15" s="2">
+        <f>IF(laptimes!C15-laptimes!C14&lt;0, "-" &amp; TEXT(ABS(laptimes!C15-laptimes!C14),"sss.000"), laptimes!C15-laptimes!C14)</f>
+        <v>7.5231481481475605E-7</v>
+      </c>
+      <c r="D15" s="2">
+        <f>IF(laptimes!D15-laptimes!D14&lt;0, "-" &amp; TEXT(ABS(laptimes!D15-laptimes!D14),"sss.000"), laptimes!D15-laptimes!D14)</f>
+        <v>2.0645833333333323E-4</v>
+      </c>
+      <c r="E15" s="2" t="str">
+        <f>IF(laptimes!E15-laptimes!E14&lt;0, "-" &amp; TEXT(ABS(laptimes!E15-laptimes!E14),"sss.000"), laptimes!E15-laptimes!E14)</f>
+        <v>-06.650</v>
+      </c>
+      <c r="F15" s="2">
+        <f>IF(laptimes!F15-laptimes!F14&lt;0, "-" &amp; TEXT(ABS(laptimes!F15-laptimes!F14),"sss.000"), laptimes!F15-laptimes!F14)</f>
+        <v>5.6134259259258378E-6</v>
+      </c>
+      <c r="G15" s="2" t="str">
+        <f>IF(laptimes!G15-laptimes!G14&lt;0, "-" &amp; TEXT(ABS(laptimes!G15-laptimes!G14),"sss.000"), laptimes!G15-laptimes!G14)</f>
+        <v>-00.840</v>
+      </c>
+      <c r="H15" s="2" t="str">
+        <f>IF(laptimes!H15-laptimes!H14&lt;0, "-" &amp; TEXT(ABS(laptimes!H15-laptimes!H14),"sss.000"), laptimes!H15-laptimes!H14)</f>
+        <v>-15.124</v>
+      </c>
+      <c r="I15" s="2">
+        <f>IF(laptimes!I15-laptimes!I14&lt;0, "-" &amp; TEXT(ABS(laptimes!I15-laptimes!I14),"sss.000"), laptimes!I15-laptimes!I14)</f>
+        <v>1.2500000000001659E-6</v>
+      </c>
+      <c r="J15" s="2" t="str">
+        <f>IF(laptimes!J15-laptimes!J14&lt;0, "-" &amp; TEXT(ABS(laptimes!J15-laptimes!J14),"sss.000"), laptimes!J15-laptimes!J14)</f>
+        <v>-00.670</v>
+      </c>
+      <c r="K15" s="2">
+        <f>IF(laptimes!K15-laptimes!K14&lt;0, "-" &amp; TEXT(ABS(laptimes!K15-laptimes!K14),"sss.000"), laptimes!K15-laptimes!K14)</f>
+        <v>2.1178240740740728E-4</v>
+      </c>
+      <c r="L15" s="2">
+        <f>IF(laptimes!L15-laptimes!L14&lt;0, "-" &amp; TEXT(ABS(laptimes!L15-laptimes!L14),"sss.000"), laptimes!L15-laptimes!L14)</f>
+        <v>2.0149305555555545E-4</v>
+      </c>
+      <c r="M15" s="2" t="str">
+        <f>IF(laptimes!M15-laptimes!M14&lt;0, "-" &amp; TEXT(ABS(laptimes!M15-laptimes!M14),"sss.000"), laptimes!M15-laptimes!M14)</f>
+        <v>-00.242</v>
+      </c>
+      <c r="N15" s="2" t="str">
+        <f>IF(laptimes!N15-laptimes!N14&lt;0, "-" &amp; TEXT(ABS(laptimes!N15-laptimes!N14),"sss.000"), laptimes!N15-laptimes!N14)</f>
+        <v>-13.128</v>
+      </c>
+      <c r="O15" s="2">
+        <f>IF(laptimes!O15-laptimes!O14&lt;0, "-" &amp; TEXT(ABS(laptimes!O15-laptimes!O14),"sss.000"), laptimes!O15-laptimes!O14)</f>
+        <v>1.3657407407407975E-6</v>
+      </c>
+      <c r="P15" s="2" t="str">
+        <f>IF(laptimes!P15-laptimes!P14&lt;0, "-" &amp; TEXT(ABS(laptimes!P15-laptimes!P14),"sss.000"), laptimes!P15-laptimes!P14)</f>
+        <v>-00.121</v>
+      </c>
+      <c r="Q15" s="2">
+        <f>IF(laptimes!Q15-laptimes!Q14&lt;0, "-" &amp; TEXT(ABS(laptimes!Q15-laptimes!Q14),"sss.000"), laptimes!Q15-laptimes!Q14)</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="2" t="str">
+        <f>IF(laptimes!R15-laptimes!R14&lt;0, "-" &amp; TEXT(ABS(laptimes!R15-laptimes!R14),"sss.000"), laptimes!R15-laptimes!R14)</f>
+        <v>-00.685</v>
+      </c>
+      <c r="S15" s="2" t="str">
+        <f>IF(laptimes!S15-laptimes!S14&lt;0, "-" &amp; TEXT(ABS(laptimes!S15-laptimes!S14),"sss.000"), laptimes!S15-laptimes!S14)</f>
+        <v>-00.326</v>
+      </c>
+      <c r="T15" s="2">
+        <f>IF(laptimes!T15-laptimes!T14&lt;0, "-" &amp; TEXT(ABS(laptimes!T15-laptimes!T14),"sss.000"), laptimes!T15-laptimes!T14)</f>
+        <v>2.4131944444444244E-5</v>
+      </c>
+      <c r="U15" s="2" t="str">
+        <f>IF(laptimes!U15-laptimes!U14&lt;0, "-" &amp; TEXT(ABS(laptimes!U15-laptimes!U14),"sss.000"), laptimes!U15-laptimes!U14)</f>
+        <v>-00.127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <f>IF(laptimes!B16-laptimes!B15&lt;0, "-" &amp; TEXT(ABS(laptimes!B16-laptimes!B15),"sss.000"), laptimes!B16-laptimes!B15)</f>
+        <v>6.7592592592593051E-6</v>
+      </c>
+      <c r="C16" s="2">
+        <f>IF(laptimes!C16-laptimes!C15&lt;0, "-" &amp; TEXT(ABS(laptimes!C16-laptimes!C15),"sss.000"), laptimes!C16-laptimes!C15)</f>
+        <v>2.0372685185185186E-4</v>
+      </c>
+      <c r="D16" s="2" t="str">
+        <f>IF(laptimes!D16-laptimes!D15&lt;0, "-" &amp; TEXT(ABS(laptimes!D16-laptimes!D15),"sss.000"), laptimes!D16-laptimes!D15)</f>
+        <v>-12.935</v>
+      </c>
+      <c r="E16" s="2" t="str">
+        <f>IF(laptimes!E16-laptimes!E15&lt;0, "-" &amp; TEXT(ABS(laptimes!E16-laptimes!E15),"sss.000"), laptimes!E16-laptimes!E15)</f>
+        <v>-00.065</v>
+      </c>
+      <c r="F16" s="2">
+        <f>IF(laptimes!F16-laptimes!F15&lt;0, "-" &amp; TEXT(ABS(laptimes!F16-laptimes!F15),"sss.000"), laptimes!F16-laptimes!F15)</f>
+        <v>3.0050925925925926E-4</v>
+      </c>
+      <c r="G16" s="2" t="str">
+        <f>IF(laptimes!G16-laptimes!G15&lt;0, "-" &amp; TEXT(ABS(laptimes!G16-laptimes!G15),"sss.000"), laptimes!G16-laptimes!G15)</f>
+        <v>-00.396</v>
+      </c>
+      <c r="H16" s="2" t="str">
+        <f>IF(laptimes!H16-laptimes!H15&lt;0, "-" &amp; TEXT(ABS(laptimes!H16-laptimes!H15),"sss.000"), laptimes!H16-laptimes!H15)</f>
+        <v>-05.023</v>
+      </c>
+      <c r="I16" s="2">
+        <f>IF(laptimes!I16-laptimes!I15&lt;0, "-" &amp; TEXT(ABS(laptimes!I16-laptimes!I15),"sss.000"), laptimes!I16-laptimes!I15)</f>
+        <v>1.2152777777774994E-6</v>
+      </c>
+      <c r="J16" s="2" t="str">
+        <f>IF(laptimes!J16-laptimes!J15&lt;0, "-" &amp; TEXT(ABS(laptimes!J16-laptimes!J15),"sss.000"), laptimes!J16-laptimes!J15)</f>
+        <v>-00.061</v>
+      </c>
+      <c r="K16" s="2" t="str">
+        <f>IF(laptimes!K16-laptimes!K15&lt;0, "-" &amp; TEXT(ABS(laptimes!K16-laptimes!K15),"sss.000"), laptimes!K16-laptimes!K15)</f>
+        <v>-13.665</v>
+      </c>
+      <c r="L16" s="2" t="str">
+        <f>IF(laptimes!L16-laptimes!L15&lt;0, "-" &amp; TEXT(ABS(laptimes!L16-laptimes!L15),"sss.000"), laptimes!L16-laptimes!L15)</f>
+        <v>-13.336</v>
+      </c>
+      <c r="M16" s="2" t="str">
+        <f>IF(laptimes!M16-laptimes!M15&lt;0, "-" &amp; TEXT(ABS(laptimes!M16-laptimes!M15),"sss.000"), laptimes!M16-laptimes!M15)</f>
+        <v>-00.801</v>
+      </c>
+      <c r="N16" s="2" t="str">
+        <f>IF(laptimes!N16-laptimes!N15&lt;0, "-" &amp; TEXT(ABS(laptimes!N16-laptimes!N15),"sss.000"), laptimes!N16-laptimes!N15)</f>
+        <v>-03.777</v>
+      </c>
+      <c r="O16" s="2" t="str">
+        <f>IF(laptimes!O16-laptimes!O15&lt;0, "-" &amp; TEXT(ABS(laptimes!O16-laptimes!O15),"sss.000"), laptimes!O16-laptimes!O15)</f>
+        <v>-00.110</v>
+      </c>
+      <c r="P16" s="2">
+        <f>IF(laptimes!P16-laptimes!P15&lt;0, "-" &amp; TEXT(ABS(laptimes!P16-laptimes!P15),"sss.000"), laptimes!P16-laptimes!P15)</f>
+        <v>2.0351851851851867E-4</v>
+      </c>
+      <c r="Q16" s="2">
+        <f>IF(laptimes!Q16-laptimes!Q15&lt;0, "-" &amp; TEXT(ABS(laptimes!Q16-laptimes!Q15),"sss.000"), laptimes!Q16-laptimes!Q15)</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="2">
+        <f>IF(laptimes!R16-laptimes!R15&lt;0, "-" &amp; TEXT(ABS(laptimes!R16-laptimes!R15),"sss.000"), laptimes!R16-laptimes!R15)</f>
+        <v>1.0601851851851701E-5</v>
+      </c>
+      <c r="S16" s="2" t="str">
+        <f>IF(laptimes!S16-laptimes!S15&lt;0, "-" &amp; TEXT(ABS(laptimes!S16-laptimes!S15),"sss.000"), laptimes!S16-laptimes!S15)</f>
+        <v>-00.083</v>
+      </c>
+      <c r="T16" s="2" t="str">
+        <f>IF(laptimes!T16-laptimes!T15&lt;0, "-" &amp; TEXT(ABS(laptimes!T16-laptimes!T15),"sss.000"), laptimes!T16-laptimes!T15)</f>
+        <v>-01.952</v>
+      </c>
+      <c r="U16" s="2" t="str">
+        <f>IF(laptimes!U16-laptimes!U15&lt;0, "-" &amp; TEXT(ABS(laptimes!U16-laptimes!U15),"sss.000"), laptimes!U16-laptimes!U15)</f>
+        <v>-00.193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f>IF(laptimes!B17-laptimes!B16&lt;0, "-" &amp; TEXT(ABS(laptimes!B17-laptimes!B16),"sss.000"), laptimes!B17-laptimes!B16)</f>
+        <v>-00.428</v>
+      </c>
+      <c r="C17" s="2" t="str">
+        <f>IF(laptimes!C17-laptimes!C16&lt;0, "-" &amp; TEXT(ABS(laptimes!C17-laptimes!C16),"sss.000"), laptimes!C17-laptimes!C16)</f>
+        <v>-12.204</v>
+      </c>
+      <c r="D17" s="2" t="str">
+        <f>IF(laptimes!D17-laptimes!D16&lt;0, "-" &amp; TEXT(ABS(laptimes!D17-laptimes!D16),"sss.000"), laptimes!D17-laptimes!D16)</f>
+        <v>-05.738</v>
+      </c>
+      <c r="E17" s="2">
+        <f>IF(laptimes!E17-laptimes!E16&lt;0, "-" &amp; TEXT(ABS(laptimes!E17-laptimes!E16),"sss.000"), laptimes!E17-laptimes!E16)</f>
+        <v>9.6990740740740804E-6</v>
+      </c>
+      <c r="F17" s="2" t="str">
+        <f>IF(laptimes!F17-laptimes!F16&lt;0, "-" &amp; TEXT(ABS(laptimes!F17-laptimes!F16),"sss.000"), laptimes!F17-laptimes!F16)</f>
+        <v>-21.438</v>
+      </c>
+      <c r="G17" s="2" t="str">
+        <f>IF(laptimes!G17-laptimes!G16&lt;0, "-" &amp; TEXT(ABS(laptimes!G17-laptimes!G16),"sss.000"), laptimes!G17-laptimes!G16)</f>
+        <v>-00.338</v>
+      </c>
+      <c r="H17" s="2" t="str">
+        <f>IF(laptimes!H17-laptimes!H16&lt;0, "-" &amp; TEXT(ABS(laptimes!H17-laptimes!H16),"sss.000"), laptimes!H17-laptimes!H16)</f>
+        <v>-00.241</v>
+      </c>
+      <c r="I17" s="2" t="str">
+        <f>IF(laptimes!I17-laptimes!I16&lt;0, "-" &amp; TEXT(ABS(laptimes!I17-laptimes!I16),"sss.000"), laptimes!I17-laptimes!I16)</f>
+        <v>-00.396</v>
+      </c>
+      <c r="J17" s="2" t="str">
+        <f>IF(laptimes!J17-laptimes!J16&lt;0, "-" &amp; TEXT(ABS(laptimes!J17-laptimes!J16),"sss.000"), laptimes!J17-laptimes!J16)</f>
+        <v>-00.487</v>
+      </c>
+      <c r="K17" s="2" t="str">
+        <f>IF(laptimes!K17-laptimes!K16&lt;0, "-" &amp; TEXT(ABS(laptimes!K17-laptimes!K16),"sss.000"), laptimes!K17-laptimes!K16)</f>
+        <v>-06.144</v>
+      </c>
+      <c r="L17" s="2" t="str">
+        <f>IF(laptimes!L17-laptimes!L16&lt;0, "-" &amp; TEXT(ABS(laptimes!L17-laptimes!L16),"sss.000"), laptimes!L17-laptimes!L16)</f>
+        <v>-03.582</v>
+      </c>
+      <c r="M17" s="2" t="str">
+        <f>IF(laptimes!M17-laptimes!M16&lt;0, "-" &amp; TEXT(ABS(laptimes!M17-laptimes!M16),"sss.000"), laptimes!M17-laptimes!M16)</f>
+        <v>-00.049</v>
+      </c>
+      <c r="N17" s="2" t="str">
+        <f>IF(laptimes!N17-laptimes!N16&lt;0, "-" &amp; TEXT(ABS(laptimes!N17-laptimes!N16),"sss.000"), laptimes!N17-laptimes!N16)</f>
+        <v>-01.045</v>
+      </c>
+      <c r="O17" s="2" t="str">
+        <f>IF(laptimes!O17-laptimes!O16&lt;0, "-" &amp; TEXT(ABS(laptimes!O17-laptimes!O16),"sss.000"), laptimes!O17-laptimes!O16)</f>
+        <v>-00.191</v>
+      </c>
+      <c r="P17" s="2" t="str">
+        <f>IF(laptimes!P17-laptimes!P16&lt;0, "-" &amp; TEXT(ABS(laptimes!P17-laptimes!P16),"sss.000"), laptimes!P17-laptimes!P16)</f>
+        <v>-10.437</v>
+      </c>
+      <c r="Q17" s="2">
+        <f>IF(laptimes!Q17-laptimes!Q16&lt;0, "-" &amp; TEXT(ABS(laptimes!Q17-laptimes!Q16),"sss.000"), laptimes!Q17-laptimes!Q16)</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="2" t="str">
+        <f>IF(laptimes!R17-laptimes!R16&lt;0, "-" &amp; TEXT(ABS(laptimes!R17-laptimes!R16),"sss.000"), laptimes!R17-laptimes!R16)</f>
+        <v>-01.098</v>
+      </c>
+      <c r="S17" s="2">
+        <f>IF(laptimes!S17-laptimes!S16&lt;0, "-" &amp; TEXT(ABS(laptimes!S17-laptimes!S16),"sss.000"), laptimes!S17-laptimes!S16)</f>
+        <v>2.4305555555541314E-7</v>
+      </c>
+      <c r="T17" s="2" t="str">
+        <f>IF(laptimes!T17-laptimes!T16&lt;0, "-" &amp; TEXT(ABS(laptimes!T17-laptimes!T16),"sss.000"), laptimes!T17-laptimes!T16)</f>
+        <v>-01.144</v>
+      </c>
+      <c r="U17" s="2">
+        <f>IF(laptimes!U17-laptimes!U16&lt;0, "-" &amp; TEXT(ABS(laptimes!U17-laptimes!U16),"sss.000"), laptimes!U17-laptimes!U16)</f>
+        <v>1.1817129629629851E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <f>IF(laptimes!B18-laptimes!B17&lt;0, "-" &amp; TEXT(ABS(laptimes!B18-laptimes!B17),"sss.000"), laptimes!B18-laptimes!B17)</f>
+        <v>1.5393518518518534E-5</v>
+      </c>
+      <c r="C18" s="2" t="str">
+        <f>IF(laptimes!C18-laptimes!C17&lt;0, "-" &amp; TEXT(ABS(laptimes!C18-laptimes!C17),"sss.000"), laptimes!C18-laptimes!C17)</f>
+        <v>-07.267</v>
+      </c>
+      <c r="D18" s="2">
+        <f>IF(laptimes!D18-laptimes!D17&lt;0, "-" &amp; TEXT(ABS(laptimes!D18-laptimes!D17),"sss.000"), laptimes!D18-laptimes!D17)</f>
+        <v>7.025462962963018E-6</v>
+      </c>
+      <c r="E18" s="2" t="str">
+        <f>IF(laptimes!E18-laptimes!E17&lt;0, "-" &amp; TEXT(ABS(laptimes!E18-laptimes!E17),"sss.000"), laptimes!E18-laptimes!E17)</f>
+        <v>-00.502</v>
+      </c>
+      <c r="F18" s="2" t="str">
+        <f>IF(laptimes!F18-laptimes!F17&lt;0, "-" &amp; TEXT(ABS(laptimes!F18-laptimes!F17),"sss.000"), laptimes!F18-laptimes!F17)</f>
+        <v>-06.619</v>
+      </c>
+      <c r="G18" s="2">
+        <f>IF(laptimes!G18-laptimes!G17&lt;0, "-" &amp; TEXT(ABS(laptimes!G18-laptimes!G17),"sss.000"), laptimes!G18-laptimes!G17)</f>
+        <v>3.0208333333333909E-6</v>
+      </c>
+      <c r="H18" s="2">
+        <f>IF(laptimes!H18-laptimes!H17&lt;0, "-" &amp; TEXT(ABS(laptimes!H18-laptimes!H17),"sss.000"), laptimes!H18-laptimes!H17)</f>
+        <v>6.2499999999999622E-6</v>
+      </c>
+      <c r="I18" s="2">
+        <f>IF(laptimes!I18-laptimes!I17&lt;0, "-" &amp; TEXT(ABS(laptimes!I18-laptimes!I17),"sss.000"), laptimes!I18-laptimes!I17)</f>
+        <v>2.777777777777761E-6</v>
+      </c>
+      <c r="J18" s="2">
+        <f>IF(laptimes!J18-laptimes!J17&lt;0, "-" &amp; TEXT(ABS(laptimes!J18-laptimes!J17),"sss.000"), laptimes!J18-laptimes!J17)</f>
+        <v>1.4583333333333462E-6</v>
+      </c>
+      <c r="K18" s="2">
+        <f>IF(laptimes!K18-laptimes!K17&lt;0, "-" &amp; TEXT(ABS(laptimes!K18-laptimes!K17),"sss.000"), laptimes!K18-laptimes!K17)</f>
+        <v>2.9618055555555734E-5</v>
+      </c>
+      <c r="L18" s="2" t="str">
+        <f>IF(laptimes!L18-laptimes!L17&lt;0, "-" &amp; TEXT(ABS(laptimes!L18-laptimes!L17),"sss.000"), laptimes!L18-laptimes!L17)</f>
+        <v>-01.520</v>
+      </c>
+      <c r="M18" s="2" t="str">
+        <f>IF(laptimes!M18-laptimes!M17&lt;0, "-" &amp; TEXT(ABS(laptimes!M18-laptimes!M17),"sss.000"), laptimes!M18-laptimes!M17)</f>
+        <v>-00.019</v>
+      </c>
+      <c r="N18" s="2">
+        <f>IF(laptimes!N18-laptimes!N17&lt;0, "-" &amp; TEXT(ABS(laptimes!N18-laptimes!N17),"sss.000"), laptimes!N18-laptimes!N17)</f>
+        <v>6.273148148148262E-6</v>
+      </c>
+      <c r="O18" s="2">
+        <f>IF(laptimes!O18-laptimes!O17&lt;0, "-" &amp; TEXT(ABS(laptimes!O18-laptimes!O17),"sss.000"), laptimes!O18-laptimes!O17)</f>
+        <v>2.3263888888889507E-6</v>
+      </c>
+      <c r="P18" s="2" t="str">
+        <f>IF(laptimes!P18-laptimes!P17&lt;0, "-" &amp; TEXT(ABS(laptimes!P18-laptimes!P17),"sss.000"), laptimes!P18-laptimes!P17)</f>
+        <v>-06.841</v>
+      </c>
+      <c r="Q18" s="2">
+        <f>IF(laptimes!Q18-laptimes!Q17&lt;0, "-" &amp; TEXT(ABS(laptimes!Q18-laptimes!Q17),"sss.000"), laptimes!Q18-laptimes!Q17)</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="2">
+        <f>IF(laptimes!R18-laptimes!R17&lt;0, "-" &amp; TEXT(ABS(laptimes!R18-laptimes!R17),"sss.000"), laptimes!R18-laptimes!R17)</f>
+        <v>1.8749999999999236E-6</v>
+      </c>
+      <c r="S18" s="2">
+        <f>IF(laptimes!S18-laptimes!S17&lt;0, "-" &amp; TEXT(ABS(laptimes!S18-laptimes!S17),"sss.000"), laptimes!S18-laptimes!S17)</f>
+        <v>1.6087962962964275E-6</v>
+      </c>
+      <c r="T18" s="2">
+        <f>IF(laptimes!T18-laptimes!T17&lt;0, "-" &amp; TEXT(ABS(laptimes!T18-laptimes!T17),"sss.000"), laptimes!T18-laptimes!T17)</f>
+        <v>3.9386574074074063E-5</v>
+      </c>
+      <c r="U18" s="2" t="str">
+        <f>IF(laptimes!U18-laptimes!U17&lt;0, "-" &amp; TEXT(ABS(laptimes!U18-laptimes!U17),"sss.000"), laptimes!U18-laptimes!U17)</f>
+        <v>-00.333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f>IF(laptimes!B19-laptimes!B18&lt;0, "-" &amp; TEXT(ABS(laptimes!B19-laptimes!B18),"sss.000"), laptimes!B19-laptimes!B18)</f>
+        <v>-01.721</v>
+      </c>
+      <c r="C19" s="2">
+        <f>IF(laptimes!C19-laptimes!C18&lt;0, "-" &amp; TEXT(ABS(laptimes!C19-laptimes!C18),"sss.000"), laptimes!C19-laptimes!C18)</f>
+        <v>6.516203703703892E-6</v>
+      </c>
+      <c r="D19" s="2">
+        <f>IF(laptimes!D19-laptimes!D18&lt;0, "-" &amp; TEXT(ABS(laptimes!D19-laptimes!D18),"sss.000"), laptimes!D19-laptimes!D18)</f>
+        <v>1.1111111111110177E-6</v>
+      </c>
+      <c r="E19" s="2">
+        <f>IF(laptimes!E19-laptimes!E18&lt;0, "-" &amp; TEXT(ABS(laptimes!E19-laptimes!E18),"sss.000"), laptimes!E19-laptimes!E18)</f>
+        <v>2.3726851851851166E-6</v>
+      </c>
+      <c r="F19" s="2">
+        <f>IF(laptimes!F19-laptimes!F18&lt;0, "-" &amp; TEXT(ABS(laptimes!F19-laptimes!F18),"sss.000"), laptimes!F19-laptimes!F18)</f>
+        <v>8.06712962962957E-6</v>
+      </c>
+      <c r="G19" s="2">
+        <f>IF(laptimes!G19-laptimes!G18&lt;0, "-" &amp; TEXT(ABS(laptimes!G19-laptimes!G18),"sss.000"), laptimes!G19-laptimes!G18)</f>
+        <v>2.3842592592590497E-6</v>
+      </c>
+      <c r="H19" s="2" t="str">
+        <f>IF(laptimes!H19-laptimes!H18&lt;0, "-" &amp; TEXT(ABS(laptimes!H19-laptimes!H18),"sss.000"), laptimes!H19-laptimes!H18)</f>
+        <v>-00.414</v>
+      </c>
+      <c r="I19" s="2" t="str">
+        <f>IF(laptimes!I19-laptimes!I18&lt;0, "-" &amp; TEXT(ABS(laptimes!I19-laptimes!I18),"sss.000"), laptimes!I19-laptimes!I18)</f>
+        <v>-00.348</v>
+      </c>
+      <c r="J19" s="2" t="str">
+        <f>IF(laptimes!J19-laptimes!J18&lt;0, "-" &amp; TEXT(ABS(laptimes!J19-laptimes!J18),"sss.000"), laptimes!J19-laptimes!J18)</f>
+        <v>-00.151</v>
+      </c>
+      <c r="K19" s="2" t="str">
+        <f>IF(laptimes!K19-laptimes!K18&lt;0, "-" &amp; TEXT(ABS(laptimes!K19-laptimes!K18),"sss.000"), laptimes!K19-laptimes!K18)</f>
+        <v>-00.830</v>
+      </c>
+      <c r="L19" s="2">
+        <f>IF(laptimes!L19-laptimes!L18&lt;0, "-" &amp; TEXT(ABS(laptimes!L19-laptimes!L18),"sss.000"), laptimes!L19-laptimes!L18)</f>
+        <v>5.9027777777752484E-7</v>
+      </c>
+      <c r="M19" s="2">
+        <f>IF(laptimes!M19-laptimes!M18&lt;0, "-" &amp; TEXT(ABS(laptimes!M19-laptimes!M18),"sss.000"), laptimes!M19-laptimes!M18)</f>
+        <v>3.6111111111109158E-6</v>
+      </c>
+      <c r="N19" s="2">
+        <f>IF(laptimes!N19-laptimes!N18&lt;0, "-" &amp; TEXT(ABS(laptimes!N19-laptimes!N18),"sss.000"), laptimes!N19-laptimes!N18)</f>
+        <v>1.0092592592592575E-5</v>
+      </c>
+      <c r="O19" s="2" t="str">
+        <f>IF(laptimes!O19-laptimes!O18&lt;0, "-" &amp; TEXT(ABS(laptimes!O19-laptimes!O18),"sss.000"), laptimes!O19-laptimes!O18)</f>
+        <v>-00.093</v>
+      </c>
+      <c r="P19" s="2" t="str">
+        <f>IF(laptimes!P19-laptimes!P18&lt;0, "-" &amp; TEXT(ABS(laptimes!P19-laptimes!P18),"sss.000"), laptimes!P19-laptimes!P18)</f>
+        <v>-00.134</v>
+      </c>
+      <c r="Q19" s="2">
+        <f>IF(laptimes!Q19-laptimes!Q18&lt;0, "-" &amp; TEXT(ABS(laptimes!Q19-laptimes!Q18),"sss.000"), laptimes!Q19-laptimes!Q18)</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="2" t="str">
+        <f>IF(laptimes!R19-laptimes!R18&lt;0, "-" &amp; TEXT(ABS(laptimes!R19-laptimes!R18),"sss.000"), laptimes!R19-laptimes!R18)</f>
+        <v>-00.181</v>
+      </c>
+      <c r="S19" s="2" t="str">
+        <f>IF(laptimes!S19-laptimes!S18&lt;0, "-" &amp; TEXT(ABS(laptimes!S19-laptimes!S18),"sss.000"), laptimes!S19-laptimes!S18)</f>
+        <v>-00.174</v>
+      </c>
+      <c r="T19" s="2" t="str">
+        <f>IF(laptimes!T19-laptimes!T18&lt;0, "-" &amp; TEXT(ABS(laptimes!T19-laptimes!T18),"sss.000"), laptimes!T19-laptimes!T18)</f>
+        <v>-03.403</v>
+      </c>
+      <c r="U19" s="2">
+        <f>IF(laptimes!U19-laptimes!U18&lt;0, "-" &amp; TEXT(ABS(laptimes!U19-laptimes!U18),"sss.000"), laptimes!U19-laptimes!U18)</f>
+        <v>1.4259259259259216E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <f>IF(laptimes!B20-laptimes!B19&lt;0, "-" &amp; TEXT(ABS(laptimes!B20-laptimes!B19),"sss.000"), laptimes!B20-laptimes!B19)</f>
+        <v>2.0717592592591708E-6</v>
+      </c>
+      <c r="C20" s="2">
+        <f>IF(laptimes!C20-laptimes!C19&lt;0, "-" &amp; TEXT(ABS(laptimes!C20-laptimes!C19),"sss.000"), laptimes!C20-laptimes!C19)</f>
+        <v>9.4907407407406833E-6</v>
+      </c>
+      <c r="D20" s="2">
+        <f>IF(laptimes!D20-laptimes!D19&lt;0, "-" &amp; TEXT(ABS(laptimes!D20-laptimes!D19),"sss.000"), laptimes!D20-laptimes!D19)</f>
+        <v>6.8402777777777039E-6</v>
+      </c>
+      <c r="E20" s="2">
+        <f>IF(laptimes!E20-laptimes!E19&lt;0, "-" &amp; TEXT(ABS(laptimes!E20-laptimes!E19),"sss.000"), laptimes!E20-laptimes!E19)</f>
+        <v>1.3715277777777857E-5</v>
+      </c>
+      <c r="F20" s="2">
+        <f>IF(laptimes!F20-laptimes!F19&lt;0, "-" &amp; TEXT(ABS(laptimes!F20-laptimes!F19),"sss.000"), laptimes!F20-laptimes!F19)</f>
+        <v>6.3657407407408106E-6</v>
+      </c>
+      <c r="G20" s="2" t="str">
+        <f>IF(laptimes!G20-laptimes!G19&lt;0, "-" &amp; TEXT(ABS(laptimes!G20-laptimes!G19),"sss.000"), laptimes!G20-laptimes!G19)</f>
+        <v>-00.786</v>
+      </c>
+      <c r="H20" s="2">
+        <f>IF(laptimes!H20-laptimes!H19&lt;0, "-" &amp; TEXT(ABS(laptimes!H20-laptimes!H19),"sss.000"), laptimes!H20-laptimes!H19)</f>
+        <v>1.5509259259258949E-6</v>
+      </c>
+      <c r="I20" s="2" t="str">
+        <f>IF(laptimes!I20-laptimes!I19&lt;0, "-" &amp; TEXT(ABS(laptimes!I20-laptimes!I19),"sss.000"), laptimes!I20-laptimes!I19)</f>
+        <v>-00.065</v>
+      </c>
+      <c r="J20" s="2" t="str">
+        <f>IF(laptimes!J20-laptimes!J19&lt;0, "-" &amp; TEXT(ABS(laptimes!J20-laptimes!J19),"sss.000"), laptimes!J20-laptimes!J19)</f>
+        <v>-00.249</v>
+      </c>
+      <c r="K20" s="2" t="str">
+        <f>IF(laptimes!K20-laptimes!K19&lt;0, "-" &amp; TEXT(ABS(laptimes!K20-laptimes!K19),"sss.000"), laptimes!K20-laptimes!K19)</f>
+        <v>-00.887</v>
+      </c>
+      <c r="L20" s="2">
+        <f>IF(laptimes!L20-laptimes!L19&lt;0, "-" &amp; TEXT(ABS(laptimes!L20-laptimes!L19),"sss.000"), laptimes!L20-laptimes!L19)</f>
+        <v>1.1805555555557002E-6</v>
+      </c>
+      <c r="M20" s="2" t="str">
+        <f>IF(laptimes!M20-laptimes!M19&lt;0, "-" &amp; TEXT(ABS(laptimes!M20-laptimes!M19),"sss.000"), laptimes!M20-laptimes!M19)</f>
+        <v>-00.600</v>
+      </c>
+      <c r="N20" s="2" t="str">
+        <f>IF(laptimes!N20-laptimes!N19&lt;0, "-" &amp; TEXT(ABS(laptimes!N20-laptimes!N19),"sss.000"), laptimes!N20-laptimes!N19)</f>
+        <v>-01.336</v>
+      </c>
+      <c r="O20" s="2" t="str">
+        <f>IF(laptimes!O20-laptimes!O19&lt;0, "-" &amp; TEXT(ABS(laptimes!O20-laptimes!O19),"sss.000"), laptimes!O20-laptimes!O19)</f>
+        <v>-00.280</v>
+      </c>
+      <c r="P20" s="2">
+        <f>IF(laptimes!P20-laptimes!P19&lt;0, "-" &amp; TEXT(ABS(laptimes!P20-laptimes!P19),"sss.000"), laptimes!P20-laptimes!P19)</f>
+        <v>8.1018518518518028E-6</v>
+      </c>
+      <c r="Q20" s="2">
+        <f>IF(laptimes!Q20-laptimes!Q19&lt;0, "-" &amp; TEXT(ABS(laptimes!Q20-laptimes!Q19),"sss.000"), laptimes!Q20-laptimes!Q19)</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="2" t="str">
+        <f>IF(laptimes!R20-laptimes!R19&lt;0, "-" &amp; TEXT(ABS(laptimes!R20-laptimes!R19),"sss.000"), laptimes!R20-laptimes!R19)</f>
+        <v>-00.190</v>
+      </c>
+      <c r="S20" s="2" t="str">
+        <f>IF(laptimes!S20-laptimes!S19&lt;0, "-" &amp; TEXT(ABS(laptimes!S20-laptimes!S19),"sss.000"), laptimes!S20-laptimes!S19)</f>
+        <v>-00.367</v>
+      </c>
+      <c r="T20" s="2" t="str">
+        <f>IF(laptimes!T20-laptimes!T19&lt;0, "-" &amp; TEXT(ABS(laptimes!T20-laptimes!T19),"sss.000"), laptimes!T20-laptimes!T19)</f>
+        <v>-00.035</v>
+      </c>
+      <c r="U20" s="2">
+        <f>IF(laptimes!U20-laptimes!U19&lt;0, "-" &amp; TEXT(ABS(laptimes!U20-laptimes!U19),"sss.000"), laptimes!U20-laptimes!U19)</f>
+        <v>7.789351851851924E-6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f>IF(laptimes!B21-laptimes!B20&lt;0, "-" &amp; TEXT(ABS(laptimes!B21-laptimes!B20),"sss.000"), laptimes!B21-laptimes!B20)</f>
+        <v>-00.106</v>
+      </c>
+      <c r="C21" s="2">
+        <f>IF(laptimes!C21-laptimes!C20&lt;0, "-" &amp; TEXT(ABS(laptimes!C21-laptimes!C20),"sss.000"), laptimes!C21-laptimes!C20)</f>
+        <v>1.7986111111110981E-5</v>
+      </c>
+      <c r="D21" s="2" t="str">
+        <f>IF(laptimes!D21-laptimes!D20&lt;0, "-" &amp; TEXT(ABS(laptimes!D21-laptimes!D20),"sss.000"), laptimes!D21-laptimes!D20)</f>
+        <v>-00.021</v>
+      </c>
+      <c r="E21" s="2" t="str">
+        <f>IF(laptimes!E21-laptimes!E20&lt;0, "-" &amp; TEXT(ABS(laptimes!E21-laptimes!E20),"sss.000"), laptimes!E21-laptimes!E20)</f>
+        <v>-00.806</v>
+      </c>
+      <c r="F21" s="2">
+        <f>IF(laptimes!F21-laptimes!F20&lt;0, "-" &amp; TEXT(ABS(laptimes!F21-laptimes!F20),"sss.000"), laptimes!F21-laptimes!F20)</f>
+        <v>1.1030092592592428E-5</v>
+      </c>
+      <c r="G21" s="2">
+        <f>IF(laptimes!G21-laptimes!G20&lt;0, "-" &amp; TEXT(ABS(laptimes!G21-laptimes!G20),"sss.000"), laptimes!G21-laptimes!G20)</f>
+        <v>2.5925925925926636E-6</v>
+      </c>
+      <c r="H21" s="2">
+        <f>IF(laptimes!H21-laptimes!H20&lt;0, "-" &amp; TEXT(ABS(laptimes!H21-laptimes!H20),"sss.000"), laptimes!H21-laptimes!H20)</f>
+        <v>9.8379629629623613E-7</v>
+      </c>
+      <c r="I21" s="2" t="str">
+        <f>IF(laptimes!I21-laptimes!I20&lt;0, "-" &amp; TEXT(ABS(laptimes!I21-laptimes!I20),"sss.000"), laptimes!I21-laptimes!I20)</f>
+        <v>-00.193</v>
+      </c>
+      <c r="J21" s="2" t="str">
+        <f>IF(laptimes!J21-laptimes!J20&lt;0, "-" &amp; TEXT(ABS(laptimes!J21-laptimes!J20),"sss.000"), laptimes!J21-laptimes!J20)</f>
+        <v>-00.082</v>
+      </c>
+      <c r="K21" s="2" t="str">
+        <f>IF(laptimes!K21-laptimes!K20&lt;0, "-" &amp; TEXT(ABS(laptimes!K21-laptimes!K20),"sss.000"), laptimes!K21-laptimes!K20)</f>
+        <v>-00.468</v>
+      </c>
+      <c r="L21" s="2">
+        <f>IF(laptimes!L21-laptimes!L20&lt;0, "-" &amp; TEXT(ABS(laptimes!L21-laptimes!L20),"sss.000"), laptimes!L21-laptimes!L20)</f>
+        <v>1.516203703703662E-6</v>
+      </c>
+      <c r="M21" s="2">
+        <f>IF(laptimes!M21-laptimes!M20&lt;0, "-" &amp; TEXT(ABS(laptimes!M21-laptimes!M20),"sss.000"), laptimes!M21-laptimes!M20)</f>
+        <v>5.5555555555572567E-7</v>
+      </c>
+      <c r="N21" s="2" t="str">
+        <f>IF(laptimes!N21-laptimes!N20&lt;0, "-" &amp; TEXT(ABS(laptimes!N21-laptimes!N20),"sss.000"), laptimes!N21-laptimes!N20)</f>
+        <v>-00.193</v>
+      </c>
+      <c r="O21" s="2">
+        <f>IF(laptimes!O21-laptimes!O20&lt;0, "-" &amp; TEXT(ABS(laptimes!O21-laptimes!O20),"sss.000"), laptimes!O21-laptimes!O20)</f>
+        <v>1.9907407407405552E-6</v>
+      </c>
+      <c r="P21" s="2" t="str">
+        <f>IF(laptimes!P21-laptimes!P20&lt;0, "-" &amp; TEXT(ABS(laptimes!P21-laptimes!P20),"sss.000"), laptimes!P21-laptimes!P20)</f>
+        <v>-00.033</v>
+      </c>
+      <c r="Q21" s="2">
+        <f>IF(laptimes!Q21-laptimes!Q20&lt;0, "-" &amp; TEXT(ABS(laptimes!Q21-laptimes!Q20),"sss.000"), laptimes!Q21-laptimes!Q20)</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="2" t="str">
+        <f>IF(laptimes!R21-laptimes!R20&lt;0, "-" &amp; TEXT(ABS(laptimes!R21-laptimes!R20),"sss.000"), laptimes!R21-laptimes!R20)</f>
+        <v>-00.283</v>
+      </c>
+      <c r="S21" s="2" t="str">
+        <f>IF(laptimes!S21-laptimes!S20&lt;0, "-" &amp; TEXT(ABS(laptimes!S21-laptimes!S20),"sss.000"), laptimes!S21-laptimes!S20)</f>
+        <v>-00.004</v>
+      </c>
+      <c r="T21" s="2">
+        <f>IF(laptimes!T21-laptimes!T20&lt;0, "-" &amp; TEXT(ABS(laptimes!T21-laptimes!T20),"sss.000"), laptimes!T21-laptimes!T20)</f>
+        <v>3.3680555555555677E-5</v>
+      </c>
+      <c r="U21" s="2" t="str">
+        <f>IF(laptimes!U21-laptimes!U20&lt;0, "-" &amp; TEXT(ABS(laptimes!U21-laptimes!U20),"sss.000"), laptimes!U21-laptimes!U20)</f>
+        <v>-01.801</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <f>IF(laptimes!B22-laptimes!B21&lt;0, "-" &amp; TEXT(ABS(laptimes!B22-laptimes!B21),"sss.000"), laptimes!B22-laptimes!B21)</f>
+        <v>6.284722222222195E-6</v>
+      </c>
+      <c r="C22" s="2" t="str">
+        <f>IF(laptimes!C22-laptimes!C21&lt;0, "-" &amp; TEXT(ABS(laptimes!C22-laptimes!C21),"sss.000"), laptimes!C22-laptimes!C21)</f>
+        <v>-00.715</v>
+      </c>
+      <c r="D22" s="2" t="str">
+        <f>IF(laptimes!D22-laptimes!D21&lt;0, "-" &amp; TEXT(ABS(laptimes!D22-laptimes!D21),"sss.000"), laptimes!D22-laptimes!D21)</f>
+        <v>-00.526</v>
+      </c>
+      <c r="E22" s="2" t="str">
+        <f>IF(laptimes!E22-laptimes!E21&lt;0, "-" &amp; TEXT(ABS(laptimes!E22-laptimes!E21),"sss.000"), laptimes!E22-laptimes!E21)</f>
+        <v>-00.144</v>
+      </c>
+      <c r="F22" s="2">
+        <f>IF(laptimes!F22-laptimes!F21&lt;0, "-" &amp; TEXT(ABS(laptimes!F22-laptimes!F21),"sss.000"), laptimes!F22-laptimes!F21)</f>
+        <v>1.7013888888889762E-6</v>
+      </c>
+      <c r="G22" s="2" t="str">
+        <f>IF(laptimes!G22-laptimes!G21&lt;0, "-" &amp; TEXT(ABS(laptimes!G22-laptimes!G21),"sss.000"), laptimes!G22-laptimes!G21)</f>
+        <v>-00.319</v>
+      </c>
+      <c r="H22" s="2" t="str">
+        <f>IF(laptimes!H22-laptimes!H21&lt;0, "-" &amp; TEXT(ABS(laptimes!H22-laptimes!H21),"sss.000"), laptimes!H22-laptimes!H21)</f>
+        <v>-00.539</v>
+      </c>
+      <c r="I22" s="2">
+        <f>IF(laptimes!I22-laptimes!I21&lt;0, "-" &amp; TEXT(ABS(laptimes!I22-laptimes!I21),"sss.000"), laptimes!I22-laptimes!I21)</f>
+        <v>1.1574074074074004E-6</v>
+      </c>
+      <c r="J22" s="2" t="str">
+        <f>IF(laptimes!J22-laptimes!J21&lt;0, "-" &amp; TEXT(ABS(laptimes!J22-laptimes!J21),"sss.000"), laptimes!J22-laptimes!J21)</f>
+        <v>-00.003</v>
+      </c>
+      <c r="K22" s="2">
+        <f>IF(laptimes!K22-laptimes!K21&lt;0, "-" &amp; TEXT(ABS(laptimes!K22-laptimes!K21),"sss.000"), laptimes!K22-laptimes!K21)</f>
+        <v>8.5879629629628459E-6</v>
+      </c>
+      <c r="L22" s="2">
+        <f>IF(laptimes!L22-laptimes!L21&lt;0, "-" &amp; TEXT(ABS(laptimes!L22-laptimes!L21),"sss.000"), laptimes!L22-laptimes!L21)</f>
+        <v>1.8402777777779076E-6</v>
+      </c>
+      <c r="M22" s="2" t="str">
+        <f>IF(laptimes!M22-laptimes!M21&lt;0, "-" &amp; TEXT(ABS(laptimes!M22-laptimes!M21),"sss.000"), laptimes!M22-laptimes!M21)</f>
+        <v>-00.249</v>
+      </c>
+      <c r="N22" s="2">
+        <f>IF(laptimes!N22-laptimes!N21&lt;0, "-" &amp; TEXT(ABS(laptimes!N22-laptimes!N21),"sss.000"), laptimes!N22-laptimes!N21)</f>
+        <v>3.3796296296294357E-6</v>
+      </c>
+      <c r="O22" s="2" t="str">
+        <f>IF(laptimes!O22-laptimes!O21&lt;0, "-" &amp; TEXT(ABS(laptimes!O22-laptimes!O21),"sss.000"), laptimes!O22-laptimes!O21)</f>
+        <v>-00.207</v>
+      </c>
+      <c r="P22" s="2" t="str">
+        <f>IF(laptimes!P22-laptimes!P21&lt;0, "-" &amp; TEXT(ABS(laptimes!P22-laptimes!P21),"sss.000"), laptimes!P22-laptimes!P21)</f>
+        <v>-01.143</v>
+      </c>
+      <c r="Q22" s="2">
+        <f>IF(laptimes!Q22-laptimes!Q21&lt;0, "-" &amp; TEXT(ABS(laptimes!Q22-laptimes!Q21),"sss.000"), laptimes!Q22-laptimes!Q21)</f>
+        <v>0</v>
+      </c>
+      <c r="R22" s="2">
+        <f>IF(laptimes!R22-laptimes!R21&lt;0, "-" &amp; TEXT(ABS(laptimes!R22-laptimes!R21),"sss.000"), laptimes!R22-laptimes!R21)</f>
+        <v>1.6481481481481468E-5</v>
+      </c>
+      <c r="S22" s="2" t="str">
+        <f>IF(laptimes!S22-laptimes!S21&lt;0, "-" &amp; TEXT(ABS(laptimes!S22-laptimes!S21),"sss.000"), laptimes!S22-laptimes!S21)</f>
+        <v>-00.017</v>
+      </c>
+      <c r="T22" s="2" t="str">
+        <f>IF(laptimes!T22-laptimes!T21&lt;0, "-" &amp; TEXT(ABS(laptimes!T22-laptimes!T21),"sss.000"), laptimes!T22-laptimes!T21)</f>
+        <v>-00.738</v>
+      </c>
+      <c r="U22" s="2" t="str">
+        <f>IF(laptimes!U22-laptimes!U21&lt;0, "-" &amp; TEXT(ABS(laptimes!U22-laptimes!U21),"sss.000"), laptimes!U22-laptimes!U21)</f>
+        <v>-00.478</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <f>IF(laptimes!B23-laptimes!B22&lt;0, "-" &amp; TEXT(ABS(laptimes!B23-laptimes!B22),"sss.000"), laptimes!B23-laptimes!B22)</f>
+        <v>-00.045</v>
+      </c>
+      <c r="C23" s="2">
+        <f>IF(laptimes!C23-laptimes!C22&lt;0, "-" &amp; TEXT(ABS(laptimes!C23-laptimes!C22),"sss.000"), laptimes!C23-laptimes!C22)</f>
+        <v>6.1458333333334805E-6</v>
+      </c>
+      <c r="D23" s="2" t="str">
+        <f>IF(laptimes!D23-laptimes!D22&lt;0, "-" &amp; TEXT(ABS(laptimes!D23-laptimes!D22),"sss.000"), laptimes!D23-laptimes!D22)</f>
+        <v>-00.187</v>
+      </c>
+      <c r="E23" s="2" t="str">
+        <f>IF(laptimes!E23-laptimes!E22&lt;0, "-" &amp; TEXT(ABS(laptimes!E23-laptimes!E22),"sss.000"), laptimes!E23-laptimes!E22)</f>
+        <v>-00.040</v>
+      </c>
+      <c r="F23" s="2">
+        <f>IF(laptimes!F23-laptimes!F22&lt;0, "-" &amp; TEXT(ABS(laptimes!F23-laptimes!F22),"sss.000"), laptimes!F23-laptimes!F22)</f>
+        <v>2.6388888888890464E-6</v>
+      </c>
+      <c r="G23" s="2">
+        <f>IF(laptimes!G23-laptimes!G22&lt;0, "-" &amp; TEXT(ABS(laptimes!G23-laptimes!G22),"sss.000"), laptimes!G23-laptimes!G22)</f>
+        <v>6.0185185185184821E-6</v>
+      </c>
+      <c r="H23" s="2">
+        <f>IF(laptimes!H23-laptimes!H22&lt;0, "-" &amp; TEXT(ABS(laptimes!H23-laptimes!H22),"sss.000"), laptimes!H23-laptimes!H22)</f>
+        <v>1.2418981481481309E-5</v>
+      </c>
+      <c r="I23" s="2">
+        <f>IF(laptimes!I23-laptimes!I22&lt;0, "-" &amp; TEXT(ABS(laptimes!I23-laptimes!I22),"sss.000"), laptimes!I23-laptimes!I22)</f>
+        <v>8.3333333333315482E-7</v>
+      </c>
+      <c r="J23" s="2">
+        <f>IF(laptimes!J23-laptimes!J22&lt;0, "-" &amp; TEXT(ABS(laptimes!J23-laptimes!J22),"sss.000"), laptimes!J23-laptimes!J22)</f>
+        <v>6.8287037037029034E-7</v>
+      </c>
+      <c r="K23" s="2" t="str">
+        <f>IF(laptimes!K23-laptimes!K22&lt;0, "-" &amp; TEXT(ABS(laptimes!K23-laptimes!K22),"sss.000"), laptimes!K23-laptimes!K22)</f>
+        <v>-00.625</v>
+      </c>
+      <c r="L23" s="2">
+        <f>IF(laptimes!L23-laptimes!L22&lt;0, "-" &amp; TEXT(ABS(laptimes!L23-laptimes!L22),"sss.000"), laptimes!L23-laptimes!L22)</f>
+        <v>1.9675925925924723E-6</v>
+      </c>
+      <c r="M23" s="2">
+        <f>IF(laptimes!M23-laptimes!M22&lt;0, "-" &amp; TEXT(ABS(laptimes!M23-laptimes!M22),"sss.000"), laptimes!M23-laptimes!M22)</f>
+        <v>4.3055555555555729E-6</v>
+      </c>
+      <c r="N23" s="2" t="str">
+        <f>IF(laptimes!N23-laptimes!N22&lt;0, "-" &amp; TEXT(ABS(laptimes!N23-laptimes!N22),"sss.000"), laptimes!N23-laptimes!N22)</f>
+        <v>-00.237</v>
+      </c>
+      <c r="O23" s="2">
+        <f>IF(laptimes!O23-laptimes!O22&lt;0, "-" &amp; TEXT(ABS(laptimes!O23-laptimes!O22),"sss.000"), laptimes!O23-laptimes!O22)</f>
+        <v>5.5555555555550883E-7</v>
+      </c>
+      <c r="P23" s="2">
+        <f>IF(laptimes!P23-laptimes!P22&lt;0, "-" &amp; TEXT(ABS(laptimes!P23-laptimes!P22),"sss.000"), laptimes!P23-laptimes!P22)</f>
+        <v>5.4976851851849893E-6</v>
+      </c>
+      <c r="Q23" s="2">
+        <f>IF(laptimes!Q23-laptimes!Q22&lt;0, "-" &amp; TEXT(ABS(laptimes!Q23-laptimes!Q22),"sss.000"), laptimes!Q23-laptimes!Q22)</f>
+        <v>0</v>
+      </c>
+      <c r="R23" s="2" t="str">
+        <f>IF(laptimes!R23-laptimes!R22&lt;0, "-" &amp; TEXT(ABS(laptimes!R23-laptimes!R22),"sss.000"), laptimes!R23-laptimes!R22)</f>
+        <v>-01.257</v>
+      </c>
+      <c r="S23" s="2">
+        <f>IF(laptimes!S23-laptimes!S22&lt;0, "-" &amp; TEXT(ABS(laptimes!S23-laptimes!S22),"sss.000"), laptimes!S23-laptimes!S22)</f>
+        <v>8.287037037037117E-6</v>
+      </c>
+      <c r="T23" s="2">
+        <f>IF(laptimes!T23-laptimes!T22&lt;0, "-" &amp; TEXT(ABS(laptimes!T23-laptimes!T22),"sss.000"), laptimes!T23-laptimes!T22)</f>
+        <v>4.2662037037037017E-5</v>
+      </c>
+      <c r="U23" s="2">
+        <f>IF(laptimes!U23-laptimes!U22&lt;0, "-" &amp; TEXT(ABS(laptimes!U23-laptimes!U22),"sss.000"), laptimes!U23-laptimes!U22)</f>
+        <v>3.032407407407324E-6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="str">
+        <f>IF(laptimes!B24-laptimes!B23&lt;0, "-" &amp; TEXT(ABS(laptimes!B24-laptimes!B23),"sss.000"), laptimes!B24-laptimes!B23)</f>
+        <v>-00.173</v>
+      </c>
+      <c r="C24" s="2" t="str">
+        <f>IF(laptimes!C24-laptimes!C23&lt;0, "-" &amp; TEXT(ABS(laptimes!C24-laptimes!C23),"sss.000"), laptimes!C24-laptimes!C23)</f>
+        <v>-00.540</v>
+      </c>
+      <c r="D24" s="2">
+        <f>IF(laptimes!D24-laptimes!D23&lt;0, "-" &amp; TEXT(ABS(laptimes!D24-laptimes!D23),"sss.000"), laptimes!D24-laptimes!D23)</f>
+        <v>1.4236111111108965E-6</v>
+      </c>
+      <c r="E24" s="2" t="str">
+        <f>IF(laptimes!E24-laptimes!E23&lt;0, "-" &amp; TEXT(ABS(laptimes!E24-laptimes!E23),"sss.000"), laptimes!E24-laptimes!E23)</f>
+        <v>-00.738</v>
+      </c>
+      <c r="F24" s="2">
+        <f>IF(laptimes!F24-laptimes!F23&lt;0, "-" &amp; TEXT(ABS(laptimes!F24-laptimes!F23),"sss.000"), laptimes!F24-laptimes!F23)</f>
+        <v>6.8287037037029034E-7</v>
+      </c>
+      <c r="G24" s="2" t="str">
+        <f>IF(laptimes!G24-laptimes!G23&lt;0, "-" &amp; TEXT(ABS(laptimes!G24-laptimes!G23),"sss.000"), laptimes!G24-laptimes!G23)</f>
+        <v>-00.030</v>
+      </c>
+      <c r="H24" s="2">
+        <f>IF(laptimes!H24-laptimes!H23&lt;0, "-" &amp; TEXT(ABS(laptimes!H24-laptimes!H23),"sss.000"), laptimes!H24-laptimes!H23)</f>
+        <v>2.3726851851853335E-6</v>
+      </c>
+      <c r="I24" s="2">
+        <f>IF(laptimes!I24-laptimes!I23&lt;0, "-" &amp; TEXT(ABS(laptimes!I24-laptimes!I23),"sss.000"), laptimes!I24-laptimes!I23)</f>
+        <v>1.8518518518531417E-7</v>
+      </c>
+      <c r="J24" s="2">
+        <f>IF(laptimes!J24-laptimes!J23&lt;0, "-" &amp; TEXT(ABS(laptimes!J24-laptimes!J23),"sss.000"), laptimes!J24-laptimes!J23)</f>
+        <v>4.6296296296382752E-8</v>
+      </c>
+      <c r="K24" s="2" t="str">
+        <f>IF(laptimes!K24-laptimes!K23&lt;0, "-" &amp; TEXT(ABS(laptimes!K24-laptimes!K23),"sss.000"), laptimes!K24-laptimes!K23)</f>
+        <v>-00.226</v>
+      </c>
+      <c r="L24" s="2">
+        <f>IF(laptimes!L24-laptimes!L23&lt;0, "-" &amp; TEXT(ABS(laptimes!L24-laptimes!L23),"sss.000"), laptimes!L24-laptimes!L23)</f>
+        <v>6.6435185185186735E-6</v>
+      </c>
+      <c r="M24" s="2">
+        <f>IF(laptimes!M24-laptimes!M23&lt;0, "-" &amp; TEXT(ABS(laptimes!M24-laptimes!M23),"sss.000"), laptimes!M24-laptimes!M23)</f>
+        <v>4.1666666666657741E-7</v>
+      </c>
+      <c r="N24" s="2" t="str">
+        <f>IF(laptimes!N24-laptimes!N23&lt;0, "-" &amp; TEXT(ABS(laptimes!N24-laptimes!N23),"sss.000"), laptimes!N24-laptimes!N23)</f>
+        <v>-00.317</v>
+      </c>
+      <c r="O24" s="2">
+        <f>IF(laptimes!O24-laptimes!O23&lt;0, "-" &amp; TEXT(ABS(laptimes!O24-laptimes!O23),"sss.000"), laptimes!O24-laptimes!O23)</f>
+        <v>4.9421296296296973E-6</v>
+      </c>
+      <c r="P24" s="2">
+        <f>IF(laptimes!P24-laptimes!P23&lt;0, "-" &amp; TEXT(ABS(laptimes!P24-laptimes!P23),"sss.000"), laptimes!P24-laptimes!P23)</f>
+        <v>1.0185185185186858E-6</v>
+      </c>
+      <c r="Q24" s="2">
+        <f>IF(laptimes!Q24-laptimes!Q23&lt;0, "-" &amp; TEXT(ABS(laptimes!Q24-laptimes!Q23),"sss.000"), laptimes!Q24-laptimes!Q23)</f>
+        <v>0</v>
+      </c>
+      <c r="R24" s="2" t="str">
+        <f>IF(laptimes!R24-laptimes!R23&lt;0, "-" &amp; TEXT(ABS(laptimes!R24-laptimes!R23),"sss.000"), laptimes!R24-laptimes!R23)</f>
+        <v>-00.119</v>
+      </c>
+      <c r="S24" s="2">
+        <f>IF(laptimes!S24-laptimes!S23&lt;0, "-" &amp; TEXT(ABS(laptimes!S24-laptimes!S23),"sss.000"), laptimes!S24-laptimes!S23)</f>
+        <v>2.027662037037037E-4</v>
+      </c>
+      <c r="T24" s="2" t="str">
+        <f>IF(laptimes!T24-laptimes!T23&lt;0, "-" &amp; TEXT(ABS(laptimes!T24-laptimes!T23),"sss.000"), laptimes!T24-laptimes!T23)</f>
+        <v>-05.963</v>
+      </c>
+      <c r="U24" s="2" t="str">
+        <f>IF(laptimes!U24-laptimes!U23&lt;0, "-" &amp; TEXT(ABS(laptimes!U24-laptimes!U23),"sss.000"), laptimes!U24-laptimes!U23)</f>
+        <v>-00.255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="str">
+        <f>IF(laptimes!B25-laptimes!B24&lt;0, "-" &amp; TEXT(ABS(laptimes!B25-laptimes!B24),"sss.000"), laptimes!B25-laptimes!B24)</f>
+        <v>-00.136</v>
+      </c>
+      <c r="C25" s="2">
+        <f>IF(laptimes!C25-laptimes!C24&lt;0, "-" &amp; TEXT(ABS(laptimes!C25-laptimes!C24),"sss.000"), laptimes!C25-laptimes!C24)</f>
+        <v>5.7870370370380862E-7</v>
+      </c>
+      <c r="D25" s="2">
+        <f>IF(laptimes!D25-laptimes!D24&lt;0, "-" &amp; TEXT(ABS(laptimes!D25-laptimes!D24),"sss.000"), laptimes!D25-laptimes!D24)</f>
+        <v>7.5231481481497289E-7</v>
+      </c>
+      <c r="E25" s="2" t="str">
+        <f>IF(laptimes!E25-laptimes!E24&lt;0, "-" &amp; TEXT(ABS(laptimes!E25-laptimes!E24),"sss.000"), laptimes!E25-laptimes!E24)</f>
+        <v>-00.053</v>
+      </c>
+      <c r="F25" s="2" t="str">
+        <f>IF(laptimes!F25-laptimes!F24&lt;0, "-" &amp; TEXT(ABS(laptimes!F25-laptimes!F24),"sss.000"), laptimes!F25-laptimes!F24)</f>
+        <v>-00.341</v>
+      </c>
+      <c r="G25" s="2" t="str">
+        <f>IF(laptimes!G25-laptimes!G24&lt;0, "-" &amp; TEXT(ABS(laptimes!G25-laptimes!G24),"sss.000"), laptimes!G25-laptimes!G24)</f>
+        <v>-00.291</v>
+      </c>
+      <c r="H25" s="2" t="str">
+        <f>IF(laptimes!H25-laptimes!H24&lt;0, "-" &amp; TEXT(ABS(laptimes!H25-laptimes!H24),"sss.000"), laptimes!H25-laptimes!H24)</f>
+        <v>-00.395</v>
+      </c>
+      <c r="I25" s="2">
+        <f>IF(laptimes!I25-laptimes!I24&lt;0, "-" &amp; TEXT(ABS(laptimes!I25-laptimes!I24),"sss.000"), laptimes!I25-laptimes!I24)</f>
+        <v>4.791666666666616E-6</v>
+      </c>
+      <c r="J25" s="2" t="str">
+        <f>IF(laptimes!J25-laptimes!J24&lt;0, "-" &amp; TEXT(ABS(laptimes!J25-laptimes!J24),"sss.000"), laptimes!J25-laptimes!J24)</f>
+        <v>-00.164</v>
+      </c>
+      <c r="K25" s="2" t="str">
+        <f>IF(laptimes!K25-laptimes!K24&lt;0, "-" &amp; TEXT(ABS(laptimes!K25-laptimes!K24),"sss.000"), laptimes!K25-laptimes!K24)</f>
+        <v>-00.099</v>
+      </c>
+      <c r="L25" s="2" t="str">
+        <f>IF(laptimes!L25-laptimes!L24&lt;0, "-" &amp; TEXT(ABS(laptimes!L25-laptimes!L24),"sss.000"), laptimes!L25-laptimes!L24)</f>
+        <v>-00.730</v>
+      </c>
+      <c r="M25" s="2" t="str">
+        <f>IF(laptimes!M25-laptimes!M24&lt;0, "-" &amp; TEXT(ABS(laptimes!M25-laptimes!M24),"sss.000"), laptimes!M25-laptimes!M24)</f>
+        <v>-00.305</v>
+      </c>
+      <c r="N25" s="2" t="str">
+        <f>IF(laptimes!N25-laptimes!N24&lt;0, "-" &amp; TEXT(ABS(laptimes!N25-laptimes!N24),"sss.000"), laptimes!N25-laptimes!N24)</f>
+        <v>-00.236</v>
+      </c>
+      <c r="O25" s="2">
+        <f>IF(laptimes!O25-laptimes!O24&lt;0, "-" &amp; TEXT(ABS(laptimes!O25-laptimes!O24),"sss.000"), laptimes!O25-laptimes!O24)</f>
+        <v>8.4027777777777486E-6</v>
+      </c>
+      <c r="P25" s="2" t="str">
+        <f>IF(laptimes!P25-laptimes!P24&lt;0, "-" &amp; TEXT(ABS(laptimes!P25-laptimes!P24),"sss.000"), laptimes!P25-laptimes!P24)</f>
+        <v>-00.258</v>
+      </c>
+      <c r="Q25" s="2">
+        <f>IF(laptimes!Q25-laptimes!Q24&lt;0, "-" &amp; TEXT(ABS(laptimes!Q25-laptimes!Q24),"sss.000"), laptimes!Q25-laptimes!Q24)</f>
+        <v>0</v>
+      </c>
+      <c r="R25" s="2" t="str">
+        <f>IF(laptimes!R25-laptimes!R24&lt;0, "-" &amp; TEXT(ABS(laptimes!R25-laptimes!R24),"sss.000"), laptimes!R25-laptimes!R24)</f>
+        <v>-00.012</v>
+      </c>
+      <c r="S25" s="2" t="str">
+        <f>IF(laptimes!S25-laptimes!S24&lt;0, "-" &amp; TEXT(ABS(laptimes!S25-laptimes!S24),"sss.000"), laptimes!S25-laptimes!S24)</f>
+        <v>-12.245</v>
+      </c>
+      <c r="T25" s="2">
+        <f>IF(laptimes!T25-laptimes!T24&lt;0, "-" &amp; TEXT(ABS(laptimes!T25-laptimes!T24),"sss.000"), laptimes!T25-laptimes!T24)</f>
+        <v>3.587962962962616E-7</v>
+      </c>
+      <c r="U25" s="2" t="str">
+        <f>IF(laptimes!U25-laptimes!U24&lt;0, "-" &amp; TEXT(ABS(laptimes!U25-laptimes!U24),"sss.000"), laptimes!U25-laptimes!U24)</f>
+        <v>-00.003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <f>IF(laptimes!B26-laptimes!B25&lt;0, "-" &amp; TEXT(ABS(laptimes!B26-laptimes!B25),"sss.000"), laptimes!B26-laptimes!B25)</f>
+        <v>4.5254629629629031E-6</v>
+      </c>
+      <c r="C26" s="2">
+        <f>IF(laptimes!C26-laptimes!C25&lt;0, "-" &amp; TEXT(ABS(laptimes!C26-laptimes!C25),"sss.000"), laptimes!C26-laptimes!C25)</f>
+        <v>1.481481481481646E-6</v>
+      </c>
+      <c r="D26" s="2">
+        <f>IF(laptimes!D26-laptimes!D25&lt;0, "-" &amp; TEXT(ABS(laptimes!D26-laptimes!D25),"sss.000"), laptimes!D26-laptimes!D25)</f>
+        <v>2.2800925925927848E-6</v>
+      </c>
+      <c r="E26" s="2" t="str">
+        <f>IF(laptimes!E26-laptimes!E25&lt;0, "-" &amp; TEXT(ABS(laptimes!E26-laptimes!E25),"sss.000"), laptimes!E26-laptimes!E25)</f>
+        <v>-00.007</v>
+      </c>
+      <c r="F26" s="2">
+        <f>IF(laptimes!F26-laptimes!F25&lt;0, "-" &amp; TEXT(ABS(laptimes!F26-laptimes!F25),"sss.000"), laptimes!F26-laptimes!F25)</f>
+        <v>1.7013888888887593E-6</v>
+      </c>
+      <c r="G26" s="2" t="str">
+        <f>IF(laptimes!G26-laptimes!G25&lt;0, "-" &amp; TEXT(ABS(laptimes!G26-laptimes!G25),"sss.000"), laptimes!G26-laptimes!G25)</f>
+        <v>-00.082</v>
+      </c>
+      <c r="H26" s="2">
+        <f>IF(laptimes!H26-laptimes!H25&lt;0, "-" &amp; TEXT(ABS(laptimes!H26-laptimes!H25),"sss.000"), laptimes!H26-laptimes!H25)</f>
+        <v>3.8425925925926127E-6</v>
+      </c>
+      <c r="I26" s="2" t="str">
+        <f>IF(laptimes!I26-laptimes!I25&lt;0, "-" &amp; TEXT(ABS(laptimes!I26-laptimes!I25),"sss.000"), laptimes!I26-laptimes!I25)</f>
+        <v>-00.130</v>
+      </c>
+      <c r="J26" s="2">
+        <f>IF(laptimes!J26-laptimes!J25&lt;0, "-" &amp; TEXT(ABS(laptimes!J26-laptimes!J25),"sss.000"), laptimes!J26-laptimes!J25)</f>
+        <v>5.4513888888890402E-6</v>
+      </c>
+      <c r="K26" s="2">
+        <f>IF(laptimes!K26-laptimes!K25&lt;0, "-" &amp; TEXT(ABS(laptimes!K26-laptimes!K25),"sss.000"), laptimes!K26-laptimes!K25)</f>
+        <v>2.6620370370371294E-7</v>
+      </c>
+      <c r="L26" s="2">
+        <f>IF(laptimes!L26-laptimes!L25&lt;0, "-" &amp; TEXT(ABS(laptimes!L26-laptimes!L25),"sss.000"), laptimes!L26-laptimes!L25)</f>
+        <v>8.4837962962961474E-6</v>
+      </c>
+      <c r="M26" s="2" t="str">
+        <f>IF(laptimes!M26-laptimes!M25&lt;0, "-" &amp; TEXT(ABS(laptimes!M26-laptimes!M25),"sss.000"), laptimes!M26-laptimes!M25)</f>
+        <v>-00.139</v>
+      </c>
+      <c r="N26" s="2" t="str">
+        <f>IF(laptimes!N26-laptimes!N25&lt;0, "-" &amp; TEXT(ABS(laptimes!N26-laptimes!N25),"sss.000"), laptimes!N26-laptimes!N25)</f>
+        <v>-00.096</v>
+      </c>
+      <c r="O26" s="2">
+        <f>IF(laptimes!O26-laptimes!O25&lt;0, "-" &amp; TEXT(ABS(laptimes!O26-laptimes!O25),"sss.000"), laptimes!O26-laptimes!O25)</f>
+        <v>1.877199074074075E-4</v>
+      </c>
+      <c r="P26" s="2">
+        <f>IF(laptimes!P26-laptimes!P25&lt;0, "-" &amp; TEXT(ABS(laptimes!P26-laptimes!P25),"sss.000"), laptimes!P26-laptimes!P25)</f>
+        <v>1.5972222222222776E-6</v>
+      </c>
+      <c r="Q26" s="2">
+        <f>IF(laptimes!Q26-laptimes!Q25&lt;0, "-" &amp; TEXT(ABS(laptimes!Q26-laptimes!Q25),"sss.000"), laptimes!Q26-laptimes!Q25)</f>
+        <v>0</v>
+      </c>
+      <c r="R26" s="2" t="str">
+        <f>IF(laptimes!R26-laptimes!R25&lt;0, "-" &amp; TEXT(ABS(laptimes!R26-laptimes!R25),"sss.000"), laptimes!R26-laptimes!R25)</f>
+        <v>-00.076</v>
+      </c>
+      <c r="S26" s="2" t="str">
+        <f>IF(laptimes!S26-laptimes!S25&lt;0, "-" &amp; TEXT(ABS(laptimes!S26-laptimes!S25),"sss.000"), laptimes!S26-laptimes!S25)</f>
+        <v>-06.467</v>
+      </c>
+      <c r="T26" s="2">
+        <f>IF(laptimes!T26-laptimes!T25&lt;0, "-" &amp; TEXT(ABS(laptimes!T26-laptimes!T25),"sss.000"), laptimes!T26-laptimes!T25)</f>
+        <v>9.0277777777783737E-7</v>
+      </c>
+      <c r="U26" s="2">
+        <f>IF(laptimes!U26-laptimes!U25&lt;0, "-" &amp; TEXT(ABS(laptimes!U26-laptimes!U25),"sss.000"), laptimes!U26-laptimes!U25)</f>
+        <v>1.4699074074074961E-6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <f>IF(laptimes!B27-laptimes!B26&lt;0, "-" &amp; TEXT(ABS(laptimes!B27-laptimes!B26),"sss.000"), laptimes!B27-laptimes!B26)</f>
+        <v>1.9155092592592531E-5</v>
+      </c>
+      <c r="C27" s="2" t="str">
+        <f>IF(laptimes!C27-laptimes!C26&lt;0, "-" &amp; TEXT(ABS(laptimes!C27-laptimes!C26),"sss.000"), laptimes!C27-laptimes!C26)</f>
+        <v>-01.218</v>
+      </c>
+      <c r="D27" s="2" t="str">
+        <f>IF(laptimes!D27-laptimes!D26&lt;0, "-" &amp; TEXT(ABS(laptimes!D27-laptimes!D26),"sss.000"), laptimes!D27-laptimes!D26)</f>
+        <v>-00.189</v>
+      </c>
+      <c r="E27" s="2" t="str">
+        <f>IF(laptimes!E27-laptimes!E26&lt;0, "-" &amp; TEXT(ABS(laptimes!E27-laptimes!E26),"sss.000"), laptimes!E27-laptimes!E26)</f>
+        <v>-00.137</v>
+      </c>
+      <c r="F27" s="2">
+        <f>IF(laptimes!F27-laptimes!F26&lt;0, "-" &amp; TEXT(ABS(laptimes!F27-laptimes!F26),"sss.000"), laptimes!F27-laptimes!F26)</f>
+        <v>7.0023148148149351E-6</v>
+      </c>
+      <c r="G27" s="2" t="str">
+        <f>IF(laptimes!G27-laptimes!G26&lt;0, "-" &amp; TEXT(ABS(laptimes!G27-laptimes!G26),"sss.000"), laptimes!G27-laptimes!G26)</f>
+        <v>-00.287</v>
+      </c>
+      <c r="H27" s="2">
+        <f>IF(laptimes!H27-laptimes!H26&lt;0, "-" &amp; TEXT(ABS(laptimes!H27-laptimes!H26),"sss.000"), laptimes!H27-laptimes!H26)</f>
+        <v>1.3344907407407446E-5</v>
+      </c>
+      <c r="I27" s="2" t="str">
+        <f>IF(laptimes!I27-laptimes!I26&lt;0, "-" &amp; TEXT(ABS(laptimes!I27-laptimes!I26),"sss.000"), laptimes!I27-laptimes!I26)</f>
+        <v>-00.191</v>
+      </c>
+      <c r="J27" s="2" t="str">
+        <f>IF(laptimes!J27-laptimes!J26&lt;0, "-" &amp; TEXT(ABS(laptimes!J27-laptimes!J26),"sss.000"), laptimes!J27-laptimes!J26)</f>
+        <v>-00.426</v>
+      </c>
+      <c r="K27" s="2" t="str">
+        <f>IF(laptimes!K27-laptimes!K26&lt;0, "-" &amp; TEXT(ABS(laptimes!K27-laptimes!K26),"sss.000"), laptimes!K27-laptimes!K26)</f>
+        <v>-00.067</v>
+      </c>
+      <c r="L27" s="2">
+        <f>IF(laptimes!L27-laptimes!L26&lt;0, "-" &amp; TEXT(ABS(laptimes!L27-laptimes!L26),"sss.000"), laptimes!L27-laptimes!L26)</f>
+        <v>2.3541666666666719E-5</v>
+      </c>
+      <c r="M27" s="2">
+        <f>IF(laptimes!M27-laptimes!M26&lt;0, "-" &amp; TEXT(ABS(laptimes!M27-laptimes!M26),"sss.000"), laptimes!M27-laptimes!M26)</f>
+        <v>2.0665509259259248E-4</v>
+      </c>
+      <c r="N27" s="2">
+        <f>IF(laptimes!N27-laptimes!N26&lt;0, "-" &amp; TEXT(ABS(laptimes!N27-laptimes!N26),"sss.000"), laptimes!N27-laptimes!N26)</f>
+        <v>2.1064814814814037E-6</v>
+      </c>
+      <c r="O27" s="2" t="str">
+        <f>IF(laptimes!O27-laptimes!O26&lt;0, "-" &amp; TEXT(ABS(laptimes!O27-laptimes!O26),"sss.000"), laptimes!O27-laptimes!O26)</f>
+        <v>-12.318</v>
+      </c>
+      <c r="P27" s="2" t="str">
+        <f>IF(laptimes!P27-laptimes!P26&lt;0, "-" &amp; TEXT(ABS(laptimes!P27-laptimes!P26),"sss.000"), laptimes!P27-laptimes!P26)</f>
+        <v>-00.652</v>
+      </c>
+      <c r="Q27" s="2">
+        <f>IF(laptimes!Q27-laptimes!Q26&lt;0, "-" &amp; TEXT(ABS(laptimes!Q27-laptimes!Q26),"sss.000"), laptimes!Q27-laptimes!Q26)</f>
+        <v>0</v>
+      </c>
+      <c r="R27" s="2">
+        <f>IF(laptimes!R27-laptimes!R26&lt;0, "-" &amp; TEXT(ABS(laptimes!R27-laptimes!R26),"sss.000"), laptimes!R27-laptimes!R26)</f>
+        <v>2.0504629629629627E-4</v>
+      </c>
+      <c r="S27" s="2">
+        <f>IF(laptimes!S27-laptimes!S26&lt;0, "-" &amp; TEXT(ABS(laptimes!S27-laptimes!S26),"sss.000"), laptimes!S27-laptimes!S26)</f>
+        <v>1.2962962962963318E-6</v>
+      </c>
+      <c r="T27" s="2">
+        <f>IF(laptimes!T27-laptimes!T26&lt;0, "-" &amp; TEXT(ABS(laptimes!T27-laptimes!T26),"sss.000"), laptimes!T27-laptimes!T26)</f>
+        <v>2.7430555555555281E-6</v>
+      </c>
+      <c r="U27" s="2">
+        <f>IF(laptimes!U27-laptimes!U26&lt;0, "-" &amp; TEXT(ABS(laptimes!U27-laptimes!U26),"sss.000"), laptimes!U27-laptimes!U26)</f>
+        <v>3.1215277777777795E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="str">
+        <f>IF(laptimes!B28-laptimes!B27&lt;0, "-" &amp; TEXT(ABS(laptimes!B28-laptimes!B27),"sss.000"), laptimes!B28-laptimes!B27)</f>
+        <v>-01.122</v>
+      </c>
+      <c r="C28" s="2" t="str">
+        <f>IF(laptimes!C28-laptimes!C27&lt;0, "-" &amp; TEXT(ABS(laptimes!C28-laptimes!C27),"sss.000"), laptimes!C28-laptimes!C27)</f>
+        <v>-00.747</v>
+      </c>
+      <c r="D28" s="2" t="str">
+        <f>IF(laptimes!D28-laptimes!D27&lt;0, "-" &amp; TEXT(ABS(laptimes!D28-laptimes!D27),"sss.000"), laptimes!D28-laptimes!D27)</f>
+        <v>-00.005</v>
+      </c>
+      <c r="E28" s="2" t="str">
+        <f>IF(laptimes!E28-laptimes!E27&lt;0, "-" &amp; TEXT(ABS(laptimes!E28-laptimes!E27),"sss.000"), laptimes!E28-laptimes!E27)</f>
+        <v>-00.198</v>
+      </c>
+      <c r="F28" s="2" t="str">
+        <f>IF(laptimes!F28-laptimes!F27&lt;0, "-" &amp; TEXT(ABS(laptimes!F28-laptimes!F27),"sss.000"), laptimes!F28-laptimes!F27)</f>
+        <v>-02.459</v>
+      </c>
+      <c r="G28" s="2" t="str">
+        <f>IF(laptimes!G28-laptimes!G27&lt;0, "-" &amp; TEXT(ABS(laptimes!G28-laptimes!G27),"sss.000"), laptimes!G28-laptimes!G27)</f>
+        <v>-00.573</v>
+      </c>
+      <c r="H28" s="2" t="str">
+        <f>IF(laptimes!H28-laptimes!H27&lt;0, "-" &amp; TEXT(ABS(laptimes!H28-laptimes!H27),"sss.000"), laptimes!H28-laptimes!H27)</f>
+        <v>-02.158</v>
+      </c>
+      <c r="I28" s="2">
+        <f>IF(laptimes!I28-laptimes!I27&lt;0, "-" &amp; TEXT(ABS(laptimes!I28-laptimes!I27),"sss.000"), laptimes!I28-laptimes!I27)</f>
+        <v>3.0208333333331741E-6</v>
+      </c>
+      <c r="J28" s="2">
+        <f>IF(laptimes!J28-laptimes!J27&lt;0, "-" &amp; TEXT(ABS(laptimes!J28-laptimes!J27),"sss.000"), laptimes!J28-laptimes!J27)</f>
+        <v>2.1195601851851822E-4</v>
+      </c>
+      <c r="K28" s="2">
+        <f>IF(laptimes!K28-laptimes!K27&lt;0, "-" &amp; TEXT(ABS(laptimes!K28-laptimes!K27),"sss.000"), laptimes!K28-laptimes!K27)</f>
+        <v>3.4722222222232854E-8</v>
+      </c>
+      <c r="L28" s="2" t="str">
+        <f>IF(laptimes!L28-laptimes!L27&lt;0, "-" &amp; TEXT(ABS(laptimes!L28-laptimes!L27),"sss.000"), laptimes!L28-laptimes!L27)</f>
+        <v>-00.568</v>
+      </c>
+      <c r="M28" s="2" t="str">
+        <f>IF(laptimes!M28-laptimes!M27&lt;0, "-" &amp; TEXT(ABS(laptimes!M28-laptimes!M27),"sss.000"), laptimes!M28-laptimes!M27)</f>
+        <v>-11.363</v>
+      </c>
+      <c r="N28" s="2">
+        <f>IF(laptimes!N28-laptimes!N27&lt;0, "-" &amp; TEXT(ABS(laptimes!N28-laptimes!N27),"sss.000"), laptimes!N28-laptimes!N27)</f>
+        <v>1.1574074074084846E-7</v>
+      </c>
+      <c r="O28" s="2" t="str">
+        <f>IF(laptimes!O28-laptimes!O27&lt;0, "-" &amp; TEXT(ABS(laptimes!O28-laptimes!O27),"sss.000"), laptimes!O28-laptimes!O27)</f>
+        <v>-06.014</v>
+      </c>
+      <c r="P28" s="2">
+        <f>IF(laptimes!P28-laptimes!P27&lt;0, "-" &amp; TEXT(ABS(laptimes!P28-laptimes!P27),"sss.000"), laptimes!P28-laptimes!P27)</f>
+        <v>8.0092592592592542E-6</v>
+      </c>
+      <c r="Q28" s="2">
+        <f>IF(laptimes!Q28-laptimes!Q27&lt;0, "-" &amp; TEXT(ABS(laptimes!Q28-laptimes!Q27),"sss.000"), laptimes!Q28-laptimes!Q27)</f>
+        <v>0</v>
+      </c>
+      <c r="R28" s="2" t="str">
+        <f>IF(laptimes!R28-laptimes!R27&lt;0, "-" &amp; TEXT(ABS(laptimes!R28-laptimes!R27),"sss.000"), laptimes!R28-laptimes!R27)</f>
+        <v>-13.601</v>
+      </c>
+      <c r="S28" s="2">
+        <f>IF(laptimes!S28-laptimes!S27&lt;0, "-" &amp; TEXT(ABS(laptimes!S28-laptimes!S27),"sss.000"), laptimes!S28-laptimes!S27)</f>
+        <v>3.5532407407406E-6</v>
+      </c>
+      <c r="T28" s="2" t="str">
+        <f>IF(laptimes!T28-laptimes!T27&lt;0, "-" &amp; TEXT(ABS(laptimes!T28-laptimes!T27),"sss.000"), laptimes!T28-laptimes!T27)</f>
+        <v>-00.801</v>
+      </c>
+      <c r="U28" s="2">
+        <f>IF(laptimes!U28-laptimes!U27&lt;0, "-" &amp; TEXT(ABS(laptimes!U28-laptimes!U27),"sss.000"), laptimes!U28-laptimes!U27)</f>
+        <v>2.5444444444444451E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="str">
+        <f>IF(laptimes!B29-laptimes!B28&lt;0, "-" &amp; TEXT(ABS(laptimes!B29-laptimes!B28),"sss.000"), laptimes!B29-laptimes!B28)</f>
+        <v>-00.301</v>
+      </c>
+      <c r="C29" s="2">
+        <f>IF(laptimes!C29-laptimes!C28&lt;0, "-" &amp; TEXT(ABS(laptimes!C29-laptimes!C28),"sss.000"), laptimes!C29-laptimes!C28)</f>
+        <v>2.4305555555556493E-6</v>
+      </c>
+      <c r="D29" s="2">
+        <f>IF(laptimes!D29-laptimes!D28&lt;0, "-" &amp; TEXT(ABS(laptimes!D29-laptimes!D28),"sss.000"), laptimes!D29-laptimes!D28)</f>
+        <v>6.2499999999997453E-7</v>
+      </c>
+      <c r="E29" s="2">
+        <f>IF(laptimes!E29-laptimes!E28&lt;0, "-" &amp; TEXT(ABS(laptimes!E29-laptimes!E28),"sss.000"), laptimes!E29-laptimes!E28)</f>
+        <v>4.3865740740741885E-6</v>
+      </c>
+      <c r="F29" s="2" t="str">
+        <f>IF(laptimes!F29-laptimes!F28&lt;0, "-" &amp; TEXT(ABS(laptimes!F29-laptimes!F28),"sss.000"), laptimes!F29-laptimes!F28)</f>
+        <v>-00.321</v>
+      </c>
+      <c r="G29" s="2">
+        <f>IF(laptimes!G29-laptimes!G28&lt;0, "-" &amp; TEXT(ABS(laptimes!G29-laptimes!G28),"sss.000"), laptimes!G29-laptimes!G28)</f>
+        <v>4.5138888888881026E-7</v>
+      </c>
+      <c r="H29" s="2" t="str">
+        <f>IF(laptimes!H29-laptimes!H28&lt;0, "-" &amp; TEXT(ABS(laptimes!H29-laptimes!H28),"sss.000"), laptimes!H29-laptimes!H28)</f>
+        <v>-00.326</v>
+      </c>
+      <c r="I29" s="2">
+        <f>IF(laptimes!I29-laptimes!I28&lt;0, "-" &amp; TEXT(ABS(laptimes!I29-laptimes!I28),"sss.000"), laptimes!I29-laptimes!I28)</f>
+        <v>2.1358796296296295E-4</v>
+      </c>
+      <c r="J29" s="2" t="str">
+        <f>IF(laptimes!J29-laptimes!J28&lt;0, "-" &amp; TEXT(ABS(laptimes!J29-laptimes!J28),"sss.000"), laptimes!J29-laptimes!J28)</f>
+        <v>-13.488</v>
+      </c>
+      <c r="K29" s="2" t="str">
+        <f>IF(laptimes!K29-laptimes!K28&lt;0, "-" &amp; TEXT(ABS(laptimes!K29-laptimes!K28),"sss.000"), laptimes!K29-laptimes!K28)</f>
+        <v>-00.128</v>
+      </c>
+      <c r="L29" s="2" t="str">
+        <f>IF(laptimes!L29-laptimes!L28&lt;0, "-" &amp; TEXT(ABS(laptimes!L29-laptimes!L28),"sss.000"), laptimes!L29-laptimes!L28)</f>
+        <v>-02.074</v>
+      </c>
+      <c r="M29" s="2" t="str">
+        <f>IF(laptimes!M29-laptimes!M28&lt;0, "-" &amp; TEXT(ABS(laptimes!M29-laptimes!M28),"sss.000"), laptimes!M29-laptimes!M28)</f>
+        <v>-08.007</v>
+      </c>
+      <c r="N29" s="2" t="str">
+        <f>IF(laptimes!N29-laptimes!N28&lt;0, "-" &amp; TEXT(ABS(laptimes!N29-laptimes!N28),"sss.000"), laptimes!N29-laptimes!N28)</f>
+        <v>-00.007</v>
+      </c>
+      <c r="O29" s="2">
+        <f>IF(laptimes!O29-laptimes!O28&lt;0, "-" &amp; TEXT(ABS(laptimes!O29-laptimes!O28),"sss.000"), laptimes!O29-laptimes!O28)</f>
+        <v>3.7152777777778312E-6</v>
+      </c>
+      <c r="P29" s="2">
+        <f>IF(laptimes!P29-laptimes!P28&lt;0, "-" &amp; TEXT(ABS(laptimes!P29-laptimes!P28),"sss.000"), laptimes!P29-laptimes!P28)</f>
+        <v>2.7662037037036111E-6</v>
+      </c>
+      <c r="Q29" s="2">
+        <f>IF(laptimes!Q29-laptimes!Q28&lt;0, "-" &amp; TEXT(ABS(laptimes!Q29-laptimes!Q28),"sss.000"), laptimes!Q29-laptimes!Q28)</f>
+        <v>0</v>
+      </c>
+      <c r="R29" s="2" t="str">
+        <f>IF(laptimes!R29-laptimes!R28&lt;0, "-" &amp; TEXT(ABS(laptimes!R29-laptimes!R28),"sss.000"), laptimes!R29-laptimes!R28)</f>
+        <v>-06.229</v>
+      </c>
+      <c r="S29" s="2" t="str">
+        <f>IF(laptimes!S29-laptimes!S28&lt;0, "-" &amp; TEXT(ABS(laptimes!S29-laptimes!S28),"sss.000"), laptimes!S29-laptimes!S28)</f>
+        <v>-00.246</v>
+      </c>
+      <c r="T29" s="2">
+        <f>IF(laptimes!T29-laptimes!T28&lt;0, "-" &amp; TEXT(ABS(laptimes!T29-laptimes!T28),"sss.000"), laptimes!T29-laptimes!T28)</f>
+        <v>2.1990740740740738E-4</v>
+      </c>
+      <c r="U29" s="2" t="str">
+        <f>IF(laptimes!U29-laptimes!U28&lt;0, "-" &amp; TEXT(ABS(laptimes!U29-laptimes!U28),"sss.000"), laptimes!U29-laptimes!U28)</f>
+        <v>-20.791</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="str">
+        <f>IF(laptimes!B30-laptimes!B29&lt;0, "-" &amp; TEXT(ABS(laptimes!B30-laptimes!B29),"sss.000"), laptimes!B30-laptimes!B29)</f>
+        <v>-30.733</v>
+      </c>
+      <c r="C30" s="2" t="str">
+        <f>IF(laptimes!C30-laptimes!C29&lt;0, "-" &amp; TEXT(ABS(laptimes!C30-laptimes!C29),"sss.000"), laptimes!C30-laptimes!C29)</f>
+        <v>-00.081</v>
+      </c>
+      <c r="D30" s="2" t="str">
+        <f>IF(laptimes!D30-laptimes!D29&lt;0, "-" &amp; TEXT(ABS(laptimes!D30-laptimes!D29),"sss.000"), laptimes!D30-laptimes!D29)</f>
+        <v>-00.552</v>
+      </c>
+      <c r="E30" s="2">
+        <f>IF(laptimes!E30-laptimes!E29&lt;0, "-" &amp; TEXT(ABS(laptimes!E30-laptimes!E29),"sss.000"), laptimes!E30-laptimes!E29)</f>
+        <v>1.4583333333333462E-6</v>
+      </c>
+      <c r="F30" s="2">
+        <f>IF(laptimes!F30-laptimes!F29&lt;0, "-" &amp; TEXT(ABS(laptimes!F30-laptimes!F29),"sss.000"), laptimes!F30-laptimes!F29)</f>
+        <v>5.509259259259356E-6</v>
+      </c>
+      <c r="G30" s="2">
+        <f>IF(laptimes!G30-laptimes!G29&lt;0, "-" &amp; TEXT(ABS(laptimes!G30-laptimes!G29),"sss.000"), laptimes!G30-laptimes!G29)</f>
+        <v>3.032407407407324E-6</v>
+      </c>
+      <c r="H30" s="2">
+        <f>IF(laptimes!H30-laptimes!H29&lt;0, "-" &amp; TEXT(ABS(laptimes!H30-laptimes!H29),"sss.000"), laptimes!H30-laptimes!H29)</f>
+        <v>5.4398148148148903E-6</v>
+      </c>
+      <c r="I30" s="2" t="str">
+        <f>IF(laptimes!I30-laptimes!I29&lt;0, "-" &amp; TEXT(ABS(laptimes!I30-laptimes!I29),"sss.000"), laptimes!I30-laptimes!I29)</f>
+        <v>-14.325</v>
+      </c>
+      <c r="J30" s="2" t="str">
+        <f>IF(laptimes!J30-laptimes!J29&lt;0, "-" &amp; TEXT(ABS(laptimes!J30-laptimes!J29),"sss.000"), laptimes!J30-laptimes!J29)</f>
+        <v>-06.432</v>
+      </c>
+      <c r="K30" s="2">
+        <f>IF(laptimes!K30-laptimes!K29&lt;0, "-" &amp; TEXT(ABS(laptimes!K30-laptimes!K29),"sss.000"), laptimes!K30-laptimes!K29)</f>
+        <v>5.7870370370359178E-7</v>
+      </c>
+      <c r="L30" s="2" t="str">
+        <f>IF(laptimes!L30-laptimes!L29&lt;0, "-" &amp; TEXT(ABS(laptimes!L30-laptimes!L29),"sss.000"), laptimes!L30-laptimes!L29)</f>
+        <v>-00.408</v>
+      </c>
+      <c r="M30" s="2">
+        <f>IF(laptimes!M30-laptimes!M29&lt;0, "-" &amp; TEXT(ABS(laptimes!M30-laptimes!M29),"sss.000"), laptimes!M30-laptimes!M29)</f>
+        <v>4.4791666666665203E-6</v>
+      </c>
+      <c r="N30" s="2" t="str">
+        <f>IF(laptimes!N30-laptimes!N29&lt;0, "-" &amp; TEXT(ABS(laptimes!N30-laptimes!N29),"sss.000"), laptimes!N30-laptimes!N29)</f>
+        <v>-00.282</v>
+      </c>
+      <c r="O30" s="2" t="str">
+        <f>IF(laptimes!O30-laptimes!O29&lt;0, "-" &amp; TEXT(ABS(laptimes!O30-laptimes!O29),"sss.000"), laptimes!O30-laptimes!O29)</f>
+        <v>-00.412</v>
+      </c>
+      <c r="P30" s="2" t="str">
+        <f>IF(laptimes!P30-laptimes!P29&lt;0, "-" &amp; TEXT(ABS(laptimes!P30-laptimes!P29),"sss.000"), laptimes!P30-laptimes!P29)</f>
+        <v>-00.232</v>
+      </c>
+      <c r="Q30" s="2">
+        <f>IF(laptimes!Q30-laptimes!Q29&lt;0, "-" &amp; TEXT(ABS(laptimes!Q30-laptimes!Q29),"sss.000"), laptimes!Q30-laptimes!Q29)</f>
+        <v>0</v>
+      </c>
+      <c r="R30" s="2">
+        <f>IF(laptimes!R30-laptimes!R29&lt;0, "-" &amp; TEXT(ABS(laptimes!R30-laptimes!R29),"sss.000"), laptimes!R30-laptimes!R29)</f>
+        <v>6.3425925925925108E-6</v>
+      </c>
+      <c r="S30" s="2">
+        <f>IF(laptimes!S30-laptimes!S29&lt;0, "-" &amp; TEXT(ABS(laptimes!S30-laptimes!S29),"sss.000"), laptimes!S30-laptimes!S29)</f>
+        <v>1.7129629629629092E-6</v>
+      </c>
+      <c r="T30" s="2" t="str">
+        <f>IF(laptimes!T30-laptimes!T29&lt;0, "-" &amp; TEXT(ABS(laptimes!T30-laptimes!T29),"sss.000"), laptimes!T30-laptimes!T29)</f>
+        <v>-13.877</v>
+      </c>
+      <c r="U30" s="2" t="str">
+        <f>IF(laptimes!U30-laptimes!U29&lt;0, "-" &amp; TEXT(ABS(laptimes!U30-laptimes!U29),"sss.000"), laptimes!U30-laptimes!U29)</f>
+        <v>-06.415</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <f>IF(laptimes!B31-laptimes!B30&lt;0, "-" &amp; TEXT(ABS(laptimes!B31-laptimes!B30),"sss.000"), laptimes!B31-laptimes!B30)</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="2">
+        <f>IF(laptimes!C31-laptimes!C30&lt;0, "-" &amp; TEXT(ABS(laptimes!C31-laptimes!C30),"sss.000"), laptimes!C31-laptimes!C30)</f>
+        <v>1.550925925925678E-6</v>
+      </c>
+      <c r="D31" s="2">
+        <f>IF(laptimes!D31-laptimes!D30&lt;0, "-" &amp; TEXT(ABS(laptimes!D31-laptimes!D30),"sss.000"), laptimes!D31-laptimes!D30)</f>
+        <v>1.5740740740741947E-6</v>
+      </c>
+      <c r="E31" s="2" t="str">
+        <f>IF(laptimes!E31-laptimes!E30&lt;0, "-" &amp; TEXT(ABS(laptimes!E31-laptimes!E30),"sss.000"), laptimes!E31-laptimes!E30)</f>
+        <v>-00.117</v>
+      </c>
+      <c r="F31" s="2" t="str">
+        <f>IF(laptimes!F31-laptimes!F30&lt;0, "-" &amp; TEXT(ABS(laptimes!F31-laptimes!F30),"sss.000"), laptimes!F31-laptimes!F30)</f>
+        <v>-29.203</v>
+      </c>
+      <c r="G31" s="2" t="str">
+        <f>IF(laptimes!G31-laptimes!G30&lt;0, "-" &amp; TEXT(ABS(laptimes!G31-laptimes!G30),"sss.000"), laptimes!G31-laptimes!G30)</f>
+        <v>-00.086</v>
+      </c>
+      <c r="H31" s="2" t="str">
+        <f>IF(laptimes!H31-laptimes!H30&lt;0, "-" &amp; TEXT(ABS(laptimes!H31-laptimes!H30),"sss.000"), laptimes!H31-laptimes!H30)</f>
+        <v>-00.226</v>
+      </c>
+      <c r="I31" s="2" t="str">
+        <f>IF(laptimes!I31-laptimes!I30&lt;0, "-" &amp; TEXT(ABS(laptimes!I31-laptimes!I30),"sss.000"), laptimes!I31-laptimes!I30)</f>
+        <v>-06.164</v>
+      </c>
+      <c r="J31" s="2">
+        <f>IF(laptimes!J31-laptimes!J30&lt;0, "-" &amp; TEXT(ABS(laptimes!J31-laptimes!J30),"sss.000"), laptimes!J31-laptimes!J30)</f>
+        <v>5.2199074074075601E-6</v>
+      </c>
+      <c r="K31" s="2">
+        <f>IF(laptimes!K31-laptimes!K30&lt;0, "-" &amp; TEXT(ABS(laptimes!K31-laptimes!K30),"sss.000"), laptimes!K31-laptimes!K30)</f>
+        <v>2.9050925925927593E-6</v>
+      </c>
+      <c r="L31" s="2" t="str">
+        <f>IF(laptimes!L31-laptimes!L30&lt;0, "-" &amp; TEXT(ABS(laptimes!L31-laptimes!L30),"sss.000"), laptimes!L31-laptimes!L30)</f>
+        <v>-00.143</v>
+      </c>
+      <c r="M31" s="2" t="str">
+        <f>IF(laptimes!M31-laptimes!M30&lt;0, "-" &amp; TEXT(ABS(laptimes!M31-laptimes!M30),"sss.000"), laptimes!M31-laptimes!M30)</f>
+        <v>-00.108</v>
+      </c>
+      <c r="N31" s="2">
+        <f>IF(laptimes!N31-laptimes!N30&lt;0, "-" &amp; TEXT(ABS(laptimes!N31-laptimes!N30),"sss.000"), laptimes!N31-laptimes!N30)</f>
+        <v>2.1064814814816205E-6</v>
+      </c>
+      <c r="O31" s="2">
+        <f>IF(laptimes!O31-laptimes!O30&lt;0, "-" &amp; TEXT(ABS(laptimes!O31-laptimes!O30),"sss.000"), laptimes!O31-laptimes!O30)</f>
+        <v>5.9374999999998665E-6</v>
+      </c>
+      <c r="P31" s="2" t="str">
+        <f>IF(laptimes!P31-laptimes!P30&lt;0, "-" &amp; TEXT(ABS(laptimes!P31-laptimes!P30),"sss.000"), laptimes!P31-laptimes!P30)</f>
+        <v>-00.174</v>
+      </c>
+      <c r="Q31" s="2">
+        <f>IF(laptimes!Q31-laptimes!Q30&lt;0, "-" &amp; TEXT(ABS(laptimes!Q31-laptimes!Q30),"sss.000"), laptimes!Q31-laptimes!Q30)</f>
+        <v>0</v>
+      </c>
+      <c r="R31" s="2">
+        <f>IF(laptimes!R31-laptimes!R30&lt;0, "-" &amp; TEXT(ABS(laptimes!R31-laptimes!R30),"sss.000"), laptimes!R31-laptimes!R30)</f>
+        <v>6.9444444444465708E-8</v>
+      </c>
+      <c r="S31" s="2" t="str">
+        <f>IF(laptimes!S31-laptimes!S30&lt;0, "-" &amp; TEXT(ABS(laptimes!S31-laptimes!S30),"sss.000"), laptimes!S31-laptimes!S30)</f>
+        <v>-00.122</v>
+      </c>
+      <c r="T31" s="2" t="str">
+        <f>IF(laptimes!T31-laptimes!T30&lt;0, "-" &amp; TEXT(ABS(laptimes!T31-laptimes!T30),"sss.000"), laptimes!T31-laptimes!T30)</f>
+        <v>-07.618</v>
+      </c>
+      <c r="U31" s="2">
+        <f>IF(laptimes!U31-laptimes!U30&lt;0, "-" &amp; TEXT(ABS(laptimes!U31-laptimes!U30),"sss.000"), laptimes!U31-laptimes!U30)</f>
+        <v>6.3888888888886768E-6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
+        <f>IF(laptimes!B32-laptimes!B31&lt;0, "-" &amp; TEXT(ABS(laptimes!B32-laptimes!B31),"sss.000"), laptimes!B32-laptimes!B31)</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="2" t="str">
+        <f>IF(laptimes!C32-laptimes!C31&lt;0, "-" &amp; TEXT(ABS(laptimes!C32-laptimes!C31),"sss.000"), laptimes!C32-laptimes!C31)</f>
+        <v>-00.168</v>
+      </c>
+      <c r="D32" s="2">
+        <f>IF(laptimes!D32-laptimes!D31&lt;0, "-" &amp; TEXT(ABS(laptimes!D32-laptimes!D31),"sss.000"), laptimes!D32-laptimes!D31)</f>
+        <v>1.9768518518518356E-5</v>
+      </c>
+      <c r="E32" s="2" t="str">
+        <f>IF(laptimes!E32-laptimes!E31&lt;0, "-" &amp; TEXT(ABS(laptimes!E32-laptimes!E31),"sss.000"), laptimes!E32-laptimes!E31)</f>
+        <v>-00.377</v>
+      </c>
+      <c r="F32" s="2">
+        <f>IF(laptimes!F32-laptimes!F31&lt;0, "-" &amp; TEXT(ABS(laptimes!F32-laptimes!F31),"sss.000"), laptimes!F32-laptimes!F31)</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="2">
+        <f>IF(laptimes!G32-laptimes!G31&lt;0, "-" &amp; TEXT(ABS(laptimes!G32-laptimes!G31),"sss.000"), laptimes!G32-laptimes!G31)</f>
+        <v>3.9236111111110115E-6</v>
+      </c>
+      <c r="H32" s="2">
+        <f>IF(laptimes!H32-laptimes!H31&lt;0, "-" &amp; TEXT(ABS(laptimes!H32-laptimes!H31),"sss.000"), laptimes!H32-laptimes!H31)</f>
+        <v>8.9120370370390431E-7</v>
+      </c>
+      <c r="I32" s="2">
+        <f>IF(laptimes!I32-laptimes!I31&lt;0, "-" &amp; TEXT(ABS(laptimes!I32-laptimes!I31),"sss.000"), laptimes!I32-laptimes!I31)</f>
+        <v>6.1921296296296464E-6</v>
+      </c>
+      <c r="J32" s="2">
+        <f>IF(laptimes!J32-laptimes!J31&lt;0, "-" &amp; TEXT(ABS(laptimes!J32-laptimes!J31),"sss.000"), laptimes!J32-laptimes!J31)</f>
+        <v>2.6736111111110624E-6</v>
+      </c>
+      <c r="K32" s="2" t="str">
+        <f>IF(laptimes!K32-laptimes!K31&lt;0, "-" &amp; TEXT(ABS(laptimes!K32-laptimes!K31),"sss.000"), laptimes!K32-laptimes!K31)</f>
+        <v>-00.107</v>
+      </c>
+      <c r="L32" s="2">
+        <f>IF(laptimes!L32-laptimes!L31&lt;0, "-" &amp; TEXT(ABS(laptimes!L32-laptimes!L31),"sss.000"), laptimes!L32-laptimes!L31)</f>
+        <v>4.8958333333333146E-6</v>
+      </c>
+      <c r="M32" s="2">
+        <f>IF(laptimes!M32-laptimes!M31&lt;0, "-" &amp; TEXT(ABS(laptimes!M32-laptimes!M31),"sss.000"), laptimes!M32-laptimes!M31)</f>
+        <v>4.8495370370371486E-6</v>
+      </c>
+      <c r="N32" s="2">
+        <f>IF(laptimes!N32-laptimes!N31&lt;0, "-" &amp; TEXT(ABS(laptimes!N32-laptimes!N31),"sss.000"), laptimes!N32-laptimes!N31)</f>
+        <v>2.6620370370392978E-7</v>
+      </c>
+      <c r="O32" s="2" t="str">
+        <f>IF(laptimes!O32-laptimes!O31&lt;0, "-" &amp; TEXT(ABS(laptimes!O32-laptimes!O31),"sss.000"), laptimes!O32-laptimes!O31)</f>
+        <v>-00.145</v>
+      </c>
+      <c r="P32" s="2" t="str">
+        <f>IF(laptimes!P32-laptimes!P31&lt;0, "-" &amp; TEXT(ABS(laptimes!P32-laptimes!P31),"sss.000"), laptimes!P32-laptimes!P31)</f>
+        <v>-00.187</v>
+      </c>
+      <c r="Q32" s="2">
+        <f>IF(laptimes!Q32-laptimes!Q31&lt;0, "-" &amp; TEXT(ABS(laptimes!Q32-laptimes!Q31),"sss.000"), laptimes!Q32-laptimes!Q31)</f>
+        <v>0</v>
+      </c>
+      <c r="R32" s="2" t="str">
+        <f>IF(laptimes!R32-laptimes!R31&lt;0, "-" &amp; TEXT(ABS(laptimes!R32-laptimes!R31),"sss.000"), laptimes!R32-laptimes!R31)</f>
+        <v>-00.031</v>
+      </c>
+      <c r="S32" s="2" t="str">
+        <f>IF(laptimes!S32-laptimes!S31&lt;0, "-" &amp; TEXT(ABS(laptimes!S32-laptimes!S31),"sss.000"), laptimes!S32-laptimes!S31)</f>
+        <v>-00.302</v>
+      </c>
+      <c r="T32" s="2">
+        <f>IF(laptimes!T32-laptimes!T31&lt;0, "-" &amp; TEXT(ABS(laptimes!T32-laptimes!T31),"sss.000"), laptimes!T32-laptimes!T31)</f>
+        <v>1.0208333333333423E-5</v>
+      </c>
+      <c r="U32" s="2" t="str">
+        <f>IF(laptimes!U32-laptimes!U31&lt;0, "-" &amp; TEXT(ABS(laptimes!U32-laptimes!U31),"sss.000"), laptimes!U32-laptimes!U31)</f>
+        <v>-00.098</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2">
+        <f>IF(laptimes!B33-laptimes!B32&lt;0, "-" &amp; TEXT(ABS(laptimes!B33-laptimes!B32),"sss.000"), laptimes!B33-laptimes!B32)</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="2" t="str">
+        <f>IF(laptimes!C33-laptimes!C32&lt;0, "-" &amp; TEXT(ABS(laptimes!C33-laptimes!C32),"sss.000"), laptimes!C33-laptimes!C32)</f>
+        <v>-00.128</v>
+      </c>
+      <c r="D33" s="2" t="str">
+        <f>IF(laptimes!D33-laptimes!D32&lt;0, "-" &amp; TEXT(ABS(laptimes!D33-laptimes!D32),"sss.000"), laptimes!D33-laptimes!D32)</f>
+        <v>-01.562</v>
+      </c>
+      <c r="E33" s="2">
+        <f>IF(laptimes!E33-laptimes!E32&lt;0, "-" &amp; TEXT(ABS(laptimes!E33-laptimes!E32),"sss.000"), laptimes!E33-laptimes!E32)</f>
+        <v>6.4814814814805749E-7</v>
+      </c>
+      <c r="F33" s="2">
+        <f>IF(laptimes!F33-laptimes!F32&lt;0, "-" &amp; TEXT(ABS(laptimes!F33-laptimes!F32),"sss.000"), laptimes!F33-laptimes!F32)</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="2" t="str">
+        <f>IF(laptimes!G33-laptimes!G32&lt;0, "-" &amp; TEXT(ABS(laptimes!G33-laptimes!G32),"sss.000"), laptimes!G33-laptimes!G32)</f>
+        <v>-00.141</v>
+      </c>
+      <c r="H33" s="2" t="str">
+        <f>IF(laptimes!H33-laptimes!H32&lt;0, "-" &amp; TEXT(ABS(laptimes!H33-laptimes!H32),"sss.000"), laptimes!H33-laptimes!H32)</f>
+        <v>-00.649</v>
+      </c>
+      <c r="I33" s="2" t="str">
+        <f>IF(laptimes!I33-laptimes!I32&lt;0, "-" &amp; TEXT(ABS(laptimes!I33-laptimes!I32),"sss.000"), laptimes!I33-laptimes!I32)</f>
+        <v>-00.023</v>
+      </c>
+      <c r="J33" s="2">
+        <f>IF(laptimes!J33-laptimes!J32&lt;0, "-" &amp; TEXT(ABS(laptimes!J33-laptimes!J32),"sss.000"), laptimes!J33-laptimes!J32)</f>
+        <v>4.0393518518518599E-6</v>
+      </c>
+      <c r="K33" s="2" t="str">
+        <f>IF(laptimes!K33-laptimes!K32&lt;0, "-" &amp; TEXT(ABS(laptimes!K33-laptimes!K32),"sss.000"), laptimes!K33-laptimes!K32)</f>
+        <v>-00.132</v>
+      </c>
+      <c r="L33" s="2" t="str">
+        <f>IF(laptimes!L33-laptimes!L32&lt;0, "-" &amp; TEXT(ABS(laptimes!L33-laptimes!L32),"sss.000"), laptimes!L33-laptimes!L32)</f>
+        <v>-00.750</v>
+      </c>
+      <c r="M33" s="2" t="str">
+        <f>IF(laptimes!M33-laptimes!M32&lt;0, "-" &amp; TEXT(ABS(laptimes!M33-laptimes!M32),"sss.000"), laptimes!M33-laptimes!M32)</f>
+        <v>-00.359</v>
+      </c>
+      <c r="N33" s="2">
+        <f>IF(laptimes!N33-laptimes!N32&lt;0, "-" &amp; TEXT(ABS(laptimes!N33-laptimes!N32),"sss.000"), laptimes!N33-laptimes!N32)</f>
+        <v>1.3425925925924977E-6</v>
+      </c>
+      <c r="O33" s="2" t="str">
+        <f>IF(laptimes!O33-laptimes!O32&lt;0, "-" &amp; TEXT(ABS(laptimes!O33-laptimes!O32),"sss.000"), laptimes!O33-laptimes!O32)</f>
+        <v>-00.370</v>
+      </c>
+      <c r="P33" s="2" t="str">
+        <f>IF(laptimes!P33-laptimes!P32&lt;0, "-" &amp; TEXT(ABS(laptimes!P33-laptimes!P32),"sss.000"), laptimes!P33-laptimes!P32)</f>
+        <v>-00.366</v>
+      </c>
+      <c r="Q33" s="2">
+        <f>IF(laptimes!Q33-laptimes!Q32&lt;0, "-" &amp; TEXT(ABS(laptimes!Q33-laptimes!Q32),"sss.000"), laptimes!Q33-laptimes!Q32)</f>
+        <v>0</v>
+      </c>
+      <c r="R33" s="2">
+        <f>IF(laptimes!R33-laptimes!R32&lt;0, "-" &amp; TEXT(ABS(laptimes!R33-laptimes!R32),"sss.000"), laptimes!R33-laptimes!R32)</f>
+        <v>2.2222222222222305E-5</v>
+      </c>
+      <c r="S33" s="2">
+        <f>IF(laptimes!S33-laptimes!S32&lt;0, "-" &amp; TEXT(ABS(laptimes!S33-laptimes!S32),"sss.000"), laptimes!S33-laptimes!S32)</f>
+        <v>3.587962962962616E-7</v>
+      </c>
+      <c r="T33" s="2">
+        <f>IF(laptimes!T33-laptimes!T32&lt;0, "-" &amp; TEXT(ABS(laptimes!T33-laptimes!T32),"sss.000"), laptimes!T33-laptimes!T32)</f>
+        <v>8.0092592592592542E-6</v>
+      </c>
+      <c r="U33" s="2">
+        <f>IF(laptimes!U33-laptimes!U32&lt;0, "-" &amp; TEXT(ABS(laptimes!U33-laptimes!U32),"sss.000"), laptimes!U33-laptimes!U32)</f>
+        <v>3.6643518518518318E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2">
+        <f>IF(laptimes!B34-laptimes!B33&lt;0, "-" &amp; TEXT(ABS(laptimes!B34-laptimes!B33),"sss.000"), laptimes!B34-laptimes!B33)</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="2">
+        <f>IF(laptimes!C34-laptimes!C33&lt;0, "-" &amp; TEXT(ABS(laptimes!C34-laptimes!C33),"sss.000"), laptimes!C34-laptimes!C33)</f>
+        <v>5.3240740740742587E-7</v>
+      </c>
+      <c r="D34" s="2">
+        <f>IF(laptimes!D34-laptimes!D33&lt;0, "-" &amp; TEXT(ABS(laptimes!D34-laptimes!D33),"sss.000"), laptimes!D34-laptimes!D33)</f>
+        <v>1.956018518518756E-6</v>
+      </c>
+      <c r="E34" s="2">
+        <f>IF(laptimes!E34-laptimes!E33&lt;0, "-" &amp; TEXT(ABS(laptimes!E34-laptimes!E33),"sss.000"), laptimes!E34-laptimes!E33)</f>
+        <v>8.7962962962975441E-7</v>
+      </c>
+      <c r="F34" s="2">
+        <f>IF(laptimes!F34-laptimes!F33&lt;0, "-" &amp; TEXT(ABS(laptimes!F34-laptimes!F33),"sss.000"), laptimes!F34-laptimes!F33)</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <f>IF(laptimes!G34-laptimes!G33&lt;0, "-" &amp; TEXT(ABS(laptimes!G34-laptimes!G33),"sss.000"), laptimes!G34-laptimes!G33)</f>
+        <v>4.4212962962964213E-6</v>
+      </c>
+      <c r="H34" s="2">
+        <f>IF(laptimes!H34-laptimes!H33&lt;0, "-" &amp; TEXT(ABS(laptimes!H34-laptimes!H33),"sss.000"), laptimes!H34-laptimes!H33)</f>
+        <v>1.4467592592591963E-6</v>
+      </c>
+      <c r="I34" s="2">
+        <f>IF(laptimes!I34-laptimes!I33&lt;0, "-" &amp; TEXT(ABS(laptimes!I34-laptimes!I33),"sss.000"), laptimes!I34-laptimes!I33)</f>
+        <v>4.1782407407407914E-6</v>
+      </c>
+      <c r="J34" s="2">
+        <f>IF(laptimes!J34-laptimes!J33&lt;0, "-" &amp; TEXT(ABS(laptimes!J34-laptimes!J33),"sss.000"), laptimes!J34-laptimes!J33)</f>
+        <v>3.0555555555556238E-6</v>
+      </c>
+      <c r="K34" s="2" t="str">
+        <f>IF(laptimes!K34-laptimes!K33&lt;0, "-" &amp; TEXT(ABS(laptimes!K34-laptimes!K33),"sss.000"), laptimes!K34-laptimes!K33)</f>
+        <v>-00.131</v>
+      </c>
+      <c r="L34" s="2" t="str">
+        <f>IF(laptimes!L34-laptimes!L33&lt;0, "-" &amp; TEXT(ABS(laptimes!L34-laptimes!L33),"sss.000"), laptimes!L34-laptimes!L33)</f>
+        <v>-00.081</v>
+      </c>
+      <c r="M34" s="2" t="str">
+        <f>IF(laptimes!M34-laptimes!M33&lt;0, "-" &amp; TEXT(ABS(laptimes!M34-laptimes!M33),"sss.000"), laptimes!M34-laptimes!M33)</f>
+        <v>-00.065</v>
+      </c>
+      <c r="N34" s="2" t="str">
+        <f>IF(laptimes!N34-laptimes!N33&lt;0, "-" &amp; TEXT(ABS(laptimes!N34-laptimes!N33),"sss.000"), laptimes!N34-laptimes!N33)</f>
+        <v>-00.117</v>
+      </c>
+      <c r="O34" s="2" t="str">
+        <f>IF(laptimes!O34-laptimes!O33&lt;0, "-" &amp; TEXT(ABS(laptimes!O34-laptimes!O33),"sss.000"), laptimes!O34-laptimes!O33)</f>
+        <v>-00.029</v>
+      </c>
+      <c r="P34" s="2" t="str">
+        <f>IF(laptimes!P34-laptimes!P33&lt;0, "-" &amp; TEXT(ABS(laptimes!P34-laptimes!P33),"sss.000"), laptimes!P34-laptimes!P33)</f>
+        <v>-00.183</v>
+      </c>
+      <c r="Q34" s="2">
+        <f>IF(laptimes!Q34-laptimes!Q33&lt;0, "-" &amp; TEXT(ABS(laptimes!Q34-laptimes!Q33),"sss.000"), laptimes!Q34-laptimes!Q33)</f>
+        <v>0</v>
+      </c>
+      <c r="R34" s="2" t="str">
+        <f>IF(laptimes!R34-laptimes!R33&lt;0, "-" &amp; TEXT(ABS(laptimes!R34-laptimes!R33),"sss.000"), laptimes!R34-laptimes!R33)</f>
+        <v>-01.515</v>
+      </c>
+      <c r="S34" s="2">
+        <f>IF(laptimes!S34-laptimes!S33&lt;0, "-" &amp; TEXT(ABS(laptimes!S34-laptimes!S33),"sss.000"), laptimes!S34-laptimes!S33)</f>
+        <v>1.1111111111110177E-6</v>
+      </c>
+      <c r="T34" s="2">
+        <f>IF(laptimes!T34-laptimes!T33&lt;0, "-" &amp; TEXT(ABS(laptimes!T34-laptimes!T33),"sss.000"), laptimes!T34-laptimes!T33)</f>
+        <v>2.0254629629629615E-5</v>
+      </c>
+      <c r="U34" s="2" t="str">
+        <f>IF(laptimes!U34-laptimes!U33&lt;0, "-" &amp; TEXT(ABS(laptimes!U34-laptimes!U33),"sss.000"), laptimes!U34-laptimes!U33)</f>
+        <v>-02.928</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2">
+        <f>IF(laptimes!B35-laptimes!B34&lt;0, "-" &amp; TEXT(ABS(laptimes!B35-laptimes!B34),"sss.000"), laptimes!B35-laptimes!B34)</f>
+        <v>0</v>
+      </c>
+      <c r="C35" s="2" t="str">
+        <f>IF(laptimes!C35-laptimes!C34&lt;0, "-" &amp; TEXT(ABS(laptimes!C35-laptimes!C34),"sss.000"), laptimes!C35-laptimes!C34)</f>
+        <v>-00.048</v>
+      </c>
+      <c r="D35" s="2">
+        <f>IF(laptimes!D35-laptimes!D34&lt;0, "-" &amp; TEXT(ABS(laptimes!D35-laptimes!D34),"sss.000"), laptimes!D35-laptimes!D34)</f>
+        <v>9.0277777777762053E-7</v>
+      </c>
+      <c r="E35" s="2">
+        <f>IF(laptimes!E35-laptimes!E34&lt;0, "-" &amp; TEXT(ABS(laptimes!E35-laptimes!E34),"sss.000"), laptimes!E35-laptimes!E34)</f>
+        <v>1.0995370370368678E-6</v>
+      </c>
+      <c r="F35" s="2">
+        <f>IF(laptimes!F35-laptimes!F34&lt;0, "-" &amp; TEXT(ABS(laptimes!F35-laptimes!F34),"sss.000"), laptimes!F35-laptimes!F34)</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="2" t="str">
+        <f>IF(laptimes!G35-laptimes!G34&lt;0, "-" &amp; TEXT(ABS(laptimes!G35-laptimes!G34),"sss.000"), laptimes!G35-laptimes!G34)</f>
+        <v>-00.233</v>
+      </c>
+      <c r="H35" s="2" t="str">
+        <f>IF(laptimes!H35-laptimes!H34&lt;0, "-" &amp; TEXT(ABS(laptimes!H35-laptimes!H34),"sss.000"), laptimes!H35-laptimes!H34)</f>
+        <v>-00.146</v>
+      </c>
+      <c r="I35" s="2">
+        <f>IF(laptimes!I35-laptimes!I34&lt;0, "-" &amp; TEXT(ABS(laptimes!I35-laptimes!I34),"sss.000"), laptimes!I35-laptimes!I34)</f>
+        <v>2.3148148148082956E-8</v>
+      </c>
+      <c r="J35" s="2" t="str">
+        <f>IF(laptimes!J35-laptimes!J34&lt;0, "-" &amp; TEXT(ABS(laptimes!J35-laptimes!J34),"sss.000"), laptimes!J35-laptimes!J34)</f>
+        <v>-00.033</v>
+      </c>
+      <c r="K35" s="2">
+        <f>IF(laptimes!K35-laptimes!K34&lt;0, "-" &amp; TEXT(ABS(laptimes!K35-laptimes!K34),"sss.000"), laptimes!K35-laptimes!K34)</f>
+        <v>4.7106481481482172E-6</v>
+      </c>
+      <c r="L35" s="2" t="str">
+        <f>IF(laptimes!L35-laptimes!L34&lt;0, "-" &amp; TEXT(ABS(laptimes!L35-laptimes!L34),"sss.000"), laptimes!L35-laptimes!L34)</f>
+        <v>-00.111</v>
+      </c>
+      <c r="M35" s="2">
+        <f>IF(laptimes!M35-laptimes!M34&lt;0, "-" &amp; TEXT(ABS(laptimes!M35-laptimes!M34),"sss.000"), laptimes!M35-laptimes!M34)</f>
+        <v>9.6527777777776977E-6</v>
+      </c>
+      <c r="N35" s="2" t="str">
+        <f>IF(laptimes!N35-laptimes!N34&lt;0, "-" &amp; TEXT(ABS(laptimes!N35-laptimes!N34),"sss.000"), laptimes!N35-laptimes!N34)</f>
+        <v>-00.051</v>
+      </c>
+      <c r="O35" s="2" t="str">
+        <f>IF(laptimes!O35-laptimes!O34&lt;0, "-" &amp; TEXT(ABS(laptimes!O35-laptimes!O34),"sss.000"), laptimes!O35-laptimes!O34)</f>
+        <v>-00.059</v>
+      </c>
+      <c r="P35" s="2" t="str">
+        <f>IF(laptimes!P35-laptimes!P34&lt;0, "-" &amp; TEXT(ABS(laptimes!P35-laptimes!P34),"sss.000"), laptimes!P35-laptimes!P34)</f>
+        <v>-00.233</v>
+      </c>
+      <c r="Q35" s="2">
+        <f>IF(laptimes!Q35-laptimes!Q34&lt;0, "-" &amp; TEXT(ABS(laptimes!Q35-laptimes!Q34),"sss.000"), laptimes!Q35-laptimes!Q34)</f>
+        <v>0</v>
+      </c>
+      <c r="R35" s="2">
+        <f>IF(laptimes!R35-laptimes!R34&lt;0, "-" &amp; TEXT(ABS(laptimes!R35-laptimes!R34),"sss.000"), laptimes!R35-laptimes!R34)</f>
+        <v>1.6087962962962107E-6</v>
+      </c>
+      <c r="S35" s="2">
+        <f>IF(laptimes!S35-laptimes!S34&lt;0, "-" &amp; TEXT(ABS(laptimes!S35-laptimes!S34),"sss.000"), laptimes!S35-laptimes!S34)</f>
+        <v>6.5393518518519749E-6</v>
+      </c>
+      <c r="T35" s="2" t="str">
+        <f>IF(laptimes!T35-laptimes!T34&lt;0, "-" &amp; TEXT(ABS(laptimes!T35-laptimes!T34),"sss.000"), laptimes!T35-laptimes!T34)</f>
+        <v>-01.703</v>
+      </c>
+      <c r="U35" s="2">
+        <f>IF(laptimes!U35-laptimes!U34&lt;0, "-" &amp; TEXT(ABS(laptimes!U35-laptimes!U34),"sss.000"), laptimes!U35-laptimes!U34)</f>
+        <v>2.8842592592592461E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2">
+        <f>IF(laptimes!B36-laptimes!B35&lt;0, "-" &amp; TEXT(ABS(laptimes!B36-laptimes!B35),"sss.000"), laptimes!B36-laptimes!B35)</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="2">
+        <f>IF(laptimes!C36-laptimes!C35&lt;0, "-" &amp; TEXT(ABS(laptimes!C36-laptimes!C35),"sss.000"), laptimes!C36-laptimes!C35)</f>
+        <v>1.6435185185184435E-6</v>
+      </c>
+      <c r="D36" s="2" t="str">
+        <f>IF(laptimes!D36-laptimes!D35&lt;0, "-" &amp; TEXT(ABS(laptimes!D36-laptimes!D35),"sss.000"), laptimes!D36-laptimes!D35)</f>
+        <v>-00.242</v>
+      </c>
+      <c r="E36" s="2" t="str">
+        <f>IF(laptimes!E36-laptimes!E35&lt;0, "-" &amp; TEXT(ABS(laptimes!E36-laptimes!E35),"sss.000"), laptimes!E36-laptimes!E35)</f>
+        <v>-00.364</v>
+      </c>
+      <c r="F36" s="2">
+        <f>IF(laptimes!F36-laptimes!F35&lt;0, "-" &amp; TEXT(ABS(laptimes!F36-laptimes!F35),"sss.000"), laptimes!F36-laptimes!F35)</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="2">
+        <f>IF(laptimes!G36-laptimes!G35&lt;0, "-" &amp; TEXT(ABS(laptimes!G36-laptimes!G35),"sss.000"), laptimes!G36-laptimes!G35)</f>
+        <v>7.1296296296299334E-6</v>
+      </c>
+      <c r="H36" s="2">
+        <f>IF(laptimes!H36-laptimes!H35&lt;0, "-" &amp; TEXT(ABS(laptimes!H36-laptimes!H35),"sss.000"), laptimes!H36-laptimes!H35)</f>
+        <v>4.2245370370369573E-6</v>
+      </c>
+      <c r="I36" s="2">
+        <f>IF(laptimes!I36-laptimes!I35&lt;0, "-" &amp; TEXT(ABS(laptimes!I36-laptimes!I35),"sss.000"), laptimes!I36-laptimes!I35)</f>
+        <v>2.3611111111111836E-6</v>
+      </c>
+      <c r="J36" s="2">
+        <f>IF(laptimes!J36-laptimes!J35&lt;0, "-" &amp; TEXT(ABS(laptimes!J36-laptimes!J35),"sss.000"), laptimes!J36-laptimes!J35)</f>
+        <v>4.7453703703711006E-7</v>
+      </c>
+      <c r="K36" s="2" t="str">
+        <f>IF(laptimes!K36-laptimes!K35&lt;0, "-" &amp; TEXT(ABS(laptimes!K36-laptimes!K35),"sss.000"), laptimes!K36-laptimes!K35)</f>
+        <v>-00.171</v>
+      </c>
+      <c r="L36" s="2">
+        <f>IF(laptimes!L36-laptimes!L35&lt;0, "-" &amp; TEXT(ABS(laptimes!L36-laptimes!L35),"sss.000"), laptimes!L36-laptimes!L35)</f>
+        <v>1.6006944444444358E-5</v>
+      </c>
+      <c r="M36" s="2" t="str">
+        <f>IF(laptimes!M36-laptimes!M35&lt;0, "-" &amp; TEXT(ABS(laptimes!M36-laptimes!M35),"sss.000"), laptimes!M36-laptimes!M35)</f>
+        <v>-00.143</v>
+      </c>
+      <c r="N36" s="2">
+        <f>IF(laptimes!N36-laptimes!N35&lt;0, "-" &amp; TEXT(ABS(laptimes!N36-laptimes!N35),"sss.000"), laptimes!N36-laptimes!N35)</f>
+        <v>5.6712962962965872E-7</v>
+      </c>
+      <c r="O36" s="2">
+        <f>IF(laptimes!O36-laptimes!O35&lt;0, "-" &amp; TEXT(ABS(laptimes!O36-laptimes!O35),"sss.000"), laptimes!O36-laptimes!O35)</f>
+        <v>2.013888888888855E-6</v>
+      </c>
+      <c r="P36" s="2" t="str">
+        <f>IF(laptimes!P36-laptimes!P35&lt;0, "-" &amp; TEXT(ABS(laptimes!P36-laptimes!P35),"sss.000"), laptimes!P36-laptimes!P35)</f>
+        <v>-00.162</v>
+      </c>
+      <c r="Q36" s="2">
+        <f>IF(laptimes!Q36-laptimes!Q35&lt;0, "-" &amp; TEXT(ABS(laptimes!Q36-laptimes!Q35),"sss.000"), laptimes!Q36-laptimes!Q35)</f>
+        <v>0</v>
+      </c>
+      <c r="R36" s="2" t="str">
+        <f>IF(laptimes!R36-laptimes!R35&lt;0, "-" &amp; TEXT(ABS(laptimes!R36-laptimes!R35),"sss.000"), laptimes!R36-laptimes!R35)</f>
+        <v>-00.036</v>
+      </c>
+      <c r="S36" s="2" t="str">
+        <f>IF(laptimes!S36-laptimes!S35&lt;0, "-" &amp; TEXT(ABS(laptimes!S36-laptimes!S35),"sss.000"), laptimes!S36-laptimes!S35)</f>
+        <v>-00.317</v>
+      </c>
+      <c r="T36" s="2" t="str">
+        <f>IF(laptimes!T36-laptimes!T35&lt;0, "-" &amp; TEXT(ABS(laptimes!T36-laptimes!T35),"sss.000"), laptimes!T36-laptimes!T35)</f>
+        <v>-00.409</v>
+      </c>
+      <c r="U36" s="2" t="str">
+        <f>IF(laptimes!U36-laptimes!U35&lt;0, "-" &amp; TEXT(ABS(laptimes!U36-laptimes!U35),"sss.000"), laptimes!U36-laptimes!U35)</f>
+        <v>-02.006</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2">
+        <f>IF(laptimes!B37-laptimes!B36&lt;0, "-" &amp; TEXT(ABS(laptimes!B37-laptimes!B36),"sss.000"), laptimes!B37-laptimes!B36)</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="2" t="str">
+        <f>IF(laptimes!C37-laptimes!C36&lt;0, "-" &amp; TEXT(ABS(laptimes!C37-laptimes!C36),"sss.000"), laptimes!C37-laptimes!C36)</f>
+        <v>-00.222</v>
+      </c>
+      <c r="D37" s="2">
+        <f>IF(laptimes!D37-laptimes!D36&lt;0, "-" &amp; TEXT(ABS(laptimes!D37-laptimes!D36),"sss.000"), laptimes!D37-laptimes!D36)</f>
+        <v>7.2916666666688994E-7</v>
+      </c>
+      <c r="E37" s="2">
+        <f>IF(laptimes!E37-laptimes!E36&lt;0, "-" &amp; TEXT(ABS(laptimes!E37-laptimes!E36),"sss.000"), laptimes!E37-laptimes!E36)</f>
+        <v>9.3750000000007022E-7</v>
+      </c>
+      <c r="F37" s="2">
+        <f>IF(laptimes!F37-laptimes!F36&lt;0, "-" &amp; TEXT(ABS(laptimes!F37-laptimes!F36),"sss.000"), laptimes!F37-laptimes!F36)</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="2">
+        <f>IF(laptimes!G37-laptimes!G36&lt;0, "-" &amp; TEXT(ABS(laptimes!G37-laptimes!G36),"sss.000"), laptimes!G37-laptimes!G36)</f>
+        <v>8.2175925925922176E-7</v>
+      </c>
+      <c r="H37" s="2" t="str">
+        <f>IF(laptimes!H37-laptimes!H36&lt;0, "-" &amp; TEXT(ABS(laptimes!H37-laptimes!H36),"sss.000"), laptimes!H37-laptimes!H36)</f>
+        <v>-00.573</v>
+      </c>
+      <c r="I37" s="2" t="str">
+        <f>IF(laptimes!I37-laptimes!I36&lt;0, "-" &amp; TEXT(ABS(laptimes!I37-laptimes!I36),"sss.000"), laptimes!I37-laptimes!I36)</f>
+        <v>-00.618</v>
+      </c>
+      <c r="J37" s="2" t="str">
+        <f>IF(laptimes!J37-laptimes!J36&lt;0, "-" &amp; TEXT(ABS(laptimes!J37-laptimes!J36),"sss.000"), laptimes!J37-laptimes!J36)</f>
+        <v>-00.197</v>
+      </c>
+      <c r="K37" s="2" t="str">
+        <f>IF(laptimes!K37-laptimes!K36&lt;0, "-" &amp; TEXT(ABS(laptimes!K37-laptimes!K36),"sss.000"), laptimes!K37-laptimes!K36)</f>
+        <v>-00.026</v>
+      </c>
+      <c r="L37" s="2" t="str">
+        <f>IF(laptimes!L37-laptimes!L36&lt;0, "-" &amp; TEXT(ABS(laptimes!L37-laptimes!L36),"sss.000"), laptimes!L37-laptimes!L36)</f>
+        <v>-01.340</v>
+      </c>
+      <c r="M37" s="2">
+        <f>IF(laptimes!M37-laptimes!M36&lt;0, "-" &amp; TEXT(ABS(laptimes!M37-laptimes!M36),"sss.000"), laptimes!M37-laptimes!M36)</f>
+        <v>4.4097222222220546E-6</v>
+      </c>
+      <c r="N37" s="2" t="str">
+        <f>IF(laptimes!N37-laptimes!N36&lt;0, "-" &amp; TEXT(ABS(laptimes!N37-laptimes!N36),"sss.000"), laptimes!N37-laptimes!N36)</f>
+        <v>-00.080</v>
+      </c>
+      <c r="O37" s="2">
+        <f>IF(laptimes!O37-laptimes!O36&lt;0, "-" &amp; TEXT(ABS(laptimes!O37-laptimes!O36),"sss.000"), laptimes!O37-laptimes!O36)</f>
+        <v>2.997685185185308E-6</v>
+      </c>
+      <c r="P37" s="2">
+        <f>IF(laptimes!P37-laptimes!P36&lt;0, "-" &amp; TEXT(ABS(laptimes!P37-laptimes!P36),"sss.000"), laptimes!P37-laptimes!P36)</f>
+        <v>2.0486111111110879E-6</v>
+      </c>
+      <c r="Q37" s="2">
+        <f>IF(laptimes!Q37-laptimes!Q36&lt;0, "-" &amp; TEXT(ABS(laptimes!Q37-laptimes!Q36),"sss.000"), laptimes!Q37-laptimes!Q36)</f>
+        <v>0</v>
+      </c>
+      <c r="R37" s="2" t="str">
+        <f>IF(laptimes!R37-laptimes!R36&lt;0, "-" &amp; TEXT(ABS(laptimes!R37-laptimes!R36),"sss.000"), laptimes!R37-laptimes!R36)</f>
+        <v>-00.129</v>
+      </c>
+      <c r="S37" s="2" t="str">
+        <f>IF(laptimes!S37-laptimes!S36&lt;0, "-" &amp; TEXT(ABS(laptimes!S37-laptimes!S36),"sss.000"), laptimes!S37-laptimes!S36)</f>
+        <v>-00.145</v>
+      </c>
+      <c r="T37" s="2">
+        <f>IF(laptimes!T37-laptimes!T36&lt;0, "-" &amp; TEXT(ABS(laptimes!T37-laptimes!T36),"sss.000"), laptimes!T37-laptimes!T36)</f>
+        <v>2.9513888888891421E-6</v>
+      </c>
+      <c r="U37" s="2" t="str">
+        <f>IF(laptimes!U37-laptimes!U36&lt;0, "-" &amp; TEXT(ABS(laptimes!U37-laptimes!U36),"sss.000"), laptimes!U37-laptimes!U36)</f>
+        <v>-00.461</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2">
+        <f>IF(laptimes!B38-laptimes!B37&lt;0, "-" &amp; TEXT(ABS(laptimes!B38-laptimes!B37),"sss.000"), laptimes!B38-laptimes!B37)</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="2" t="str">
+        <f>IF(laptimes!C38-laptimes!C37&lt;0, "-" &amp; TEXT(ABS(laptimes!C38-laptimes!C37),"sss.000"), laptimes!C38-laptimes!C37)</f>
+        <v>-00.132</v>
+      </c>
+      <c r="D38" s="2">
+        <f>IF(laptimes!D38-laptimes!D37&lt;0, "-" &amp; TEXT(ABS(laptimes!D38-laptimes!D37),"sss.000"), laptimes!D38-laptimes!D37)</f>
+        <v>5.7870370370359178E-7</v>
+      </c>
+      <c r="E38" s="2">
+        <f>IF(laptimes!E38-laptimes!E37&lt;0, "-" &amp; TEXT(ABS(laptimes!E38-laptimes!E37),"sss.000"), laptimes!E38-laptimes!E37)</f>
+        <v>5.1504629629628776E-6</v>
+      </c>
+      <c r="F38" s="2">
+        <f>IF(laptimes!F38-laptimes!F37&lt;0, "-" &amp; TEXT(ABS(laptimes!F38-laptimes!F37),"sss.000"), laptimes!F38-laptimes!F37)</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="2">
+        <f>IF(laptimes!G38-laptimes!G37&lt;0, "-" &amp; TEXT(ABS(laptimes!G38-laptimes!G37),"sss.000"), laptimes!G38-laptimes!G37)</f>
+        <v>2.0270833333333317E-4</v>
+      </c>
+      <c r="H38" s="2">
+        <f>IF(laptimes!H38-laptimes!H37&lt;0, "-" &amp; TEXT(ABS(laptimes!H38-laptimes!H37),"sss.000"), laptimes!H38-laptimes!H37)</f>
+        <v>5.2777777777778759E-6</v>
+      </c>
+      <c r="I38" s="2">
+        <f>IF(laptimes!I38-laptimes!I37&lt;0, "-" &amp; TEXT(ABS(laptimes!I38-laptimes!I37),"sss.000"), laptimes!I38-laptimes!I37)</f>
+        <v>3.9699074074073942E-6</v>
+      </c>
+      <c r="J38" s="2">
+        <f>IF(laptimes!J38-laptimes!J37&lt;0, "-" &amp; TEXT(ABS(laptimes!J38-laptimes!J37),"sss.000"), laptimes!J38-laptimes!J37)</f>
+        <v>6.9675925925924854E-6</v>
+      </c>
+      <c r="K38" s="2" t="str">
+        <f>IF(laptimes!K38-laptimes!K37&lt;0, "-" &amp; TEXT(ABS(laptimes!K38-laptimes!K37),"sss.000"), laptimes!K38-laptimes!K37)</f>
+        <v>-00.089</v>
+      </c>
+      <c r="L38" s="2" t="str">
+        <f>IF(laptimes!L38-laptimes!L37&lt;0, "-" &amp; TEXT(ABS(laptimes!L38-laptimes!L37),"sss.000"), laptimes!L38-laptimes!L37)</f>
+        <v>-00.006</v>
+      </c>
+      <c r="M38" s="2">
+        <f>IF(laptimes!M38-laptimes!M37&lt;0, "-" &amp; TEXT(ABS(laptimes!M38-laptimes!M37),"sss.000"), laptimes!M38-laptimes!M37)</f>
+        <v>6.6851851851851794E-5</v>
+      </c>
+      <c r="N38" s="2" t="str">
+        <f>IF(laptimes!N38-laptimes!N37&lt;0, "-" &amp; TEXT(ABS(laptimes!N38-laptimes!N37),"sss.000"), laptimes!N38-laptimes!N37)</f>
+        <v>-00.003</v>
+      </c>
+      <c r="O38" s="2">
+        <f>IF(laptimes!O38-laptimes!O37&lt;0, "-" &amp; TEXT(ABS(laptimes!O38-laptimes!O37),"sss.000"), laptimes!O38-laptimes!O37)</f>
+        <v>2.3263888888889507E-6</v>
+      </c>
+      <c r="P38" s="2">
+        <f>IF(laptimes!P38-laptimes!P37&lt;0, "-" &amp; TEXT(ABS(laptimes!P38-laptimes!P37),"sss.000"), laptimes!P38-laptimes!P37)</f>
+        <v>9.2939814814812192E-6</v>
+      </c>
+      <c r="Q38" s="2">
+        <f>IF(laptimes!Q38-laptimes!Q37&lt;0, "-" &amp; TEXT(ABS(laptimes!Q38-laptimes!Q37),"sss.000"), laptimes!Q38-laptimes!Q37)</f>
+        <v>0</v>
+      </c>
+      <c r="R38" s="2" t="str">
+        <f>IF(laptimes!R38-laptimes!R37&lt;0, "-" &amp; TEXT(ABS(laptimes!R38-laptimes!R37),"sss.000"), laptimes!R38-laptimes!R37)</f>
+        <v>-00.007</v>
+      </c>
+      <c r="S38" s="2" t="str">
+        <f>IF(laptimes!S38-laptimes!S37&lt;0, "-" &amp; TEXT(ABS(laptimes!S38-laptimes!S37),"sss.000"), laptimes!S38-laptimes!S37)</f>
+        <v>-00.357</v>
+      </c>
+      <c r="T38" s="2" t="str">
+        <f>IF(laptimes!T38-laptimes!T37&lt;0, "-" &amp; TEXT(ABS(laptimes!T38-laptimes!T37),"sss.000"), laptimes!T38-laptimes!T37)</f>
+        <v>-00.213</v>
+      </c>
+      <c r="U38" s="2">
+        <f>IF(laptimes!U38-laptimes!U37&lt;0, "-" &amp; TEXT(ABS(laptimes!U38-laptimes!U37),"sss.000"), laptimes!U38-laptimes!U37)</f>
+        <v>6.828703703700735E-7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2">
+        <f>IF(laptimes!B39-laptimes!B38&lt;0, "-" &amp; TEXT(ABS(laptimes!B39-laptimes!B38),"sss.000"), laptimes!B39-laptimes!B38)</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="2">
+        <f>IF(laptimes!C39-laptimes!C38&lt;0, "-" &amp; TEXT(ABS(laptimes!C39-laptimes!C38),"sss.000"), laptimes!C39-laptimes!C38)</f>
+        <v>4.4097222222222714E-6</v>
+      </c>
+      <c r="D39" s="2" t="str">
+        <f>IF(laptimes!D39-laptimes!D38&lt;0, "-" &amp; TEXT(ABS(laptimes!D39-laptimes!D38),"sss.000"), laptimes!D39-laptimes!D38)</f>
+        <v>-00.046</v>
+      </c>
+      <c r="E39" s="2" t="str">
+        <f>IF(laptimes!E39-laptimes!E38&lt;0, "-" &amp; TEXT(ABS(laptimes!E39-laptimes!E38),"sss.000"), laptimes!E39-laptimes!E38)</f>
+        <v>-00.277</v>
+      </c>
+      <c r="F39" s="2">
+        <f>IF(laptimes!F39-laptimes!F38&lt;0, "-" &amp; TEXT(ABS(laptimes!F39-laptimes!F38),"sss.000"), laptimes!F39-laptimes!F38)</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="2" t="str">
+        <f>IF(laptimes!G39-laptimes!G38&lt;0, "-" &amp; TEXT(ABS(laptimes!G39-laptimes!G38),"sss.000"), laptimes!G39-laptimes!G38)</f>
+        <v>-13.024</v>
+      </c>
+      <c r="H39" s="2">
+        <f>IF(laptimes!H39-laptimes!H38&lt;0, "-" &amp; TEXT(ABS(laptimes!H39-laptimes!H38),"sss.000"), laptimes!H39-laptimes!H38)</f>
+        <v>2.489583333333315E-5</v>
+      </c>
+      <c r="I39" s="2" t="str">
+        <f>IF(laptimes!I39-laptimes!I38&lt;0, "-" &amp; TEXT(ABS(laptimes!I39-laptimes!I38),"sss.000"), laptimes!I39-laptimes!I38)</f>
+        <v>-00.052</v>
+      </c>
+      <c r="J39" s="2" t="str">
+        <f>IF(laptimes!J39-laptimes!J38&lt;0, "-" &amp; TEXT(ABS(laptimes!J39-laptimes!J38),"sss.000"), laptimes!J39-laptimes!J38)</f>
+        <v>-00.368</v>
+      </c>
+      <c r="K39" s="2" t="str">
+        <f>IF(laptimes!K39-laptimes!K38&lt;0, "-" &amp; TEXT(ABS(laptimes!K39-laptimes!K38),"sss.000"), laptimes!K39-laptimes!K38)</f>
+        <v>-00.066</v>
+      </c>
+      <c r="L39" s="2" t="str">
+        <f>IF(laptimes!L39-laptimes!L38&lt;0, "-" &amp; TEXT(ABS(laptimes!L39-laptimes!L38),"sss.000"), laptimes!L39-laptimes!L38)</f>
+        <v>-00.134</v>
+      </c>
+      <c r="M39" s="2" t="str">
+        <f>IF(laptimes!M39-laptimes!M38&lt;0, "-" &amp; TEXT(ABS(laptimes!M39-laptimes!M38),"sss.000"), laptimes!M39-laptimes!M38)</f>
+        <v>-06.443</v>
+      </c>
+      <c r="N39" s="2" t="str">
+        <f>IF(laptimes!N39-laptimes!N38&lt;0, "-" &amp; TEXT(ABS(laptimes!N39-laptimes!N38),"sss.000"), laptimes!N39-laptimes!N38)</f>
+        <v>-00.046</v>
+      </c>
+      <c r="O39" s="2" t="str">
+        <f>IF(laptimes!O39-laptimes!O38&lt;0, "-" &amp; TEXT(ABS(laptimes!O39-laptimes!O38),"sss.000"), laptimes!O39-laptimes!O38)</f>
+        <v>-00.051</v>
+      </c>
+      <c r="P39" s="2" t="str">
+        <f>IF(laptimes!P39-laptimes!P38&lt;0, "-" &amp; TEXT(ABS(laptimes!P39-laptimes!P38),"sss.000"), laptimes!P39-laptimes!P38)</f>
+        <v>-00.207</v>
+      </c>
+      <c r="Q39" s="2">
+        <f>IF(laptimes!Q39-laptimes!Q38&lt;0, "-" &amp; TEXT(ABS(laptimes!Q39-laptimes!Q38),"sss.000"), laptimes!Q39-laptimes!Q38)</f>
+        <v>0</v>
+      </c>
+      <c r="R39" s="2">
+        <f>IF(laptimes!R39-laptimes!R38&lt;0, "-" &amp; TEXT(ABS(laptimes!R39-laptimes!R38),"sss.000"), laptimes!R39-laptimes!R38)</f>
+        <v>1.2731481481478152E-7</v>
+      </c>
+      <c r="S39" s="2">
+        <f>IF(laptimes!S39-laptimes!S38&lt;0, "-" &amp; TEXT(ABS(laptimes!S39-laptimes!S38),"sss.000"), laptimes!S39-laptimes!S38)</f>
+        <v>2.8935185185186094E-6</v>
+      </c>
+      <c r="T39" s="2" t="str">
+        <f>IF(laptimes!T39-laptimes!T38&lt;0, "-" &amp; TEXT(ABS(laptimes!T39-laptimes!T38),"sss.000"), laptimes!T39-laptimes!T38)</f>
+        <v>-00.389</v>
+      </c>
+      <c r="U39" s="2" t="str">
+        <f>IF(laptimes!U39-laptimes!U38&lt;0, "-" &amp; TEXT(ABS(laptimes!U39-laptimes!U38),"sss.000"), laptimes!U39-laptimes!U38)</f>
+        <v>-00.189</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2">
+        <f>IF(laptimes!B40-laptimes!B39&lt;0, "-" &amp; TEXT(ABS(laptimes!B40-laptimes!B39),"sss.000"), laptimes!B40-laptimes!B39)</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="2">
+        <f>IF(laptimes!C40-laptimes!C39&lt;0, "-" &amp; TEXT(ABS(laptimes!C40-laptimes!C39),"sss.000"), laptimes!C40-laptimes!C39)</f>
+        <v>1.5972222222220608E-6</v>
+      </c>
+      <c r="D40" s="2" t="str">
+        <f>IF(laptimes!D40-laptimes!D39&lt;0, "-" &amp; TEXT(ABS(laptimes!D40-laptimes!D39),"sss.000"), laptimes!D40-laptimes!D39)</f>
+        <v>-00.006</v>
+      </c>
+      <c r="E40" s="2" t="str">
+        <f>IF(laptimes!E40-laptimes!E39&lt;0, "-" &amp; TEXT(ABS(laptimes!E40-laptimes!E39),"sss.000"), laptimes!E40-laptimes!E39)</f>
+        <v>-00.130</v>
+      </c>
+      <c r="F40" s="2">
+        <f>IF(laptimes!F40-laptimes!F39&lt;0, "-" &amp; TEXT(ABS(laptimes!F40-laptimes!F39),"sss.000"), laptimes!F40-laptimes!F39)</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="2" t="str">
+        <f>IF(laptimes!G40-laptimes!G39&lt;0, "-" &amp; TEXT(ABS(laptimes!G40-laptimes!G39),"sss.000"), laptimes!G40-laptimes!G39)</f>
+        <v>-06.922</v>
+      </c>
+      <c r="H40" s="2" t="str">
+        <f>IF(laptimes!H40-laptimes!H39&lt;0, "-" &amp; TEXT(ABS(laptimes!H40-laptimes!H39),"sss.000"), laptimes!H40-laptimes!H39)</f>
+        <v>-02.239</v>
+      </c>
+      <c r="I40" s="2" t="str">
+        <f>IF(laptimes!I40-laptimes!I39&lt;0, "-" &amp; TEXT(ABS(laptimes!I40-laptimes!I39),"sss.000"), laptimes!I40-laptimes!I39)</f>
+        <v>-00.050</v>
+      </c>
+      <c r="J40" s="2" t="str">
+        <f>IF(laptimes!J40-laptimes!J39&lt;0, "-" &amp; TEXT(ABS(laptimes!J40-laptimes!J39),"sss.000"), laptimes!J40-laptimes!J39)</f>
+        <v>-00.208</v>
+      </c>
+      <c r="K40" s="2" t="str">
+        <f>IF(laptimes!K40-laptimes!K39&lt;0, "-" &amp; TEXT(ABS(laptimes!K40-laptimes!K39),"sss.000"), laptimes!K40-laptimes!K39)</f>
+        <v>-00.390</v>
+      </c>
+      <c r="L40" s="2" t="str">
+        <f>IF(laptimes!L40-laptimes!L39&lt;0, "-" &amp; TEXT(ABS(laptimes!L40-laptimes!L39),"sss.000"), laptimes!L40-laptimes!L39)</f>
+        <v>-00.153</v>
+      </c>
+      <c r="M40" s="2" t="str">
+        <f>IF(laptimes!M40-laptimes!M39&lt;0, "-" &amp; TEXT(ABS(laptimes!M40-laptimes!M39),"sss.000"), laptimes!M40-laptimes!M39)</f>
+        <v>-00.883</v>
+      </c>
+      <c r="N40" s="2" t="str">
+        <f>IF(laptimes!N40-laptimes!N39&lt;0, "-" &amp; TEXT(ABS(laptimes!N40-laptimes!N39),"sss.000"), laptimes!N40-laptimes!N39)</f>
+        <v>-00.373</v>
+      </c>
+      <c r="O40" s="2">
+        <f>IF(laptimes!O40-laptimes!O39&lt;0, "-" &amp; TEXT(ABS(laptimes!O40-laptimes!O39),"sss.000"), laptimes!O40-laptimes!O39)</f>
+        <v>6.7129629629614045E-7</v>
+      </c>
+      <c r="P40" s="2" t="str">
+        <f>IF(laptimes!P40-laptimes!P39&lt;0, "-" &amp; TEXT(ABS(laptimes!P40-laptimes!P39),"sss.000"), laptimes!P40-laptimes!P39)</f>
+        <v>-00.106</v>
+      </c>
+      <c r="Q40" s="2">
+        <f>IF(laptimes!Q40-laptimes!Q39&lt;0, "-" &amp; TEXT(ABS(laptimes!Q40-laptimes!Q39),"sss.000"), laptimes!Q40-laptimes!Q39)</f>
+        <v>0</v>
+      </c>
+      <c r="R40" s="2">
+        <f>IF(laptimes!R40-laptimes!R39&lt;0, "-" &amp; TEXT(ABS(laptimes!R40-laptimes!R39),"sss.000"), laptimes!R40-laptimes!R39)</f>
+        <v>4.1666666666657741E-7</v>
+      </c>
+      <c r="S40" s="2">
+        <f>IF(laptimes!S40-laptimes!S39&lt;0, "-" &amp; TEXT(ABS(laptimes!S40-laptimes!S39),"sss.000"), laptimes!S40-laptimes!S39)</f>
+        <v>4.3634259259258887E-6</v>
+      </c>
+      <c r="T40" s="2" t="str">
+        <f>IF(laptimes!T40-laptimes!T39&lt;0, "-" &amp; TEXT(ABS(laptimes!T40-laptimes!T39),"sss.000"), laptimes!T40-laptimes!T39)</f>
+        <v>-00.174</v>
+      </c>
+      <c r="U40" s="2" t="str">
+        <f>IF(laptimes!U40-laptimes!U39&lt;0, "-" &amp; TEXT(ABS(laptimes!U40-laptimes!U39),"sss.000"), laptimes!U40-laptimes!U39)</f>
+        <v>-00.124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2">
+        <f>IF(laptimes!B41-laptimes!B40&lt;0, "-" &amp; TEXT(ABS(laptimes!B41-laptimes!B40),"sss.000"), laptimes!B41-laptimes!B40)</f>
+        <v>0</v>
+      </c>
+      <c r="C41" s="2" t="str">
+        <f>IF(laptimes!C41-laptimes!C40&lt;0, "-" &amp; TEXT(ABS(laptimes!C41-laptimes!C40),"sss.000"), laptimes!C41-laptimes!C40)</f>
+        <v>-00.495</v>
+      </c>
+      <c r="D41" s="2" t="str">
+        <f>IF(laptimes!D41-laptimes!D40&lt;0, "-" &amp; TEXT(ABS(laptimes!D41-laptimes!D40),"sss.000"), laptimes!D41-laptimes!D40)</f>
+        <v>-00.352</v>
+      </c>
+      <c r="E41" s="2" t="str">
+        <f>IF(laptimes!E41-laptimes!E40&lt;0, "-" &amp; TEXT(ABS(laptimes!E41-laptimes!E40),"sss.000"), laptimes!E41-laptimes!E40)</f>
+        <v>-00.055</v>
+      </c>
+      <c r="F41" s="2">
+        <f>IF(laptimes!F41-laptimes!F40&lt;0, "-" &amp; TEXT(ABS(laptimes!F41-laptimes!F40),"sss.000"), laptimes!F41-laptimes!F40)</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="2">
+        <f>IF(laptimes!G41-laptimes!G40&lt;0, "-" &amp; TEXT(ABS(laptimes!G41-laptimes!G40),"sss.000"), laptimes!G41-laptimes!G40)</f>
+        <v>3.9004629629631454E-6</v>
+      </c>
+      <c r="H41" s="2" t="str">
+        <f>IF(laptimes!H41-laptimes!H40&lt;0, "-" &amp; TEXT(ABS(laptimes!H41-laptimes!H40),"sss.000"), laptimes!H41-laptimes!H40)</f>
+        <v>-00.444</v>
+      </c>
+      <c r="I41" s="2" t="str">
+        <f>IF(laptimes!I41-laptimes!I40&lt;0, "-" &amp; TEXT(ABS(laptimes!I41-laptimes!I40),"sss.000"), laptimes!I41-laptimes!I40)</f>
+        <v>-00.214</v>
+      </c>
+      <c r="J41" s="2">
+        <f>IF(laptimes!J41-laptimes!J40&lt;0, "-" &amp; TEXT(ABS(laptimes!J41-laptimes!J40),"sss.000"), laptimes!J41-laptimes!J40)</f>
+        <v>9.7222222222230308E-7</v>
+      </c>
+      <c r="K41" s="2" t="str">
+        <f>IF(laptimes!K41-laptimes!K40&lt;0, "-" &amp; TEXT(ABS(laptimes!K41-laptimes!K40),"sss.000"), laptimes!K41-laptimes!K40)</f>
+        <v>-00.119</v>
+      </c>
+      <c r="L41" s="2" t="str">
+        <f>IF(laptimes!L41-laptimes!L40&lt;0, "-" &amp; TEXT(ABS(laptimes!L41-laptimes!L40),"sss.000"), laptimes!L41-laptimes!L40)</f>
+        <v>-00.250</v>
+      </c>
+      <c r="M41" s="2">
+        <f>IF(laptimes!M41-laptimes!M40&lt;0, "-" &amp; TEXT(ABS(laptimes!M41-laptimes!M40),"sss.000"), laptimes!M41-laptimes!M40)</f>
+        <v>6.2499999999997453E-7</v>
+      </c>
+      <c r="N41" s="2">
+        <f>IF(laptimes!N41-laptimes!N40&lt;0, "-" &amp; TEXT(ABS(laptimes!N41-laptimes!N40),"sss.000"), laptimes!N41-laptimes!N40)</f>
+        <v>2.511574074074048E-6</v>
+      </c>
+      <c r="O41" s="2">
+        <f>IF(laptimes!O41-laptimes!O40&lt;0, "-" &amp; TEXT(ABS(laptimes!O41-laptimes!O40),"sss.000"), laptimes!O41-laptimes!O40)</f>
+        <v>2.6041666666668135E-6</v>
+      </c>
+      <c r="P41" s="2">
+        <f>IF(laptimes!P41-laptimes!P40&lt;0, "-" &amp; TEXT(ABS(laptimes!P41-laptimes!P40),"sss.000"), laptimes!P41-laptimes!P40)</f>
+        <v>1.7708333333334419E-6</v>
+      </c>
+      <c r="Q41" s="2">
+        <f>IF(laptimes!Q41-laptimes!Q40&lt;0, "-" &amp; TEXT(ABS(laptimes!Q41-laptimes!Q40),"sss.000"), laptimes!Q41-laptimes!Q40)</f>
+        <v>0</v>
+      </c>
+      <c r="R41" s="2" t="str">
+        <f>IF(laptimes!R41-laptimes!R40&lt;0, "-" &amp; TEXT(ABS(laptimes!R41-laptimes!R40),"sss.000"), laptimes!R41-laptimes!R40)</f>
+        <v>-00.052</v>
+      </c>
+      <c r="S41" s="2" t="str">
+        <f>IF(laptimes!S41-laptimes!S40&lt;0, "-" &amp; TEXT(ABS(laptimes!S41-laptimes!S40),"sss.000"), laptimes!S41-laptimes!S40)</f>
+        <v>-00.462</v>
+      </c>
+      <c r="T41" s="2">
+        <f>IF(laptimes!T41-laptimes!T40&lt;0, "-" &amp; TEXT(ABS(laptimes!T41-laptimes!T40),"sss.000"), laptimes!T41-laptimes!T40)</f>
+        <v>4.4328703703705712E-6</v>
+      </c>
+      <c r="U41" s="2" t="str">
+        <f>IF(laptimes!U41-laptimes!U40&lt;0, "-" &amp; TEXT(ABS(laptimes!U41-laptimes!U40),"sss.000"), laptimes!U41-laptimes!U40)</f>
+        <v>-00.146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2">
+        <f>IF(laptimes!B42-laptimes!B41&lt;0, "-" &amp; TEXT(ABS(laptimes!B42-laptimes!B41),"sss.000"), laptimes!B42-laptimes!B41)</f>
+        <v>0</v>
+      </c>
+      <c r="C42" s="2">
+        <f>IF(laptimes!C42-laptimes!C41&lt;0, "-" &amp; TEXT(ABS(laptimes!C42-laptimes!C41),"sss.000"), laptimes!C42-laptimes!C41)</f>
+        <v>4.8032407407407659E-6</v>
+      </c>
+      <c r="D42" s="2">
+        <f>IF(laptimes!D42-laptimes!D41&lt;0, "-" &amp; TEXT(ABS(laptimes!D42-laptimes!D41),"sss.000"), laptimes!D42-laptimes!D41)</f>
+        <v>1.3888888888871458E-7</v>
+      </c>
+      <c r="E42" s="2" t="str">
+        <f>IF(laptimes!E42-laptimes!E41&lt;0, "-" &amp; TEXT(ABS(laptimes!E42-laptimes!E41),"sss.000"), laptimes!E42-laptimes!E41)</f>
+        <v>-00.132</v>
+      </c>
+      <c r="F42" s="2">
+        <f>IF(laptimes!F42-laptimes!F41&lt;0, "-" &amp; TEXT(ABS(laptimes!F42-laptimes!F41),"sss.000"), laptimes!F42-laptimes!F41)</f>
+        <v>0</v>
+      </c>
+      <c r="G42" s="2">
+        <f>IF(laptimes!G42-laptimes!G41&lt;0, "-" &amp; TEXT(ABS(laptimes!G42-laptimes!G41),"sss.000"), laptimes!G42-laptimes!G41)</f>
+        <v>4.0393518518518599E-6</v>
+      </c>
+      <c r="H42" s="2" t="str">
+        <f>IF(laptimes!H42-laptimes!H41&lt;0, "-" &amp; TEXT(ABS(laptimes!H42-laptimes!H41),"sss.000"), laptimes!H42-laptimes!H41)</f>
+        <v>-00.247</v>
+      </c>
+      <c r="I42" s="2" t="str">
+        <f>IF(laptimes!I42-laptimes!I41&lt;0, "-" &amp; TEXT(ABS(laptimes!I42-laptimes!I41),"sss.000"), laptimes!I42-laptimes!I41)</f>
+        <v>-00.152</v>
+      </c>
+      <c r="J42" s="2" t="str">
+        <f>IF(laptimes!J42-laptimes!J41&lt;0, "-" &amp; TEXT(ABS(laptimes!J42-laptimes!J41),"sss.000"), laptimes!J42-laptimes!J41)</f>
+        <v>-00.132</v>
+      </c>
+      <c r="K42" s="2">
+        <f>IF(laptimes!K42-laptimes!K41&lt;0, "-" &amp; TEXT(ABS(laptimes!K42-laptimes!K41),"sss.000"), laptimes!K42-laptimes!K41)</f>
+        <v>9.3749999999985338E-7</v>
+      </c>
+      <c r="L42" s="2" t="str">
+        <f>IF(laptimes!L42-laptimes!L41&lt;0, "-" &amp; TEXT(ABS(laptimes!L42-laptimes!L41),"sss.000"), laptimes!L42-laptimes!L41)</f>
+        <v>-00.170</v>
+      </c>
+      <c r="M42" s="2">
+        <f>IF(laptimes!M42-laptimes!M41&lt;0, "-" &amp; TEXT(ABS(laptimes!M42-laptimes!M41),"sss.000"), laptimes!M42-laptimes!M41)</f>
+        <v>2.6157407407407466E-6</v>
+      </c>
+      <c r="N42" s="2" t="str">
+        <f>IF(laptimes!N42-laptimes!N41&lt;0, "-" &amp; TEXT(ABS(laptimes!N42-laptimes!N41),"sss.000"), laptimes!N42-laptimes!N41)</f>
+        <v>-00.192</v>
+      </c>
+      <c r="O42" s="2" t="str">
+        <f>IF(laptimes!O42-laptimes!O41&lt;0, "-" &amp; TEXT(ABS(laptimes!O42-laptimes!O41),"sss.000"), laptimes!O42-laptimes!O41)</f>
+        <v>-00.041</v>
+      </c>
+      <c r="P42" s="2">
+        <f>IF(laptimes!P42-laptimes!P41&lt;0, "-" &amp; TEXT(ABS(laptimes!P42-laptimes!P41),"sss.000"), laptimes!P42-laptimes!P41)</f>
+        <v>9.9537037037038603E-7</v>
+      </c>
+      <c r="Q42" s="2">
+        <f>IF(laptimes!Q42-laptimes!Q41&lt;0, "-" &amp; TEXT(ABS(laptimes!Q42-laptimes!Q41),"sss.000"), laptimes!Q42-laptimes!Q41)</f>
+        <v>0</v>
+      </c>
+      <c r="R42" s="2">
+        <f>IF(laptimes!R42-laptimes!R41&lt;0, "-" &amp; TEXT(ABS(laptimes!R42-laptimes!R41),"sss.000"), laptimes!R42-laptimes!R41)</f>
+        <v>4.3518518518521725E-6</v>
+      </c>
+      <c r="S42" s="2" t="str">
+        <f>IF(laptimes!S42-laptimes!S41&lt;0, "-" &amp; TEXT(ABS(laptimes!S42-laptimes!S41),"sss.000"), laptimes!S42-laptimes!S41)</f>
+        <v>-00.230</v>
+      </c>
+      <c r="T42" s="2" t="str">
+        <f>IF(laptimes!T42-laptimes!T41&lt;0, "-" &amp; TEXT(ABS(laptimes!T42-laptimes!T41),"sss.000"), laptimes!T42-laptimes!T41)</f>
+        <v>-00.165</v>
+      </c>
+      <c r="U42" s="2">
+        <f>IF(laptimes!U42-laptimes!U41&lt;0, "-" &amp; TEXT(ABS(laptimes!U42-laptimes!U41),"sss.000"), laptimes!U42-laptimes!U41)</f>
+        <v>1.9675925925924723E-6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2">
+        <f>IF(laptimes!B43-laptimes!B42&lt;0, "-" &amp; TEXT(ABS(laptimes!B43-laptimes!B42),"sss.000"), laptimes!B43-laptimes!B42)</f>
+        <v>0</v>
+      </c>
+      <c r="C43" s="2">
+        <f>IF(laptimes!C43-laptimes!C42&lt;0, "-" &amp; TEXT(ABS(laptimes!C43-laptimes!C42),"sss.000"), laptimes!C43-laptimes!C42)</f>
+        <v>2.7222222222222318E-5</v>
+      </c>
+      <c r="D43" s="2">
+        <f>IF(laptimes!D43-laptimes!D42&lt;0, "-" &amp; TEXT(ABS(laptimes!D43-laptimes!D42),"sss.000"), laptimes!D43-laptimes!D42)</f>
+        <v>2.013888888888855E-6</v>
+      </c>
+      <c r="E43" s="2">
+        <f>IF(laptimes!E43-laptimes!E42&lt;0, "-" &amp; TEXT(ABS(laptimes!E43-laptimes!E42),"sss.000"), laptimes!E43-laptimes!E42)</f>
+        <v>2.6851851851852123E-6</v>
+      </c>
+      <c r="F43" s="2">
+        <f>IF(laptimes!F43-laptimes!F42&lt;0, "-" &amp; TEXT(ABS(laptimes!F43-laptimes!F42),"sss.000"), laptimes!F43-laptimes!F42)</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="2">
+        <f>IF(laptimes!G43-laptimes!G42&lt;0, "-" &amp; TEXT(ABS(laptimes!G43-laptimes!G42),"sss.000"), laptimes!G43-laptimes!G42)</f>
+        <v>1.7245370370370374E-5</v>
+      </c>
+      <c r="H43" s="2">
+        <f>IF(laptimes!H43-laptimes!H42&lt;0, "-" &amp; TEXT(ABS(laptimes!H43-laptimes!H42),"sss.000"), laptimes!H43-laptimes!H42)</f>
+        <v>2.3495370370370337E-6</v>
+      </c>
+      <c r="I43" s="2">
+        <f>IF(laptimes!I43-laptimes!I42&lt;0, "-" &amp; TEXT(ABS(laptimes!I43-laptimes!I42),"sss.000"), laptimes!I43-laptimes!I42)</f>
+        <v>3.8194444444434456E-7</v>
+      </c>
+      <c r="J43" s="2" t="str">
+        <f>IF(laptimes!J43-laptimes!J42&lt;0, "-" &amp; TEXT(ABS(laptimes!J43-laptimes!J42),"sss.000"), laptimes!J43-laptimes!J42)</f>
+        <v>-00.175</v>
+      </c>
+      <c r="K43" s="2" t="str">
+        <f>IF(laptimes!K43-laptimes!K42&lt;0, "-" &amp; TEXT(ABS(laptimes!K43-laptimes!K42),"sss.000"), laptimes!K43-laptimes!K42)</f>
+        <v>-00.225</v>
+      </c>
+      <c r="L43" s="2" t="str">
+        <f>IF(laptimes!L43-laptimes!L42&lt;0, "-" &amp; TEXT(ABS(laptimes!L43-laptimes!L42),"sss.000"), laptimes!L43-laptimes!L42)</f>
+        <v>-00.104</v>
+      </c>
+      <c r="M43" s="2">
+        <f>IF(laptimes!M43-laptimes!M42&lt;0, "-" &amp; TEXT(ABS(laptimes!M43-laptimes!M42),"sss.000"), laptimes!M43-laptimes!M42)</f>
+        <v>5.0925925925955975E-7</v>
+      </c>
+      <c r="N43" s="2">
+        <f>IF(laptimes!N43-laptimes!N42&lt;0, "-" &amp; TEXT(ABS(laptimes!N43-laptimes!N42),"sss.000"), laptimes!N43-laptimes!N42)</f>
+        <v>3.2407407407402875E-7</v>
+      </c>
+      <c r="O43" s="2" t="str">
+        <f>IF(laptimes!O43-laptimes!O42&lt;0, "-" &amp; TEXT(ABS(laptimes!O43-laptimes!O42),"sss.000"), laptimes!O43-laptimes!O42)</f>
+        <v>-00.544</v>
+      </c>
+      <c r="P43" s="2" t="str">
+        <f>IF(laptimes!P43-laptimes!P42&lt;0, "-" &amp; TEXT(ABS(laptimes!P43-laptimes!P42),"sss.000"), laptimes!P43-laptimes!P42)</f>
+        <v>-00.706</v>
+      </c>
+      <c r="Q43" s="2">
+        <f>IF(laptimes!Q43-laptimes!Q42&lt;0, "-" &amp; TEXT(ABS(laptimes!Q43-laptimes!Q42),"sss.000"), laptimes!Q43-laptimes!Q42)</f>
+        <v>0</v>
+      </c>
+      <c r="R43" s="2">
+        <f>IF(laptimes!R43-laptimes!R42&lt;0, "-" &amp; TEXT(ABS(laptimes!R43-laptimes!R42),"sss.000"), laptimes!R43-laptimes!R42)</f>
+        <v>2.2574074074074055E-4</v>
+      </c>
+      <c r="S43" s="2" t="str">
+        <f>IF(laptimes!S43-laptimes!S42&lt;0, "-" &amp; TEXT(ABS(laptimes!S43-laptimes!S42),"sss.000"), laptimes!S43-laptimes!S42)</f>
+        <v>-00.304</v>
+      </c>
+      <c r="T43" s="2">
+        <f>IF(laptimes!T43-laptimes!T42&lt;0, "-" &amp; TEXT(ABS(laptimes!T43-laptimes!T42),"sss.000"), laptimes!T43-laptimes!T42)</f>
+        <v>2.476851851852032E-6</v>
+      </c>
+      <c r="U43" s="2">
+        <f>IF(laptimes!U43-laptimes!U42&lt;0, "-" &amp; TEXT(ABS(laptimes!U43-laptimes!U42),"sss.000"), laptimes!U43-laptimes!U42)</f>
+        <v>1.5995370370370425E-5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2">
+        <f>IF(laptimes!B44-laptimes!B43&lt;0, "-" &amp; TEXT(ABS(laptimes!B44-laptimes!B43),"sss.000"), laptimes!B44-laptimes!B43)</f>
+        <v>0</v>
+      </c>
+      <c r="C44" s="2" t="str">
+        <f>IF(laptimes!C44-laptimes!C43&lt;0, "-" &amp; TEXT(ABS(laptimes!C44-laptimes!C43),"sss.000"), laptimes!C44-laptimes!C43)</f>
+        <v>-01.925</v>
+      </c>
+      <c r="D44" s="2">
+        <f>IF(laptimes!D44-laptimes!D43&lt;0, "-" &amp; TEXT(ABS(laptimes!D44-laptimes!D43),"sss.000"), laptimes!D44-laptimes!D43)</f>
+        <v>2.2685185185186349E-6</v>
+      </c>
+      <c r="E44" s="2" t="str">
+        <f>IF(laptimes!E44-laptimes!E43&lt;0, "-" &amp; TEXT(ABS(laptimes!E44-laptimes!E43),"sss.000"), laptimes!E44-laptimes!E43)</f>
+        <v>-00.389</v>
+      </c>
+      <c r="F44" s="2">
+        <f>IF(laptimes!F44-laptimes!F43&lt;0, "-" &amp; TEXT(ABS(laptimes!F44-laptimes!F43),"sss.000"), laptimes!F44-laptimes!F43)</f>
+        <v>0</v>
+      </c>
+      <c r="G44" s="2" t="str">
+        <f>IF(laptimes!G44-laptimes!G43&lt;0, "-" &amp; TEXT(ABS(laptimes!G44-laptimes!G43),"sss.000"), laptimes!G44-laptimes!G43)</f>
+        <v>-01.186</v>
+      </c>
+      <c r="H44" s="2" t="str">
+        <f>IF(laptimes!H44-laptimes!H43&lt;0, "-" &amp; TEXT(ABS(laptimes!H44-laptimes!H43),"sss.000"), laptimes!H44-laptimes!H43)</f>
+        <v>-00.024</v>
+      </c>
+      <c r="I44" s="2" t="str">
+        <f>IF(laptimes!I44-laptimes!I43&lt;0, "-" &amp; TEXT(ABS(laptimes!I44-laptimes!I43),"sss.000"), laptimes!I44-laptimes!I43)</f>
+        <v>-00.059</v>
+      </c>
+      <c r="J44" s="2" t="str">
+        <f>IF(laptimes!J44-laptimes!J43&lt;0, "-" &amp; TEXT(ABS(laptimes!J44-laptimes!J43),"sss.000"), laptimes!J44-laptimes!J43)</f>
+        <v>-00.056</v>
+      </c>
+      <c r="K44" s="2">
+        <f>IF(laptimes!K44-laptimes!K43&lt;0, "-" &amp; TEXT(ABS(laptimes!K44-laptimes!K43),"sss.000"), laptimes!K44-laptimes!K43)</f>
+        <v>1.3437499999999995E-5</v>
+      </c>
+      <c r="L44" s="2" t="str">
+        <f>IF(laptimes!L44-laptimes!L43&lt;0, "-" &amp; TEXT(ABS(laptimes!L44-laptimes!L43),"sss.000"), laptimes!L44-laptimes!L43)</f>
+        <v>-00.303</v>
+      </c>
+      <c r="M44" s="2">
+        <f>IF(laptimes!M44-laptimes!M43&lt;0, "-" &amp; TEXT(ABS(laptimes!M44-laptimes!M43),"sss.000"), laptimes!M44-laptimes!M43)</f>
+        <v>3.8310185185184628E-6</v>
+      </c>
+      <c r="N44" s="2">
+        <f>IF(laptimes!N44-laptimes!N43&lt;0, "-" &amp; TEXT(ABS(laptimes!N44-laptimes!N43),"sss.000"), laptimes!N44-laptimes!N43)</f>
+        <v>1.6666666666667433E-6</v>
+      </c>
+      <c r="O44" s="2" t="str">
+        <f>IF(laptimes!O44-laptimes!O43&lt;0, "-" &amp; TEXT(ABS(laptimes!O44-laptimes!O43),"sss.000"), laptimes!O44-laptimes!O43)</f>
+        <v>-00.046</v>
+      </c>
+      <c r="P44" s="2">
+        <f>IF(laptimes!P44-laptimes!P43&lt;0, "-" &amp; TEXT(ABS(laptimes!P44-laptimes!P43),"sss.000"), laptimes!P44-laptimes!P43)</f>
+        <v>4.0624999999999429E-6</v>
+      </c>
+      <c r="Q44" s="2">
+        <f>IF(laptimes!Q44-laptimes!Q43&lt;0, "-" &amp; TEXT(ABS(laptimes!Q44-laptimes!Q43),"sss.000"), laptimes!Q44-laptimes!Q43)</f>
+        <v>0</v>
+      </c>
+      <c r="R44" s="2" t="str">
+        <f>IF(laptimes!R44-laptimes!R43&lt;0, "-" &amp; TEXT(ABS(laptimes!R44-laptimes!R43),"sss.000"), laptimes!R44-laptimes!R43)</f>
+        <v>-11.130</v>
+      </c>
+      <c r="S44" s="2">
+        <f>IF(laptimes!S44-laptimes!S43&lt;0, "-" &amp; TEXT(ABS(laptimes!S44-laptimes!S43),"sss.000"), laptimes!S44-laptimes!S43)</f>
+        <v>7.6157407407405429E-6</v>
+      </c>
+      <c r="T44" s="2" t="str">
+        <f>IF(laptimes!T44-laptimes!T43&lt;0, "-" &amp; TEXT(ABS(laptimes!T44-laptimes!T43),"sss.000"), laptimes!T44-laptimes!T43)</f>
+        <v>-00.250</v>
+      </c>
+      <c r="U44" s="2" t="str">
+        <f>IF(laptimes!U44-laptimes!U43&lt;0, "-" &amp; TEXT(ABS(laptimes!U44-laptimes!U43),"sss.000"), laptimes!U44-laptimes!U43)</f>
+        <v>-01.453</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2">
+        <f>IF(laptimes!B45-laptimes!B44&lt;0, "-" &amp; TEXT(ABS(laptimes!B45-laptimes!B44),"sss.000"), laptimes!B45-laptimes!B44)</f>
+        <v>0</v>
+      </c>
+      <c r="C45" s="2">
+        <f>IF(laptimes!C45-laptimes!C44&lt;0, "-" &amp; TEXT(ABS(laptimes!C45-laptimes!C44),"sss.000"), laptimes!C45-laptimes!C44)</f>
+        <v>1.9097222222221565E-6</v>
+      </c>
+      <c r="D45" s="2" t="str">
+        <f>IF(laptimes!D45-laptimes!D44&lt;0, "-" &amp; TEXT(ABS(laptimes!D45-laptimes!D44),"sss.000"), laptimes!D45-laptimes!D44)</f>
+        <v>-00.310</v>
+      </c>
+      <c r="E45" s="2">
+        <f>IF(laptimes!E45-laptimes!E44&lt;0, "-" &amp; TEXT(ABS(laptimes!E45-laptimes!E44),"sss.000"), laptimes!E45-laptimes!E44)</f>
+        <v>1.5625000000000448E-6</v>
+      </c>
+      <c r="F45" s="2">
+        <f>IF(laptimes!F45-laptimes!F44&lt;0, "-" &amp; TEXT(ABS(laptimes!F45-laptimes!F44),"sss.000"), laptimes!F45-laptimes!F44)</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="2" t="str">
+        <f>IF(laptimes!G45-laptimes!G44&lt;0, "-" &amp; TEXT(ABS(laptimes!G45-laptimes!G44),"sss.000"), laptimes!G45-laptimes!G44)</f>
+        <v>-00.565</v>
+      </c>
+      <c r="H45" s="2">
+        <f>IF(laptimes!H45-laptimes!H44&lt;0, "-" &amp; TEXT(ABS(laptimes!H45-laptimes!H44),"sss.000"), laptimes!H45-laptimes!H44)</f>
+        <v>3.1828703703704053E-6</v>
+      </c>
+      <c r="I45" s="2">
+        <f>IF(laptimes!I45-laptimes!I44&lt;0, "-" &amp; TEXT(ABS(laptimes!I45-laptimes!I44),"sss.000"), laptimes!I45-laptimes!I44)</f>
+        <v>7.9861111111113881E-7</v>
+      </c>
+      <c r="J45" s="2">
+        <f>IF(laptimes!J45-laptimes!J44&lt;0, "-" &amp; TEXT(ABS(laptimes!J45-laptimes!J44),"sss.000"), laptimes!J45-laptimes!J44)</f>
+        <v>1.6435185185184435E-6</v>
+      </c>
+      <c r="K45" s="2" t="str">
+        <f>IF(laptimes!K45-laptimes!K44&lt;0, "-" &amp; TEXT(ABS(laptimes!K45-laptimes!K44),"sss.000"), laptimes!K45-laptimes!K44)</f>
+        <v>-00.763</v>
+      </c>
+      <c r="L45" s="2">
+        <f>IF(laptimes!L45-laptimes!L44&lt;0, "-" &amp; TEXT(ABS(laptimes!L45-laptimes!L44),"sss.000"), laptimes!L45-laptimes!L44)</f>
+        <v>8.2060185185185014E-6</v>
+      </c>
+      <c r="M45" s="2">
+        <f>IF(laptimes!M45-laptimes!M44&lt;0, "-" &amp; TEXT(ABS(laptimes!M45-laptimes!M44),"sss.000"), laptimes!M45-laptimes!M44)</f>
+        <v>2.2800925925923511E-6</v>
+      </c>
+      <c r="N45" s="2">
+        <f>IF(laptimes!N45-laptimes!N44&lt;0, "-" &amp; TEXT(ABS(laptimes!N45-laptimes!N44),"sss.000"), laptimes!N45-laptimes!N44)</f>
+        <v>2.4305555555562998E-7</v>
+      </c>
+      <c r="O45" s="2" t="str">
+        <f>IF(laptimes!O45-laptimes!O44&lt;0, "-" &amp; TEXT(ABS(laptimes!O45-laptimes!O44),"sss.000"), laptimes!O45-laptimes!O44)</f>
+        <v>-00.138</v>
+      </c>
+      <c r="P45" s="2" t="str">
+        <f>IF(laptimes!P45-laptimes!P44&lt;0, "-" &amp; TEXT(ABS(laptimes!P45-laptimes!P44),"sss.000"), laptimes!P45-laptimes!P44)</f>
+        <v>-00.167</v>
+      </c>
+      <c r="Q45" s="2">
+        <f>IF(laptimes!Q45-laptimes!Q44&lt;0, "-" &amp; TEXT(ABS(laptimes!Q45-laptimes!Q44),"sss.000"), laptimes!Q45-laptimes!Q44)</f>
+        <v>0</v>
+      </c>
+      <c r="R45" s="2" t="str">
+        <f>IF(laptimes!R45-laptimes!R44&lt;0, "-" &amp; TEXT(ABS(laptimes!R45-laptimes!R44),"sss.000"), laptimes!R45-laptimes!R44)</f>
+        <v>-10.348</v>
+      </c>
+      <c r="S45" s="2">
+        <f>IF(laptimes!S45-laptimes!S44&lt;0, "-" &amp; TEXT(ABS(laptimes!S45-laptimes!S44),"sss.000"), laptimes!S45-laptimes!S44)</f>
+        <v>1.6550925925925934E-6</v>
+      </c>
+      <c r="T45" s="2">
+        <f>IF(laptimes!T45-laptimes!T44&lt;0, "-" &amp; TEXT(ABS(laptimes!T45-laptimes!T44),"sss.000"), laptimes!T45-laptimes!T44)</f>
+        <v>2.108680555555555E-4</v>
+      </c>
+      <c r="U45" s="2">
+        <f>IF(laptimes!U45-laptimes!U44&lt;0, "-" &amp; TEXT(ABS(laptimes!U45-laptimes!U44),"sss.000"), laptimes!U45-laptimes!U44)</f>
+        <v>5.7870370370372189E-6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2">
+        <f>IF(laptimes!B46-laptimes!B45&lt;0, "-" &amp; TEXT(ABS(laptimes!B46-laptimes!B45),"sss.000"), laptimes!B46-laptimes!B45)</f>
+        <v>0</v>
+      </c>
+      <c r="C46" s="2" t="str">
+        <f>IF(laptimes!C46-laptimes!C45&lt;0, "-" &amp; TEXT(ABS(laptimes!C46-laptimes!C45),"sss.000"), laptimes!C46-laptimes!C45)</f>
+        <v>-00.597</v>
+      </c>
+      <c r="D46" s="2" t="str">
+        <f>IF(laptimes!D46-laptimes!D45&lt;0, "-" &amp; TEXT(ABS(laptimes!D46-laptimes!D45),"sss.000"), laptimes!D46-laptimes!D45)</f>
+        <v>-00.026</v>
+      </c>
+      <c r="E46" s="2" t="str">
+        <f>IF(laptimes!E46-laptimes!E45&lt;0, "-" &amp; TEXT(ABS(laptimes!E46-laptimes!E45),"sss.000"), laptimes!E46-laptimes!E45)</f>
+        <v>-00.173</v>
+      </c>
+      <c r="F46" s="2">
+        <f>IF(laptimes!F46-laptimes!F45&lt;0, "-" &amp; TEXT(ABS(laptimes!F46-laptimes!F45),"sss.000"), laptimes!F46-laptimes!F45)</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="2">
+        <f>IF(laptimes!G46-laptimes!G45&lt;0, "-" &amp; TEXT(ABS(laptimes!G46-laptimes!G45),"sss.000"), laptimes!G46-laptimes!G45)</f>
+        <v>2.013888888888855E-6</v>
+      </c>
+      <c r="H46" s="2" t="str">
+        <f>IF(laptimes!H46-laptimes!H45&lt;0, "-" &amp; TEXT(ABS(laptimes!H46-laptimes!H45),"sss.000"), laptimes!H46-laptimes!H45)</f>
+        <v>-00.201</v>
+      </c>
+      <c r="I46" s="2" t="str">
+        <f>IF(laptimes!I46-laptimes!I45&lt;0, "-" &amp; TEXT(ABS(laptimes!I46-laptimes!I45),"sss.000"), laptimes!I46-laptimes!I45)</f>
+        <v>-00.184</v>
+      </c>
+      <c r="J46" s="2" t="str">
+        <f>IF(laptimes!J46-laptimes!J45&lt;0, "-" &amp; TEXT(ABS(laptimes!J46-laptimes!J45),"sss.000"), laptimes!J46-laptimes!J45)</f>
+        <v>-00.173</v>
+      </c>
+      <c r="K46" s="2">
+        <f>IF(laptimes!K46-laptimes!K45&lt;0, "-" &amp; TEXT(ABS(laptimes!K46-laptimes!K45),"sss.000"), laptimes!K46-laptimes!K45)</f>
+        <v>4.3287037037036558E-6</v>
+      </c>
+      <c r="L46" s="2">
+        <f>IF(laptimes!L46-laptimes!L45&lt;0, "-" &amp; TEXT(ABS(laptimes!L46-laptimes!L45),"sss.000"), laptimes!L46-laptimes!L45)</f>
+        <v>2.4189814814814994E-6</v>
+      </c>
+      <c r="M46" s="2">
+        <f>IF(laptimes!M46-laptimes!M45&lt;0, "-" &amp; TEXT(ABS(laptimes!M46-laptimes!M45),"sss.000"), laptimes!M46-laptimes!M45)</f>
+        <v>1.8518518518518406E-6</v>
+      </c>
+      <c r="N46" s="2">
+        <f>IF(laptimes!N46-laptimes!N45&lt;0, "-" &amp; TEXT(ABS(laptimes!N46-laptimes!N45),"sss.000"), laptimes!N46-laptimes!N45)</f>
+        <v>2.037037037036938E-6</v>
+      </c>
+      <c r="O46" s="2">
+        <f>IF(laptimes!O46-laptimes!O45&lt;0, "-" &amp; TEXT(ABS(laptimes!O46-laptimes!O45),"sss.000"), laptimes!O46-laptimes!O45)</f>
+        <v>3.3912037037035856E-6</v>
+      </c>
+      <c r="P46" s="2" t="str">
+        <f>IF(laptimes!P46-laptimes!P45&lt;0, "-" &amp; TEXT(ABS(laptimes!P46-laptimes!P45),"sss.000"), laptimes!P46-laptimes!P45)</f>
+        <v>-00.150</v>
+      </c>
+      <c r="Q46" s="2">
+        <f>IF(laptimes!Q46-laptimes!Q45&lt;0, "-" &amp; TEXT(ABS(laptimes!Q46-laptimes!Q45),"sss.000"), laptimes!Q46-laptimes!Q45)</f>
+        <v>0</v>
+      </c>
+      <c r="R46" s="2">
+        <f>IF(laptimes!R46-laptimes!R45&lt;0, "-" &amp; TEXT(ABS(laptimes!R46-laptimes!R45),"sss.000"), laptimes!R46-laptimes!R45)</f>
+        <v>1.1574074074084846E-7</v>
+      </c>
+      <c r="S46" s="2">
+        <f>IF(laptimes!S46-laptimes!S45&lt;0, "-" &amp; TEXT(ABS(laptimes!S46-laptimes!S45),"sss.000"), laptimes!S46-laptimes!S45)</f>
+        <v>4.6296296296296016E-7</v>
+      </c>
+      <c r="T46" s="2" t="str">
+        <f>IF(laptimes!T46-laptimes!T45&lt;0, "-" &amp; TEXT(ABS(laptimes!T46-laptimes!T45),"sss.000"), laptimes!T46-laptimes!T45)</f>
+        <v>-06.439</v>
+      </c>
+      <c r="U46" s="2" t="str">
+        <f>IF(laptimes!U46-laptimes!U45&lt;0, "-" &amp; TEXT(ABS(laptimes!U46-laptimes!U45),"sss.000"), laptimes!U46-laptimes!U45)</f>
+        <v>-00.279</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2">
+        <f>IF(laptimes!B47-laptimes!B46&lt;0, "-" &amp; TEXT(ABS(laptimes!B47-laptimes!B46),"sss.000"), laptimes!B47-laptimes!B46)</f>
+        <v>0</v>
+      </c>
+      <c r="C47" s="2">
+        <f>IF(laptimes!C47-laptimes!C46&lt;0, "-" &amp; TEXT(ABS(laptimes!C47-laptimes!C46),"sss.000"), laptimes!C47-laptimes!C46)</f>
+        <v>1.8634259259259905E-6</v>
+      </c>
+      <c r="D47" s="2" t="str">
+        <f>IF(laptimes!D47-laptimes!D46&lt;0, "-" &amp; TEXT(ABS(laptimes!D47-laptimes!D46),"sss.000"), laptimes!D47-laptimes!D46)</f>
+        <v>-00.035</v>
+      </c>
+      <c r="E47" s="2">
+        <f>IF(laptimes!E47-laptimes!E46&lt;0, "-" &amp; TEXT(ABS(laptimes!E47-laptimes!E46),"sss.000"), laptimes!E47-laptimes!E46)</f>
+        <v>3.7615740740739971E-6</v>
+      </c>
+      <c r="F47" s="2">
+        <f>IF(laptimes!F47-laptimes!F46&lt;0, "-" &amp; TEXT(ABS(laptimes!F47-laptimes!F46),"sss.000"), laptimes!F47-laptimes!F46)</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="2">
+        <f>IF(laptimes!G47-laptimes!G46&lt;0, "-" &amp; TEXT(ABS(laptimes!G47-laptimes!G46),"sss.000"), laptimes!G47-laptimes!G46)</f>
+        <v>3.8194444444434456E-7</v>
+      </c>
+      <c r="H47" s="2">
+        <f>IF(laptimes!H47-laptimes!H46&lt;0, "-" &amp; TEXT(ABS(laptimes!H47-laptimes!H46),"sss.000"), laptimes!H47-laptimes!H46)</f>
+        <v>1.1111111111112345E-6</v>
+      </c>
+      <c r="I47" s="2">
+        <f>IF(laptimes!I47-laptimes!I46&lt;0, "-" &amp; TEXT(ABS(laptimes!I47-laptimes!I46),"sss.000"), laptimes!I47-laptimes!I46)</f>
+        <v>1.0879629629629347E-6</v>
+      </c>
+      <c r="J47" s="2" t="str">
+        <f>IF(laptimes!J47-laptimes!J46&lt;0, "-" &amp; TEXT(ABS(laptimes!J47-laptimes!J46),"sss.000"), laptimes!J47-laptimes!J46)</f>
+        <v>-00.013</v>
+      </c>
+      <c r="K47" s="2">
+        <f>IF(laptimes!K47-laptimes!K46&lt;0, "-" &amp; TEXT(ABS(laptimes!K47-laptimes!K46),"sss.000"), laptimes!K47-laptimes!K46)</f>
+        <v>3.9004629629629285E-6</v>
+      </c>
+      <c r="L47" s="2" t="str">
+        <f>IF(laptimes!L47-laptimes!L46&lt;0, "-" &amp; TEXT(ABS(laptimes!L47-laptimes!L46),"sss.000"), laptimes!L47-laptimes!L46)</f>
+        <v>-00.271</v>
+      </c>
+      <c r="M47" s="2" t="str">
+        <f>IF(laptimes!M47-laptimes!M46&lt;0, "-" &amp; TEXT(ABS(laptimes!M47-laptimes!M46),"sss.000"), laptimes!M47-laptimes!M46)</f>
+        <v>-00.345</v>
+      </c>
+      <c r="N47" s="2" t="str">
+        <f>IF(laptimes!N47-laptimes!N46&lt;0, "-" &amp; TEXT(ABS(laptimes!N47-laptimes!N46),"sss.000"), laptimes!N47-laptimes!N46)</f>
+        <v>-00.179</v>
+      </c>
+      <c r="O47" s="2" t="str">
+        <f>IF(laptimes!O47-laptimes!O46&lt;0, "-" &amp; TEXT(ABS(laptimes!O47-laptimes!O46),"sss.000"), laptimes!O47-laptimes!O46)</f>
+        <v>-00.399</v>
+      </c>
+      <c r="P47" s="2" t="str">
+        <f>IF(laptimes!P47-laptimes!P46&lt;0, "-" &amp; TEXT(ABS(laptimes!P47-laptimes!P46),"sss.000"), laptimes!P47-laptimes!P46)</f>
+        <v>-00.043</v>
+      </c>
+      <c r="Q47" s="2">
+        <f>IF(laptimes!Q47-laptimes!Q46&lt;0, "-" &amp; TEXT(ABS(laptimes!Q47-laptimes!Q46),"sss.000"), laptimes!Q47-laptimes!Q46)</f>
+        <v>0</v>
+      </c>
+      <c r="R47" s="2">
+        <f>IF(laptimes!R47-laptimes!R46&lt;0, "-" &amp; TEXT(ABS(laptimes!R47-laptimes!R46),"sss.000"), laptimes!R47-laptimes!R46)</f>
+        <v>6.516203703703892E-6</v>
+      </c>
+      <c r="S47" s="2" t="str">
+        <f>IF(laptimes!S47-laptimes!S46&lt;0, "-" &amp; TEXT(ABS(laptimes!S47-laptimes!S46),"sss.000"), laptimes!S47-laptimes!S46)</f>
+        <v>-00.089</v>
+      </c>
+      <c r="T47" s="2" t="str">
+        <f>IF(laptimes!T47-laptimes!T46&lt;0, "-" &amp; TEXT(ABS(laptimes!T47-laptimes!T46),"sss.000"), laptimes!T47-laptimes!T46)</f>
+        <v>-11.856</v>
+      </c>
+      <c r="U47" s="2" t="str">
+        <f>IF(laptimes!U47-laptimes!U46&lt;0, "-" &amp; TEXT(ABS(laptimes!U47-laptimes!U46),"sss.000"), laptimes!U47-laptimes!U46)</f>
+        <v>-00.264</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2">
+        <f>IF(laptimes!B48-laptimes!B47&lt;0, "-" &amp; TEXT(ABS(laptimes!B48-laptimes!B47),"sss.000"), laptimes!B48-laptimes!B47)</f>
+        <v>0</v>
+      </c>
+      <c r="C48" s="2">
+        <f>IF(laptimes!C48-laptimes!C47&lt;0, "-" &amp; TEXT(ABS(laptimes!C48-laptimes!C47),"sss.000"), laptimes!C48-laptimes!C47)</f>
+        <v>5.1851851851851104E-6</v>
+      </c>
+      <c r="D48" s="2">
+        <f>IF(laptimes!D48-laptimes!D47&lt;0, "-" &amp; TEXT(ABS(laptimes!D48-laptimes!D47),"sss.000"), laptimes!D48-laptimes!D47)</f>
+        <v>2.1527777777780033E-6</v>
+      </c>
+      <c r="E48" s="2" t="str">
+        <f>IF(laptimes!E48-laptimes!E47&lt;0, "-" &amp; TEXT(ABS(laptimes!E48-laptimes!E47),"sss.000"), laptimes!E48-laptimes!E47)</f>
+        <v>-00.339</v>
+      </c>
+      <c r="F48" s="2">
+        <f>IF(laptimes!F48-laptimes!F47&lt;0, "-" &amp; TEXT(ABS(laptimes!F48-laptimes!F47),"sss.000"), laptimes!F48-laptimes!F47)</f>
+        <v>0</v>
+      </c>
+      <c r="G48" s="2">
+        <f>IF(laptimes!G48-laptimes!G47&lt;0, "-" &amp; TEXT(ABS(laptimes!G48-laptimes!G47),"sss.000"), laptimes!G48-laptimes!G47)</f>
+        <v>4.2824074074074899E-6</v>
+      </c>
+      <c r="H48" s="2">
+        <f>IF(laptimes!H48-laptimes!H47&lt;0, "-" &amp; TEXT(ABS(laptimes!H48-laptimes!H47),"sss.000"), laptimes!H48-laptimes!H47)</f>
+        <v>1.0960648148148179E-5</v>
+      </c>
+      <c r="I48" s="2" t="str">
+        <f>IF(laptimes!I48-laptimes!I47&lt;0, "-" &amp; TEXT(ABS(laptimes!I48-laptimes!I47),"sss.000"), laptimes!I48-laptimes!I47)</f>
+        <v>-00.203</v>
+      </c>
+      <c r="J48" s="2">
+        <f>IF(laptimes!J48-laptimes!J47&lt;0, "-" &amp; TEXT(ABS(laptimes!J48-laptimes!J47),"sss.000"), laptimes!J48-laptimes!J47)</f>
+        <v>6.7129629629635729E-7</v>
+      </c>
+      <c r="K48" s="2" t="str">
+        <f>IF(laptimes!K48-laptimes!K47&lt;0, "-" &amp; TEXT(ABS(laptimes!K48-laptimes!K47),"sss.000"), laptimes!K48-laptimes!K47)</f>
+        <v>-00.619</v>
+      </c>
+      <c r="L48" s="2">
+        <f>IF(laptimes!L48-laptimes!L47&lt;0, "-" &amp; TEXT(ABS(laptimes!L48-laptimes!L47),"sss.000"), laptimes!L48-laptimes!L47)</f>
+        <v>1.2615740740738821E-6</v>
+      </c>
+      <c r="M48" s="2">
+        <f>IF(laptimes!M48-laptimes!M47&lt;0, "-" &amp; TEXT(ABS(laptimes!M48-laptimes!M47),"sss.000"), laptimes!M48-laptimes!M47)</f>
+        <v>4.4675925925925872E-6</v>
+      </c>
+      <c r="N48" s="2">
+        <f>IF(laptimes!N48-laptimes!N47&lt;0, "-" &amp; TEXT(ABS(laptimes!N48-laptimes!N47),"sss.000"), laptimes!N48-laptimes!N47)</f>
+        <v>3.819444444445614E-7</v>
+      </c>
+      <c r="O48" s="2" t="str">
+        <f>IF(laptimes!O48-laptimes!O47&lt;0, "-" &amp; TEXT(ABS(laptimes!O48-laptimes!O47),"sss.000"), laptimes!O48-laptimes!O47)</f>
+        <v>-00.246</v>
+      </c>
+      <c r="P48" s="2" t="str">
+        <f>IF(laptimes!P48-laptimes!P47&lt;0, "-" &amp; TEXT(ABS(laptimes!P48-laptimes!P47),"sss.000"), laptimes!P48-laptimes!P47)</f>
+        <v>-00.469</v>
+      </c>
+      <c r="Q48" s="2">
+        <f>IF(laptimes!Q48-laptimes!Q47&lt;0, "-" &amp; TEXT(ABS(laptimes!Q48-laptimes!Q47),"sss.000"), laptimes!Q48-laptimes!Q47)</f>
+        <v>0</v>
+      </c>
+      <c r="R48" s="2" t="str">
+        <f>IF(laptimes!R48-laptimes!R47&lt;0, "-" &amp; TEXT(ABS(laptimes!R48-laptimes!R47),"sss.000"), laptimes!R48-laptimes!R47)</f>
+        <v>-00.611</v>
+      </c>
+      <c r="S48" s="2" t="str">
+        <f>IF(laptimes!S48-laptimes!S47&lt;0, "-" &amp; TEXT(ABS(laptimes!S48-laptimes!S47),"sss.000"), laptimes!S48-laptimes!S47)</f>
+        <v>-00.168</v>
+      </c>
+      <c r="T48" s="2" t="str">
+        <f>IF(laptimes!T48-laptimes!T47&lt;0, "-" &amp; TEXT(ABS(laptimes!T48-laptimes!T47),"sss.000"), laptimes!T48-laptimes!T47)</f>
+        <v>-00.578</v>
+      </c>
+      <c r="U48" s="2" t="str">
+        <f>IF(laptimes!U48-laptimes!U47&lt;0, "-" &amp; TEXT(ABS(laptimes!U48-laptimes!U47),"sss.000"), laptimes!U48-laptimes!U47)</f>
+        <v>-00.167</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2">
+        <f>IF(laptimes!B49-laptimes!B48&lt;0, "-" &amp; TEXT(ABS(laptimes!B49-laptimes!B48),"sss.000"), laptimes!B49-laptimes!B48)</f>
+        <v>0</v>
+      </c>
+      <c r="C49" s="2" t="str">
+        <f>IF(laptimes!C49-laptimes!C48&lt;0, "-" &amp; TEXT(ABS(laptimes!C49-laptimes!C48),"sss.000"), laptimes!C49-laptimes!C48)</f>
+        <v>-00.376</v>
+      </c>
+      <c r="D49" s="2" t="str">
+        <f>IF(laptimes!D49-laptimes!D48&lt;0, "-" &amp; TEXT(ABS(laptimes!D49-laptimes!D48),"sss.000"), laptimes!D49-laptimes!D48)</f>
+        <v>-00.020</v>
+      </c>
+      <c r="E49" s="2">
+        <f>IF(laptimes!E49-laptimes!E48&lt;0, "-" &amp; TEXT(ABS(laptimes!E49-laptimes!E48),"sss.000"), laptimes!E49-laptimes!E48)</f>
+        <v>2.754629629629678E-6</v>
+      </c>
+      <c r="F49" s="2">
+        <f>IF(laptimes!F49-laptimes!F48&lt;0, "-" &amp; TEXT(ABS(laptimes!F49-laptimes!F48),"sss.000"), laptimes!F49-laptimes!F48)</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="2">
+        <f>IF(laptimes!G49-laptimes!G48&lt;0, "-" &amp; TEXT(ABS(laptimes!G49-laptimes!G48),"sss.000"), laptimes!G49-laptimes!G48)</f>
+        <v>4.4097222222220546E-6</v>
+      </c>
+      <c r="H49" s="2" t="str">
+        <f>IF(laptimes!H49-laptimes!H48&lt;0, "-" &amp; TEXT(ABS(laptimes!H49-laptimes!H48),"sss.000"), laptimes!H49-laptimes!H48)</f>
+        <v>-00.853</v>
+      </c>
+      <c r="I49" s="2">
+        <f>IF(laptimes!I49-laptimes!I48&lt;0, "-" &amp; TEXT(ABS(laptimes!I49-laptimes!I48),"sss.000"), laptimes!I49-laptimes!I48)</f>
+        <v>3.819444444445614E-7</v>
+      </c>
+      <c r="J49" s="2">
+        <f>IF(laptimes!J49-laptimes!J48&lt;0, "-" &amp; TEXT(ABS(laptimes!J49-laptimes!J48),"sss.000"), laptimes!J49-laptimes!J48)</f>
+        <v>1.5624999999998279E-6</v>
+      </c>
+      <c r="K49" s="2" t="str">
+        <f>IF(laptimes!K49-laptimes!K48&lt;0, "-" &amp; TEXT(ABS(laptimes!K49-laptimes!K48),"sss.000"), laptimes!K49-laptimes!K48)</f>
+        <v>-00.032</v>
+      </c>
+      <c r="L49" s="2">
+        <f>IF(laptimes!L49-laptimes!L48&lt;0, "-" &amp; TEXT(ABS(laptimes!L49-laptimes!L48),"sss.000"), laptimes!L49-laptimes!L48)</f>
+        <v>9.7916666666666291E-6</v>
+      </c>
+      <c r="M49" s="2">
+        <f>IF(laptimes!M49-laptimes!M48&lt;0, "-" &amp; TEXT(ABS(laptimes!M49-laptimes!M48),"sss.000"), laptimes!M49-laptimes!M48)</f>
+        <v>1.0879629629631515E-6</v>
+      </c>
+      <c r="N49" s="2" t="str">
+        <f>IF(laptimes!N49-laptimes!N48&lt;0, "-" &amp; TEXT(ABS(laptimes!N49-laptimes!N48),"sss.000"), laptimes!N49-laptimes!N48)</f>
+        <v>-00.129</v>
+      </c>
+      <c r="O49" s="2">
+        <f>IF(laptimes!O49-laptimes!O48&lt;0, "-" &amp; TEXT(ABS(laptimes!O49-laptimes!O48),"sss.000"), laptimes!O49-laptimes!O48)</f>
+        <v>5.7870370370532651E-8</v>
+      </c>
+      <c r="P49" s="2">
+        <f>IF(laptimes!P49-laptimes!P48&lt;0, "-" &amp; TEXT(ABS(laptimes!P49-laptimes!P48),"sss.000"), laptimes!P49-laptimes!P48)</f>
+        <v>1.4583333333333462E-6</v>
+      </c>
+      <c r="Q49" s="2">
+        <f>IF(laptimes!Q49-laptimes!Q48&lt;0, "-" &amp; TEXT(ABS(laptimes!Q49-laptimes!Q48),"sss.000"), laptimes!Q49-laptimes!Q48)</f>
+        <v>0</v>
+      </c>
+      <c r="R49" s="2">
+        <f>IF(laptimes!R49-laptimes!R48&lt;0, "-" &amp; TEXT(ABS(laptimes!R49-laptimes!R48),"sss.000"), laptimes!R49-laptimes!R48)</f>
+        <v>5.4513888888888234E-6</v>
+      </c>
+      <c r="S49" s="2" t="str">
+        <f>IF(laptimes!S49-laptimes!S48&lt;0, "-" &amp; TEXT(ABS(laptimes!S49-laptimes!S48),"sss.000"), laptimes!S49-laptimes!S48)</f>
+        <v>-00.139</v>
+      </c>
+      <c r="T49" s="2">
+        <f>IF(laptimes!T49-laptimes!T48&lt;0, "-" &amp; TEXT(ABS(laptimes!T49-laptimes!T48),"sss.000"), laptimes!T49-laptimes!T48)</f>
+        <v>3.461805555555553E-5</v>
+      </c>
+      <c r="U49" s="2">
+        <f>IF(laptimes!U49-laptimes!U48&lt;0, "-" &amp; TEXT(ABS(laptimes!U49-laptimes!U48),"sss.000"), laptimes!U49-laptimes!U48)</f>
+        <v>2.1990740740739523E-6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2">
+        <f>IF(laptimes!B50-laptimes!B49&lt;0, "-" &amp; TEXT(ABS(laptimes!B50-laptimes!B49),"sss.000"), laptimes!B50-laptimes!B49)</f>
+        <v>0</v>
+      </c>
+      <c r="C50" s="2">
+        <f>IF(laptimes!C50-laptimes!C49&lt;0, "-" &amp; TEXT(ABS(laptimes!C50-laptimes!C49),"sss.000"), laptimes!C50-laptimes!C49)</f>
+        <v>2.5104166666666764E-5</v>
+      </c>
+      <c r="D50" s="2">
+        <f>IF(laptimes!D50-laptimes!D49&lt;0, "-" &amp; TEXT(ABS(laptimes!D50-laptimes!D49),"sss.000"), laptimes!D50-laptimes!D49)</f>
+        <v>6.0185185185189158E-7</v>
+      </c>
+      <c r="E50" s="2">
+        <f>IF(laptimes!E50-laptimes!E49&lt;0, "-" &amp; TEXT(ABS(laptimes!E50-laptimes!E49),"sss.000"), laptimes!E50-laptimes!E49)</f>
+        <v>1.6898148148148263E-6</v>
+      </c>
+      <c r="F50" s="2">
+        <f>IF(laptimes!F50-laptimes!F49&lt;0, "-" &amp; TEXT(ABS(laptimes!F50-laptimes!F49),"sss.000"), laptimes!F50-laptimes!F49)</f>
+        <v>0</v>
+      </c>
+      <c r="G50" s="2" t="str">
+        <f>IF(laptimes!G50-laptimes!G49&lt;0, "-" &amp; TEXT(ABS(laptimes!G50-laptimes!G49),"sss.000"), laptimes!G50-laptimes!G49)</f>
+        <v>-00.161</v>
+      </c>
+      <c r="H50" s="2">
+        <f>IF(laptimes!H50-laptimes!H49&lt;0, "-" &amp; TEXT(ABS(laptimes!H50-laptimes!H49),"sss.000"), laptimes!H50-laptimes!H49)</f>
+        <v>3.6805555555555983E-6</v>
+      </c>
+      <c r="I50" s="2">
+        <f>IF(laptimes!I50-laptimes!I49&lt;0, "-" &amp; TEXT(ABS(laptimes!I50-laptimes!I49),"sss.000"), laptimes!I50-laptimes!I49)</f>
+        <v>8.4606481481480644E-6</v>
+      </c>
+      <c r="J50" s="2">
+        <f>IF(laptimes!J50-laptimes!J49&lt;0, "-" &amp; TEXT(ABS(laptimes!J50-laptimes!J49),"sss.000"), laptimes!J50-laptimes!J49)</f>
+        <v>1.1111111111110177E-6</v>
+      </c>
+      <c r="K50" s="2">
+        <f>IF(laptimes!K50-laptimes!K49&lt;0, "-" &amp; TEXT(ABS(laptimes!K50-laptimes!K49),"sss.000"), laptimes!K50-laptimes!K49)</f>
+        <v>1.3888888888890973E-6</v>
+      </c>
+      <c r="L50" s="2">
+        <f>IF(laptimes!L50-laptimes!L49&lt;0, "-" &amp; TEXT(ABS(laptimes!L50-laptimes!L49),"sss.000"), laptimes!L50-laptimes!L49)</f>
+        <v>4.2789351851852016E-5</v>
+      </c>
+      <c r="M50" s="2" t="str">
+        <f>IF(laptimes!M50-laptimes!M49&lt;0, "-" &amp; TEXT(ABS(laptimes!M50-laptimes!M49),"sss.000"), laptimes!M50-laptimes!M49)</f>
+        <v>-00.073</v>
+      </c>
+      <c r="N50" s="2">
+        <f>IF(laptimes!N50-laptimes!N49&lt;0, "-" &amp; TEXT(ABS(laptimes!N50-laptimes!N49),"sss.000"), laptimes!N50-laptimes!N49)</f>
+        <v>1.4004629629630304E-6</v>
+      </c>
+      <c r="O50" s="2">
+        <f>IF(laptimes!O50-laptimes!O49&lt;0, "-" &amp; TEXT(ABS(laptimes!O50-laptimes!O49),"sss.000"), laptimes!O50-laptimes!O49)</f>
+        <v>2.2627314814814732E-5</v>
+      </c>
+      <c r="P50" s="2">
+        <f>IF(laptimes!P50-laptimes!P49&lt;0, "-" &amp; TEXT(ABS(laptimes!P50-laptimes!P49),"sss.000"), laptimes!P50-laptimes!P49)</f>
+        <v>5.8333333333331679E-6</v>
+      </c>
+      <c r="Q50" s="2">
+        <f>IF(laptimes!Q50-laptimes!Q49&lt;0, "-" &amp; TEXT(ABS(laptimes!Q50-laptimes!Q49),"sss.000"), laptimes!Q50-laptimes!Q49)</f>
+        <v>0</v>
+      </c>
+      <c r="R50" s="2">
+        <f>IF(laptimes!R50-laptimes!R49&lt;0, "-" &amp; TEXT(ABS(laptimes!R50-laptimes!R49),"sss.000"), laptimes!R50-laptimes!R49)</f>
+        <v>2.1296296296297035E-6</v>
+      </c>
+      <c r="S50" s="2" t="str">
+        <f>IF(laptimes!S50-laptimes!S49&lt;0, "-" &amp; TEXT(ABS(laptimes!S50-laptimes!S49),"sss.000"), laptimes!S50-laptimes!S49)</f>
+        <v>-00.113</v>
+      </c>
+      <c r="T50" s="2" t="str">
+        <f>IF(laptimes!T50-laptimes!T49&lt;0, "-" &amp; TEXT(ABS(laptimes!T50-laptimes!T49),"sss.000"), laptimes!T50-laptimes!T49)</f>
+        <v>-02.090</v>
+      </c>
+      <c r="U50" s="2">
+        <f>IF(laptimes!U50-laptimes!U49&lt;0, "-" &amp; TEXT(ABS(laptimes!U50-laptimes!U49),"sss.000"), laptimes!U50-laptimes!U49)</f>
+        <v>1.6203703703701437E-7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2">
+        <f>IF(laptimes!B51-laptimes!B50&lt;0, "-" &amp; TEXT(ABS(laptimes!B51-laptimes!B50),"sss.000"), laptimes!B51-laptimes!B50)</f>
+        <v>0</v>
+      </c>
+      <c r="C51" s="2" t="str">
+        <f>IF(laptimes!C51-laptimes!C50&lt;0, "-" &amp; TEXT(ABS(laptimes!C51-laptimes!C50),"sss.000"), laptimes!C51-laptimes!C50)</f>
+        <v>-01.119</v>
+      </c>
+      <c r="D51" s="2">
+        <f>IF(laptimes!D51-laptimes!D50&lt;0, "-" &amp; TEXT(ABS(laptimes!D51-laptimes!D50),"sss.000"), laptimes!D51-laptimes!D50)</f>
+        <v>3.6342592592592156E-6</v>
+      </c>
+      <c r="E51" s="2">
+        <f>IF(laptimes!E51-laptimes!E50&lt;0, "-" &amp; TEXT(ABS(laptimes!E51-laptimes!E50),"sss.000"), laptimes!E51-laptimes!E50)</f>
+        <v>1.5162037037034452E-6</v>
+      </c>
+      <c r="F51" s="2">
+        <f>IF(laptimes!F51-laptimes!F50&lt;0, "-" &amp; TEXT(ABS(laptimes!F51-laptimes!F50),"sss.000"), laptimes!F51-laptimes!F50)</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="2">
+        <f>IF(laptimes!G51-laptimes!G50&lt;0, "-" &amp; TEXT(ABS(laptimes!G51-laptimes!G50),"sss.000"), laptimes!G51-laptimes!G50)</f>
+        <v>3.3611111111110994E-5</v>
+      </c>
+      <c r="H51" s="2">
+        <f>IF(laptimes!H51-laptimes!H50&lt;0, "-" &amp; TEXT(ABS(laptimes!H51-laptimes!H50),"sss.000"), laptimes!H51-laptimes!H50)</f>
+        <v>1.093749999999988E-5</v>
+      </c>
+      <c r="I51" s="2" t="str">
+        <f>IF(laptimes!I51-laptimes!I50&lt;0, "-" &amp; TEXT(ABS(laptimes!I51-laptimes!I50),"sss.000"), laptimes!I51-laptimes!I50)</f>
+        <v>-00.266</v>
+      </c>
+      <c r="J51" s="2">
+        <f>IF(laptimes!J51-laptimes!J50&lt;0, "-" &amp; TEXT(ABS(laptimes!J51-laptimes!J50),"sss.000"), laptimes!J51-laptimes!J50)</f>
+        <v>3.5995370370371996E-6</v>
+      </c>
+      <c r="K51" s="2" t="str">
+        <f>IF(laptimes!K51-laptimes!K50&lt;0, "-" &amp; TEXT(ABS(laptimes!K51-laptimes!K50),"sss.000"), laptimes!K51-laptimes!K50)</f>
+        <v>-00.274</v>
+      </c>
+      <c r="L51" s="2" t="str">
+        <f>IF(laptimes!L51-laptimes!L50&lt;0, "-" &amp; TEXT(ABS(laptimes!L51-laptimes!L50),"sss.000"), laptimes!L51-laptimes!L50)</f>
+        <v>-03.779</v>
+      </c>
+      <c r="M51" s="2">
+        <f>IF(laptimes!M51-laptimes!M50&lt;0, "-" &amp; TEXT(ABS(laptimes!M51-laptimes!M50),"sss.000"), laptimes!M51-laptimes!M50)</f>
+        <v>1.0636574074074151E-5</v>
+      </c>
+      <c r="N51" s="2" t="str">
+        <f>IF(laptimes!N51-laptimes!N50&lt;0, "-" &amp; TEXT(ABS(laptimes!N51-laptimes!N50),"sss.000"), laptimes!N51-laptimes!N50)</f>
+        <v>-00.112</v>
+      </c>
+      <c r="O51" s="2" t="str">
+        <f>IF(laptimes!O51-laptimes!O50&lt;0, "-" &amp; TEXT(ABS(laptimes!O51-laptimes!O50),"sss.000"), laptimes!O51-laptimes!O50)</f>
+        <v>-01.606</v>
+      </c>
+      <c r="P51" s="2" t="str">
+        <f>IF(laptimes!P51-laptimes!P50&lt;0, "-" &amp; TEXT(ABS(laptimes!P51-laptimes!P50),"sss.000"), laptimes!P51-laptimes!P50)</f>
+        <v>-00.161</v>
+      </c>
+      <c r="Q51" s="2">
+        <f>IF(laptimes!Q51-laptimes!Q50&lt;0, "-" &amp; TEXT(ABS(laptimes!Q51-laptimes!Q50),"sss.000"), laptimes!Q51-laptimes!Q50)</f>
+        <v>0</v>
+      </c>
+      <c r="R51" s="2">
+        <f>IF(laptimes!R51-laptimes!R50&lt;0, "-" &amp; TEXT(ABS(laptimes!R51-laptimes!R50),"sss.000"), laptimes!R51-laptimes!R50)</f>
+        <v>3.9942129629629572E-5</v>
+      </c>
+      <c r="S51" s="2">
+        <f>IF(laptimes!S51-laptimes!S50&lt;0, "-" &amp; TEXT(ABS(laptimes!S51-laptimes!S50),"sss.000"), laptimes!S51-laptimes!S50)</f>
+        <v>1.9328703703704563E-6</v>
+      </c>
+      <c r="T51" s="2" t="str">
+        <f>IF(laptimes!T51-laptimes!T50&lt;0, "-" &amp; TEXT(ABS(laptimes!T51-laptimes!T50),"sss.000"), laptimes!T51-laptimes!T50)</f>
+        <v>-00.376</v>
+      </c>
+      <c r="U51" s="2">
+        <f>IF(laptimes!U51-laptimes!U50&lt;0, "-" &amp; TEXT(ABS(laptimes!U51-laptimes!U50),"sss.000"), laptimes!U51-laptimes!U50)</f>
+        <v>1.0300925925928357E-6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2">
+        <f>IF(laptimes!B52-laptimes!B51&lt;0, "-" &amp; TEXT(ABS(laptimes!B52-laptimes!B51),"sss.000"), laptimes!B52-laptimes!B51)</f>
+        <v>0</v>
+      </c>
+      <c r="C52" s="2">
+        <f>IF(laptimes!C52-laptimes!C51&lt;0, "-" &amp; TEXT(ABS(laptimes!C52-laptimes!C51),"sss.000"), laptimes!C52-laptimes!C51)</f>
+        <v>1.8599537037037022E-5</v>
+      </c>
+      <c r="D52" s="2" t="str">
+        <f>IF(laptimes!D52-laptimes!D51&lt;0, "-" &amp; TEXT(ABS(laptimes!D52-laptimes!D51),"sss.000"), laptimes!D52-laptimes!D51)</f>
+        <v>-00.040</v>
+      </c>
+      <c r="E52" s="2" t="str">
+        <f>IF(laptimes!E52-laptimes!E51&lt;0, "-" &amp; TEXT(ABS(laptimes!E52-laptimes!E51),"sss.000"), laptimes!E52-laptimes!E51)</f>
+        <v>-00.485</v>
+      </c>
+      <c r="F52" s="2">
+        <f>IF(laptimes!F52-laptimes!F51&lt;0, "-" &amp; TEXT(ABS(laptimes!F52-laptimes!F51),"sss.000"), laptimes!F52-laptimes!F51)</f>
+        <v>0</v>
+      </c>
+      <c r="G52" s="2" t="str">
+        <f>IF(laptimes!G52-laptimes!G51&lt;0, "-" &amp; TEXT(ABS(laptimes!G52-laptimes!G51),"sss.000"), laptimes!G52-laptimes!G51)</f>
+        <v>-02.398</v>
+      </c>
+      <c r="H52" s="2">
+        <f>IF(laptimes!H52-laptimes!H51&lt;0, "-" &amp; TEXT(ABS(laptimes!H52-laptimes!H51),"sss.000"), laptimes!H52-laptimes!H51)</f>
+        <v>2.2812500000000046E-5</v>
+      </c>
+      <c r="I52" s="2">
+        <f>IF(laptimes!I52-laptimes!I51&lt;0, "-" &amp; TEXT(ABS(laptimes!I52-laptimes!I51),"sss.000"), laptimes!I52-laptimes!I51)</f>
+        <v>2.6932870370370522E-5</v>
+      </c>
+      <c r="J52" s="2" t="str">
+        <f>IF(laptimes!J52-laptimes!J51&lt;0, "-" &amp; TEXT(ABS(laptimes!J52-laptimes!J51),"sss.000"), laptimes!J52-laptimes!J51)</f>
+        <v>-00.457</v>
+      </c>
+      <c r="K52" s="2">
+        <f>IF(laptimes!K52-laptimes!K51&lt;0, "-" &amp; TEXT(ABS(laptimes!K52-laptimes!K51),"sss.000"), laptimes!K52-laptimes!K51)</f>
+        <v>1.0300925925926189E-6</v>
+      </c>
+      <c r="L52" s="2" t="str">
+        <f>IF(laptimes!L52-laptimes!L51&lt;0, "-" &amp; TEXT(ABS(laptimes!L52-laptimes!L51),"sss.000"), laptimes!L52-laptimes!L51)</f>
+        <v>-00.433</v>
+      </c>
+      <c r="M52" s="2">
+        <f>IF(laptimes!M52-laptimes!M51&lt;0, "-" &amp; TEXT(ABS(laptimes!M52-laptimes!M51),"sss.000"), laptimes!M52-laptimes!M51)</f>
+        <v>1.1319444444444441E-5</v>
+      </c>
+      <c r="N52" s="2">
+        <f>IF(laptimes!N52-laptimes!N51&lt;0, "-" &amp; TEXT(ABS(laptimes!N52-laptimes!N51),"sss.000"), laptimes!N52-laptimes!N51)</f>
+        <v>2.6157407407407466E-6</v>
+      </c>
+      <c r="O52" s="2" t="str">
+        <f>IF(laptimes!O52-laptimes!O51&lt;0, "-" &amp; TEXT(ABS(laptimes!O52-laptimes!O51),"sss.000"), laptimes!O52-laptimes!O51)</f>
+        <v>-00.666</v>
+      </c>
+      <c r="P52" s="2">
+        <f>IF(laptimes!P52-laptimes!P51&lt;0, "-" &amp; TEXT(ABS(laptimes!P52-laptimes!P51),"sss.000"), laptimes!P52-laptimes!P51)</f>
+        <v>9.9537037037060287E-7</v>
+      </c>
+      <c r="Q52" s="2">
+        <f>IF(laptimes!Q52-laptimes!Q51&lt;0, "-" &amp; TEXT(ABS(laptimes!Q52-laptimes!Q51),"sss.000"), laptimes!Q52-laptimes!Q51)</f>
+        <v>0</v>
+      </c>
+      <c r="R52" s="2" t="str">
+        <f>IF(laptimes!R52-laptimes!R51&lt;0, "-" &amp; TEXT(ABS(laptimes!R52-laptimes!R51),"sss.000"), laptimes!R52-laptimes!R51)</f>
+        <v>-01.579</v>
+      </c>
+      <c r="S52" s="2">
+        <f>IF(laptimes!S52-laptimes!S51&lt;0, "-" &amp; TEXT(ABS(laptimes!S52-laptimes!S51),"sss.000"), laptimes!S52-laptimes!S51)</f>
+        <v>9.8611111111110948E-6</v>
+      </c>
+      <c r="T52" s="2">
+        <f>IF(laptimes!T52-laptimes!T51&lt;0, "-" &amp; TEXT(ABS(laptimes!T52-laptimes!T51),"sss.000"), laptimes!T52-laptimes!T51)</f>
+        <v>3.3414351851851747E-5</v>
+      </c>
+      <c r="U52" s="2">
+        <f>IF(laptimes!U52-laptimes!U51&lt;0, "-" &amp; TEXT(ABS(laptimes!U52-laptimes!U51),"sss.000"), laptimes!U52-laptimes!U51)</f>
+        <v>8.1018518518507186E-7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2">
+        <f>IF(laptimes!B53-laptimes!B52&lt;0, "-" &amp; TEXT(ABS(laptimes!B53-laptimes!B52),"sss.000"), laptimes!B53-laptimes!B52)</f>
+        <v>0</v>
+      </c>
+      <c r="C53" s="2">
+        <f>IF(laptimes!C53-laptimes!C52&lt;0, "-" &amp; TEXT(ABS(laptimes!C53-laptimes!C52),"sss.000"), laptimes!C53-laptimes!C52)</f>
+        <v>9.2592592592592032E-7</v>
+      </c>
+      <c r="D53" s="2" t="str">
+        <f>IF(laptimes!D53-laptimes!D52&lt;0, "-" &amp; TEXT(ABS(laptimes!D53-laptimes!D52),"sss.000"), laptimes!D53-laptimes!D52)</f>
+        <v>-00.062</v>
+      </c>
+      <c r="E53" s="2" t="str">
+        <f>IF(laptimes!E53-laptimes!E52&lt;0, "-" &amp; TEXT(ABS(laptimes!E53-laptimes!E52),"sss.000"), laptimes!E53-laptimes!E52)</f>
+        <v>-00.150</v>
+      </c>
+      <c r="F53" s="2">
+        <f>IF(laptimes!F53-laptimes!F52&lt;0, "-" &amp; TEXT(ABS(laptimes!F53-laptimes!F52),"sss.000"), laptimes!F53-laptimes!F52)</f>
+        <v>0</v>
+      </c>
+      <c r="G53" s="2" t="str">
+        <f>IF(laptimes!G53-laptimes!G52&lt;0, "-" &amp; TEXT(ABS(laptimes!G53-laptimes!G52),"sss.000"), laptimes!G53-laptimes!G52)</f>
+        <v>-00.212</v>
+      </c>
+      <c r="H53" s="2" t="str">
+        <f>IF(laptimes!H53-laptimes!H52&lt;0, "-" &amp; TEXT(ABS(laptimes!H53-laptimes!H52),"sss.000"), laptimes!H53-laptimes!H52)</f>
+        <v>-00.182</v>
+      </c>
+      <c r="I53" s="2" t="str">
+        <f>IF(laptimes!I53-laptimes!I52&lt;0, "-" &amp; TEXT(ABS(laptimes!I53-laptimes!I52),"sss.000"), laptimes!I53-laptimes!I52)</f>
+        <v>-01.868</v>
+      </c>
+      <c r="J53" s="2">
+        <f>IF(laptimes!J53-laptimes!J52&lt;0, "-" &amp; TEXT(ABS(laptimes!J53-laptimes!J52),"sss.000"), laptimes!J53-laptimes!J52)</f>
+        <v>2.8935185185179589E-7</v>
+      </c>
+      <c r="K53" s="2" t="str">
+        <f>IF(laptimes!K53-laptimes!K52&lt;0, "-" &amp; TEXT(ABS(laptimes!K53-laptimes!K52),"sss.000"), laptimes!K53-laptimes!K52)</f>
+        <v>-00.189</v>
+      </c>
+      <c r="L53" s="2">
+        <f>IF(laptimes!L53-laptimes!L52&lt;0, "-" &amp; TEXT(ABS(laptimes!L53-laptimes!L52),"sss.000"), laptimes!L53-laptimes!L52)</f>
+        <v>6.6898148148148394E-6</v>
+      </c>
+      <c r="M53" s="2" t="str">
+        <f>IF(laptimes!M53-laptimes!M52&lt;0, "-" &amp; TEXT(ABS(laptimes!M53-laptimes!M52),"sss.000"), laptimes!M53-laptimes!M52)</f>
+        <v>-01.344</v>
+      </c>
+      <c r="N53" s="2" t="str">
+        <f>IF(laptimes!N53-laptimes!N52&lt;0, "-" &amp; TEXT(ABS(laptimes!N53-laptimes!N52),"sss.000"), laptimes!N53-laptimes!N52)</f>
+        <v>-00.458</v>
+      </c>
+      <c r="O53" s="2">
+        <f>IF(laptimes!O53-laptimes!O52&lt;0, "-" &amp; TEXT(ABS(laptimes!O53-laptimes!O52),"sss.000"), laptimes!O53-laptimes!O52)</f>
+        <v>1.166666666666677E-5</v>
+      </c>
+      <c r="P53" s="2">
+        <f>IF(laptimes!P53-laptimes!P52&lt;0, "-" &amp; TEXT(ABS(laptimes!P53-laptimes!P52),"sss.000"), laptimes!P53-laptimes!P52)</f>
+        <v>3.2407407407405043E-6</v>
+      </c>
+      <c r="Q53" s="2">
+        <f>IF(laptimes!Q53-laptimes!Q52&lt;0, "-" &amp; TEXT(ABS(laptimes!Q53-laptimes!Q52),"sss.000"), laptimes!Q53-laptimes!Q52)</f>
+        <v>0</v>
+      </c>
+      <c r="R53" s="2" t="str">
+        <f>IF(laptimes!R53-laptimes!R52&lt;0, "-" &amp; TEXT(ABS(laptimes!R53-laptimes!R52),"sss.000"), laptimes!R53-laptimes!R52)</f>
+        <v>-00.366</v>
+      </c>
+      <c r="S53" s="2">
+        <f>IF(laptimes!S53-laptimes!S52&lt;0, "-" &amp; TEXT(ABS(laptimes!S53-laptimes!S52),"sss.000"), laptimes!S53-laptimes!S52)</f>
+        <v>1.3148148148147982E-5</v>
+      </c>
+      <c r="T53" s="2" t="str">
+        <f>IF(laptimes!T53-laptimes!T52&lt;0, "-" &amp; TEXT(ABS(laptimes!T53-laptimes!T52),"sss.000"), laptimes!T53-laptimes!T52)</f>
+        <v>-01.892</v>
+      </c>
+      <c r="U53" s="2">
+        <f>IF(laptimes!U53-laptimes!U52&lt;0, "-" &amp; TEXT(ABS(laptimes!U53-laptimes!U52),"sss.000"), laptimes!U53-laptimes!U52)</f>
+        <v>1.0648148148148517E-6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2">
+        <f>IF(laptimes!B54-laptimes!B53&lt;0, "-" &amp; TEXT(ABS(laptimes!B54-laptimes!B53),"sss.000"), laptimes!B54-laptimes!B53)</f>
+        <v>0</v>
+      </c>
+      <c r="C54" s="2" t="str">
+        <f>IF(laptimes!C54-laptimes!C53&lt;0, "-" &amp; TEXT(ABS(laptimes!C54-laptimes!C53),"sss.000"), laptimes!C54-laptimes!C53)</f>
+        <v>-01.379</v>
+      </c>
+      <c r="D54" s="2">
+        <f>IF(laptimes!D54-laptimes!D53&lt;0, "-" &amp; TEXT(ABS(laptimes!D54-laptimes!D53),"sss.000"), laptimes!D54-laptimes!D53)</f>
+        <v>4.1898148148149413E-6</v>
+      </c>
+      <c r="E54" s="2">
+        <f>IF(laptimes!E54-laptimes!E53&lt;0, "-" &amp; TEXT(ABS(laptimes!E54-laptimes!E53),"sss.000"), laptimes!E54-laptimes!E53)</f>
+        <v>7.291666666666731E-6</v>
+      </c>
+      <c r="F54" s="2">
+        <f>IF(laptimes!F54-laptimes!F53&lt;0, "-" &amp; TEXT(ABS(laptimes!F54-laptimes!F53),"sss.000"), laptimes!F54-laptimes!F53)</f>
+        <v>0</v>
+      </c>
+      <c r="G54" s="2" t="str">
+        <f>IF(laptimes!G54-laptimes!G53&lt;0, "-" &amp; TEXT(ABS(laptimes!G54-laptimes!G53),"sss.000"), laptimes!G54-laptimes!G53)</f>
+        <v>-00.521</v>
+      </c>
+      <c r="H54" s="2" t="str">
+        <f>IF(laptimes!H54-laptimes!H53&lt;0, "-" &amp; TEXT(ABS(laptimes!H54-laptimes!H53),"sss.000"), laptimes!H54-laptimes!H53)</f>
+        <v>-01.014</v>
+      </c>
+      <c r="I54" s="2">
+        <f>IF(laptimes!I54-laptimes!I53&lt;0, "-" &amp; TEXT(ABS(laptimes!I54-laptimes!I53),"sss.000"), laptimes!I54-laptimes!I53)</f>
+        <v>2.0543981481481628E-5</v>
+      </c>
+      <c r="J54" s="2">
+        <f>IF(laptimes!J54-laptimes!J53&lt;0, "-" &amp; TEXT(ABS(laptimes!J54-laptimes!J53),"sss.000"), laptimes!J54-laptimes!J53)</f>
+        <v>2.4166666666666477E-5</v>
+      </c>
+      <c r="K54" s="2" t="str">
+        <f>IF(laptimes!K54-laptimes!K53&lt;0, "-" &amp; TEXT(ABS(laptimes!K54-laptimes!K53),"sss.000"), laptimes!K54-laptimes!K53)</f>
+        <v>-00.102</v>
+      </c>
+      <c r="L54" s="2">
+        <f>IF(laptimes!L54-laptimes!L53&lt;0, "-" &amp; TEXT(ABS(laptimes!L54-laptimes!L53),"sss.000"), laptimes!L54-laptimes!L53)</f>
+        <v>9.9537037037060287E-7</v>
+      </c>
+      <c r="M54" s="2" t="str">
+        <f>IF(laptimes!M54-laptimes!M53&lt;0, "-" &amp; TEXT(ABS(laptimes!M54-laptimes!M53),"sss.000"), laptimes!M54-laptimes!M53)</f>
+        <v>-00.981</v>
+      </c>
+      <c r="N54" s="2">
+        <f>IF(laptimes!N54-laptimes!N53&lt;0, "-" &amp; TEXT(ABS(laptimes!N54-laptimes!N53),"sss.000"), laptimes!N54-laptimes!N53)</f>
+        <v>1.9791666666666222E-6</v>
+      </c>
+      <c r="O54" s="2" t="str">
+        <f>IF(laptimes!O54-laptimes!O53&lt;0, "-" &amp; TEXT(ABS(laptimes!O54-laptimes!O53),"sss.000"), laptimes!O54-laptimes!O53)</f>
+        <v>-00.915</v>
+      </c>
+      <c r="P54" s="2" t="str">
+        <f>IF(laptimes!P54-laptimes!P53&lt;0, "-" &amp; TEXT(ABS(laptimes!P54-laptimes!P53),"sss.000"), laptimes!P54-laptimes!P53)</f>
+        <v>-00.799</v>
+      </c>
+      <c r="Q54" s="2">
+        <f>IF(laptimes!Q54-laptimes!Q53&lt;0, "-" &amp; TEXT(ABS(laptimes!Q54-laptimes!Q53),"sss.000"), laptimes!Q54-laptimes!Q53)</f>
+        <v>0</v>
+      </c>
+      <c r="R54" s="2" t="str">
+        <f>IF(laptimes!R54-laptimes!R53&lt;0, "-" &amp; TEXT(ABS(laptimes!R54-laptimes!R53),"sss.000"), laptimes!R54-laptimes!R53)</f>
+        <v>-00.133</v>
+      </c>
+      <c r="S54" s="2" t="str">
+        <f>IF(laptimes!S54-laptimes!S53&lt;0, "-" &amp; TEXT(ABS(laptimes!S54-laptimes!S53),"sss.000"), laptimes!S54-laptimes!S53)</f>
+        <v>-02.054</v>
+      </c>
+      <c r="T54" s="2" t="str">
+        <f>IF(laptimes!T54-laptimes!T53&lt;0, "-" &amp; TEXT(ABS(laptimes!T54-laptimes!T53),"sss.000"), laptimes!T54-laptimes!T53)</f>
+        <v>-00.383</v>
+      </c>
+      <c r="U54" s="2">
+        <f>IF(laptimes!U54-laptimes!U53&lt;0, "-" &amp; TEXT(ABS(laptimes!U54-laptimes!U53),"sss.000"), laptimes!U54-laptimes!U53)</f>
+        <v>4.5046296296296284E-5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2">
+        <f>IF(laptimes!B55-laptimes!B54&lt;0, "-" &amp; TEXT(ABS(laptimes!B55-laptimes!B54),"sss.000"), laptimes!B55-laptimes!B54)</f>
+        <v>0</v>
+      </c>
+      <c r="C55" s="2">
+        <f>IF(laptimes!C55-laptimes!C54&lt;0, "-" &amp; TEXT(ABS(laptimes!C55-laptimes!C54),"sss.000"), laptimes!C55-laptimes!C54)</f>
+        <v>3.0787037037037068E-6</v>
+      </c>
+      <c r="D55" s="2">
+        <f>IF(laptimes!D55-laptimes!D54&lt;0, "-" &amp; TEXT(ABS(laptimes!D55-laptimes!D54),"sss.000"), laptimes!D55-laptimes!D54)</f>
+        <v>4.9999999999997963E-6</v>
+      </c>
+      <c r="E55" s="2">
+        <f>IF(laptimes!E55-laptimes!E54&lt;0, "-" &amp; TEXT(ABS(laptimes!E55-laptimes!E54),"sss.000"), laptimes!E55-laptimes!E54)</f>
+        <v>1.0046296296296192E-5</v>
+      </c>
+      <c r="F55" s="2">
+        <f>IF(laptimes!F55-laptimes!F54&lt;0, "-" &amp; TEXT(ABS(laptimes!F55-laptimes!F54),"sss.000"), laptimes!F55-laptimes!F54)</f>
+        <v>0</v>
+      </c>
+      <c r="G55" s="2" t="str">
+        <f>IF(laptimes!G55-laptimes!G54&lt;0, "-" &amp; TEXT(ABS(laptimes!G55-laptimes!G54),"sss.000"), laptimes!G55-laptimes!G54)</f>
+        <v>-00.243</v>
+      </c>
+      <c r="H55" s="2" t="str">
+        <f>IF(laptimes!H55-laptimes!H54&lt;0, "-" &amp; TEXT(ABS(laptimes!H55-laptimes!H54),"sss.000"), laptimes!H55-laptimes!H54)</f>
+        <v>-00.016</v>
+      </c>
+      <c r="I55" s="2">
+        <f>IF(laptimes!I55-laptimes!I54&lt;0, "-" &amp; TEXT(ABS(laptimes!I55-laptimes!I54),"sss.000"), laptimes!I55-laptimes!I54)</f>
+        <v>1.0995370370368678E-6</v>
+      </c>
+      <c r="J55" s="2" t="str">
+        <f>IF(laptimes!J55-laptimes!J54&lt;0, "-" &amp; TEXT(ABS(laptimes!J55-laptimes!J54),"sss.000"), laptimes!J55-laptimes!J54)</f>
+        <v>-02.619</v>
+      </c>
+      <c r="K55" s="2">
+        <f>IF(laptimes!K55-laptimes!K54&lt;0, "-" &amp; TEXT(ABS(laptimes!K55-laptimes!K54),"sss.000"), laptimes!K55-laptimes!K54)</f>
+        <v>1.3425925925922809E-6</v>
+      </c>
+      <c r="L55" s="2" t="str">
+        <f>IF(laptimes!L55-laptimes!L54&lt;0, "-" &amp; TEXT(ABS(laptimes!L55-laptimes!L54),"sss.000"), laptimes!L55-laptimes!L54)</f>
+        <v>-00.199</v>
+      </c>
+      <c r="M55" s="2" t="str">
+        <f>IF(laptimes!M55-laptimes!M54&lt;0, "-" &amp; TEXT(ABS(laptimes!M55-laptimes!M54),"sss.000"), laptimes!M55-laptimes!M54)</f>
+        <v>-00.245</v>
+      </c>
+      <c r="N55" s="2" t="str">
+        <f>IF(laptimes!N55-laptimes!N54&lt;0, "-" &amp; TEXT(ABS(laptimes!N55-laptimes!N54),"sss.000"), laptimes!N55-laptimes!N54)</f>
+        <v>-00.123</v>
+      </c>
+      <c r="O55" s="2" t="str">
+        <f>IF(laptimes!O55-laptimes!O54&lt;0, "-" &amp; TEXT(ABS(laptimes!O55-laptimes!O54),"sss.000"), laptimes!O55-laptimes!O54)</f>
+        <v>-00.443</v>
+      </c>
+      <c r="P55" s="2">
+        <f>IF(laptimes!P55-laptimes!P54&lt;0, "-" &amp; TEXT(ABS(laptimes!P55-laptimes!P54),"sss.000"), laptimes!P55-laptimes!P54)</f>
+        <v>6.4814814814827433E-7</v>
+      </c>
+      <c r="Q55" s="2">
+        <f>IF(laptimes!Q55-laptimes!Q54&lt;0, "-" &amp; TEXT(ABS(laptimes!Q55-laptimes!Q54),"sss.000"), laptimes!Q55-laptimes!Q54)</f>
+        <v>0</v>
+      </c>
+      <c r="R55" s="2">
+        <f>IF(laptimes!R55-laptimes!R54&lt;0, "-" &amp; TEXT(ABS(laptimes!R55-laptimes!R54),"sss.000"), laptimes!R55-laptimes!R54)</f>
+        <v>3.2372685185185195E-5</v>
+      </c>
+      <c r="S55" s="2">
+        <f>IF(laptimes!S55-laptimes!S54&lt;0, "-" &amp; TEXT(ABS(laptimes!S55-laptimes!S54),"sss.000"), laptimes!S55-laptimes!S54)</f>
+        <v>5.046296296296179E-6</v>
+      </c>
+      <c r="T55" s="2" t="str">
+        <f>IF(laptimes!T55-laptimes!T54&lt;0, "-" &amp; TEXT(ABS(laptimes!T55-laptimes!T54),"sss.000"), laptimes!T55-laptimes!T54)</f>
+        <v>-00.162</v>
+      </c>
+      <c r="U55" s="2" t="str">
+        <f>IF(laptimes!U55-laptimes!U54&lt;0, "-" &amp; TEXT(ABS(laptimes!U55-laptimes!U54),"sss.000"), laptimes!U55-laptimes!U54)</f>
+        <v>-03.748</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2">
+        <f>IF(laptimes!B56-laptimes!B55&lt;0, "-" &amp; TEXT(ABS(laptimes!B56-laptimes!B55),"sss.000"), laptimes!B56-laptimes!B55)</f>
+        <v>0</v>
+      </c>
+      <c r="C56" s="2" t="str">
+        <f>IF(laptimes!C56-laptimes!C55&lt;0, "-" &amp; TEXT(ABS(laptimes!C56-laptimes!C55),"sss.000"), laptimes!C56-laptimes!C55)</f>
+        <v>-00.203</v>
+      </c>
+      <c r="D56" s="2" t="str">
+        <f>IF(laptimes!D56-laptimes!D55&lt;0, "-" &amp; TEXT(ABS(laptimes!D56-laptimes!D55),"sss.000"), laptimes!D56-laptimes!D55)</f>
+        <v>-00.279</v>
+      </c>
+      <c r="E56" s="2" t="str">
+        <f>IF(laptimes!E56-laptimes!E55&lt;0, "-" &amp; TEXT(ABS(laptimes!E56-laptimes!E55),"sss.000"), laptimes!E56-laptimes!E55)</f>
+        <v>-00.108</v>
+      </c>
+      <c r="F56" s="2">
+        <f>IF(laptimes!F56-laptimes!F55&lt;0, "-" &amp; TEXT(ABS(laptimes!F56-laptimes!F55),"sss.000"), laptimes!F56-laptimes!F55)</f>
+        <v>0</v>
+      </c>
+      <c r="G56" s="2">
+        <f>IF(laptimes!G56-laptimes!G55&lt;0, "-" &amp; TEXT(ABS(laptimes!G56-laptimes!G55),"sss.000"), laptimes!G56-laptimes!G55)</f>
+        <v>6.5162037037036751E-6</v>
+      </c>
+      <c r="H56" s="2" t="str">
+        <f>IF(laptimes!H56-laptimes!H55&lt;0, "-" &amp; TEXT(ABS(laptimes!H56-laptimes!H55),"sss.000"), laptimes!H56-laptimes!H55)</f>
+        <v>-00.153</v>
+      </c>
+      <c r="I56" s="2" t="str">
+        <f>IF(laptimes!I56-laptimes!I55&lt;0, "-" &amp; TEXT(ABS(laptimes!I56-laptimes!I55),"sss.000"), laptimes!I56-laptimes!I55)</f>
+        <v>-00.015</v>
+      </c>
+      <c r="J56" s="2">
+        <f>IF(laptimes!J56-laptimes!J55&lt;0, "-" &amp; TEXT(ABS(laptimes!J56-laptimes!J55),"sss.000"), laptimes!J56-laptimes!J55)</f>
+        <v>1.400462962962987E-5</v>
+      </c>
+      <c r="K56" s="2">
+        <f>IF(laptimes!K56-laptimes!K55&lt;0, "-" &amp; TEXT(ABS(laptimes!K56-laptimes!K55),"sss.000"), laptimes!K56-laptimes!K55)</f>
+        <v>2.1875000000002361E-6</v>
+      </c>
+      <c r="L56" s="2" t="str">
+        <f>IF(laptimes!L56-laptimes!L55&lt;0, "-" &amp; TEXT(ABS(laptimes!L56-laptimes!L55),"sss.000"), laptimes!L56-laptimes!L55)</f>
+        <v>-00.081</v>
+      </c>
+      <c r="M56" s="2">
+        <f>IF(laptimes!M56-laptimes!M55&lt;0, "-" &amp; TEXT(ABS(laptimes!M56-laptimes!M55),"sss.000"), laptimes!M56-laptimes!M55)</f>
+        <v>1.303240740740735E-5</v>
+      </c>
+      <c r="N56" s="2">
+        <f>IF(laptimes!N56-laptimes!N55&lt;0, "-" &amp; TEXT(ABS(laptimes!N56-laptimes!N55),"sss.000"), laptimes!N56-laptimes!N55)</f>
+        <v>3.1516203703703524E-5</v>
+      </c>
+      <c r="O56" s="2">
+        <f>IF(laptimes!O56-laptimes!O55&lt;0, "-" &amp; TEXT(ABS(laptimes!O56-laptimes!O55),"sss.000"), laptimes!O56-laptimes!O55)</f>
+        <v>3.7268518518517642E-6</v>
+      </c>
+      <c r="P56" s="2" t="str">
+        <f>IF(laptimes!P56-laptimes!P55&lt;0, "-" &amp; TEXT(ABS(laptimes!P56-laptimes!P55),"sss.000"), laptimes!P56-laptimes!P55)</f>
+        <v>-00.148</v>
+      </c>
+      <c r="Q56" s="2">
+        <f>IF(laptimes!Q56-laptimes!Q55&lt;0, "-" &amp; TEXT(ABS(laptimes!Q56-laptimes!Q55),"sss.000"), laptimes!Q56-laptimes!Q55)</f>
+        <v>0</v>
+      </c>
+      <c r="R56" s="2" t="str">
+        <f>IF(laptimes!R56-laptimes!R55&lt;0, "-" &amp; TEXT(ABS(laptimes!R56-laptimes!R55),"sss.000"), laptimes!R56-laptimes!R55)</f>
+        <v>-04.857</v>
+      </c>
+      <c r="S56" s="2" t="str">
+        <f>IF(laptimes!S56-laptimes!S55&lt;0, "-" &amp; TEXT(ABS(laptimes!S56-laptimes!S55),"sss.000"), laptimes!S56-laptimes!S55)</f>
+        <v>-00.778</v>
+      </c>
+      <c r="T56" s="2">
+        <f>IF(laptimes!T56-laptimes!T55&lt;0, "-" &amp; TEXT(ABS(laptimes!T56-laptimes!T55),"sss.000"), laptimes!T56-laptimes!T55)</f>
+        <v>8.4490740740752156E-7</v>
+      </c>
+      <c r="U56" s="2" t="str">
+        <f>IF(laptimes!U56-laptimes!U55&lt;0, "-" &amp; TEXT(ABS(laptimes!U56-laptimes!U55),"sss.000"), laptimes!U56-laptimes!U55)</f>
+        <v>-00.359</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2">
+        <f>IF(laptimes!B57-laptimes!B56&lt;0, "-" &amp; TEXT(ABS(laptimes!B57-laptimes!B56),"sss.000"), laptimes!B57-laptimes!B56)</f>
+        <v>0</v>
+      </c>
+      <c r="C57" s="2" t="str">
+        <f>IF(laptimes!C57-laptimes!C56&lt;0, "-" &amp; TEXT(ABS(laptimes!C57-laptimes!C56),"sss.000"), laptimes!C57-laptimes!C56)</f>
+        <v>-00.003</v>
+      </c>
+      <c r="D57" s="2">
+        <f>IF(laptimes!D57-laptimes!D56&lt;0, "-" &amp; TEXT(ABS(laptimes!D57-laptimes!D56),"sss.000"), laptimes!D57-laptimes!D56)</f>
+        <v>6.0648148148148649E-6</v>
+      </c>
+      <c r="E57" s="2" t="str">
+        <f>IF(laptimes!E57-laptimes!E56&lt;0, "-" &amp; TEXT(ABS(laptimes!E57-laptimes!E56),"sss.000"), laptimes!E57-laptimes!E56)</f>
+        <v>-00.860</v>
+      </c>
+      <c r="F57" s="2">
+        <f>IF(laptimes!F57-laptimes!F56&lt;0, "-" &amp; TEXT(ABS(laptimes!F57-laptimes!F56),"sss.000"), laptimes!F57-laptimes!F56)</f>
+        <v>0</v>
+      </c>
+      <c r="G57" s="2">
+        <f>IF(laptimes!G57-laptimes!G56&lt;0, "-" &amp; TEXT(ABS(laptimes!G57-laptimes!G56),"sss.000"), laptimes!G57-laptimes!G56)</f>
+        <v>6.527777777777825E-6</v>
+      </c>
+      <c r="H57" s="2">
+        <f>IF(laptimes!H57-laptimes!H56&lt;0, "-" &amp; TEXT(ABS(laptimes!H57-laptimes!H56),"sss.000"), laptimes!H57-laptimes!H56)</f>
+        <v>2.7777777777786283E-7</v>
+      </c>
+      <c r="I57" s="2" t="str">
+        <f>IF(laptimes!I57-laptimes!I56&lt;0, "-" &amp; TEXT(ABS(laptimes!I57-laptimes!I56),"sss.000"), laptimes!I57-laptimes!I56)</f>
+        <v>-00.230</v>
+      </c>
+      <c r="J57" s="2" t="str">
+        <f>IF(laptimes!J57-laptimes!J56&lt;0, "-" &amp; TEXT(ABS(laptimes!J57-laptimes!J56),"sss.000"), laptimes!J57-laptimes!J56)</f>
+        <v>-00.302</v>
+      </c>
+      <c r="K57" s="2" t="str">
+        <f>IF(laptimes!K57-laptimes!K56&lt;0, "-" &amp; TEXT(ABS(laptimes!K57-laptimes!K56),"sss.000"), laptimes!K57-laptimes!K56)</f>
+        <v>-00.432</v>
+      </c>
+      <c r="L57" s="2">
+        <f>IF(laptimes!L57-laptimes!L56&lt;0, "-" &amp; TEXT(ABS(laptimes!L57-laptimes!L56),"sss.000"), laptimes!L57-laptimes!L56)</f>
+        <v>1.4293981481481232E-5</v>
+      </c>
+      <c r="M57" s="2">
+        <f>IF(laptimes!M57-laptimes!M56&lt;0, "-" &amp; TEXT(ABS(laptimes!M57-laptimes!M56),"sss.000"), laptimes!M57-laptimes!M56)</f>
+        <v>7.1759259259274004E-7</v>
+      </c>
+      <c r="N57" s="2" t="str">
+        <f>IF(laptimes!N57-laptimes!N56&lt;0, "-" &amp; TEXT(ABS(laptimes!N57-laptimes!N56),"sss.000"), laptimes!N57-laptimes!N56)</f>
+        <v>-02.410</v>
+      </c>
+      <c r="O57" s="2" t="str">
+        <f>IF(laptimes!O57-laptimes!O56&lt;0, "-" &amp; TEXT(ABS(laptimes!O57-laptimes!O56),"sss.000"), laptimes!O57-laptimes!O56)</f>
+        <v>-00.252</v>
+      </c>
+      <c r="P57" s="2" t="str">
+        <f>IF(laptimes!P57-laptimes!P56&lt;0, "-" &amp; TEXT(ABS(laptimes!P57-laptimes!P56),"sss.000"), laptimes!P57-laptimes!P56)</f>
+        <v>-00.118</v>
+      </c>
+      <c r="Q57" s="2">
+        <f>IF(laptimes!Q57-laptimes!Q56&lt;0, "-" &amp; TEXT(ABS(laptimes!Q57-laptimes!Q56),"sss.000"), laptimes!Q57-laptimes!Q56)</f>
+        <v>0</v>
+      </c>
+      <c r="R57" s="2">
+        <f>IF(laptimes!R57-laptimes!R56&lt;0, "-" &amp; TEXT(ABS(laptimes!R57-laptimes!R56),"sss.000"), laptimes!R57-laptimes!R56)</f>
+        <v>2.9606481481481584E-5</v>
+      </c>
+      <c r="S57" s="2">
+        <f>IF(laptimes!S57-laptimes!S56&lt;0, "-" &amp; TEXT(ABS(laptimes!S57-laptimes!S56),"sss.000"), laptimes!S57-laptimes!S56)</f>
+        <v>2.2013888888888907E-5</v>
+      </c>
+      <c r="T57" s="2" t="str">
+        <f>IF(laptimes!T57-laptimes!T56&lt;0, "-" &amp; TEXT(ABS(laptimes!T57-laptimes!T56),"sss.000"), laptimes!T57-laptimes!T56)</f>
+        <v>-30.551</v>
+      </c>
+      <c r="U57" s="2">
+        <f>IF(laptimes!U57-laptimes!U56&lt;0, "-" &amp; TEXT(ABS(laptimes!U57-laptimes!U56),"sss.000"), laptimes!U57-laptimes!U56)</f>
+        <v>1.7476851851851421E-6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2">
+        <f>IF(laptimes!B58-laptimes!B57&lt;0, "-" &amp; TEXT(ABS(laptimes!B58-laptimes!B57),"sss.000"), laptimes!B58-laptimes!B57)</f>
+        <v>0</v>
+      </c>
+      <c r="C58" s="2">
+        <f>IF(laptimes!C58-laptimes!C57&lt;0, "-" &amp; TEXT(ABS(laptimes!C58-laptimes!C57),"sss.000"), laptimes!C58-laptimes!C57)</f>
+        <v>2.9513888888887084E-6</v>
+      </c>
+      <c r="D58" s="2">
+        <f>IF(laptimes!D58-laptimes!D57&lt;0, "-" &amp; TEXT(ABS(laptimes!D58-laptimes!D57),"sss.000"), laptimes!D58-laptimes!D57)</f>
+        <v>4.3287037037036558E-6</v>
+      </c>
+      <c r="E58" s="2">
+        <f>IF(laptimes!E58-laptimes!E57&lt;0, "-" &amp; TEXT(ABS(laptimes!E58-laptimes!E57),"sss.000"), laptimes!E58-laptimes!E57)</f>
+        <v>3.2986111111110369E-6</v>
+      </c>
+      <c r="F58" s="2">
+        <f>IF(laptimes!F58-laptimes!F57&lt;0, "-" &amp; TEXT(ABS(laptimes!F58-laptimes!F57),"sss.000"), laptimes!F58-laptimes!F57)</f>
+        <v>0</v>
+      </c>
+      <c r="G58" s="2" t="str">
+        <f>IF(laptimes!G58-laptimes!G57&lt;0, "-" &amp; TEXT(ABS(laptimes!G58-laptimes!G57),"sss.000"), laptimes!G58-laptimes!G57)</f>
+        <v>-00.234</v>
+      </c>
+      <c r="H58" s="2">
+        <f>IF(laptimes!H58-laptimes!H57&lt;0, "-" &amp; TEXT(ABS(laptimes!H58-laptimes!H57),"sss.000"), laptimes!H58-laptimes!H57)</f>
+        <v>2.777777777777761E-6</v>
+      </c>
+      <c r="I58" s="2">
+        <f>IF(laptimes!I58-laptimes!I57&lt;0, "-" &amp; TEXT(ABS(laptimes!I58-laptimes!I57),"sss.000"), laptimes!I58-laptimes!I57)</f>
+        <v>8.4027777777777486E-6</v>
+      </c>
+      <c r="J58" s="2" t="str">
+        <f>IF(laptimes!J58-laptimes!J57&lt;0, "-" &amp; TEXT(ABS(laptimes!J58-laptimes!J57),"sss.000"), laptimes!J58-laptimes!J57)</f>
+        <v>-00.008</v>
+      </c>
+      <c r="K58" s="2">
+        <f>IF(laptimes!K58-laptimes!K57&lt;0, "-" &amp; TEXT(ABS(laptimes!K58-laptimes!K57),"sss.000"), laptimes!K58-laptimes!K57)</f>
+        <v>2.5925925925926636E-6</v>
+      </c>
+      <c r="L58" s="2">
+        <f>IF(laptimes!L58-laptimes!L57&lt;0, "-" &amp; TEXT(ABS(laptimes!L58-laptimes!L57),"sss.000"), laptimes!L58-laptimes!L57)</f>
+        <v>2.0717592592591708E-6</v>
+      </c>
+      <c r="M58" s="2" t="str">
+        <f>IF(laptimes!M58-laptimes!M57&lt;0, "-" &amp; TEXT(ABS(laptimes!M58-laptimes!M57),"sss.000"), laptimes!M58-laptimes!M57)</f>
+        <v>-00.038</v>
+      </c>
+      <c r="N58" s="2" t="str">
+        <f>IF(laptimes!N58-laptimes!N57&lt;0, "-" &amp; TEXT(ABS(laptimes!N58-laptimes!N57),"sss.000"), laptimes!N58-laptimes!N57)</f>
+        <v>-00.094</v>
+      </c>
+      <c r="O58" s="2" t="str">
+        <f>IF(laptimes!O58-laptimes!O57&lt;0, "-" &amp; TEXT(ABS(laptimes!O58-laptimes!O57),"sss.000"), laptimes!O58-laptimes!O57)</f>
+        <v>-00.354</v>
+      </c>
+      <c r="P58" s="2" t="str">
+        <f>IF(laptimes!P58-laptimes!P57&lt;0, "-" &amp; TEXT(ABS(laptimes!P58-laptimes!P57),"sss.000"), laptimes!P58-laptimes!P57)</f>
+        <v>-00.867</v>
+      </c>
+      <c r="Q58" s="2">
+        <f>IF(laptimes!Q58-laptimes!Q57&lt;0, "-" &amp; TEXT(ABS(laptimes!Q58-laptimes!Q57),"sss.000"), laptimes!Q58-laptimes!Q57)</f>
+        <v>0</v>
+      </c>
+      <c r="R58" s="2" t="str">
+        <f>IF(laptimes!R58-laptimes!R57&lt;0, "-" &amp; TEXT(ABS(laptimes!R58-laptimes!R57),"sss.000"), laptimes!R58-laptimes!R57)</f>
+        <v>-31.271</v>
+      </c>
+      <c r="S58" s="2" t="str">
+        <f>IF(laptimes!S58-laptimes!S57&lt;0, "-" &amp; TEXT(ABS(laptimes!S58-laptimes!S57),"sss.000"), laptimes!S58-laptimes!S57)</f>
+        <v>-03.152</v>
+      </c>
+      <c r="T58" s="2">
+        <f>IF(laptimes!T58-laptimes!T57&lt;0, "-" &amp; TEXT(ABS(laptimes!T58-laptimes!T57),"sss.000"), laptimes!T58-laptimes!T57)</f>
+        <v>0</v>
+      </c>
+      <c r="U58" s="2">
+        <f>IF(laptimes!U58-laptimes!U57&lt;0, "-" &amp; TEXT(ABS(laptimes!U58-laptimes!U57),"sss.000"), laptimes!U58-laptimes!U57)</f>
+        <v>2.8472222222222267E-6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2">
+        <f>IF(laptimes!B59-laptimes!B58&lt;0, "-" &amp; TEXT(ABS(laptimes!B59-laptimes!B58),"sss.000"), laptimes!B59-laptimes!B58)</f>
+        <v>0</v>
+      </c>
+      <c r="C59" s="2" t="str">
+        <f>IF(laptimes!C59-laptimes!C58&lt;0, "-" &amp; TEXT(ABS(laptimes!C59-laptimes!C58),"sss.000"), laptimes!C59-laptimes!C58)</f>
+        <v>-31.074</v>
+      </c>
+      <c r="D59" s="2">
+        <f>IF(laptimes!D59-laptimes!D58&lt;0, "-" &amp; TEXT(ABS(laptimes!D59-laptimes!D58),"sss.000"), laptimes!D59-laptimes!D58)</f>
+        <v>8.8541666666667757E-6</v>
+      </c>
+      <c r="E59" s="2" t="str">
+        <f>IF(laptimes!E59-laptimes!E58&lt;0, "-" &amp; TEXT(ABS(laptimes!E59-laptimes!E58),"sss.000"), laptimes!E59-laptimes!E58)</f>
+        <v>-29.085</v>
+      </c>
+      <c r="F59" s="2">
+        <f>IF(laptimes!F59-laptimes!F58&lt;0, "-" &amp; TEXT(ABS(laptimes!F59-laptimes!F58),"sss.000"), laptimes!F59-laptimes!F58)</f>
+        <v>0</v>
+      </c>
+      <c r="G59" s="2" t="str">
+        <f>IF(laptimes!G59-laptimes!G58&lt;0, "-" &amp; TEXT(ABS(laptimes!G59-laptimes!G58),"sss.000"), laptimes!G59-laptimes!G58)</f>
+        <v>-28.874</v>
+      </c>
+      <c r="H59" s="2" t="str">
+        <f>IF(laptimes!H59-laptimes!H58&lt;0, "-" &amp; TEXT(ABS(laptimes!H59-laptimes!H58),"sss.000"), laptimes!H59-laptimes!H58)</f>
+        <v>-31.061</v>
+      </c>
+      <c r="I59" s="2" t="str">
+        <f>IF(laptimes!I59-laptimes!I58&lt;0, "-" &amp; TEXT(ABS(laptimes!I59-laptimes!I58),"sss.000"), laptimes!I59-laptimes!I58)</f>
+        <v>-03.708</v>
+      </c>
+      <c r="J59" s="2" t="str">
+        <f>IF(laptimes!J59-laptimes!J58&lt;0, "-" &amp; TEXT(ABS(laptimes!J59-laptimes!J58),"sss.000"), laptimes!J59-laptimes!J58)</f>
+        <v>-28.914</v>
+      </c>
+      <c r="K59" s="2">
+        <f>IF(laptimes!K59-laptimes!K58&lt;0, "-" &amp; TEXT(ABS(laptimes!K59-laptimes!K58),"sss.000"), laptimes!K59-laptimes!K58)</f>
+        <v>4.3634259259256718E-6</v>
+      </c>
+      <c r="L59" s="2" t="str">
+        <f>IF(laptimes!L59-laptimes!L58&lt;0, "-" &amp; TEXT(ABS(laptimes!L59-laptimes!L58),"sss.000"), laptimes!L59-laptimes!L58)</f>
+        <v>-31.073</v>
+      </c>
+      <c r="M59" s="2" t="str">
+        <f>IF(laptimes!M59-laptimes!M58&lt;0, "-" &amp; TEXT(ABS(laptimes!M59-laptimes!M58),"sss.000"), laptimes!M59-laptimes!M58)</f>
+        <v>-28.999</v>
+      </c>
+      <c r="N59" s="2" t="str">
+        <f>IF(laptimes!N59-laptimes!N58&lt;0, "-" &amp; TEXT(ABS(laptimes!N59-laptimes!N58),"sss.000"), laptimes!N59-laptimes!N58)</f>
+        <v>-28.711</v>
+      </c>
+      <c r="O59" s="2">
+        <f>IF(laptimes!O59-laptimes!O58&lt;0, "-" &amp; TEXT(ABS(laptimes!O59-laptimes!O58),"sss.000"), laptimes!O59-laptimes!O58)</f>
+        <v>1.0740740740740849E-5</v>
+      </c>
+      <c r="P59" s="2">
+        <f>IF(laptimes!P59-laptimes!P58&lt;0, "-" &amp; TEXT(ABS(laptimes!P59-laptimes!P58),"sss.000"), laptimes!P59-laptimes!P58)</f>
+        <v>6.5972222222220739E-6</v>
+      </c>
+      <c r="Q59" s="2">
+        <f>IF(laptimes!Q59-laptimes!Q58&lt;0, "-" &amp; TEXT(ABS(laptimes!Q59-laptimes!Q58),"sss.000"), laptimes!Q59-laptimes!Q58)</f>
+        <v>0</v>
+      </c>
+      <c r="R59" s="2">
+        <f>IF(laptimes!R59-laptimes!R58&lt;0, "-" &amp; TEXT(ABS(laptimes!R59-laptimes!R58),"sss.000"), laptimes!R59-laptimes!R58)</f>
+        <v>0</v>
+      </c>
+      <c r="S59" s="2">
+        <f>IF(laptimes!S59-laptimes!S58&lt;0, "-" &amp; TEXT(ABS(laptimes!S59-laptimes!S58),"sss.000"), laptimes!S59-laptimes!S58)</f>
+        <v>2.9872685185185297E-5</v>
+      </c>
+      <c r="T59" s="2">
+        <f>IF(laptimes!T59-laptimes!T58&lt;0, "-" &amp; TEXT(ABS(laptimes!T59-laptimes!T58),"sss.000"), laptimes!T59-laptimes!T58)</f>
+        <v>0</v>
+      </c>
+      <c r="U59" s="2" t="str">
+        <f>IF(laptimes!U59-laptimes!U58&lt;0, "-" &amp; TEXT(ABS(laptimes!U59-laptimes!U58),"sss.000"), laptimes!U59-laptimes!U58)</f>
+        <v>-29.322</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18896F0-13FF-4F21-9D1E-CDC6EE342C8B}">
   <dimension ref="A1:I23"/>
   <sheetViews>
@@ -9144,12 +16532,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00CE5ACB-1BE1-488F-BDB9-6AC58CCFDE35}">
   <dimension ref="A1:U59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9247,9 +16635,9 @@
         <f>IF(laptimes!F2&lt;&gt;"",SUM(laptimes!F$2:'laptimes'!F2),"")</f>
         <v>1.1471759259259261E-3</v>
       </c>
-      <c r="G2" s="3" t="str">
-        <f>IFERROR(IF(F2&lt;&gt;"",ABS(B2-VLOOKUP(E2,A:B,2)),""),"")</f>
-        <v/>
+      <c r="G2" s="3">
+        <f>IF(laptimes!G2&lt;&gt;"",SUM(laptimes!G$2:'laptimes'!G2),"")</f>
+        <v>1.2153703703703703E-3</v>
       </c>
       <c r="H2" s="3">
         <f>IF(laptimes!H2&lt;&gt;"",SUM(laptimes!H$2:'laptimes'!H2),"")</f>
@@ -9332,9 +16720,9 @@
         <f>IF(laptimes!F3&lt;&gt;"",SUM(laptimes!F$2:'laptimes'!F3),"")</f>
         <v>2.2009953703703705E-3</v>
       </c>
-      <c r="G3" s="3" t="str">
-        <f t="shared" ref="G3:G21" si="0">IFERROR(IF(F3&lt;&gt;"",ABS(B3-VLOOKUP(E3,A:B,2)),""),"")</f>
-        <v/>
+      <c r="G3" s="3">
+        <f>IF(laptimes!G3&lt;&gt;"",SUM(laptimes!G$2:'laptimes'!G3),"")</f>
+        <v>2.2753819444444445E-3</v>
       </c>
       <c r="H3" s="3">
         <f>IF(laptimes!H3&lt;&gt;"",SUM(laptimes!H$2:'laptimes'!H3),"")</f>
@@ -9417,9 +16805,9 @@
         <f>IF(laptimes!F4&lt;&gt;"",SUM(laptimes!F$2:'laptimes'!F4),"")</f>
         <v>3.2511111111111113E-3</v>
       </c>
-      <c r="G4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G4" s="3">
+        <f>IF(laptimes!G4&lt;&gt;"",SUM(laptimes!G$2:'laptimes'!G4),"")</f>
+        <v>3.333321759259259E-3</v>
       </c>
       <c r="H4" s="3">
         <f>IF(laptimes!H4&lt;&gt;"",SUM(laptimes!H$2:'laptimes'!H4),"")</f>
@@ -9502,9 +16890,9 @@
         <f>IF(laptimes!F5&lt;&gt;"",SUM(laptimes!F$2:'laptimes'!F5),"")</f>
         <v>4.3009606481481484E-3</v>
       </c>
-      <c r="G5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G5" s="3">
+        <f>IF(laptimes!G5&lt;&gt;"",SUM(laptimes!G$2:'laptimes'!G5),"")</f>
+        <v>4.4023148148148146E-3</v>
       </c>
       <c r="H5" s="3">
         <f>IF(laptimes!H5&lt;&gt;"",SUM(laptimes!H$2:'laptimes'!H5),"")</f>
@@ -9587,9 +16975,9 @@
         <f>IF(laptimes!F6&lt;&gt;"",SUM(laptimes!F$2:'laptimes'!F6),"")</f>
         <v>5.3471527777777779E-3</v>
       </c>
-      <c r="G6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G6" s="3">
+        <f>IF(laptimes!G6&lt;&gt;"",SUM(laptimes!G$2:'laptimes'!G6),"")</f>
+        <v>5.4575347222222221E-3</v>
       </c>
       <c r="H6" s="3">
         <f>IF(laptimes!H6&lt;&gt;"",SUM(laptimes!H$2:'laptimes'!H6),"")</f>
@@ -9672,9 +17060,9 @@
         <f>IF(laptimes!F7&lt;&gt;"",SUM(laptimes!F$2:'laptimes'!F7),"")</f>
         <v>6.393599537037037E-3</v>
       </c>
-      <c r="G7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G7" s="3">
+        <f>IF(laptimes!G7&lt;&gt;"",SUM(laptimes!G$2:'laptimes'!G7),"")</f>
+        <v>6.5110069444444443E-3</v>
       </c>
       <c r="H7" s="3">
         <f>IF(laptimes!H7&lt;&gt;"",SUM(laptimes!H$2:'laptimes'!H7),"")</f>
@@ -9757,9 +17145,9 @@
         <f>IF(laptimes!F8&lt;&gt;"",SUM(laptimes!F$2:'laptimes'!F8),"")</f>
         <v>7.4407175925925925E-3</v>
       </c>
-      <c r="G8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G8" s="3">
+        <f>IF(laptimes!G8&lt;&gt;"",SUM(laptimes!G$2:'laptimes'!G8),"")</f>
+        <v>7.5661574074074069E-3</v>
       </c>
       <c r="H8" s="3">
         <f>IF(laptimes!H8&lt;&gt;"",SUM(laptimes!H$2:'laptimes'!H8),"")</f>
@@ -9842,9 +17230,9 @@
         <f>IF(laptimes!F9&lt;&gt;"",SUM(laptimes!F$2:'laptimes'!F9),"")</f>
         <v>8.4863194444444439E-3</v>
       </c>
-      <c r="G9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G9" s="3">
+        <f>IF(laptimes!G9&lt;&gt;"",SUM(laptimes!G$2:'laptimes'!G9),"")</f>
+        <v>8.6244212962962967E-3</v>
       </c>
       <c r="H9" s="3">
         <f>IF(laptimes!H9&lt;&gt;"",SUM(laptimes!H$2:'laptimes'!H9),"")</f>
@@ -9927,9 +17315,9 @@
         <f>IF(laptimes!F10&lt;&gt;"",SUM(laptimes!F$2:'laptimes'!F10),"")</f>
         <v>9.5398379629629618E-3</v>
       </c>
-      <c r="G10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G10" s="3">
+        <f>IF(laptimes!G10&lt;&gt;"",SUM(laptimes!G$2:'laptimes'!G10),"")</f>
+        <v>9.6795254629629627E-3</v>
       </c>
       <c r="H10" s="3">
         <f>IF(laptimes!H10&lt;&gt;"",SUM(laptimes!H$2:'laptimes'!H10),"")</f>
@@ -10012,9 +17400,9 @@
         <f>IF(laptimes!F11&lt;&gt;"",SUM(laptimes!F$2:'laptimes'!F11),"")</f>
         <v>1.0588865740740739E-2</v>
       </c>
-      <c r="G11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G11" s="3">
+        <f>IF(laptimes!G11&lt;&gt;"",SUM(laptimes!G$2:'laptimes'!G11),"")</f>
+        <v>1.0737962962962963E-2</v>
       </c>
       <c r="H11" s="3">
         <f>IF(laptimes!H11&lt;&gt;"",SUM(laptimes!H$2:'laptimes'!H11),"")</f>
@@ -10097,9 +17485,9 @@
         <f>IF(laptimes!F12&lt;&gt;"",SUM(laptimes!F$2:'laptimes'!F12),"")</f>
         <v>1.164060185185185E-2</v>
       </c>
-      <c r="G12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G12" s="3">
+        <f>IF(laptimes!G12&lt;&gt;"",SUM(laptimes!G$2:'laptimes'!G12),"")</f>
+        <v>1.1781122685185184E-2</v>
       </c>
       <c r="H12" s="3">
         <f>IF(laptimes!H12&lt;&gt;"",SUM(laptimes!H$2:'laptimes'!H12),"")</f>
@@ -10182,9 +17570,9 @@
         <f>IF(laptimes!F13&lt;&gt;"",SUM(laptimes!F$2:'laptimes'!F13),"")</f>
         <v>1.2692141203703702E-2</v>
       </c>
-      <c r="G13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G13" s="3">
+        <f>IF(laptimes!G13&lt;&gt;"",SUM(laptimes!G$2:'laptimes'!G13),"")</f>
+        <v>1.2828541666666665E-2</v>
       </c>
       <c r="H13" s="3">
         <f>IF(laptimes!H13&lt;&gt;"",SUM(laptimes!H$2:'laptimes'!H13),"")</f>
@@ -10267,9 +17655,9 @@
         <f>IF(laptimes!F14&lt;&gt;"",SUM(laptimes!F$2:'laptimes'!F14),"")</f>
         <v>1.3734618055555554E-2</v>
       </c>
-      <c r="G14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G14" s="3">
+        <f>IF(laptimes!G14&lt;&gt;"",SUM(laptimes!G$2:'laptimes'!G14),"")</f>
+        <v>1.3883437499999998E-2</v>
       </c>
       <c r="H14" s="3">
         <f>IF(laptimes!H14&lt;&gt;"",SUM(laptimes!H$2:'laptimes'!H14),"")</f>
@@ -10352,9 +17740,9 @@
         <f>IF(laptimes!F15&lt;&gt;"",SUM(laptimes!F$2:'laptimes'!F15),"")</f>
         <v>1.4782708333333332E-2</v>
       </c>
-      <c r="G15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G15" s="3">
+        <f>IF(laptimes!G15&lt;&gt;"",SUM(laptimes!G$2:'laptimes'!G15),"")</f>
+        <v>1.492861111111111E-2</v>
       </c>
       <c r="H15" s="3">
         <f>IF(laptimes!H15&lt;&gt;"",SUM(laptimes!H$2:'laptimes'!H15),"")</f>
@@ -10437,9 +17825,9 @@
         <f>IF(laptimes!F16&lt;&gt;"",SUM(laptimes!F$2:'laptimes'!F16),"")</f>
         <v>1.6131307870370371E-2</v>
       </c>
-      <c r="G16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G16" s="3">
+        <f>IF(laptimes!G16&lt;&gt;"",SUM(laptimes!G$2:'laptimes'!G16),"")</f>
+        <v>1.5969201388888889E-2</v>
       </c>
       <c r="H16" s="3">
         <f>IF(laptimes!H16&lt;&gt;"",SUM(laptimes!H$2:'laptimes'!H16),"")</f>
@@ -10522,9 +17910,9 @@
         <f>IF(laptimes!F17&lt;&gt;"",SUM(laptimes!F$2:'laptimes'!F17),"")</f>
         <v>1.7231782407407407E-2</v>
       </c>
-      <c r="G17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G17" s="3">
+        <f>IF(laptimes!G17&lt;&gt;"",SUM(laptimes!G$2:'laptimes'!G17),"")</f>
+        <v>1.7005879629629628E-2</v>
       </c>
       <c r="H17" s="3">
         <f>IF(laptimes!H17&lt;&gt;"",SUM(laptimes!H$2:'laptimes'!H17),"")</f>
@@ -10607,9 +17995,9 @@
         <f>IF(laptimes!F18&lt;&gt;"",SUM(laptimes!F$2:'laptimes'!F18),"")</f>
         <v>1.8255648148148149E-2</v>
       </c>
-      <c r="G18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G18" s="3">
+        <f>IF(laptimes!G18&lt;&gt;"",SUM(laptimes!G$2:'laptimes'!G18),"")</f>
+        <v>1.8045578703703703E-2</v>
       </c>
       <c r="H18" s="3">
         <f>IF(laptimes!H18&lt;&gt;"",SUM(laptimes!H$2:'laptimes'!H18),"")</f>
@@ -10692,9 +18080,9 @@
         <f>IF(laptimes!F19&lt;&gt;"",SUM(laptimes!F$2:'laptimes'!F19),"")</f>
         <v>1.9287581018518518E-2</v>
       </c>
-      <c r="G19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G19" s="3">
+        <f>IF(laptimes!G19&lt;&gt;"",SUM(laptimes!G$2:'laptimes'!G19),"")</f>
+        <v>1.9087662037037035E-2</v>
       </c>
       <c r="H19" s="3">
         <f>IF(laptimes!H19&lt;&gt;"",SUM(laptimes!H$2:'laptimes'!H19),"")</f>
@@ -10777,9 +18165,9 @@
         <f>IF(laptimes!F20&lt;&gt;"",SUM(laptimes!F$2:'laptimes'!F20),"")</f>
         <v>2.0325879629629628E-2</v>
       </c>
-      <c r="G20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G20" s="3">
+        <f>IF(laptimes!G20&lt;&gt;"",SUM(laptimes!G$2:'laptimes'!G20),"")</f>
+        <v>2.0120648148148144E-2</v>
       </c>
       <c r="H20" s="3">
         <f>IF(laptimes!H20&lt;&gt;"",SUM(laptimes!H$2:'laptimes'!H20),"")</f>
@@ -10862,9 +18250,9 @@
         <f>IF(laptimes!F21&lt;&gt;"",SUM(laptimes!F$2:'laptimes'!F21),"")</f>
         <v>2.1375208333333333E-2</v>
       </c>
-      <c r="G21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G21" s="3">
+        <f>IF(laptimes!G21&lt;&gt;"",SUM(laptimes!G$2:'laptimes'!G21),"")</f>
+        <v>2.115622685185185E-2</v>
       </c>
       <c r="H21" s="3">
         <f>IF(laptimes!H21&lt;&gt;"",SUM(laptimes!H$2:'laptimes'!H21),"")</f>
@@ -14069,18 +21457,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDD7CE7-046C-4AC4-A154-CD2F7B73D471}">
   <dimension ref="A1:U60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="21" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
+    <col min="15" max="21" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -14199,9 +21589,9 @@
         <f>IFERROR(HLOOKUP(lapchart!F3,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!E3,totallaptimes!$1:$1048576,ROW()-1),"")</f>
         <v>8.6921296296297614E-6</v>
       </c>
-      <c r="G3" s="2" t="str">
-        <f t="shared" ref="G3:G21" si="0">IFERROR(IF(F3&lt;&gt;"",ABS(B3-VLOOKUP(E3,A:B,2)),""),"")</f>
-        <v/>
+      <c r="G3" s="2">
+        <f>IFERROR(HLOOKUP(lapchart!G3,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!F3,totallaptimes!$1:$1048576,ROW()-1),"")</f>
+        <v>1.3912037037037105E-5</v>
       </c>
       <c r="H3" s="2">
         <f>IFERROR(HLOOKUP(lapchart!H3,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!G3,totallaptimes!$1:$1048576,ROW()-1),"")</f>
@@ -14243,13 +21633,13 @@
         <f>IFERROR(HLOOKUP(lapchart!Q3,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!P3,totallaptimes!$1:$1048576,ROW()-1),"")</f>
         <v>9.0509259259260229E-6</v>
       </c>
-      <c r="R3" s="2" t="str">
+      <c r="R3" s="2">
         <f>IFERROR(HLOOKUP(lapchart!R3,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!Q3,totallaptimes!$1:$1048576,ROW()-1),"")</f>
-        <v/>
-      </c>
-      <c r="S3" s="2" t="str">
+        <v>3.8541666666665458E-6</v>
+      </c>
+      <c r="S3" s="2">
         <f>IFERROR(HLOOKUP(lapchart!S3,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!R3,totallaptimes!$1:$1048576,ROW()-1),"")</f>
-        <v/>
+        <v>1.1863425925926017E-5</v>
       </c>
       <c r="T3" s="2">
         <f>IFERROR(HLOOKUP(lapchart!T3,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!S3,totallaptimes!$1:$1048576,ROW()-1),"")</f>
@@ -14283,9 +21673,9 @@
         <f>IFERROR(HLOOKUP(lapchart!F4,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!E4,totallaptimes!$1:$1048576,ROW()-1),"")</f>
         <v>1.5439814814814917E-5</v>
       </c>
-      <c r="G4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G4" s="2">
+        <f>IFERROR(HLOOKUP(lapchart!G4,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!F4,totallaptimes!$1:$1048576,ROW()-1),"")</f>
+        <v>1.710648148148166E-5</v>
       </c>
       <c r="H4" s="2">
         <f>IFERROR(HLOOKUP(lapchart!H4,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!G4,totallaptimes!$1:$1048576,ROW()-1),"")</f>
@@ -14323,13 +21713,13 @@
         <f>IFERROR(HLOOKUP(lapchart!P4,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!O4,totallaptimes!$1:$1048576,ROW()-1),"")</f>
         <v>7.9282407407406386E-6</v>
       </c>
-      <c r="Q4" s="2" t="str">
+      <c r="Q4" s="2">
         <f>IFERROR(HLOOKUP(lapchart!Q4,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!P4,totallaptimes!$1:$1048576,ROW()-1),"")</f>
-        <v/>
-      </c>
-      <c r="R4" s="2" t="str">
+        <v>4.2245370370369573E-6</v>
+      </c>
+      <c r="R4" s="2">
         <f>IFERROR(HLOOKUP(lapchart!R4,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!Q4,totallaptimes!$1:$1048576,ROW()-1),"")</f>
-        <v/>
+        <v>2.0173611111111434E-5</v>
       </c>
       <c r="S4" s="2">
         <f>IFERROR(HLOOKUP(lapchart!S4,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!R4,totallaptimes!$1:$1048576,ROW()-1),"")</f>
@@ -14367,9 +21757,9 @@
         <f>IFERROR(HLOOKUP(lapchart!F5,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!E5,totallaptimes!$1:$1048576,ROW()-1),"")</f>
         <v>2.3113425925926426E-5</v>
       </c>
-      <c r="G5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G5" s="2">
+        <f>IFERROR(HLOOKUP(lapchart!G5,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!F5,totallaptimes!$1:$1048576,ROW()-1),"")</f>
+        <v>2.4976851851851983E-5</v>
       </c>
       <c r="H5" s="2">
         <f>IFERROR(HLOOKUP(lapchart!H5,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!G5,totallaptimes!$1:$1048576,ROW()-1),"")</f>
@@ -14407,13 +21797,13 @@
         <f>IFERROR(HLOOKUP(lapchart!P5,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!O5,totallaptimes!$1:$1048576,ROW()-1),"")</f>
         <v>8.2291666666668012E-6</v>
       </c>
-      <c r="Q5" s="2" t="str">
+      <c r="Q5" s="2">
         <f>IFERROR(HLOOKUP(lapchart!Q5,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!P5,totallaptimes!$1:$1048576,ROW()-1),"")</f>
-        <v/>
-      </c>
-      <c r="R5" s="2" t="str">
+        <v>3.2175925925919877E-6</v>
+      </c>
+      <c r="R5" s="2">
         <f>IFERROR(HLOOKUP(lapchart!R5,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!Q5,totallaptimes!$1:$1048576,ROW()-1),"")</f>
-        <v/>
+        <v>3.5636574074075084E-5</v>
       </c>
       <c r="S5" s="2">
         <f>IFERROR(HLOOKUP(lapchart!S5,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!R5,totallaptimes!$1:$1048576,ROW()-1),"")</f>
@@ -14451,9 +21841,9 @@
         <f>IFERROR(HLOOKUP(lapchart!F6,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!E6,totallaptimes!$1:$1048576,ROW()-1),"")</f>
         <v>2.4108796296297245E-5</v>
       </c>
-      <c r="G6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G6" s="2">
+        <f>IFERROR(HLOOKUP(lapchart!G6,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!F6,totallaptimes!$1:$1048576,ROW()-1),"")</f>
+        <v>3.6458333333333655E-5</v>
       </c>
       <c r="H6" s="2">
         <f>IFERROR(HLOOKUP(lapchart!H6,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!G6,totallaptimes!$1:$1048576,ROW()-1),"")</f>
@@ -14491,13 +21881,13 @@
         <f>IFERROR(HLOOKUP(lapchart!P6,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!O6,totallaptimes!$1:$1048576,ROW()-1),"")</f>
         <v>7.7430555555559749E-6</v>
       </c>
-      <c r="Q6" s="2" t="str">
+      <c r="Q6" s="2">
         <f>IFERROR(HLOOKUP(lapchart!Q6,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!P6,totallaptimes!$1:$1048576,ROW()-1),"")</f>
-        <v/>
-      </c>
-      <c r="R6" s="2" t="str">
+        <v>1.1400462962962189E-5</v>
+      </c>
+      <c r="R6" s="2">
         <f>IFERROR(HLOOKUP(lapchart!R6,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!Q6,totallaptimes!$1:$1048576,ROW()-1),"")</f>
-        <v/>
+        <v>3.251157407407456E-5</v>
       </c>
       <c r="S6" s="2">
         <f>IFERROR(HLOOKUP(lapchart!S6,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!R6,totallaptimes!$1:$1048576,ROW()-1),"")</f>
@@ -14535,9 +21925,9 @@
         <f>IFERROR(HLOOKUP(lapchart!F7,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!E7,totallaptimes!$1:$1048576,ROW()-1),"")</f>
         <v>2.2442129629630936E-5</v>
       </c>
-      <c r="G7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G7" s="2">
+        <f>IFERROR(HLOOKUP(lapchart!G7,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!F7,totallaptimes!$1:$1048576,ROW()-1),"")</f>
+        <v>4.325231481481541E-5</v>
       </c>
       <c r="H7" s="2">
         <f>IFERROR(HLOOKUP(lapchart!H7,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!G7,totallaptimes!$1:$1048576,ROW()-1),"")</f>
@@ -14575,13 +21965,13 @@
         <f>IFERROR(HLOOKUP(lapchart!P7,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!O7,totallaptimes!$1:$1048576,ROW()-1),"")</f>
         <v>8.06712962962957E-6</v>
       </c>
-      <c r="Q7" s="2" t="str">
+      <c r="Q7" s="2">
         <f>IFERROR(HLOOKUP(lapchart!Q7,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!P7,totallaptimes!$1:$1048576,ROW()-1),"")</f>
-        <v/>
-      </c>
-      <c r="R7" s="2" t="str">
+        <v>4.9768518518514965E-6</v>
+      </c>
+      <c r="R7" s="2">
         <f>IFERROR(HLOOKUP(lapchart!R7,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!Q7,totallaptimes!$1:$1048576,ROW()-1),"")</f>
-        <v/>
+        <v>4.1967592592592577E-5</v>
       </c>
       <c r="S7" s="2">
         <f>IFERROR(HLOOKUP(lapchart!S7,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!R7,totallaptimes!$1:$1048576,ROW()-1),"")</f>
@@ -14619,9 +22009,9 @@
         <f>IFERROR(HLOOKUP(lapchart!F8,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!E8,totallaptimes!$1:$1048576,ROW()-1),"")</f>
         <v>2.6840277777779274E-5</v>
       </c>
-      <c r="G8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G8" s="2">
+        <f>IFERROR(HLOOKUP(lapchart!G8,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!F8,totallaptimes!$1:$1048576,ROW()-1),"")</f>
+        <v>4.8981481481481445E-5</v>
       </c>
       <c r="H8" s="2">
         <f>IFERROR(HLOOKUP(lapchart!H8,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!G8,totallaptimes!$1:$1048576,ROW()-1),"")</f>
@@ -14659,13 +22049,13 @@
         <f>IFERROR(HLOOKUP(lapchart!P8,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!O8,totallaptimes!$1:$1048576,ROW()-1),"")</f>
         <v>9.6643518518518476E-6</v>
       </c>
-      <c r="Q8" s="2" t="str">
+      <c r="Q8" s="2">
         <f>IFERROR(HLOOKUP(lapchart!Q8,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!P8,totallaptimes!$1:$1048576,ROW()-1),"")</f>
-        <v/>
-      </c>
-      <c r="R8" s="2" t="str">
+        <v>2.9861111111107244E-6</v>
+      </c>
+      <c r="R8" s="2">
         <f>IFERROR(HLOOKUP(lapchart!R8,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!Q8,totallaptimes!$1:$1048576,ROW()-1),"")</f>
-        <v/>
+        <v>4.9131944444444527E-5</v>
       </c>
       <c r="S8" s="2">
         <f>IFERROR(HLOOKUP(lapchart!S8,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!R8,totallaptimes!$1:$1048576,ROW()-1),"")</f>
@@ -14703,9 +22093,9 @@
         <f>IFERROR(HLOOKUP(lapchart!F9,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!E9,totallaptimes!$1:$1048576,ROW()-1),"")</f>
         <v>3.2511574074075428E-5</v>
       </c>
-      <c r="G9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G9" s="2">
+        <f>IFERROR(HLOOKUP(lapchart!G9,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!F9,totallaptimes!$1:$1048576,ROW()-1),"")</f>
+        <v>5.3356481481481484E-5</v>
       </c>
       <c r="H9" s="2">
         <f>IFERROR(HLOOKUP(lapchart!H9,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!G9,totallaptimes!$1:$1048576,ROW()-1),"")</f>
@@ -14743,13 +22133,13 @@
         <f>IFERROR(HLOOKUP(lapchart!P9,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!O9,totallaptimes!$1:$1048576,ROW()-1),"")</f>
         <v>7.9398148148147885E-6</v>
       </c>
-      <c r="Q9" s="2" t="str">
+      <c r="Q9" s="2">
         <f>IFERROR(HLOOKUP(lapchart!Q9,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!P9,totallaptimes!$1:$1048576,ROW()-1),"")</f>
-        <v/>
-      </c>
-      <c r="R9" s="2" t="str">
+        <v>2.9513888888882747E-6</v>
+      </c>
+      <c r="R9" s="2">
         <f>IFERROR(HLOOKUP(lapchart!R9,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!Q9,totallaptimes!$1:$1048576,ROW()-1),"")</f>
-        <v/>
+        <v>5.1203703703704348E-5</v>
       </c>
       <c r="S9" s="2">
         <f>IFERROR(HLOOKUP(lapchart!S9,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!R9,totallaptimes!$1:$1048576,ROW()-1),"")</f>
@@ -14787,9 +22177,9 @@
         <f>IFERROR(HLOOKUP(lapchart!F10,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!E10,totallaptimes!$1:$1048576,ROW()-1),"")</f>
         <v>3.546296296296457E-5</v>
       </c>
-      <c r="G10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G10" s="2">
+        <f>IFERROR(HLOOKUP(lapchart!G10,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!F10,totallaptimes!$1:$1048576,ROW()-1),"")</f>
+        <v>5.9814814814814626E-5</v>
       </c>
       <c r="H10" s="2">
         <f>IFERROR(HLOOKUP(lapchart!H10,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!G10,totallaptimes!$1:$1048576,ROW()-1),"")</f>
@@ -14827,13 +22217,13 @@
         <f>IFERROR(HLOOKUP(lapchart!P10,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!O10,totallaptimes!$1:$1048576,ROW()-1),"")</f>
         <v>8.1481481481477519E-6</v>
       </c>
-      <c r="Q10" s="2" t="str">
+      <c r="Q10" s="2">
         <f>IFERROR(HLOOKUP(lapchart!Q10,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!P10,totallaptimes!$1:$1048576,ROW()-1),"")</f>
-        <v/>
-      </c>
-      <c r="R10" s="2" t="str">
+        <v>4.768518518518533E-6</v>
+      </c>
+      <c r="R10" s="2">
         <f>IFERROR(HLOOKUP(lapchart!R10,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!Q10,totallaptimes!$1:$1048576,ROW()-1),"")</f>
-        <v/>
+        <v>4.8020833333332208E-5</v>
       </c>
       <c r="S10" s="2">
         <f>IFERROR(HLOOKUP(lapchart!S10,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!R10,totallaptimes!$1:$1048576,ROW()-1),"")</f>
@@ -14871,9 +22261,9 @@
         <f>IFERROR(HLOOKUP(lapchart!F11,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!E11,totallaptimes!$1:$1048576,ROW()-1),"")</f>
         <v>7.3275462962964222E-5</v>
       </c>
-      <c r="G11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G11" s="2">
+        <f>IFERROR(HLOOKUP(lapchart!G11,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!F11,totallaptimes!$1:$1048576,ROW()-1),"")</f>
+        <v>4.1817129629629496E-5</v>
       </c>
       <c r="H11" s="2">
         <f>IFERROR(HLOOKUP(lapchart!H11,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!G11,totallaptimes!$1:$1048576,ROW()-1),"")</f>
@@ -14911,13 +22301,13 @@
         <f>IFERROR(HLOOKUP(lapchart!P11,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!O11,totallaptimes!$1:$1048576,ROW()-1),"")</f>
         <v>1.0694444444443382E-5</v>
       </c>
-      <c r="Q11" s="2" t="str">
+      <c r="Q11" s="2">
         <f>IFERROR(HLOOKUP(lapchart!Q11,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!P11,totallaptimes!$1:$1048576,ROW()-1),"")</f>
-        <v/>
-      </c>
-      <c r="R11" s="2" t="str">
+        <v>5.2546296296293593E-6</v>
+      </c>
+      <c r="R11" s="2">
         <f>IFERROR(HLOOKUP(lapchart!R11,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!Q11,totallaptimes!$1:$1048576,ROW()-1),"")</f>
-        <v/>
+        <v>4.6724537037036093E-5</v>
       </c>
       <c r="S11" s="2">
         <f>IFERROR(HLOOKUP(lapchart!S11,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!R11,totallaptimes!$1:$1048576,ROW()-1),"")</f>
@@ -14955,9 +22345,9 @@
         <f>IFERROR(HLOOKUP(lapchart!F12,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!E12,totallaptimes!$1:$1048576,ROW()-1),"")</f>
         <v>7.8518518518519431E-5</v>
       </c>
-      <c r="G12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G12" s="2">
+        <f>IFERROR(HLOOKUP(lapchart!G12,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!F12,totallaptimes!$1:$1048576,ROW()-1),"")</f>
+        <v>5.2708333333333426E-5</v>
       </c>
       <c r="H12" s="2">
         <f>IFERROR(HLOOKUP(lapchart!H12,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!G12,totallaptimes!$1:$1048576,ROW()-1),"")</f>
@@ -14991,13 +22381,13 @@
         <f>IFERROR(HLOOKUP(lapchart!O12,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!N12,totallaptimes!$1:$1048576,ROW()-1),"")</f>
         <v>2.0428240740742731E-5</v>
       </c>
-      <c r="P12" s="2" t="str">
+      <c r="P12" s="2">
         <f>IFERROR(HLOOKUP(lapchart!P12,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!O12,totallaptimes!$1:$1048576,ROW()-1),"")</f>
-        <v/>
-      </c>
-      <c r="Q12" s="2" t="str">
+        <v>7.8356481481474394E-6</v>
+      </c>
+      <c r="Q12" s="2">
         <f>IFERROR(HLOOKUP(lapchart!Q12,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!P12,totallaptimes!$1:$1048576,ROW()-1),"")</f>
-        <v/>
+        <v>4.381944444444355E-5</v>
       </c>
       <c r="R12" s="2">
         <f>IFERROR(HLOOKUP(lapchart!R12,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!Q12,totallaptimes!$1:$1048576,ROW()-1),"")</f>
@@ -15039,9 +22429,9 @@
         <f>IFERROR(HLOOKUP(lapchart!F13,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!E13,totallaptimes!$1:$1048576,ROW()-1),"")</f>
         <v>8.3981481481481754E-5</v>
       </c>
-      <c r="G13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G13" s="2">
+        <f>IFERROR(HLOOKUP(lapchart!G13,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!F13,totallaptimes!$1:$1048576,ROW()-1),"")</f>
+        <v>6.2384259259258557E-5</v>
       </c>
       <c r="H13" s="2">
         <f>IFERROR(HLOOKUP(lapchart!H13,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!G13,totallaptimes!$1:$1048576,ROW()-1),"")</f>
@@ -15075,13 +22465,13 @@
         <f>IFERROR(HLOOKUP(lapchart!O13,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!N13,totallaptimes!$1:$1048576,ROW()-1),"")</f>
         <v>1.3761574074075758E-5</v>
       </c>
-      <c r="P13" s="2" t="str">
+      <c r="P13" s="2">
         <f>IFERROR(HLOOKUP(lapchart!P13,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!O13,totallaptimes!$1:$1048576,ROW()-1),"")</f>
-        <v/>
-      </c>
-      <c r="Q13" s="2" t="str">
+        <v>7.1180555555536151E-6</v>
+      </c>
+      <c r="Q13" s="2">
         <f>IFERROR(HLOOKUP(lapchart!Q13,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!P13,totallaptimes!$1:$1048576,ROW()-1),"")</f>
-        <v/>
+        <v>5.6053240740740196E-5</v>
       </c>
       <c r="R13" s="2">
         <f>IFERROR(HLOOKUP(lapchart!R13,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!Q13,totallaptimes!$1:$1048576,ROW()-1),"")</f>
@@ -15123,9 +22513,9 @@
         <f>IFERROR(HLOOKUP(lapchart!F14,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!E14,totallaptimes!$1:$1048576,ROW()-1),"")</f>
         <v>9.2361111111112504E-5</v>
       </c>
-      <c r="G14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G14" s="2">
+        <f>IFERROR(HLOOKUP(lapchart!G14,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!F14,totallaptimes!$1:$1048576,ROW()-1),"")</f>
+        <v>7.1099537037036184E-5</v>
       </c>
       <c r="H14" s="2">
         <f>IFERROR(HLOOKUP(lapchart!H14,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!G14,totallaptimes!$1:$1048576,ROW()-1),"")</f>
@@ -15155,13 +22545,13 @@
         <f>IFERROR(HLOOKUP(lapchart!N14,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!M14,totallaptimes!$1:$1048576,ROW()-1),"")</f>
         <v>8.7962962962984115E-6</v>
       </c>
-      <c r="O14" s="2" t="str">
+      <c r="O14" s="2">
         <f>IFERROR(HLOOKUP(lapchart!O14,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!N14,totallaptimes!$1:$1048576,ROW()-1),"")</f>
-        <v/>
-      </c>
-      <c r="P14" s="2" t="str">
+        <v>5.3240740740707893E-6</v>
+      </c>
+      <c r="P14" s="2">
         <f>IFERROR(HLOOKUP(lapchart!P14,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!O14,totallaptimes!$1:$1048576,ROW()-1),"")</f>
-        <v/>
+        <v>6.1504629629630103E-5</v>
       </c>
       <c r="Q14" s="2">
         <f>IFERROR(HLOOKUP(lapchart!Q14,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!P14,totallaptimes!$1:$1048576,ROW()-1),"")</f>
@@ -15207,9 +22597,9 @@
         <f>IFERROR(HLOOKUP(lapchart!F15,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!E15,totallaptimes!$1:$1048576,ROW()-1),"")</f>
         <v>9.6319444444447483E-5</v>
       </c>
-      <c r="G15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G15" s="2">
+        <f>IFERROR(HLOOKUP(lapchart!G15,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!F15,totallaptimes!$1:$1048576,ROW()-1),"")</f>
+        <v>8.390046296296097E-5</v>
       </c>
       <c r="H15" s="2">
         <f>IFERROR(HLOOKUP(lapchart!H15,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!G15,totallaptimes!$1:$1048576,ROW()-1),"")</f>
@@ -15231,13 +22621,13 @@
         <f>IFERROR(HLOOKUP(lapchart!L15,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!K15,totallaptimes!$1:$1048576,ROW()-1),"")</f>
         <v>8.738425925927662E-6</v>
       </c>
-      <c r="M15" s="2" t="str">
+      <c r="M15" s="2">
         <f>IFERROR(HLOOKUP(lapchart!M15,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!L15,totallaptimes!$1:$1048576,ROW()-1),"")</f>
-        <v/>
-      </c>
-      <c r="N15" s="2" t="str">
+        <v>9.2592592592557338E-6</v>
+      </c>
+      <c r="N15" s="2">
         <f>IFERROR(HLOOKUP(lapchart!N15,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!M15,totallaptimes!$1:$1048576,ROW()-1),"")</f>
-        <v/>
+        <v>5.8449074074075347E-5</v>
       </c>
       <c r="O15" s="2">
         <f>IFERROR(HLOOKUP(lapchart!O15,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!N15,totallaptimes!$1:$1048576,ROW()-1),"")</f>
@@ -15291,9 +22681,9 @@
         <f>IFERROR(HLOOKUP(lapchart!F16,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!E16,totallaptimes!$1:$1048576,ROW()-1),"")</f>
         <v>8.2708333333330469E-5</v>
       </c>
-      <c r="G16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G16" s="2">
+        <f>IFERROR(HLOOKUP(lapchart!G16,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!F16,totallaptimes!$1:$1048576,ROW()-1),"")</f>
+        <v>3.031249999999909E-5</v>
       </c>
       <c r="H16" s="2">
         <f>IFERROR(HLOOKUP(lapchart!H16,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!G16,totallaptimes!$1:$1048576,ROW()-1),"")</f>
@@ -15307,13 +22697,13 @@
         <f>IFERROR(HLOOKUP(lapchart!J16,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!I16,totallaptimes!$1:$1048576,ROW()-1),"")</f>
         <v>1.3634259259261844E-5</v>
       </c>
-      <c r="K16" s="2" t="str">
+      <c r="K16" s="2">
         <f>IFERROR(HLOOKUP(lapchart!K16,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!J16,totallaptimes!$1:$1048576,ROW()-1),"")</f>
-        <v/>
-      </c>
-      <c r="L16" s="2" t="str">
+        <v>6.273148148144142E-6</v>
+      </c>
+      <c r="L16" s="2">
         <f>IFERROR(HLOOKUP(lapchart!L16,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!K16,totallaptimes!$1:$1048576,ROW()-1),"")</f>
-        <v/>
+        <v>4.8310185185185955E-5</v>
       </c>
       <c r="M16" s="2">
         <f>IFERROR(HLOOKUP(lapchart!M16,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!L16,totallaptimes!$1:$1048576,ROW()-1),"")</f>
@@ -15375,21 +22765,21 @@
         <f>IFERROR(HLOOKUP(lapchart!F17,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!E17,totallaptimes!$1:$1048576,ROW()-1),"")</f>
         <v>1.1056712962962886E-4</v>
       </c>
-      <c r="G17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G17" s="2">
+        <f>IFERROR(HLOOKUP(lapchart!G17,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!F17,totallaptimes!$1:$1048576,ROW()-1),"")</f>
+        <v>1.1446759259259309E-4</v>
       </c>
       <c r="H17" s="2">
         <f>IFERROR(HLOOKUP(lapchart!H17,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!G17,totallaptimes!$1:$1048576,ROW()-1),"")</f>
         <v>9.9652777777806123E-6</v>
       </c>
-      <c r="I17" s="2" t="str">
+      <c r="I17" s="2">
         <f>IFERROR(HLOOKUP(lapchart!I17,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!H17,totallaptimes!$1:$1048576,ROW()-1),"")</f>
-        <v/>
-      </c>
-      <c r="J17" s="2" t="str">
+        <v>7.9745370370337687E-6</v>
+      </c>
+      <c r="J17" s="2">
         <f>IFERROR(HLOOKUP(lapchart!J17,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!I17,totallaptimes!$1:$1048576,ROW()-1),"")</f>
-        <v/>
+        <v>7.1192129629627648E-5</v>
       </c>
       <c r="K17" s="2">
         <f>IFERROR(HLOOKUP(lapchart!K17,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!J17,totallaptimes!$1:$1048576,ROW()-1),"")</f>
@@ -15404,7 +22794,7 @@
         <v>2.6296296296295096E-5</v>
       </c>
       <c r="N17" s="2">
-        <f>HLOOKUP(lapchart!N17,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!M17,totallaptimes!$1:$1048576,ROW()-1)</f>
+        <f>IFERROR(HLOOKUP(lapchart!N17,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!M17,totallaptimes!$1:$1048576,ROW()-1),"")</f>
         <v>-1.6412037037037003E-5</v>
       </c>
       <c r="O17" s="2">
@@ -15459,21 +22849,21 @@
         <f>IFERROR(HLOOKUP(lapchart!F18,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!E18,totallaptimes!$1:$1048576,ROW()-1),"")</f>
         <v>2.1585648148147313E-5</v>
       </c>
-      <c r="G18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G18" s="2">
+        <f>IFERROR(HLOOKUP(lapchart!G18,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!F18,totallaptimes!$1:$1048576,ROW()-1),"")</f>
+        <v>1.3340277777777743E-4</v>
       </c>
       <c r="H18" s="2">
         <f>IFERROR(HLOOKUP(lapchart!H18,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!G18,totallaptimes!$1:$1048576,ROW()-1),"")</f>
         <v>1.1365740740742342E-5</v>
       </c>
-      <c r="I18" s="2" t="str">
+      <c r="I18" s="2">
         <f>IFERROR(HLOOKUP(lapchart!I18,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!H18,totallaptimes!$1:$1048576,ROW()-1),"")</f>
-        <v/>
-      </c>
-      <c r="J18" s="2" t="str">
+        <v>6.3310185185148915E-6</v>
+      </c>
+      <c r="J18" s="2">
         <f>IFERROR(HLOOKUP(lapchart!J18,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!I18,totallaptimes!$1:$1048576,ROW()-1),"")</f>
-        <v/>
+        <v>9.4467592592593908E-5</v>
       </c>
       <c r="K18" s="2">
         <f>IFERROR(HLOOKUP(lapchart!K18,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!J18,totallaptimes!$1:$1048576,ROW()-1),"")</f>
@@ -15543,21 +22933,21 @@
         <f>IFERROR(HLOOKUP(lapchart!F19,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!E19,totallaptimes!$1:$1048576,ROW()-1),"")</f>
         <v>1.8807870370372154E-5</v>
       </c>
-      <c r="G19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G19" s="2">
+        <f>IFERROR(HLOOKUP(lapchart!G19,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!F19,totallaptimes!$1:$1048576,ROW()-1),"")</f>
+        <v>1.4677083333333035E-4</v>
       </c>
       <c r="H19" s="2">
         <f>IFERROR(HLOOKUP(lapchart!H19,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!G19,totallaptimes!$1:$1048576,ROW()-1),"")</f>
         <v>1.1087962962966214E-5</v>
       </c>
-      <c r="I19" s="2" t="str">
+      <c r="I19" s="2">
         <f>IFERROR(HLOOKUP(lapchart!I19,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!H19,totallaptimes!$1:$1048576,ROW()-1),"")</f>
-        <v/>
-      </c>
-      <c r="J19" s="2" t="str">
+        <v>7.9282407407371691E-6</v>
+      </c>
+      <c r="J19" s="2">
         <f>IFERROR(HLOOKUP(lapchart!J19,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!I19,totallaptimes!$1:$1048576,ROW()-1),"")</f>
-        <v/>
+        <v>1.1086805555555676E-4</v>
       </c>
       <c r="K19" s="2">
         <f>IFERROR(HLOOKUP(lapchart!K19,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!J19,totallaptimes!$1:$1048576,ROW()-1),"")</f>
@@ -15627,21 +23017,21 @@
         <f>IFERROR(HLOOKUP(lapchart!F20,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!E20,totallaptimes!$1:$1048576,ROW()-1),"")</f>
         <v>1.8692129629630655E-5</v>
       </c>
-      <c r="G20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G20" s="2">
+        <f>IFERROR(HLOOKUP(lapchart!G20,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!F20,totallaptimes!$1:$1048576,ROW()-1),"")</f>
+        <v>1.5728009259259254E-4</v>
       </c>
       <c r="H20" s="2">
         <f>IFERROR(HLOOKUP(lapchart!H20,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!G20,totallaptimes!$1:$1048576,ROW()-1),"")</f>
         <v>1.6168981481483324E-5</v>
       </c>
-      <c r="I20" s="2" t="str">
+      <c r="I20" s="2">
         <f>IFERROR(HLOOKUP(lapchart!I20,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!H20,totallaptimes!$1:$1048576,ROW()-1),"")</f>
-        <v/>
-      </c>
-      <c r="J20" s="2" t="str">
+        <v>8.2986111111064964E-6</v>
+      </c>
+      <c r="J20" s="2">
         <f>IFERROR(HLOOKUP(lapchart!J20,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!I20,totallaptimes!$1:$1048576,ROW()-1),"")</f>
-        <v/>
+        <v>1.2467592592593085E-4</v>
       </c>
       <c r="K20" s="2">
         <f>IFERROR(HLOOKUP(lapchart!K20,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!J20,totallaptimes!$1:$1048576,ROW()-1),"")</f>
@@ -15711,21 +23101,21 @@
         <f>IFERROR(HLOOKUP(lapchart!F21,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!E21,totallaptimes!$1:$1048576,ROW()-1),"")</f>
         <v>1.7314814814813756E-5</v>
       </c>
-      <c r="G21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G21" s="2">
+        <f>IFERROR(HLOOKUP(lapchart!G21,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!F21,totallaptimes!$1:$1048576,ROW()-1),"")</f>
+        <v>1.5806712962963126E-4</v>
       </c>
       <c r="H21" s="2">
         <f>IFERROR(HLOOKUP(lapchart!H21,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!G21,totallaptimes!$1:$1048576,ROW()-1),"")</f>
         <v>1.7187500000001577E-5</v>
       </c>
-      <c r="I21" s="2" t="str">
+      <c r="I21" s="2">
         <f>IFERROR(HLOOKUP(lapchart!I21,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!H21,totallaptimes!$1:$1048576,ROW()-1),"")</f>
-        <v/>
-      </c>
-      <c r="J21" s="2" t="str">
+        <v>6.5162037036978204E-6</v>
+      </c>
+      <c r="J21" s="2">
         <f>IFERROR(HLOOKUP(lapchart!J21,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!I21,totallaptimes!$1:$1048576,ROW()-1),"")</f>
-        <v/>
+        <v>1.3010416666667246E-4</v>
       </c>
       <c r="K21" s="2">
         <f>IFERROR(HLOOKUP(lapchart!K21,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!J21,totallaptimes!$1:$1048576,ROW()-1),"")</f>
@@ -15803,13 +23193,13 @@
         <f>IFERROR(HLOOKUP(lapchart!H22,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!G22,totallaptimes!$1:$1048576,ROW()-1),"")</f>
         <v>1.9710648148148907E-5</v>
       </c>
-      <c r="I22" s="2" t="str">
+      <c r="I22" s="2">
         <f>IFERROR(HLOOKUP(lapchart!I22,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!H22,totallaptimes!$1:$1048576,ROW()-1),"")</f>
-        <v/>
-      </c>
-      <c r="J22" s="2" t="str">
+        <v>6.7708333333291182E-6</v>
+      </c>
+      <c r="J22" s="2">
         <f>IFERROR(HLOOKUP(lapchart!J22,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!I22,totallaptimes!$1:$1048576,ROW()-1),"")</f>
-        <v/>
+        <v>1.2752314814815091E-4</v>
       </c>
       <c r="K22" s="2">
         <f>IFERROR(HLOOKUP(lapchart!K22,totallaptimes!$1:$1048576,ROW()-1)-HLOOKUP(lapchart!J22,totallaptimes!$1:$1048576,ROW()-1),"")</f>
@@ -19054,25 +26444,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C481190-5A0D-4BF6-81A6-3D1CD91FFE14}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -19086,19 +26476,22 @@
         <v>100</v>
       </c>
       <c r="E1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" t="s">
         <v>101</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>102</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>103</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -19114,24 +26507,28 @@
         <f ca="1">IFERROR(MATCH(A2,INDIRECT("lapchart!"&amp;B2+1&amp;":"&amp;B2+1),0)-1,"")</f>
         <v>12</v>
       </c>
-      <c r="E2" cm="1">
-        <f t="array" aca="1" ref="E2" ca="1">IFERROR(IF(D2=1,"",INDEX(lapchart!$B:$U,B2+1,D2-1)),"")</f>
+      <c r="E2">
+        <f ca="1">IFERROR(MATCH(A2,INDIRECT("lapchart!"&amp;B2+2&amp;":"&amp;B2+2),0)-1,"")</f>
+        <v>20</v>
+      </c>
+      <c r="F2" cm="1">
+        <f t="array" aca="1" ref="F2" ca="1">IFERROR(IF(D2=1,"",INDEX(lapchart!$B:$U,B2+1,D2-1)),"")</f>
         <v>27</v>
       </c>
-      <c r="F2">
-        <f ca="1">IFERROR(IF(B2&lt;VLOOKUP(E2,A:B,2),MATCH(E2,INDIRECT("lapchart!"&amp;VLOOKUP(E2,A:B,2)+2&amp;":"&amp;VLOOKUP(E2,A:B,2)+2),0)-1,""),"")</f>
+      <c r="G2">
+        <f t="shared" ref="G2:G21" ca="1" si="0">IFERROR(VLOOKUP(F2,A:E,5),"")</f>
         <v>14</v>
       </c>
-      <c r="G2">
-        <f ca="1">IFERROR(IF(F2&lt;&gt;"",ABS(B2-VLOOKUP(E2,A:B,2)),""),"")</f>
+      <c r="H2">
+        <f t="shared" ref="H2:H21" ca="1" si="1">IFERROR(IF(G2&lt;&gt;"",ABS(B2-VLOOKUP(F2,A:B,2)),""),"")</f>
         <v>12</v>
       </c>
-      <c r="H2">
-        <f ca="1">IFERROR(F2-D2,"")</f>
+      <c r="I2">
+        <f t="shared" ref="I2:I21" ca="1" si="2">IFERROR(G2-D2,"")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
@@ -19144,27 +26541,31 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D21" ca="1" si="0">IFERROR(MATCH(A3,INDIRECT("lapchart!"&amp;B3+1&amp;":"&amp;B3+1),0)-1,"")</f>
+        <f t="shared" ref="D3:D21" ca="1" si="3">IFERROR(MATCH(A3,INDIRECT("lapchart!"&amp;B3+1&amp;":"&amp;B3+1),0)-1,"")</f>
         <v>7</v>
       </c>
-      <c r="E3" cm="1">
-        <f t="array" aca="1" ref="E3" ca="1">IFERROR(IF(D3=1,"",INDEX(lapchart!$B:$U,B3+1,D3-1)),"")</f>
+      <c r="E3">
+        <f t="shared" ref="E3:E21" ca="1" si="4">IFERROR(MATCH(A3,INDIRECT("lapchart!"&amp;B3+2&amp;":"&amp;B3+2),0)-1,"")</f>
+        <v>13</v>
+      </c>
+      <c r="F3" cm="1">
+        <f t="array" aca="1" ref="F3" ca="1">IFERROR(IF(D3=1,"",INDEX(lapchart!$B:$U,B3+1,D3-1)),"")</f>
         <v>8</v>
       </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F21" ca="1" si="1">IFERROR(IF(B3&lt;VLOOKUP(E3,A:B,2),MATCH(E3,INDIRECT("lapchart!"&amp;VLOOKUP(E3,A:B,2)+2&amp;":"&amp;VLOOKUP(E3,A:B,2)+2),0)-1,""),"")</f>
-        <v/>
-      </c>
-      <c r="G3" t="str">
-        <f t="shared" ref="G3:G21" ca="1" si="2">IFERROR(IF(F3&lt;&gt;"",ABS(B3-VLOOKUP(E3,A:B,2)),""),"")</f>
-        <v/>
-      </c>
-      <c r="H3" t="str">
-        <f t="shared" ref="H3:H21" ca="1" si="3">IFERROR(F3-D3,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -19177,27 +26578,31 @@
         <v>1</v>
       </c>
       <c r="D4">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="F4" cm="1">
+        <f t="array" aca="1" ref="F4" ca="1">IFERROR(IF(D4=1,"",INDEX(lapchart!$B:$U,B4+1,D4-1)),"")</f>
+        <v>44</v>
+      </c>
+      <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E4" cm="1">
-        <f t="array" aca="1" ref="E4" ca="1">IFERROR(IF(D4=1,"",INDEX(lapchart!$B:$U,B4+1,D4-1)),"")</f>
-        <v>44</v>
-      </c>
-      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="H4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-      <c r="H4">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7</v>
       </c>
@@ -19210,27 +26615,31 @@
         <v>1</v>
       </c>
       <c r="D5">
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="F5" cm="1">
+        <f t="array" aca="1" ref="F5" ca="1">IFERROR(IF(D5=1,"",INDEX(lapchart!$B:$U,B5+1,D5-1)),"")</f>
+        <v>27</v>
+      </c>
+      <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="E5" cm="1">
-        <f t="array" aca="1" ref="E5" ca="1">IFERROR(IF(D5=1,"",INDEX(lapchart!$B:$U,B5+1,D5-1)),"")</f>
-        <v>27</v>
-      </c>
-      <c r="F5">
+        <v>14</v>
+      </c>
+      <c r="H5">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <f t="shared" ca="1" si="3"/>
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8</v>
       </c>
@@ -19243,27 +26652,31 @@
         <v>1</v>
       </c>
       <c r="D6">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="F6" cm="1">
+        <f t="array" aca="1" ref="F6" ca="1">IFERROR(IF(D6=1,"",INDEX(lapchart!$B:$U,B6+1,D6-1)),"")</f>
+        <v>5</v>
+      </c>
+      <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E6" cm="1">
-        <f t="array" aca="1" ref="E6" ca="1">IFERROR(IF(D6=1,"",INDEX(lapchart!$B:$U,B6+1,D6-1)),"")</f>
         <v>5</v>
       </c>
-      <c r="F6" t="str">
+      <c r="H6">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G6" t="str">
+        <v>1</v>
+      </c>
+      <c r="I6">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
@@ -19276,27 +26689,31 @@
         <v>1</v>
       </c>
       <c r="D7">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="F7" cm="1">
+        <f t="array" aca="1" ref="F7" ca="1">IFERROR(IF(D7=1,"",INDEX(lapchart!$B:$U,B7+1,D7-1)),"")</f>
+        <v>16</v>
+      </c>
+      <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E7" cm="1">
-        <f t="array" aca="1" ref="E7" ca="1">IFERROR(IF(D7=1,"",INDEX(lapchart!$B:$U,B7+1,D7-1)),"")</f>
-        <v>16</v>
-      </c>
-      <c r="F7" t="str">
+        <v>5</v>
+      </c>
+      <c r="H7">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G7" t="str">
+        <v>9</v>
+      </c>
+      <c r="I7">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>11</v>
       </c>
@@ -19309,27 +26726,31 @@
         <v>1</v>
       </c>
       <c r="D8">
+        <f t="shared" ca="1" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="F8" cm="1">
+        <f t="array" aca="1" ref="F8" ca="1">IFERROR(IF(D8=1,"",INDEX(lapchart!$B:$U,B8+1,D8-1)),"")</f>
+        <v>23</v>
+      </c>
+      <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="E8" cm="1">
-        <f t="array" aca="1" ref="E8" ca="1">IFERROR(IF(D8=1,"",INDEX(lapchart!$B:$U,B8+1,D8-1)),"")</f>
-        <v>23</v>
-      </c>
-      <c r="F8">
+        <v>15</v>
+      </c>
+      <c r="H8">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <f t="shared" ca="1" si="3"/>
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>16</v>
       </c>
@@ -19342,27 +26763,31 @@
         <v>1</v>
       </c>
       <c r="D9">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="F9" cm="1">
+        <f t="array" aca="1" ref="F9" ca="1">IFERROR(IF(D9=1,"",INDEX(lapchart!$B:$U,B9+1,D9-1)),"")</f>
+        <v>77</v>
+      </c>
+      <c r="G9">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="E9" cm="1">
-        <f t="array" aca="1" ref="E9" ca="1">IFERROR(IF(D9=1,"",INDEX(lapchart!$B:$U,B9+1,D9-1)),"")</f>
-        <v>77</v>
-      </c>
-      <c r="F9" t="str">
+      <c r="H9">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G9" t="str">
+        <v>5</v>
+      </c>
+      <c r="I9">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="H9" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>18</v>
       </c>
@@ -19375,27 +26800,31 @@
         <v>1</v>
       </c>
       <c r="D10">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="F10" cm="1">
+        <f t="array" aca="1" ref="F10" ca="1">IFERROR(IF(D10=1,"",INDEX(lapchart!$B:$U,B10+1,D10-1)),"")</f>
+        <v>33</v>
+      </c>
+      <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E10" cm="1">
-        <f t="array" aca="1" ref="E10" ca="1">IFERROR(IF(D10=1,"",INDEX(lapchart!$B:$U,B10+1,D10-1)),"")</f>
-        <v>33</v>
-      </c>
-      <c r="F10" t="str">
+        <v>4</v>
+      </c>
+      <c r="H10">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G10" t="str">
+        <v>2</v>
+      </c>
+      <c r="I10">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="H10" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>20</v>
       </c>
@@ -19408,27 +26837,31 @@
         <v>1</v>
       </c>
       <c r="D11">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="F11" cm="1">
+        <f t="array" aca="1" ref="F11" ca="1">IFERROR(IF(D11=1,"",INDEX(lapchart!$B:$U,B11+1,D11-1)),"")</f>
+        <v>16</v>
+      </c>
+      <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E11" cm="1">
-        <f t="array" aca="1" ref="E11" ca="1">IFERROR(IF(D11=1,"",INDEX(lapchart!$B:$U,B11+1,D11-1)),"")</f>
-        <v>16</v>
-      </c>
-      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="H11">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="G11">
+        <v>14</v>
+      </c>
+      <c r="I11">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="H11">
-        <f t="shared" ca="1" si="3"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>23</v>
       </c>
@@ -19441,27 +26874,31 @@
         <v>1</v>
       </c>
       <c r="D12">
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="F12" cm="1">
+        <f t="array" aca="1" ref="F12" ca="1">IFERROR(IF(D12=1,"",INDEX(lapchart!$B:$U,B12+1,D12-1)),"")</f>
+        <v>4</v>
+      </c>
+      <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="E12" cm="1">
-        <f t="array" aca="1" ref="E12" ca="1">IFERROR(IF(D12=1,"",INDEX(lapchart!$B:$U,B12+1,D12-1)),"")</f>
+        <v>13</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
-      <c r="F12">
-        <f t="shared" ca="1" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="G12">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>26</v>
       </c>
@@ -19474,27 +26911,31 @@
         <v>1</v>
       </c>
       <c r="D13">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="F13" cm="1">
+        <f t="array" aca="1" ref="F13" ca="1">IFERROR(IF(D13=1,"",INDEX(lapchart!$B:$U,B13+1,D13-1)),"")</f>
+        <v>18</v>
+      </c>
+      <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E13" cm="1">
-        <f t="array" aca="1" ref="E13" ca="1">IFERROR(IF(D13=1,"",INDEX(lapchart!$B:$U,B13+1,D13-1)),"")</f>
-        <v>18</v>
-      </c>
-      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="H13">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>27</v>
       </c>
@@ -19507,27 +26948,31 @@
         <v>1</v>
       </c>
       <c r="D14">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="F14" cm="1">
+        <f t="array" aca="1" ref="F14" ca="1">IFERROR(IF(D14=1,"",INDEX(lapchart!$B:$U,B14+1,D14-1)),"")</f>
+        <v>8</v>
+      </c>
+      <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="E14" cm="1">
-        <f t="array" aca="1" ref="E14" ca="1">IFERROR(IF(D14=1,"",INDEX(lapchart!$B:$U,B14+1,D14-1)),"")</f>
-        <v>8</v>
-      </c>
-      <c r="F14">
+        <v>14</v>
+      </c>
+      <c r="H14">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="I14">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="H14">
-        <f t="shared" ca="1" si="3"/>
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>33</v>
       </c>
@@ -19540,27 +26985,31 @@
         <v>1</v>
       </c>
       <c r="D15">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="F15" t="str" cm="1">
+        <f t="array" aca="1" ref="F15" ca="1">IFERROR(IF(D15=1,"",INDEX(lapchart!$B:$U,B15+1,D15-1)),"")</f>
+        <v/>
+      </c>
+      <c r="G15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E15" t="str" cm="1">
-        <f t="array" aca="1" ref="E15" ca="1">IFERROR(IF(D15=1,"",INDEX(lapchart!$B:$U,B15+1,D15-1)),"")</f>
         <v/>
       </c>
-      <c r="F15" t="str">
+      <c r="H15" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="G15" t="str">
+      <c r="I15" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="H15" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>44</v>
       </c>
@@ -19573,27 +27022,31 @@
         <v>1</v>
       </c>
       <c r="D16">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="F16" cm="1">
+        <f t="array" aca="1" ref="F16" ca="1">IFERROR(IF(D16=1,"",INDEX(lapchart!$B:$U,B16+1,D16-1)),"")</f>
+        <v>77</v>
+      </c>
+      <c r="G16">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="E16" cm="1">
-        <f t="array" aca="1" ref="E16" ca="1">IFERROR(IF(D16=1,"",INDEX(lapchart!$B:$U,B16+1,D16-1)),"")</f>
-        <v>77</v>
-      </c>
-      <c r="F16">
+      <c r="H16">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G16">
+        <v>8</v>
+      </c>
+      <c r="I16">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="H16">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>55</v>
       </c>
@@ -19606,27 +27059,31 @@
         <v>0</v>
       </c>
       <c r="D17" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="F17" t="str" cm="1">
+        <f t="array" aca="1" ref="F17" ca="1">IFERROR(IF(D17=1,"",INDEX(lapchart!$B:$U,B17+1,D17-1)),"")</f>
+        <v/>
+      </c>
+      <c r="G17" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="E17" t="str" cm="1">
-        <f t="array" aca="1" ref="E17" ca="1">IFERROR(IF(D17=1,"",INDEX(lapchart!$B:$U,B17+1,D17-1)),"")</f>
-        <v/>
-      </c>
-      <c r="F17" t="str">
+      <c r="H17" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="G17" t="str">
+      <c r="I17" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="H17" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>63</v>
       </c>
@@ -19639,27 +27096,31 @@
         <v>2</v>
       </c>
       <c r="D18">
+        <f t="shared" ca="1" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="F18" cm="1">
+        <f t="array" aca="1" ref="F18" ca="1">IFERROR(IF(D18=1,"",INDEX(lapchart!$B:$U,B18+1,D18-1)),"")</f>
+        <v>99</v>
+      </c>
+      <c r="G18">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="E18" cm="1">
-        <f t="array" aca="1" ref="E18" ca="1">IFERROR(IF(D18=1,"",INDEX(lapchart!$B:$U,B18+1,D18-1)),"")</f>
-        <v>99</v>
-      </c>
-      <c r="F18" t="str">
+        <v>17</v>
+      </c>
+      <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G18" t="str">
+        <v>15</v>
+      </c>
+      <c r="I18">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="H18" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>77</v>
       </c>
@@ -19672,27 +27133,31 @@
         <v>1</v>
       </c>
       <c r="D19">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F19" t="str" cm="1">
+        <f t="array" aca="1" ref="F19" ca="1">IFERROR(IF(D19=1,"",INDEX(lapchart!$B:$U,B19+1,D19-1)),"")</f>
+        <v/>
+      </c>
+      <c r="G19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E19" t="str" cm="1">
-        <f t="array" aca="1" ref="E19" ca="1">IFERROR(IF(D19=1,"",INDEX(lapchart!$B:$U,B19+1,D19-1)),"")</f>
         <v/>
       </c>
-      <c r="F19" t="str">
+      <c r="H19" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="G19" t="str">
+      <c r="I19" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="H19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>88</v>
       </c>
@@ -19705,27 +27170,31 @@
         <v>3</v>
       </c>
       <c r="D20">
+        <f t="shared" ca="1" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="F20" cm="1">
+        <f t="array" aca="1" ref="F20" ca="1">IFERROR(IF(D20=1,"",INDEX(lapchart!$B:$U,B20+1,D20-1)),"")</f>
+        <v>63</v>
+      </c>
+      <c r="G20">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="E20" cm="1">
-        <f t="array" aca="1" ref="E20" ca="1">IFERROR(IF(D20=1,"",INDEX(lapchart!$B:$U,B20+1,D20-1)),"")</f>
-        <v>63</v>
-      </c>
-      <c r="F20" t="str">
+        <v>16</v>
+      </c>
+      <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G20" t="str">
+        <v>2</v>
+      </c>
+      <c r="I20">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="H20" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>99</v>
       </c>
@@ -19738,24 +27207,28 @@
         <v>1</v>
       </c>
       <c r="D21">
+        <f t="shared" ca="1" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="F21" cm="1">
+        <f t="array" aca="1" ref="F21" ca="1">IFERROR(IF(D21=1,"",INDEX(lapchart!$B:$U,B21+1,D21-1)),"")</f>
+        <v>8</v>
+      </c>
+      <c r="G21">
         <f t="shared" ca="1" si="0"/>
         <v>14</v>
       </c>
-      <c r="E21" cm="1">
-        <f t="array" aca="1" ref="E21" ca="1">IFERROR(IF(D21=1,"",INDEX(lapchart!$B:$U,B21+1,D21-1)),"")</f>
-        <v>8</v>
-      </c>
-      <c r="F21" t="str">
+      <c r="H21">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G21" t="str">
+        <v>12</v>
+      </c>
+      <c r="I21">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="H21" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -19763,7 +27236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5848EC9-0E93-4D87-86BD-24E15CE667FD}">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -19825,27 +27298,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37782F63-6576-468A-B725-F9AB214A766B}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1">
-        <v>2.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>